--- a/financial_models/opportunities/1398.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1398.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{552B7606-9E1B-4F62-9CDC-A9BB3832AD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B55DEBE2-9591-471C-BCE6-64F3916BA076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -831,15 +831,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Consumer Monopoly</t>
-  </si>
-  <si>
-    <t>Strongly agree</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
     <t>6. No big MCX-D&amp;A required?</t>
   </si>
   <si>
@@ -956,6 +947,15 @@
   </si>
   <si>
     <t>CN</t>
+  </si>
+  <si>
+    <t>Strongly agree</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>Consumer Monopoly</t>
   </si>
   <si>
     <t>Dividend</t>
@@ -1517,7 +1517,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="284">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2152,6 +2152,7 @@
     <xf numFmtId="9" fontId="10" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3566,7 +3567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3577,29 +3578,29 @@
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
         <v>196</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
         <v>197</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
         <v>164</v>
       </c>
@@ -3607,7 +3608,7 @@
         <v>45605</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
         <v>4</v>
       </c>
@@ -3615,23 +3616,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
         <v>217</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="E8" s="268"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>218</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
         <v>219</v>
       </c>
@@ -3639,15 +3641,15 @@
         <v>356406257089</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
         <v>220</v>
       </c>
       <c r="C11" s="193" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
         <v>10</v>
       </c>
@@ -3655,7 +3657,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
         <v>11</v>
       </c>
@@ -3663,7 +3665,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
         <v>221</v>
       </c>
@@ -3671,15 +3673,15 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
         <v>97</v>
       </c>
@@ -3693,25 +3695,25 @@
         <v>226</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3720,16 +3722,16 @@
         <v>230</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3738,7 +3740,7 @@
         <v>232</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3869,7 +3871,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C29" s="151">
         <v>750026</v>
@@ -4136,11 +4138,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10588624202542835</v>
+        <v>3.0433018141169998E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4185,7 +4187,7 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
@@ -4577,7 +4579,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4585,7 +4587,7 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C87" s="237" t="s">
         <v>267</v>
@@ -4595,11 +4597,11 @@
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="268">
+      <c r="C89" s="269">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="268"/>
+      <c r="D89" s="269"/>
       <c r="E89" s="89" t="s">
         <v>208</v>
       </c>
@@ -4613,10 +4615,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C90" s="269" t="s">
+      <c r="C90" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="269"/>
+      <c r="D90" s="270"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4665,7 +4667,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4686,7 +4688,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4704,7 +4706,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4811,7 +4813,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Y, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -4847,8 +4849,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4891,17 +4893,17 @@
       <c r="B3" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="274" t="str">
+      <c r="C3" s="275" t="str">
         <f>Inputs!C4</f>
         <v>1398.HK</v>
       </c>
-      <c r="D3" s="275"/>
+      <c r="D3" s="276"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.5599999999999996</v>
+        <v>14.779999732971191</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4911,40 +4913,40 @@
       <c r="B4" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="276" t="str">
+      <c r="C4" s="277" t="str">
         <f>Inputs!C5</f>
         <v>工商银行</v>
       </c>
-      <c r="D4" s="277"/>
+      <c r="D4" s="278"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="280">
+      <c r="G4" s="281">
         <f>Inputs!C10</f>
         <v>356406257089</v>
       </c>
-      <c r="H4" s="280"/>
+      <c r="H4" s="281"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="278">
+      <c r="C5" s="279">
         <f>Inputs!C6</f>
         <v>45605</v>
       </c>
-      <c r="D5" s="279"/>
+      <c r="D5" s="280"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="272">
+      <c r="G5" s="273">
         <f>G3*G4/1000000</f>
-        <v>1625212.5323258399</v>
-      </c>
-      <c r="H5" s="272"/>
+        <v>5267684.3846046813</v>
+      </c>
+      <c r="H5" s="273"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4967,11 +4969,11 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="273" t="str">
+      <c r="G6" s="274" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="273"/>
+      <c r="H6" s="274"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4991,7 +4993,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0734576781590779</v>
+        <v>1</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5034,7 +5036,7 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5084,7 +5086,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5124,7 +5126,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5158,7 +5160,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.39177057304618818</v>
+        <v>1.3630956194874013</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5174,12 +5176,12 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>0.26461795888510076</v>
+        <v>7.6054480631163671E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
@@ -5206,7 +5208,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.2128822935952089E-2</v>
+        <v>2.0730717559925494E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5223,12 +5225,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>242</v>
-      </c>
-      <c r="G28" s="270" t="s">
-        <v>261</v>
-      </c>
-      <c r="H28" s="270"/>
+        <v>239</v>
+      </c>
+      <c r="G28" s="271" t="s">
+        <v>258</v>
+      </c>
+      <c r="H28" s="271"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5236,22 +5238,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.7346753348054369</v>
+        <v>1.9926999547680553</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.2565398745567649</v>
+        <v>3.8303291937252899</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.2172650997711023</v>
-      </c>
-      <c r="G29" s="271">
+        <v>2.344352887962418</v>
+      </c>
+      <c r="G29" s="272">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.5709042387450136</v>
-      </c>
-      <c r="H29" s="271"/>
+        <v>3.3307210380219914</v>
+      </c>
+      <c r="H29" s="272"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5299,7 +5301,7 @@
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5309,7 +5311,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5336,7 +5338,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -6282,12 +6284,9 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{3894A86A-E1B4-A843-BE8E-14D1CE0AE26E}">
-      <formula1>"Y, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C33:C34 C36:C37 C39:C40" xr:uid="{AFC23D6B-591E-BA4C-B3BE-727ADB8DA907}">
       <formula1>"Strongly agree,agree,unclear,disagree,Strongly disagree"</formula1>
@@ -6773,7 +6772,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6824,7 +6823,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6875,7 +6874,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6926,7 +6925,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7028,7 +7027,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7181,7 +7180,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8252,7 +8251,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8321,7 +8320,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8525,7 +8524,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -10348,11 +10347,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-16711422.21091157</v>
+        <v>-15796536.644977946</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>5.3243415413559401</v>
+        <v>5.0876006100083675</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11419,7 +11418,7 @@
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>BV of the MI</v>
+        <v>P/B Approach</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87"/>
@@ -11439,11 +11438,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1</v>
+        <v>1.3630956194874013</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>629840</v>
+        <v>858532.1449779449</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11475,11 +11474,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="281">
+      <c r="D56" s="282">
         <f>I15+I34</f>
         <v>42280604</v>
       </c>
-      <c r="E56" s="279"/>
+      <c r="E56" s="280"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11490,11 +11489,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="280">
+      <c r="D57" s="281">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="279"/>
+      <c r="E57" s="280"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11506,11 +11505,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="280">
+      <c r="D58" s="281">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="279"/>
+      <c r="E58" s="280"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11724,19 +11723,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="268">
+      <c r="C72" s="269">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="268"/>
-      <c r="E72" s="282" t="s">
+      <c r="D72" s="269"/>
+      <c r="E72" s="283" t="s">
         <v>208</v>
       </c>
-      <c r="F72" s="282"/>
-      <c r="H72" s="282" t="s">
+      <c r="F72" s="283"/>
+      <c r="H72" s="283" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="282"/>
+      <c r="I72" s="283"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11746,18 +11745,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="269" t="s">
+      <c r="C73" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="269"/>
-      <c r="E73" s="283" t="s">
+      <c r="D73" s="270"/>
+      <c r="E73" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="269"/>
-      <c r="H73" s="283" t="s">
+      <c r="F73" s="270"/>
+      <c r="H73" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="269"/>
+      <c r="I73" s="270"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11834,7 +11833,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11894,7 +11893,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11957,7 +11956,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11987,7 +11986,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12124,17 +12123,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.26461795888510076</v>
+        <v>7.6054480631163671E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.26461795888510076</v>
+        <v>7.6054480631163671E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.26461795888510076</v>
+        <v>7.6054480631163671E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12175,17 +12174,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10588624202542835</v>
+        <v>3.0433018141169998E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2128822935952089E-2</v>
+        <v>2.0730717559925494E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2128822935952089E-2</v>
+        <v>2.0730717559925494E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12216,15 +12215,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="282" t="s">
+      <c r="E92" s="283" t="s">
         <v>208</v>
       </c>
-      <c r="F92" s="282"/>
+      <c r="F92" s="283"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="282" t="s">
+      <c r="H92" s="283" t="s">
         <v>207</v>
       </c>
-      <c r="I92" s="282"/>
+      <c r="I92" s="283"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12245,14 +12244,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>54.206127990480695</v>
+        <v>22.523611914819593</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>54.206127990480695</v>
+        <v>22.523611914819593</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12270,14 +12269,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>6.4710692825175089</v>
+        <v>4.7153310312395904</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>212</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>6.4710692825175089</v>
+        <v>4.7153310312395904</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12303,7 +12302,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12320,21 +12319,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9605157.8051074054</v>
+        <v>3991114.1932298178</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>26.950025747468441</v>
+        <v>11.198215838935669</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>26.950025747468441</v>
+        <v>11.198215838935669</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>38.289038392314964</v>
+        <v>15.90977760838369</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12344,14 +12343,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>676106.58401171362</v>
+        <v>858532.1449779449</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.8970109827305295</v>
+        <v>2.408858228220041</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12362,17 +12361,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>-34520776.613006942</v>
+        <v>-32158488.699999999</v>
       </c>
       <c r="D99" s="215"/>
       <c r="E99" s="146">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>-111.38663341436391</v>
+        <v>-103.76434551698954</v>
       </c>
       <c r="F99" s="215"/>
       <c r="H99" s="146">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-96.857942099446888</v>
+        <v>-90.229865666947433</v>
       </c>
       <c r="I99" s="217"/>
       <c r="K99" s="24"/>
@@ -12383,7 +12382,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-25591725.39191125</v>
+        <v>-29025906.651748128</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12427,7 +12426,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12444,27 +12443,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1146653.4122724868</v>
+        <v>835542.03809447319</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.7346753348054369</v>
+        <v>1.9926999547680553</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.2172650997711023</v>
+        <v>2.344352887962418</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>3.2172650997711023</v>
+        <v>2.344352887962418</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.2172650997711023</v>
+        <v>2.344352887962418</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>4.5709042387450136</v>
+        <v>3.3307210380219914</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12488,7 +12487,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12505,27 +12504,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>573326.70613624342</v>
+        <v>417771.01904723659</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.3673376674027184</v>
+        <v>0.99634997738402764</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.6086325498855512</v>
+        <v>1.172176443981209</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.6086325498855512</v>
+        <v>1.172176443981209</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.6086325498855512</v>
+        <v>1.172176443981209</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>2.2854521193725068</v>
+        <v>1.6653605190109957</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1398.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1398.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B55DEBE2-9591-471C-BCE6-64F3916BA076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EA544DB-18BB-4AB3-9C7F-5817FCCA3DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,9 +625,6 @@
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
-    <t>Normalized E/P</t>
-  </si>
-  <si>
     <t>US Riskfree</t>
   </si>
   <si>
@@ -931,6 +928,10 @@
   </si>
   <si>
     <t>Base Case Valuation</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized PE Ratio</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1517,7 +1518,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2153,6 +2154,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3567,7 +3571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3581,12 +3585,12 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="189" t="s">
         <v>259</v>
@@ -3594,7 +3598,7 @@
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="192" t="s">
         <v>260</v>
@@ -3618,7 +3622,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>46</v>
@@ -3627,7 +3631,7 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="193" t="s">
         <v>261</v>
@@ -3635,7 +3639,7 @@
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="194">
         <v>356406257089</v>
@@ -3643,7 +3647,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C11" s="193" t="s">
         <v>262</v>
@@ -3667,7 +3671,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
@@ -3675,7 +3679,7 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C15" s="177" t="s">
         <v>263</v>
@@ -3692,7 +3696,7 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C17" s="243" t="s">
         <v>264</v>
@@ -3701,7 +3705,7 @@
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C18" s="243" t="s">
         <v>265</v>
@@ -3710,7 +3714,7 @@
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C19" s="243" t="s">
         <v>265</v>
@@ -3719,7 +3723,7 @@
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C20" s="243" t="s">
         <v>265</v>
@@ -3728,7 +3732,7 @@
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C21" s="243" t="s">
         <v>264</v>
@@ -3737,7 +3741,7 @@
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C22" s="244" t="s">
         <v>266</v>
@@ -3871,7 +3875,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C29" s="151">
         <v>750026</v>
@@ -4119,7 +4123,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C44" s="251">
         <f>0.3064+0.1434</f>
@@ -4138,11 +4142,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.0433018141169998E-2</v>
+        <v>0.10590590281618965</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4187,13 +4191,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>36</v>
@@ -4559,7 +4563,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C83" s="59">
         <v>3234661</v>
@@ -4579,7 +4583,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4587,7 +4591,7 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C87" s="237" t="s">
         <v>267</v>
@@ -4597,16 +4601,16 @@
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="269">
+      <c r="C89" s="270">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="269"/>
+      <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4615,10 +4619,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C90" s="270" t="s">
+      <c r="C90" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="270"/>
+      <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4667,7 +4671,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4688,7 +4692,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4706,7 +4710,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4763,7 +4767,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -4850,7 +4854,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4891,19 +4895,19 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="275" t="str">
+        <v>195</v>
+      </c>
+      <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
         <v>1398.HK</v>
       </c>
-      <c r="D3" s="276"/>
+      <c r="D3" s="277"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.779999732971191</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4911,42 +4915,42 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="277" t="str">
+        <v>196</v>
+      </c>
+      <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
         <v>工商银行</v>
       </c>
-      <c r="D4" s="278"/>
+      <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="281">
+      <c r="G4" s="282">
         <f>Inputs!C10</f>
         <v>356406257089</v>
       </c>
-      <c r="H4" s="281"/>
+      <c r="H4" s="282"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="279">
+      <c r="C5" s="280">
         <f>Inputs!C6</f>
         <v>45605</v>
       </c>
-      <c r="D5" s="280"/>
+      <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="273">
+      <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>5267684.3846046813</v>
-      </c>
-      <c r="H5" s="273"/>
+        <v>1625212.5323258399</v>
+      </c>
+      <c r="H5" s="274"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4969,16 +4973,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="274" t="str">
+      <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="274"/>
+      <c r="H6" s="275"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -4993,7 +4997,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="133">
-        <v>1</v>
+        <v>1.0736569960912068</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5003,40 +5007,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5049,29 +5053,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5081,12 +5085,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5096,7 +5100,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>52</v>
@@ -5104,7 +5108,7 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
@@ -5118,7 +5122,7 @@
         <v>1.2012210534502537E-2</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5126,7 +5130,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5137,14 +5141,14 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>9.7044800044936142E-4</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5156,11 +5160,11 @@
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.3630956194874013</v>
+        <v>0.39169784320716811</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5172,16 +5176,16 @@
         <v>0.48610500800425166</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>176</v>
-      </c>
-      <c r="G24" s="179">
-        <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>7.6054480631163671E-2</v>
+        <v>258</v>
+      </c>
+      <c r="G24" s="269">
+        <f>G3/(Fin_Analysis!H86*G7)</f>
+        <v>3.7783314490689537</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
@@ -5204,11 +5208,11 @@
         <v>0.34620797227785238</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.0730717559925494E-2</v>
+        <v>7.2142215702268808E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5225,12 +5229,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="G28" s="271" t="s">
-        <v>258</v>
-      </c>
-      <c r="H28" s="271"/>
+        <v>238</v>
+      </c>
+      <c r="G28" s="272" t="s">
+        <v>257</v>
+      </c>
+      <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5238,42 +5242,42 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.9926999547680553</v>
+        <v>2.735353945417244</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.8303291937252899</v>
+        <v>5.2578442867094113</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.344352887962418</v>
-      </c>
-      <c r="G29" s="272">
+        <v>3.2180634651967575</v>
+      </c>
+      <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.3307210380219914</v>
-      </c>
-      <c r="H29" s="272"/>
+        <v>4.5720385101820975</v>
+      </c>
+      <c r="H29" s="273"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5283,7 +5287,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C34" s="226" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5294,14 +5298,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5311,7 +5315,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5321,14 +5325,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5338,7 +5342,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5353,14 +5357,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6345,16 +6349,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>204</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>205</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>206</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6372,7 +6376,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6405,7 +6409,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6772,7 +6776,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6823,7 +6827,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6874,7 +6878,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6925,7 +6929,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7027,7 +7031,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7180,7 +7184,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8251,7 +8255,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8320,7 +8324,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8524,7 +8528,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -10347,11 +10351,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-15796536.644977946</v>
+        <v>-16714525.161485014</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>5.0876006100083675</v>
+        <v>5.3251444782871102</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10422,7 +10426,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>35</v>
@@ -11418,7 +11422,7 @@
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>P/B Approach</v>
+        <v>BV of the MI</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87"/>
@@ -11438,11 +11442,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.3630956194874013</v>
+        <v>1</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>858532.1449779449</v>
+        <v>629840</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11474,11 +11478,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="282">
+      <c r="D56" s="283">
         <f>I15+I34</f>
         <v>42280604</v>
       </c>
-      <c r="E56" s="280"/>
+      <c r="E56" s="281"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11489,11 +11493,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="281">
+      <c r="D57" s="282">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="280"/>
+      <c r="E57" s="281"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11505,11 +11509,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="281">
+      <c r="D58" s="282">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="280"/>
+      <c r="E58" s="281"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11723,19 +11727,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="269">
+      <c r="C72" s="270">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="269"/>
-      <c r="E72" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F72" s="283"/>
-      <c r="H72" s="283" t="s">
+      <c r="D72" s="270"/>
+      <c r="E72" s="284" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="283"/>
+      <c r="F72" s="284"/>
+      <c r="H72" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11745,18 +11749,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="270" t="s">
+      <c r="C73" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="270"/>
-      <c r="E73" s="284" t="s">
+      <c r="D73" s="271"/>
+      <c r="E73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="270"/>
-      <c r="H73" s="284" t="s">
+      <c r="F73" s="271"/>
+      <c r="H73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="270"/>
+      <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11833,7 +11837,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11893,7 +11897,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11956,7 +11960,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11986,7 +11990,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12119,28 +12123,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6054480631163671E-2</v>
+        <v>0.2646670927312153</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6054480631163671E-2</v>
+        <v>0.2646670927312153</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6054480631163671E-2</v>
+        <v>0.2646670927312153</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12170,21 +12174,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0433018141169998E-2</v>
+        <v>0.10590590281618965</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.0730717559925494E-2</v>
+        <v>7.2142215702268808E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.0730717559925494E-2</v>
+        <v>7.2142215702268808E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12215,15 +12219,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F92" s="283"/>
+      <c r="E92" s="284" t="s">
+        <v>207</v>
+      </c>
+      <c r="F92" s="284"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="283" t="s">
-        <v>207</v>
-      </c>
-      <c r="I92" s="283"/>
+      <c r="H92" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I92" s="284"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12240,24 +12244,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>22.523611914819593</v>
+        <v>54.226725949974316</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>22.523611914819593</v>
+        <v>54.226725949974316</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12265,18 +12269,18 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>4.7153310312395904</v>
+        <v>6.4726750805546525</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>4.7153310312395904</v>
+        <v>6.4726750805546525</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12295,14 +12299,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12319,21 +12323,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>3991114.1932298178</v>
+        <v>9608807.6996623948</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>11.198215838935669</v>
+        <v>26.960266573723288</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>11.198215838935669</v>
+        <v>26.960266573723288</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>15.90977760838369</v>
+        <v>38.303587966156378</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12343,14 +12347,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>858532.1449779449</v>
+        <v>676232.1224180857</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>2.408858228220041</v>
+        <v>1.8973632167440326</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12361,17 +12365,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>-32158488.699999999</v>
+        <v>-34527186.376475014</v>
       </c>
       <c r="D99" s="215"/>
       <c r="E99" s="146">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>-103.76434551698954</v>
+        <v>-111.40731550914106</v>
       </c>
       <c r="F99" s="215"/>
       <c r="H99" s="146">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-90.229865666947433</v>
+        <v>-96.875926529687888</v>
       </c>
       <c r="I99" s="217"/>
       <c r="K99" s="24"/>
@@ -12382,7 +12386,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-29025906.651748128</v>
+        <v>-25594610.799230702</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12419,14 +12423,14 @@
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12443,27 +12447,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>835542.03809447319</v>
+        <v>1146937.9547056337</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.9926999547680553</v>
+        <v>2.735353945417244</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.344352887962418</v>
+        <v>3.2180634651967575</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.344352887962418</v>
+        <v>3.2180634651967575</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.344352887962418</v>
+        <v>3.2180634651967575</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.3307210380219914</v>
+        <v>4.5720385101820975</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12473,21 +12477,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12500,31 +12504,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>417771.01904723659</v>
+        <v>573468.97735281684</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.99634997738402764</v>
+        <v>1.367676972708622</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.172176443981209</v>
+        <v>1.6090317325983787</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.172176443981209</v>
+        <v>1.6090317325983787</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.172176443981209</v>
+        <v>1.6090317325983787</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.6653605190109957</v>
+        <v>2.2860192550910488</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1398.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1398.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EA544DB-18BB-4AB3-9C7F-5817FCCA3DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4757EFB-F435-4FE0-83DE-D2DA4F837D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,9 +43,6 @@
     <t>Current Price:</t>
   </si>
   <si>
-    <t>HKD</t>
-  </si>
-  <si>
     <t>Number of Shares:</t>
   </si>
   <si>
@@ -960,6 +957,10 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>HKD</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3585,28 +3586,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="190">
         <v>45605</v>
@@ -3614,7 +3615,7 @@
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="191">
         <v>8</v>
@@ -3622,24 +3623,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C8" s="192" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="268"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C10" s="194">
         <v>356406257089</v>
@@ -3647,15 +3648,15 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C11" s="193" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="220">
         <v>45291</v>
@@ -3663,7 +3664,7 @@
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="221">
         <v>1000000</v>
@@ -3671,7 +3672,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
@@ -3679,15 +3680,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="224">
         <v>0.25</v>
@@ -3696,61 +3697,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3799,7 +3800,7 @@
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B25" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="150">
         <v>1542930</v>
@@ -3819,7 +3820,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" s="151">
         <v>18534</v>
@@ -3839,7 +3840,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="151">
         <v>238698</v>
@@ -3859,7 +3860,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" s="151"/>
       <c r="D28" s="151"/>
@@ -3875,7 +3876,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C29" s="151">
         <v>750026</v>
@@ -3895,7 +3896,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C30" s="151">
         <v>1123</v>
@@ -3915,7 +3916,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C31" s="151"/>
       <c r="D31" s="151"/>
@@ -3931,7 +3932,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" s="151"/>
       <c r="D32" s="151"/>
@@ -3947,7 +3948,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C33" s="151"/>
       <c r="D33" s="151"/>
@@ -3963,7 +3964,7 @@
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" s="218"/>
       <c r="D34" s="151"/>
@@ -3979,7 +3980,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C35" s="218"/>
       <c r="D35" s="151"/>
@@ -3995,7 +3996,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C36" s="218"/>
       <c r="D36" s="151"/>
@@ -4011,7 +4012,7 @@
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="218"/>
       <c r="D37" s="151"/>
@@ -4027,7 +4028,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="218"/>
       <c r="D38" s="151"/>
@@ -4043,7 +4044,7 @@
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="218"/>
       <c r="D39" s="151"/>
@@ -4059,7 +4060,7 @@
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" s="218"/>
       <c r="D40" s="151"/>
@@ -4075,7 +4076,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C41" s="218"/>
       <c r="D41" s="151"/>
@@ -4091,7 +4092,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C42" s="218"/>
       <c r="D42" s="151"/>
@@ -4107,7 +4108,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C43" s="218"/>
       <c r="D43" s="151"/>
@@ -4123,7 +4124,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C44" s="251">
         <f>0.3064+0.1434</f>
@@ -4142,11 +4143,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10590590281618965</v>
+        <v>0.10241640607769069</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4191,21 +4192,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C47" s="195" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" s="59">
         <v>3628128</v>
@@ -4217,7 +4218,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C49" s="59">
         <v>2171209</v>
@@ -4229,7 +4230,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -4240,7 +4241,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C51" s="59">
         <v>3557823</v>
@@ -4252,7 +4253,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" s="59">
         <v>9431099</v>
@@ -4264,7 +4265,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C53" s="59">
         <v>27228377</v>
@@ -4277,7 +4278,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4287,7 +4288,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
@@ -4298,7 +4299,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4306,24 +4307,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4334,7 +4335,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="196">
@@ -4345,7 +4346,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4356,7 +4357,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4367,7 +4368,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4378,7 +4379,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4389,7 +4390,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4399,7 +4400,7 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C65" s="59">
         <v>65568</v>
@@ -4408,24 +4409,24 @@
         <v>0.1</v>
       </c>
       <c r="E65" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4433,12 +4434,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C68" s="59">
         <v>297776</v>
@@ -4451,7 +4452,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4462,7 +4463,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
@@ -4472,7 +4473,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C71" s="59">
         <v>97938</v>
@@ -4485,7 +4486,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="247" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C72" s="248">
         <v>638618</v>
@@ -4497,7 +4498,7 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C73" s="59">
         <v>40496667</v>
@@ -4505,19 +4506,19 @@
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C76" s="120">
         <v>1783937</v>
@@ -4525,7 +4526,7 @@
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C77" s="83">
         <v>43252035</v>
@@ -4533,37 +4534,37 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C82" s="83"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C83" s="59">
         <v>3234661</v>
@@ -4571,19 +4572,19 @@
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4591,15 +4592,15 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C87" s="237" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C89" s="270">
         <f>C24</f>
@@ -4607,10 +4608,10 @@
       </c>
       <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4620,19 +4621,19 @@
         <v>(Numbers in 1000000CNY)</v>
       </c>
       <c r="C90" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F90" s="256" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4650,7 +4651,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4671,7 +4672,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4692,7 +4693,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4710,7 +4711,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4731,7 +4732,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4749,7 +4750,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4767,7 +4768,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -4895,7 +4896,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
@@ -4907,15 +4908,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.5599999999999996</v>
+        <v>4.71</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>2</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
@@ -4924,7 +4925,7 @@
       <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="282">
         <f>Inputs!C10</f>
@@ -4935,7 +4936,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="280">
         <f>Inputs!C6</f>
@@ -4944,11 +4945,11 @@
       <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>1625212.5323258399</v>
+        <v>1678673.47088919</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -4956,7 +4957,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="87" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="186">
         <f>Inputs!C7</f>
@@ -4971,7 +4972,7 @@
         <v>45291</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
@@ -4982,7 +4983,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -4994,10 +4995,10 @@
       </c>
       <c r="E7" s="87"/>
       <c r="F7" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0736569960912068</v>
+        <v>1.0724350214004517</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5007,40 +5008,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5053,29 +5054,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5085,12 +5086,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5100,29 +5101,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" s="172">
         <f>Fin_Analysis!I75</f>
         <v>1.2012210534502537E-2</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5130,7 +5131,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5141,58 +5142,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>9.7044800044936142E-4</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C23" s="172">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.39169784320716811</v>
+        <v>0.40504363807241306</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C24" s="172">
         <f>Fin_Analysis!I81</f>
         <v>0.48610500800425166</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>3.7783314490689537</v>
+        <v>3.9070654651648984</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G25" s="172">
         <f>Fin_Analysis!I88</f>
@@ -5201,61 +5202,61 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C26" s="172">
         <f>Fin_Analysis!I83</f>
         <v>0.34620797227785238</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.2142215702268808E-2</v>
+        <v>6.9765199693651456E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>167</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>168</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G28" s="272" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.735353945417244</v>
+        <v>2.7020868601328685</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.2578442867094113</v>
+        <v>5.1938989407731109</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.2180634651967575</v>
+        <v>3.1789257178033745</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.5720385101820975</v>
+        <v>4.5164338615418362</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -5263,21 +5264,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5287,7 +5288,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C34" s="226" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5298,14 +5299,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5315,7 +5316,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5325,14 +5326,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5342,7 +5343,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5357,14 +5358,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6344,21 +6345,21 @@
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>204</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>205</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6369,14 +6370,14 @@
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="202">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6398,7 +6399,7 @@
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="128">
         <f>Inputs!C13</f>
@@ -6409,7 +6410,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6420,7 +6421,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6470,7 +6471,7 @@
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="201">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
@@ -6521,7 +6522,7 @@
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="92">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
@@ -6572,7 +6573,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="200">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6623,7 +6624,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="152">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6674,7 +6675,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="200">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6725,7 +6726,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="200" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6776,7 +6777,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6827,7 +6828,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6878,7 +6879,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6929,7 +6930,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6980,7 +6981,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="200" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7031,7 +7032,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7082,7 +7083,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="153" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7133,7 +7134,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" s="200" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7184,7 +7185,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7235,7 +7236,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" s="200" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7286,7 +7287,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" s="162">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7337,7 +7338,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="154">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7388,7 +7389,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" s="155">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7439,7 +7440,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="235" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" s="234">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7490,7 +7491,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7541,7 +7542,7 @@
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="65">
         <f>IF(C36="","",C36+C31+C32)</f>
@@ -7592,7 +7593,7 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C28</f>
@@ -7643,7 +7644,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7694,7 +7695,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7745,7 +7746,7 @@
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I28</f>
@@ -7796,7 +7797,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -7847,7 +7848,7 @@
     <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="65">
         <f>Fin_Analysis!I15</f>
@@ -7898,7 +7899,7 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" s="65">
         <f>Fin_Analysis!I34</f>
@@ -7949,7 +7950,7 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="77">
         <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
@@ -8000,7 +8001,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8051,7 +8052,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8102,7 +8103,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8153,7 +8154,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8204,7 +8205,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C40" s="156">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8255,7 +8256,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8273,7 +8274,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" s="157">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8324,7 +8325,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8375,7 +8376,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C44" s="154">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8426,7 +8427,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C45" s="154">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8477,7 +8478,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" s="154">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8528,7 +8529,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8579,7 +8580,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C48" s="154">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8630,7 +8631,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8648,7 +8649,7 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C50" s="157">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
@@ -8699,7 +8700,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C51" s="154">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
@@ -8750,7 +8751,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8767,7 +8768,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53" s="157">
         <f>IF(C36="","",(C27-C36)/C27)</f>
@@ -8817,7 +8818,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C54" s="158">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
@@ -8867,7 +8868,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C55" s="154">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
@@ -8917,7 +8918,7 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C56" s="159">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
@@ -10276,7 +10277,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10286,12 +10287,12 @@
       <c r="H2" s="7"/>
       <c r="I2" s="87"/>
       <c r="K2" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10305,7 +10306,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="205">
         <f>Inputs!C83</f>
@@ -10315,7 +10316,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10333,10 +10334,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -10346,21 +10347,21 @@
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-16714525.161485014</v>
+        <v>-16695501.649516404</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>5.3251444782871102</v>
+        <v>5.3202218474044649</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
@@ -10371,7 +10372,7 @@
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10383,7 +10384,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
@@ -10401,7 +10402,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="204">
@@ -10420,32 +10421,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="111" t="s">
         <v>35</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>36</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10462,7 +10463,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10473,7 +10474,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10490,7 +10491,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10501,7 +10502,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10518,7 +10519,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10529,7 +10530,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10546,7 +10547,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="206">
         <f>Inputs!C76</f>
@@ -10557,7 +10558,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10574,7 +10575,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10584,7 +10585,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10606,7 +10607,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10628,7 +10629,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10649,7 +10650,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10674,7 +10675,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10701,7 +10702,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10722,7 +10723,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10739,7 +10740,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10751,13 +10752,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10779,7 +10780,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10799,7 +10800,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
@@ -10808,7 +10809,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10828,7 +10829,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -10841,7 +10842,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10861,7 +10862,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -10874,7 +10875,7 @@
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="79">
         <f>SUM(C11:C22)</f>
@@ -10891,7 +10892,7 @@
       <c r="F28" s="112"/>
       <c r="G28" s="87"/>
       <c r="H28" s="78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I28" s="207">
         <f>Inputs!C77</f>
@@ -10907,7 +10908,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -10916,7 +10917,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -10932,7 +10933,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -10942,7 +10943,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -10959,7 +10960,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -10969,7 +10970,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -10986,7 +10987,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -10996,7 +10997,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11016,7 +11017,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I33" s="206">
         <f>Inputs!C81</f>
@@ -11026,7 +11027,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11043,7 +11044,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11053,7 +11054,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11079,7 +11080,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11106,7 +11107,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11133,7 +11134,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11154,7 +11155,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11175,7 +11176,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11196,7 +11197,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11217,7 +11218,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11234,7 +11235,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11252,7 +11253,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11271,7 +11272,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11290,7 +11291,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11307,7 +11308,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -11320,7 +11321,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11337,7 +11338,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11350,7 +11351,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11367,7 +11368,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I48" s="208">
         <f>Inputs!C82</f>
@@ -11377,7 +11378,7 @@
     </row>
     <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49" s="61">
         <f>C28+C48</f>
@@ -11394,7 +11395,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11410,14 +11411,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11429,12 +11430,12 @@
       <c r="G52" s="87"/>
       <c r="I52" s="87"/>
       <c r="K52" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11464,7 +11465,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11475,7 +11476,7 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C56" s="87"/>
       <c r="D56" s="283">
@@ -11490,7 +11491,7 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C57" s="87"/>
       <c r="D57" s="282">
@@ -11501,12 +11502,12 @@
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C58" s="87"/>
       <c r="D58" s="282">
@@ -11530,11 +11531,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11544,7 +11545,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11565,7 +11566,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11586,7 +11587,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11607,7 +11608,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C64" s="209"/>
       <c r="D64" s="209"/>
@@ -11622,7 +11623,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11653,11 +11654,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11667,7 +11668,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11688,7 +11689,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C69" s="209"/>
       <c r="D69" s="209"/>
@@ -11703,7 +11704,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11725,7 +11726,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C72" s="270">
         <f>Data!C5</f>
@@ -11733,15 +11734,15 @@
       </c>
       <c r="D72" s="270"/>
       <c r="E72" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F72" s="284"/>
       <c r="H72" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11750,22 +11751,22 @@
         <v>(Numbers in 1000000CNY)</v>
       </c>
       <c r="C73" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D73" s="271"/>
       <c r="E73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F73" s="271"/>
       <c r="H73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11786,7 +11787,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11816,7 +11817,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C76" s="162">
         <f>C74-C75</f>
@@ -11837,7 +11838,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11867,7 +11868,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11897,7 +11898,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11928,7 +11929,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -11955,12 +11956,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="182" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11990,7 +11991,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12020,7 +12021,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C83" s="164">
         <f>C79-C81-C82-C80</f>
@@ -12050,7 +12051,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C84" s="212"/>
       <c r="D84" s="160">
@@ -12071,7 +12072,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="264" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C85" s="258">
         <f>C83*(1-I84)</f>
@@ -12102,7 +12103,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C86" s="168">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12123,28 +12124,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.2646670927312153</v>
+        <v>0.25594656882919542</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.2646670927312153</v>
+        <v>0.25594656882919542</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.2646670927312153</v>
+        <v>0.25594656882919542</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12174,21 +12175,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10590590281618965</v>
+        <v>0.10241640607769069</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2142215702268808E-2</v>
+        <v>6.9765199693651456E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2142215702268808E-2</v>
+        <v>6.9765199693651456E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12205,27 +12206,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C92" s="199" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E92" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F92" s="284"/>
       <c r="G92" s="87"/>
       <c r="H92" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I92" s="284"/>
       <c r="K92" s="24"/>
@@ -12244,24 +12245,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>54.226725949974316</v>
+        <v>52.323109001601011</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>54.226725949974316</v>
+        <v>52.323109001601011</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12269,18 +12270,18 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>6.4726750805546525</v>
+        <v>6.3939550910324119</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>6.4726750805546525</v>
+        <v>6.3939550910324119</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12299,94 +12300,94 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9608807.6996623948</v>
+        <v>9271492.6788807306</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>26.960266573723288</v>
+        <v>26.013832514072554</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>26.960266573723288</v>
+        <v>26.013832514072554</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>38.303587966156378</v>
+        <v>36.958949174886747</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>676232.1224180857</v>
+        <v>675462.47387886047</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.8973632167440326</v>
+        <v>1.8952037469706582</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>-34527186.376475014</v>
+        <v>-34487889.51719068</v>
       </c>
       <c r="D99" s="215"/>
       <c r="E99" s="146">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>-111.40731550914106</v>
+        <v>-111.28051810511653</v>
       </c>
       <c r="F99" s="215"/>
       <c r="H99" s="146">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-96.875926529687888</v>
+        <v>-96.765667917492635</v>
       </c>
       <c r="I99" s="217"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-25594610.799230702</v>
+        <v>-25891859.312188812</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12416,58 +12417,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1146937.9547056337</v>
+        <v>1132989.0166462634</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.735353945417244</v>
+        <v>2.7020868601328685</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.2180634651967575</v>
+        <v>3.1789257178033745</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>3.2180634651967575</v>
+        <v>3.1789257178033745</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.2180634651967575</v>
+        <v>3.1789257178033745</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>4.5720385101820975</v>
+        <v>4.5164338615418362</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12477,58 +12478,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>573468.97735281684</v>
+        <v>566494.50832313171</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.367676972708622</v>
+        <v>1.3510434300664342</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.6090317325983787</v>
+        <v>1.5894628589016873</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.6090317325983787</v>
+        <v>1.5894628589016873</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.6090317325983787</v>
+        <v>1.5894628589016873</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>2.2860192550910488</v>
+        <v>2.2582169307709181</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12537,7 +12538,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/1398.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1398.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4757EFB-F435-4FE0-83DE-D2DA4F837D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5438212-B178-42C1-9C6C-FF212E306B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4147,7 +4147,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10241640607769069</v>
+        <v>0.10263112272438428</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4818,7 +4818,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -4908,7 +4908,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.71</v>
+        <v>4.7</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>267</v>
@@ -4949,7 +4949,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>1678673.47088919</v>
+        <v>1675109.4083183</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -4998,7 +4998,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724350214004517</v>
+        <v>1.0724016825358074</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5165,7 +5165,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.40504363807241306</v>
+        <v>0.4041962380886378</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5181,7 +5181,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>3.9070654651648984</v>
+        <v>3.8988914145180447</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5213,7 +5213,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.9765199693651456E-2</v>
+        <v>6.9911462878504554E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5243,20 +5243,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.7020868601328685</v>
+        <v>2.7038505162049304</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.1938989407731109</v>
+        <v>5.1972890062590604</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.1789257178033745</v>
+        <v>3.1810006072999184</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.5164338615418362</v>
+        <v>4.5193817445730966</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10352,11 +10352,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-16695501.649516404</v>
+        <v>-16694982.635255815</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>5.3202218474044649</v>
+        <v>5.3200875443571665</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12128,17 +12128,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.25594656882919542</v>
+        <v>0.25648316243852443</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.25594656882919542</v>
+        <v>0.25648316243852443</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.25594656882919542</v>
+        <v>0.25648316243852443</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12179,17 +12179,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10241640607769069</v>
+        <v>0.10263112272438428</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9765199693651456E-2</v>
+        <v>6.9911462878504554E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9765199693651456E-2</v>
+        <v>6.9911462878504554E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12249,14 +12249,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>52.323109001601011</v>
+        <v>52.433347750812175</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>52.323109001601011</v>
+        <v>52.433347750812175</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12274,14 +12274,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>6.3939550910324119</v>
+        <v>6.398128434934554</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>6.3939550910324119</v>
+        <v>6.398128434934554</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12324,21 +12324,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9271492.6788807306</v>
+        <v>9291026.6434279997</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>26.013832514072554</v>
+        <v>26.068640655508727</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>26.013832514072554</v>
+        <v>26.068640655508727</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>36.958949174886747</v>
+        <v>37.036817413356175</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12348,14 +12348,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>675462.47387886047</v>
+        <v>675441.4757283529</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.8952037469706582</v>
+        <v>1.895144830635465</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12366,17 +12366,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>-34487889.51719068</v>
+        <v>-34486817.389688745</v>
       </c>
       <c r="D99" s="215"/>
       <c r="E99" s="146">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>-111.28051810511653</v>
+        <v>-111.27705871964642</v>
       </c>
       <c r="F99" s="215"/>
       <c r="H99" s="146">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-96.765667917492635</v>
+        <v>-96.76265975621429</v>
       </c>
       <c r="I99" s="217"/>
       <c r="K99" s="24"/>
@@ -12387,7 +12387,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-25891859.312188812</v>
+        <v>-25871232.221989099</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12448,27 +12448,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1132989.0166462634</v>
+        <v>1133728.5202455998</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.7020868601328685</v>
+        <v>2.7038505162049304</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.1789257178033745</v>
+        <v>3.1810006072999184</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>3.1789257178033745</v>
+        <v>3.1810006072999184</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.1789257178033745</v>
+        <v>3.1810006072999184</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>4.5164338615418362</v>
+        <v>4.5193817445730966</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12509,27 +12509,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>566494.50832313171</v>
+        <v>566864.2601227999</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.3510434300664342</v>
+        <v>1.3519252581024652</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.5894628589016873</v>
+        <v>1.5905003036499592</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.5894628589016873</v>
+        <v>1.5905003036499592</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.5894628589016873</v>
+        <v>1.5905003036499592</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>2.2582169307709181</v>
+        <v>2.2596908722865483</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1398.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1398.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5438212-B178-42C1-9C6C-FF212E306B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98B77240-DAAA-43FA-9843-5BC22676C5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4147,7 +4147,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10263112272438428</v>
+        <v>0.10220577632808417</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4908,7 +4908,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.7</v>
+        <v>4.72</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>267</v>
@@ -4949,7 +4949,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>1675109.4083183</v>
+        <v>1682237.5334600799</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -4998,7 +4998,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724016825358074</v>
+        <v>1.0725016991297405</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5165,7 +5165,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.4041962380886378</v>
+        <v>0.40587836819366424</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5181,7 +5181,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>3.8988914145180447</v>
+        <v>3.9151173018632695</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5213,7 +5213,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.9911462878504554E-2</v>
+        <v>6.9621720468930615E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5243,20 +5243,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.7038505162049304</v>
+        <v>2.7004431847445325</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.1972890062590604</v>
+        <v>5.1907394998297391</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.1810006072999184</v>
+        <v>3.1769919820523911</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.5193817445730966</v>
+        <v>4.5136865215910777</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10352,11 +10352,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-16694982.635255815</v>
+        <v>-16696539.678037586</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>5.3200875443571665</v>
+        <v>5.3204904534990636</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12128,17 +12128,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.25648316243852443</v>
+        <v>0.25542018869372912</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.25648316243852443</v>
+        <v>0.25542018869372912</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.25648316243852443</v>
+        <v>0.25542018869372912</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12179,17 +12179,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10263112272438428</v>
+        <v>0.10220577632808417</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9911462878504554E-2</v>
+        <v>6.9621720468930615E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9911462878504554E-2</v>
+        <v>6.9621720468930615E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12249,14 +12249,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>52.433347750812175</v>
+        <v>52.216801435583093</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>52.433347750812175</v>
+        <v>52.216801435583093</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12274,14 +12274,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>6.398128434934554</v>
+        <v>6.390065657730946</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>6.398128434934554</v>
+        <v>6.390065657730946</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12324,21 +12324,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9291026.6434279997</v>
+        <v>9252655.3078060374</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>26.068640655508727</v>
+        <v>25.960978865462259</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>26.068640655508727</v>
+        <v>25.960978865462259</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>37.036817413356175</v>
+        <v>36.883857766819958</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12348,14 +12348,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>675441.4757283529</v>
+        <v>675504.47017987573</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.895144830635465</v>
+        <v>1.8953215796410445</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12366,17 +12366,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>-34486817.389688745</v>
+        <v>-34490033.772194557</v>
       </c>
       <c r="D99" s="215"/>
       <c r="E99" s="146">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>-111.27705871964642</v>
+        <v>-111.28743687605674</v>
       </c>
       <c r="F99" s="215"/>
       <c r="H99" s="146">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-96.76265975621429</v>
+        <v>-96.771684240049353</v>
       </c>
       <c r="I99" s="217"/>
       <c r="K99" s="24"/>
@@ -12387,7 +12387,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-25871232.221989099</v>
+        <v>-25912882.934568398</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12448,27 +12448,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1133728.5202455998</v>
+        <v>1132299.8211250561</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.7038505162049304</v>
+        <v>2.7004431847445325</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.1810006072999184</v>
+        <v>3.1769919820523911</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>3.1810006072999184</v>
+        <v>3.1769919820523911</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.1810006072999184</v>
+        <v>3.1769919820523911</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>4.5193817445730966</v>
+        <v>4.5136865215910777</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12509,27 +12509,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>566864.2601227999</v>
+        <v>566149.91056252806</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.3519252581024652</v>
+        <v>1.3502215923722662</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.5905003036499592</v>
+        <v>1.5884959910261955</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.5905003036499592</v>
+        <v>1.5884959910261955</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.5905003036499592</v>
+        <v>1.5884959910261955</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>2.2596908722865483</v>
+        <v>2.2568432607955389</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1398.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1398.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98B77240-DAAA-43FA-9843-5BC22676C5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DB679BD-F964-453E-9EA1-75164DF39F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4147,7 +4147,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10220577632808417</v>
+        <v>0.10220259924729665</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4998,7 +4998,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0725016991297405</v>
+        <v>1.072468360265096</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5165,7 +5165,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.40587836819366424</v>
+        <v>0.40589098537145768</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5181,7 +5181,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>3.9151173018632695</v>
+        <v>3.9152390076129495</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5213,7 +5213,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.9621720468930615E-2</v>
+        <v>6.9619556268056229E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5243,20 +5243,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.7004431847445325</v>
+        <v>2.7003319225735032</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.1907394998297391</v>
+        <v>5.1905256338431256</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.1769919820523911</v>
+        <v>3.1768610853805921</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.5136865215910777</v>
+        <v>4.5135005511679358</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10352,11 +10352,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-16696539.678037586</v>
+        <v>-16696020.663776992</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>5.3204904534990636</v>
+        <v>5.3203561504517642</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12128,17 +12128,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.25542018869372912</v>
+        <v>0.2554122489216008</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.25542018869372912</v>
+        <v>0.2554122489216008</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.25542018869372912</v>
+        <v>0.2554122489216008</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12179,17 +12179,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10220577632808417</v>
+        <v>0.10220259924729665</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9621720468930615E-2</v>
+        <v>6.9619556268056229E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9621720468930615E-2</v>
+        <v>6.9619556268056229E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12249,14 +12249,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>52.216801435583093</v>
+        <v>52.213527143078686</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>52.216801435583093</v>
+        <v>52.213527143078686</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12274,14 +12274,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>6.390065657730946</v>
+        <v>6.3898023777693034</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>6.390065657730946</v>
+        <v>6.3898023777693034</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12324,21 +12324,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9252655.3078060374</v>
+        <v>9252075.1133267265</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>25.960978865462259</v>
+        <v>25.959350963404507</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>25.960978865462259</v>
+        <v>25.959350963404507</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>36.883857766819958</v>
+        <v>36.881544937697932</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12348,14 +12348,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>675504.47017987573</v>
+        <v>675483.47202936804</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.8953215796410445</v>
+        <v>1.8952626633058511</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12366,17 +12366,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>-34490033.772194557</v>
+        <v>-34488961.644692615</v>
       </c>
       <c r="D99" s="215"/>
       <c r="E99" s="146">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>-111.28743687605674</v>
+        <v>-111.28397749058662</v>
       </c>
       <c r="F99" s="215"/>
       <c r="H99" s="146">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-96.771684240049353</v>
+        <v>-96.76867607877098</v>
       </c>
       <c r="I99" s="217"/>
       <c r="K99" s="24"/>
@@ -12387,7 +12387,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-25912882.934568398</v>
+        <v>-25912370.003395256</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12448,27 +12448,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1132299.8211250561</v>
+        <v>1132253.1687321949</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.7004431847445325</v>
+        <v>2.7003319225735032</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.1769919820523911</v>
+        <v>3.1768610853805921</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>3.1769919820523911</v>
+        <v>3.1768610853805921</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.1769919820523911</v>
+        <v>3.1768610853805921</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>4.5136865215910777</v>
+        <v>4.5135005511679358</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12509,27 +12509,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>566149.91056252806</v>
+        <v>566126.58436609746</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.3502215923722662</v>
+        <v>1.3501659612867516</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.5884959910261955</v>
+        <v>1.588430542690296</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.5884959910261955</v>
+        <v>1.588430542690296</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.5884959910261955</v>
+        <v>1.588430542690296</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>2.2568432607955389</v>
+        <v>2.2567502755839679</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1398.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1398.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DB679BD-F964-453E-9EA1-75164DF39F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D935A447-694E-4C00-926F-F3A96BE45579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4147,7 +4147,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10220259924729665</v>
+        <v>0.10219942216650914</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4610,7 +4610,7 @@
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
-      <c r="F89" s="50" t="s">
+      <c r="F89" s="89" t="s">
         <v>205</v>
       </c>
       <c r="H89" s="31"/>
@@ -4998,7 +4998,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.072468360265096</v>
+        <v>1.0724350214004517</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5165,7 +5165,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.40589098537145768</v>
+        <v>0.40590360333371328</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5181,7 +5181,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>3.9152390076129495</v>
+        <v>3.9153607209295793</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5213,7 +5213,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.9619556268056229E-2</v>
+        <v>6.9617392067181857E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5243,20 +5243,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.7003319225735032</v>
+        <v>2.7002206623220224</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.1905256338431256</v>
+        <v>5.1903117715462317</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.1768610853805921</v>
+        <v>3.1767301909670853</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.5135005511679358</v>
+        <v>4.5133145839532451</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10352,11 +10352,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-16696020.663776992</v>
+        <v>-16695501.649516404</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>5.3203561504517642</v>
+        <v>5.3202218474044649</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12128,17 +12128,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.2554122489216008</v>
+        <v>0.25540430914947254</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.2554122489216008</v>
+        <v>0.25540430914947254</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.2554122489216008</v>
+        <v>0.25540430914947254</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12179,17 +12179,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10220259924729665</v>
+        <v>0.10219942216650914</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9619556268056229E-2</v>
+        <v>6.9617392067181857E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9619556268056229E-2</v>
+        <v>6.9617392067181857E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12249,14 +12249,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>52.213527143078686</v>
+        <v>52.21025299499636</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>52.213527143078686</v>
+        <v>52.21025299499636</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12274,14 +12274,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>6.3898023777693034</v>
+        <v>6.3895391023498922</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>6.3898023777693034</v>
+        <v>6.3895391023498922</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12324,21 +12324,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9252075.1133267265</v>
+        <v>9251494.9444385581</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>25.959350963404507</v>
+        <v>25.957723133150051</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>25.959350963404507</v>
+        <v>25.957723133150051</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>36.881544937697932</v>
+        <v>36.879232210589876</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12348,14 +12348,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>675483.47202936804</v>
+        <v>675462.47387886047</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.8952626633058511</v>
+        <v>1.8952037469706582</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12366,17 +12366,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>-34488961.644692615</v>
+        <v>-34487889.51719068</v>
       </c>
       <c r="D99" s="215"/>
       <c r="E99" s="146">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>-111.28397749058662</v>
+        <v>-111.28051810511653</v>
       </c>
       <c r="F99" s="215"/>
       <c r="H99" s="146">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-96.76867607877098</v>
+        <v>-96.765667917492635</v>
       </c>
       <c r="I99" s="217"/>
       <c r="K99" s="24"/>
@@ -12387,7 +12387,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-25912370.003395256</v>
+        <v>-25911857.046630982</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12448,27 +12448,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1132253.1687321949</v>
+        <v>1132206.5171442032</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.7003319225735032</v>
+        <v>2.7002206623220224</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.1768610853805921</v>
+        <v>3.1767301909670853</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>3.1768610853805921</v>
+        <v>3.1767301909670853</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.1768610853805921</v>
+        <v>3.1767301909670853</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>4.5135005511679358</v>
+        <v>4.5133145839532451</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12509,27 +12509,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>566126.58436609746</v>
+        <v>566103.25857210159</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.3501659612867516</v>
+        <v>1.3501103311610112</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.588430542690296</v>
+        <v>1.5883650954835427</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.588430542690296</v>
+        <v>1.5883650954835427</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.588430542690296</v>
+        <v>1.5883650954835427</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>2.2567502755839679</v>
+        <v>2.2566572919766226</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1398.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1398.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D935A447-694E-4C00-926F-F3A96BE45579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5F0BDFA-1C97-4EE6-A1BB-69DDE56C8682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4147,7 +4147,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10219942216650914</v>
+        <v>0.10219624508572164</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4998,7 +4998,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724350214004517</v>
+        <v>1.0724016825358074</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5047,7 +5047,7 @@
         <v>0.06</v>
       </c>
       <c r="D12" s="173">
-        <v>6.6000000000000003E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5094,7 +5094,7 @@
         <v>253</v>
       </c>
       <c r="C17" s="176">
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D17" s="177"/>
     </row>
@@ -5165,7 +5165,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.40590360333371328</v>
+        <v>0.40591622208050432</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5181,7 +5181,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>3.9153607209295793</v>
+        <v>3.9154824418138658</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5213,7 +5213,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.9617392067181857E-2</v>
+        <v>6.96152278663075E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5243,20 +5243,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.7002206623220224</v>
+        <v>2.8175054650331082</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.1903117715462317</v>
+        <v>5.4921748803276209</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.1767301909670853</v>
+        <v>3.3147123118036568</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.5133145839532451</v>
+        <v>4.7758042437631492</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10352,11 +10352,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-16695501.649516404</v>
+        <v>-16694982.635255815</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>5.3202218474044649</v>
+        <v>5.3200875443571665</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12128,17 +12128,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.25540430914947254</v>
+        <v>0.25539636937734428</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.25540430914947254</v>
+        <v>0.25539636937734428</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.25540430914947254</v>
+        <v>0.25539636937734428</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12179,17 +12179,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10219942216650914</v>
+        <v>0.10219624508572164</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9617392067181857E-2</v>
+        <v>6.96152278663075E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9617392067181857E-2</v>
+        <v>6.96152278663075E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12238,7 +12238,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D93" s="240">
         <f>Inputs!C86</f>
@@ -12249,14 +12249,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>52.21025299499636</v>
+        <v>54.476847643128394</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>52.21025299499636</v>
+        <v>54.476847643128394</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12274,14 +12274,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>6.3895391023498922</v>
+        <v>6.6670704328410242</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>6.3895391023498922</v>
+        <v>6.6670704328410242</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12324,21 +12324,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9251494.9444385581</v>
+        <v>9653128.4881468173</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>25.957723133150051</v>
+        <v>27.084621260552915</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>25.957723133150051</v>
+        <v>27.084621260552915</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>36.879232210589876</v>
+        <v>39.023250583843783</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12348,14 +12348,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>675462.47387886047</v>
+        <v>675441.4757283529</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.8952037469706582</v>
+        <v>1.895144830635465</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12366,17 +12366,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>-34487889.51719068</v>
+        <v>-34486817.389688745</v>
       </c>
       <c r="D99" s="215"/>
       <c r="E99" s="146">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>-111.28051810511653</v>
+        <v>-111.27705871964642</v>
       </c>
       <c r="F99" s="215"/>
       <c r="H99" s="146">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-96.765667917492635</v>
+        <v>-96.76265975621429</v>
       </c>
       <c r="I99" s="217"/>
       <c r="K99" s="24"/>
@@ -12387,7 +12387,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-25911857.046630982</v>
+        <v>-25509130.377270281</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12448,27 +12448,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1132206.5171442032</v>
+        <v>1181384.2083767676</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.7002206623220224</v>
+        <v>2.8175054650331082</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.1767301909670853</v>
+        <v>3.3147123118036568</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>3.1767301909670853</v>
+        <v>3.3147123118036568</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.1767301909670853</v>
+        <v>3.3147123118036568</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>4.5133145839532451</v>
+        <v>4.7758042437631492</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12509,27 +12509,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>566103.25857210159</v>
+        <v>590692.10418838379</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.3501103311610112</v>
+        <v>1.4087527325165541</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.5883650954835427</v>
+        <v>1.6573561559018284</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.5883650954835427</v>
+        <v>1.6573561559018284</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.5883650954835427</v>
+        <v>1.6573561559018284</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>2.2566572919766226</v>
+        <v>2.3879021218815746</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1398.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1398.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5F0BDFA-1C97-4EE6-A1BB-69DDE56C8682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AF9D3AC-C5A7-4855-8D91-BFE7147849C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -967,7 +967,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="13">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
@@ -980,6 +980,7 @@
     <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="185" formatCode="#,##0.0000"/>
     <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1519,7 +1520,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1819,9 +1820,6 @@
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2156,6 +2154,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3593,7 +3597,7 @@
       <c r="B4" s="141" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="189" t="s">
+      <c r="C4" s="188" t="s">
         <v>258</v>
       </c>
     </row>
@@ -3601,7 +3605,7 @@
       <c r="B5" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="191" t="s">
         <v>259</v>
       </c>
     </row>
@@ -3609,7 +3613,7 @@
       <c r="B6" s="141" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="190">
+      <c r="C6" s="189">
         <v>45605</v>
       </c>
     </row>
@@ -3617,7 +3621,7 @@
       <c r="B7" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="191">
+      <c r="C7" s="190">
         <v>8</v>
       </c>
     </row>
@@ -3625,16 +3629,16 @@
       <c r="B8" s="140" t="s">
         <v>215</v>
       </c>
-      <c r="C8" s="192" t="s">
+      <c r="C8" s="191" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="268"/>
+      <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>216</v>
       </c>
-      <c r="C9" s="193" t="s">
+      <c r="C9" s="192" t="s">
         <v>260</v>
       </c>
     </row>
@@ -3642,7 +3646,7 @@
       <c r="B10" s="140" t="s">
         <v>217</v>
       </c>
-      <c r="C10" s="194">
+      <c r="C10" s="193">
         <v>356406257089</v>
       </c>
     </row>
@@ -3650,101 +3654,101 @@
       <c r="B11" s="140" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="193" t="s">
+      <c r="C11" s="192" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="219" t="s">
+      <c r="B12" s="218" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="220">
+      <c r="C12" s="219">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="219" t="s">
+      <c r="B13" s="218" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="221">
+      <c r="C13" s="220">
         <v>1000000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="219" t="s">
+      <c r="B14" s="218" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="220">
+      <c r="C14" s="219">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="219" t="s">
+      <c r="B15" s="218" t="s">
         <v>254</v>
       </c>
-      <c r="C15" s="177" t="s">
+      <c r="C15" s="176" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="223" t="s">
+      <c r="B16" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="224">
+      <c r="C16" s="223">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="241" t="s">
+      <c r="B17" s="240" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="243" t="s">
+      <c r="C17" s="242" t="s">
         <v>263</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="241" t="s">
+      <c r="B18" s="240" t="s">
         <v>238</v>
       </c>
-      <c r="C18" s="243" t="s">
+      <c r="C18" s="242" t="s">
         <v>264</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="241" t="s">
+      <c r="B19" s="240" t="s">
         <v>239</v>
       </c>
-      <c r="C19" s="243" t="s">
+      <c r="C19" s="242" t="s">
         <v>264</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="242" t="s">
+      <c r="B20" s="241" t="s">
         <v>228</v>
       </c>
-      <c r="C20" s="243" t="s">
+      <c r="C20" s="242" t="s">
         <v>264</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="225" t="s">
+      <c r="B21" s="224" t="s">
         <v>231</v>
       </c>
-      <c r="C21" s="243" t="s">
+      <c r="C21" s="242" t="s">
         <v>263</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="227" t="s">
+      <c r="B22" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C22" s="244" t="s">
+      <c r="C22" s="243" t="s">
         <v>265</v>
       </c>
       <c r="D22" s="24"/>
@@ -3802,390 +3806,390 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="150">
+      <c r="C25" s="149">
         <v>1542930</v>
       </c>
-      <c r="D25" s="150">
+      <c r="D25" s="149">
         <v>1278674</v>
       </c>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="149"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="149"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="151">
+      <c r="C26" s="150">
         <v>18534</v>
       </c>
-      <c r="D26" s="151">
+      <c r="D26" s="150">
         <v>16493</v>
       </c>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="150"/>
+      <c r="L26" s="150"/>
+      <c r="M26" s="150"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="151">
+      <c r="C27" s="150">
         <v>238698</v>
       </c>
-      <c r="D27" s="151">
+      <c r="D27" s="150">
         <v>239351</v>
       </c>
-      <c r="E27" s="151"/>
-      <c r="F27" s="151"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="150"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="151"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
         <v>255</v>
       </c>
-      <c r="C29" s="151">
+      <c r="C29" s="150">
         <v>750026</v>
       </c>
-      <c r="D29" s="151">
+      <c r="D29" s="150">
         <v>586689</v>
       </c>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="151"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="150"/>
+      <c r="L29" s="150"/>
+      <c r="M29" s="150"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="151">
+      <c r="C30" s="150">
         <v>1123</v>
       </c>
-      <c r="D30" s="151">
+      <c r="D30" s="150">
         <v>978</v>
       </c>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="151"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="150"/>
+      <c r="L30" s="150"/>
+      <c r="M30" s="150"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="151"/>
-      <c r="D31" s="151"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="151"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="151"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="150"/>
+      <c r="M31" s="150"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="151"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="150"/>
+      <c r="L32" s="150"/>
+      <c r="M32" s="150"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="151"/>
-      <c r="D33" s="151"/>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="151"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="151"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="150"/>
+      <c r="L33" s="150"/>
+      <c r="M33" s="150"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="218"/>
-      <c r="D34" s="151"/>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="151"/>
-      <c r="M34" s="151"/>
+      <c r="C34" s="217"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="150"/>
+      <c r="M34" s="150"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="218"/>
-      <c r="D35" s="151"/>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="151"/>
-      <c r="M35" s="151"/>
+      <c r="C35" s="217"/>
+      <c r="D35" s="150"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="150"/>
+      <c r="L35" s="150"/>
+      <c r="M35" s="150"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="218"/>
-      <c r="D36" s="151"/>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="151"/>
-      <c r="M36" s="151"/>
+      <c r="C36" s="217"/>
+      <c r="D36" s="150"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="150"/>
+      <c r="K36" s="150"/>
+      <c r="L36" s="150"/>
+      <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="218"/>
-      <c r="D37" s="151"/>
-      <c r="E37" s="151"/>
-      <c r="F37" s="151"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="151"/>
-      <c r="M37" s="151"/>
+      <c r="C37" s="217"/>
+      <c r="D37" s="150"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="150"/>
+      <c r="K37" s="150"/>
+      <c r="L37" s="150"/>
+      <c r="M37" s="150"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="218"/>
-      <c r="D38" s="151"/>
-      <c r="E38" s="151"/>
-      <c r="F38" s="151"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
-      <c r="M38" s="151"/>
+      <c r="C38" s="217"/>
+      <c r="D38" s="150"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="150"/>
+      <c r="K38" s="150"/>
+      <c r="L38" s="150"/>
+      <c r="M38" s="150"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="218"/>
-      <c r="D39" s="151"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="151"/>
-      <c r="M39" s="151"/>
+      <c r="C39" s="217"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="150"/>
+      <c r="M39" s="150"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="218"/>
-      <c r="D40" s="151"/>
-      <c r="E40" s="151"/>
-      <c r="F40" s="151"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="151"/>
-      <c r="K40" s="151"/>
-      <c r="L40" s="151"/>
-      <c r="M40" s="151"/>
+      <c r="C40" s="217"/>
+      <c r="D40" s="150"/>
+      <c r="E40" s="150"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="150"/>
+      <c r="K40" s="150"/>
+      <c r="L40" s="150"/>
+      <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="C41" s="218"/>
-      <c r="D41" s="151"/>
-      <c r="E41" s="151"/>
-      <c r="F41" s="151"/>
-      <c r="G41" s="151"/>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="151"/>
-      <c r="K41" s="151"/>
-      <c r="L41" s="151"/>
-      <c r="M41" s="151"/>
+      <c r="C41" s="217"/>
+      <c r="D41" s="150"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="150"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="150"/>
+      <c r="K41" s="150"/>
+      <c r="L41" s="150"/>
+      <c r="M41" s="150"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="218"/>
-      <c r="D42" s="151"/>
-      <c r="E42" s="151"/>
-      <c r="F42" s="151"/>
-      <c r="G42" s="151"/>
-      <c r="H42" s="151"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="151"/>
-      <c r="K42" s="151"/>
-      <c r="L42" s="151"/>
-      <c r="M42" s="151"/>
+      <c r="C42" s="217"/>
+      <c r="D42" s="150"/>
+      <c r="E42" s="150"/>
+      <c r="F42" s="150"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="150"/>
+      <c r="J42" s="150"/>
+      <c r="K42" s="150"/>
+      <c r="L42" s="150"/>
+      <c r="M42" s="150"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="218"/>
-      <c r="D43" s="151"/>
-      <c r="E43" s="151"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="151"/>
-      <c r="M43" s="151"/>
+      <c r="C43" s="217"/>
+      <c r="D43" s="150"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="150"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="251">
+      <c r="C44" s="250">
         <f>0.3064+0.1434</f>
         <v>0.44979999999999998</v>
       </c>
-      <c r="D44" s="251"/>
-      <c r="E44" s="251"/>
-      <c r="F44" s="251"/>
-      <c r="G44" s="251"/>
-      <c r="H44" s="251"/>
-      <c r="I44" s="251"/>
-      <c r="J44" s="251"/>
-      <c r="K44" s="251"/>
-      <c r="L44" s="251"/>
-      <c r="M44" s="251"/>
+      <c r="D44" s="250"/>
+      <c r="E44" s="250"/>
+      <c r="F44" s="250"/>
+      <c r="G44" s="250"/>
+      <c r="H44" s="250"/>
+      <c r="I44" s="250"/>
+      <c r="J44" s="250"/>
+      <c r="K44" s="250"/>
+      <c r="L44" s="250"/>
+      <c r="M44" s="250"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
         <v>251</v>
       </c>
-      <c r="C45" s="153">
+      <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10219624508572164</v>
-      </c>
-      <c r="D45" s="153" t="str">
+        <v>0.10188658217127008</v>
+      </c>
+      <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
@@ -4194,10 +4198,10 @@
       <c r="B47" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C47" s="195" t="s">
+      <c r="C47" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="195" t="s">
+      <c r="D47" s="194" t="s">
         <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -4306,7 +4310,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="222" t="s">
+      <c r="E56" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4318,7 +4322,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="222" t="s">
+      <c r="E57" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4338,7 +4342,7 @@
         <v>50</v>
       </c>
       <c r="C59" s="120"/>
-      <c r="D59" s="196">
+      <c r="D59" s="195">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -4408,7 +4412,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="222" t="s">
+      <c r="E65" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4420,7 +4424,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="222" t="s">
+      <c r="E66" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4433,7 +4437,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="222" t="s">
+      <c r="E67" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4485,16 +4489,16 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="247" t="s">
+      <c r="B72" s="246" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="248">
+      <c r="C72" s="247">
         <v>638618</v>
       </c>
-      <c r="D72" s="249">
+      <c r="D72" s="248">
         <v>0</v>
       </c>
-      <c r="E72" s="250"/>
+      <c r="E72" s="249"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -4586,7 +4590,7 @@
       <c r="B86" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C86" s="198">
+      <c r="C86" s="197">
         <v>5</v>
       </c>
     </row>
@@ -4594,19 +4598,20 @@
       <c r="B87" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="C87" s="237" t="s">
+      <c r="C87" s="236" t="s">
         <v>266</v>
       </c>
+      <c r="D87" s="269"/>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C89" s="270">
+      <c r="C89" s="271">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="270"/>
+      <c r="D89" s="271"/>
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
@@ -4620,14 +4625,14 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C90" s="271" t="s">
+      <c r="C90" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D90" s="271"/>
-      <c r="E90" s="236" t="s">
+      <c r="D90" s="272"/>
+      <c r="E90" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="F90" s="256" t="s">
+      <c r="F90" s="255" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4639,12 +4644,12 @@
         <f>C25</f>
         <v>1542930</v>
       </c>
-      <c r="D91" s="210"/>
-      <c r="E91" s="252">
+      <c r="D91" s="209"/>
+      <c r="E91" s="251">
         <f>C91</f>
         <v>1542930</v>
       </c>
-      <c r="F91" s="252">
+      <c r="F91" s="251">
         <f>C91</f>
         <v>1542930</v>
       </c>
@@ -4657,15 +4662,15 @@
         <f>C26</f>
         <v>18534</v>
       </c>
-      <c r="D92" s="160">
+      <c r="D92" s="159">
         <f>C92/C91</f>
         <v>1.2012210534502537E-2</v>
       </c>
-      <c r="E92" s="253">
+      <c r="E92" s="252">
         <f>E91*D92</f>
         <v>18534</v>
       </c>
-      <c r="F92" s="253">
+      <c r="F92" s="252">
         <f>F91*D92</f>
         <v>18534</v>
       </c>
@@ -4678,15 +4683,15 @@
         <f>C27+C28</f>
         <v>238698</v>
       </c>
-      <c r="D93" s="160">
+      <c r="D93" s="159">
         <f>C93/C91</f>
         <v>0.15470436118294414</v>
       </c>
-      <c r="E93" s="253">
+      <c r="E93" s="252">
         <f>E91*D93</f>
         <v>238698</v>
       </c>
-      <c r="F93" s="253">
+      <c r="F93" s="252">
         <f>F91*D93</f>
         <v>238698</v>
       </c>
@@ -4699,12 +4704,12 @@
         <f>C29</f>
         <v>750026</v>
       </c>
-      <c r="D94" s="160">
+      <c r="D94" s="159">
         <f>C94/C91</f>
         <v>0.48610500800425166</v>
       </c>
-      <c r="E94" s="254"/>
-      <c r="F94" s="253">
+      <c r="E94" s="253"/>
+      <c r="F94" s="252">
         <f>F91*D94</f>
         <v>750026</v>
       </c>
@@ -4717,15 +4722,15 @@
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="160">
+      <c r="D95" s="159">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="253">
+      <c r="E95" s="252">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="253">
+      <c r="F95" s="252">
         <f>F91*D95</f>
         <v>0</v>
       </c>
@@ -4738,12 +4743,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="160">
+      <c r="D96" s="159">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="254"/>
-      <c r="F96" s="253">
+      <c r="E96" s="253"/>
+      <c r="F96" s="252">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -4756,12 +4761,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>1497.3333333333333</v>
       </c>
-      <c r="D97" s="160">
+      <c r="D97" s="159">
         <f>C97/C91</f>
         <v>9.7044800044936142E-4</v>
       </c>
-      <c r="E97" s="254"/>
-      <c r="F97" s="253">
+      <c r="E97" s="253"/>
+      <c r="F97" s="252">
         <f>F91*D97</f>
         <v>1497.3333333333333</v>
       </c>
@@ -4770,16 +4775,16 @@
       <c r="B98" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C98" s="238">
+      <c r="C98" s="237">
         <f>C44</f>
         <v>0.44979999999999998</v>
       </c>
-      <c r="D98" s="267"/>
-      <c r="E98" s="255">
+      <c r="D98" s="266"/>
+      <c r="E98" s="254">
         <f>F98</f>
         <v>0.30640000000000001</v>
       </c>
-      <c r="F98" s="255">
+      <c r="F98" s="254">
         <f>0.3064</f>
         <v>0.30640000000000001</v>
       </c>
@@ -4898,17 +4903,17 @@
       <c r="B3" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="276" t="str">
+      <c r="C3" s="277" t="str">
         <f>Inputs!C4</f>
         <v>1398.HK</v>
       </c>
-      <c r="D3" s="277"/>
+      <c r="D3" s="278"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.72</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>267</v>
@@ -4918,40 +4923,40 @@
       <c r="B4" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="278" t="str">
+      <c r="C4" s="279" t="str">
         <f>Inputs!C5</f>
         <v>工商银行</v>
       </c>
-      <c r="D4" s="279"/>
+      <c r="D4" s="280"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="282">
+      <c r="G4" s="283">
         <f>Inputs!C10</f>
         <v>356406257089</v>
       </c>
-      <c r="H4" s="282"/>
+      <c r="H4" s="283"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="280">
+      <c r="C5" s="281">
         <f>Inputs!C6</f>
         <v>45605</v>
       </c>
-      <c r="D5" s="281"/>
+      <c r="D5" s="282"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="274">
+      <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1682237.5334600799</v>
-      </c>
-      <c r="H5" s="274"/>
+        <v>1685801.5960309701</v>
+      </c>
+      <c r="H5" s="275"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4959,11 +4964,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="186">
+      <c r="C6" s="185">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="187">
+      <c r="D6" s="186">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4974,22 +4979,22 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="275" t="str">
+      <c r="G6" s="276" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="275"/>
+      <c r="H6" s="276"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="188" t="str">
+      <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
         <v>Y</v>
       </c>
-      <c r="D7" s="188" t="str">
+      <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
         <v>C0014</v>
       </c>
@@ -4998,7 +5003,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724016825358074</v>
+        <v>1.0714173714319866</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5018,7 +5023,7 @@
       <c r="B10" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="173">
+      <c r="C10" s="172">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -5029,7 +5034,7 @@
       <c r="B11" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="C11" s="174">
+      <c r="C11" s="173">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
@@ -5043,11 +5048,11 @@
       <c r="B12" s="87" t="s">
         <v>252</v>
       </c>
-      <c r="C12" s="175">
+      <c r="C12" s="174">
         <v>0.06</v>
       </c>
-      <c r="D12" s="173">
-        <v>6.4500000000000002E-2</v>
+      <c r="D12" s="172">
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5056,7 +5061,7 @@
       <c r="B14" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C14" s="173">
+      <c r="C14" s="172">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -5067,7 +5072,7 @@
       <c r="B15" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="173">
+      <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -5078,10 +5083,10 @@
       <c r="B16" s="122" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="174">
+      <c r="C16" s="173">
         <v>0.16</v>
       </c>
-      <c r="D16" s="266" t="str">
+      <c r="D16" s="265" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -5093,10 +5098,10 @@
       <c r="B17" s="87" t="s">
         <v>253</v>
       </c>
-      <c r="C17" s="176">
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D17" s="177"/>
+      <c r="C17" s="175">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5118,14 +5123,14 @@
       <c r="B20" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="172">
+      <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>1.2012210534502537E-2</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="G20" s="173">
+      <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
@@ -5133,7 +5138,7 @@
       <c r="B21" s="137" t="s">
         <v>244</v>
       </c>
-      <c r="C21" s="172">
+      <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
         <v>0.15470436118294414</v>
       </c>
@@ -5144,7 +5149,7 @@
       <c r="B22" s="137" t="s">
         <v>191</v>
       </c>
-      <c r="C22" s="172">
+      <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>9.7044800044936142E-4</v>
       </c>
@@ -5156,46 +5161,46 @@
       <c r="B23" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="172">
+      <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
         <v>188</v>
       </c>
-      <c r="G23" s="178">
+      <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.40591622208050432</v>
+        <v>0.40714991937090239</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="172">
+      <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>0.48610500800425166</v>
       </c>
       <c r="F24" s="140" t="s">
         <v>257</v>
       </c>
-      <c r="G24" s="269">
+      <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>3.9154824418138658</v>
+        <v>3.9273827301401329</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
         <v>243</v>
       </c>
-      <c r="C25" s="172">
+      <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
         <v>174</v>
       </c>
-      <c r="G25" s="172">
+      <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
         <v>0.27257720239339839</v>
       </c>
@@ -5204,16 +5209,16 @@
       <c r="B26" s="138" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="172">
+      <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>0.34620797227785238</v>
       </c>
       <c r="F26" s="141" t="s">
         <v>193</v>
       </c>
-      <c r="G26" s="179">
+      <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.96152278663075E-2</v>
+        <v>6.9404288077539247E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5232,10 +5237,10 @@
       <c r="F28" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="G28" s="272" t="s">
+      <c r="G28" s="273" t="s">
         <v>256</v>
       </c>
-      <c r="H28" s="272"/>
+      <c r="H28" s="273"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5243,22 +5248,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.8175054650331082</v>
+        <v>2.6949721279912073</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.4921748803276209</v>
+        <v>5.1802231406796082</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.3147123118036568</v>
-      </c>
-      <c r="G29" s="273">
+        <v>3.170555444695538</v>
+      </c>
+      <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.7758042437631492</v>
-      </c>
-      <c r="H29" s="273"/>
+        <v>4.5045418614605293</v>
+      </c>
+      <c r="H29" s="274"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5270,17 +5275,17 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="197" t="s">
+      <c r="B32" s="196" t="s">
         <v>223</v>
       </c>
-      <c r="C32" s="225"/>
+      <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="C33" s="246" t="str">
+      <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
         <v>Strongly agree</v>
       </c>
@@ -5290,7 +5295,7 @@
       <c r="B34" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="C34" s="226" t="str">
+      <c r="C34" s="225" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly disagree</v>
@@ -5298,17 +5303,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="197" t="s">
+      <c r="B35" s="196" t="s">
         <v>226</v>
       </c>
-      <c r="C35" s="225"/>
+      <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C36" s="246" t="str">
+      <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
         <v>agree</v>
       </c>
@@ -5318,24 +5323,24 @@
       <c r="B37" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="C37" s="246" t="str">
+      <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="197" t="s">
+      <c r="B38" s="196" t="s">
         <v>227</v>
       </c>
-      <c r="C38" s="225"/>
+      <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="C39" s="246" t="str">
+      <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -5345,7 +5350,7 @@
       <c r="B40" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C40" s="246" t="str">
+      <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
         <v>Strongly agree</v>
       </c>
@@ -5364,10 +5369,10 @@
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="227" t="s">
+      <c r="B43" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C43" s="245" t="str">
+      <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -6349,16 +6354,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="149" t="s">
+      <c r="E2" s="148" t="s">
         <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="148" t="s">
         <v>203</v>
       </c>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>204</v>
       </c>
       <c r="I2" s="7"/>
@@ -6372,11 +6377,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="202">
+      <c r="C3" s="201">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="147" t="s">
+      <c r="E3" s="146" t="s">
         <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -6409,7 +6414,7 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="147" t="s">
+      <c r="E4" s="146" t="s">
         <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -6473,47 +6478,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="201">
+      <c r="C6" s="200">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>1542930</v>
       </c>
-      <c r="D6" s="201">
+      <c r="D6" s="200">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>1278674</v>
       </c>
-      <c r="E6" s="201" t="str">
+      <c r="E6" s="200" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="201" t="str">
+      <c r="F6" s="200" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="201" t="str">
+      <c r="G6" s="200" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="201" t="str">
+      <c r="H6" s="200" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="201" t="str">
+      <c r="I6" s="200" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="201" t="str">
+      <c r="J6" s="200" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="201" t="str">
+      <c r="K6" s="200" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="201" t="str">
+      <c r="L6" s="200" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="201" t="str">
+      <c r="M6" s="200" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -6575,47 +6580,47 @@
       <c r="B8" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="200">
+      <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>18534</v>
       </c>
-      <c r="D8" s="200">
+      <c r="D8" s="199">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>16493</v>
       </c>
-      <c r="E8" s="200" t="str">
+      <c r="E8" s="199" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="200" t="str">
+      <c r="F8" s="199" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="200" t="str">
+      <c r="G8" s="199" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="200" t="str">
+      <c r="H8" s="199" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="200" t="str">
+      <c r="I8" s="199" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="200" t="str">
+      <c r="J8" s="199" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="200" t="str">
+      <c r="K8" s="199" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="200" t="str">
+      <c r="L8" s="199" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="200" t="str">
+      <c r="M8" s="199" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -6626,47 +6631,47 @@
       <c r="B9" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="152">
+      <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>1524396</v>
       </c>
-      <c r="D9" s="152">
+      <c r="D9" s="151">
         <f t="shared" si="2"/>
         <v>1262181</v>
       </c>
-      <c r="E9" s="152" t="str">
+      <c r="E9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="152" t="str">
+      <c r="F9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="152" t="str">
+      <c r="G9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="152" t="str">
+      <c r="H9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="152" t="str">
+      <c r="I9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="152" t="str">
+      <c r="J9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="152" t="str">
+      <c r="K9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="152" t="str">
+      <c r="L9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="152" t="str">
+      <c r="M9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6677,47 +6682,47 @@
       <c r="B10" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="200">
+      <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>238698</v>
       </c>
-      <c r="D10" s="200">
+      <c r="D10" s="199">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>239351</v>
       </c>
-      <c r="E10" s="200" t="str">
+      <c r="E10" s="199" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="200" t="str">
+      <c r="F10" s="199" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="200" t="str">
+      <c r="G10" s="199" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="200" t="str">
+      <c r="H10" s="199" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="200" t="str">
+      <c r="I10" s="199" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="200" t="str">
+      <c r="J10" s="199" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="200" t="str">
+      <c r="K10" s="199" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="200" t="str">
+      <c r="L10" s="199" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="200" t="str">
+      <c r="M10" s="199" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6728,47 +6733,47 @@
       <c r="B11" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="200" t="str">
+      <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="200" t="str">
+      <c r="D11" s="199" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="200" t="str">
+      <c r="E11" s="199" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="200" t="str">
+      <c r="F11" s="199" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="200" t="str">
+      <c r="G11" s="199" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="200" t="str">
+      <c r="H11" s="199" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="200" t="str">
+      <c r="I11" s="199" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="200" t="str">
+      <c r="J11" s="199" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="200" t="str">
+      <c r="K11" s="199" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="200" t="str">
+      <c r="L11" s="199" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="200" t="str">
+      <c r="M11" s="199" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6779,47 +6784,47 @@
       <c r="B12" s="99" t="s">
         <v>240</v>
       </c>
-      <c r="C12" s="200">
+      <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>1497.3333333333333</v>
       </c>
-      <c r="D12" s="200">
+      <c r="D12" s="199">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>1304</v>
       </c>
-      <c r="E12" s="200" t="str">
+      <c r="E12" s="199" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="200" t="str">
+      <c r="F12" s="199" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="200" t="str">
+      <c r="G12" s="199" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="200" t="str">
+      <c r="H12" s="199" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="200" t="str">
+      <c r="I12" s="199" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="200" t="str">
+      <c r="J12" s="199" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="200" t="str">
+      <c r="K12" s="199" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="200" t="str">
+      <c r="L12" s="199" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="200" t="str">
+      <c r="M12" s="199" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6827,50 +6832,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="229" t="s">
+      <c r="B13" s="228" t="s">
         <v>241</v>
       </c>
-      <c r="C13" s="230">
+      <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.83231298028210399</v>
       </c>
-      <c r="D13" s="230">
+      <c r="D13" s="229">
         <f t="shared" si="3"/>
         <v>0.79889479257418228</v>
       </c>
-      <c r="E13" s="230" t="str">
+      <c r="E13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="230" t="str">
+      <c r="F13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="230" t="str">
+      <c r="G13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="230" t="str">
+      <c r="H13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="230" t="str">
+      <c r="I13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="230" t="str">
+      <c r="J13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="230" t="str">
+      <c r="K13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="230" t="str">
+      <c r="L13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="230" t="str">
+      <c r="M13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6878,50 +6883,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="229" t="s">
+      <c r="B14" s="228" t="s">
         <v>233</v>
       </c>
-      <c r="C14" s="231">
+      <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>1284200.6666666667</v>
       </c>
-      <c r="D14" s="231">
+      <c r="D14" s="230">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>1021526</v>
       </c>
-      <c r="E14" s="231" t="str">
+      <c r="E14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="231" t="str">
+      <c r="F14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="231" t="str">
+      <c r="G14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="231" t="str">
+      <c r="H14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="231" t="str">
+      <c r="I14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="231" t="str">
+      <c r="J14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="231" t="str">
+      <c r="K14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="231" t="str">
+      <c r="L14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="231" t="str">
+      <c r="M14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6929,50 +6934,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="232" t="s">
+      <c r="B15" s="231" t="s">
         <v>242</v>
       </c>
-      <c r="C15" s="233">
+      <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.2571394821734021</v>
       </c>
-      <c r="D15" s="233" t="str">
+      <c r="D15" s="232" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="233" t="str">
+      <c r="E15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="233" t="str">
+      <c r="F15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="233" t="str">
+      <c r="G15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="233" t="str">
+      <c r="H15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="233" t="str">
+      <c r="I15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="233" t="str">
+      <c r="J15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="233" t="str">
+      <c r="K15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="233" t="str">
+      <c r="L15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="233" t="str">
+      <c r="M15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6983,47 +6988,47 @@
       <c r="B16" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="200" t="str">
+      <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="200" t="str">
+      <c r="D16" s="199" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="200" t="str">
+      <c r="E16" s="199" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="200" t="str">
+      <c r="F16" s="199" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="200" t="str">
+      <c r="G16" s="199" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="200" t="str">
+      <c r="H16" s="199" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="200" t="str">
+      <c r="I16" s="199" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="200" t="str">
+      <c r="J16" s="199" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="200" t="str">
+      <c r="K16" s="199" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="200" t="str">
+      <c r="L16" s="199" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="200" t="str">
+      <c r="M16" s="199" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -7034,47 +7039,47 @@
       <c r="B17" s="97" t="s">
         <v>255</v>
       </c>
-      <c r="C17" s="200">
+      <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>750026</v>
       </c>
-      <c r="D17" s="200">
+      <c r="D17" s="199">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>586689</v>
       </c>
-      <c r="E17" s="200" t="str">
+      <c r="E17" s="199" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="200" t="str">
+      <c r="F17" s="199" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="200" t="str">
+      <c r="G17" s="199" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="200" t="str">
+      <c r="H17" s="199" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="200" t="str">
+      <c r="I17" s="199" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="200" t="str">
+      <c r="J17" s="199" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="200" t="str">
+      <c r="K17" s="199" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="200" t="str">
+      <c r="L17" s="199" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="200" t="str">
+      <c r="M17" s="199" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -7085,47 +7090,47 @@
       <c r="B18" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="153" t="str">
+      <c r="C18" s="152" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="153" t="str">
+      <c r="D18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="153" t="str">
+      <c r="E18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="153" t="str">
+      <c r="F18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="153" t="str">
+      <c r="G18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="153" t="str">
+      <c r="H18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="153" t="str">
+      <c r="I18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="153" t="str">
+      <c r="J18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="153" t="str">
+      <c r="K18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="153" t="str">
+      <c r="L18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="153" t="str">
+      <c r="M18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -7136,47 +7141,47 @@
       <c r="B19" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="200" t="str">
+      <c r="C19" s="199" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="200" t="str">
+      <c r="D19" s="199" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="200" t="str">
+      <c r="E19" s="199" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="200" t="str">
+      <c r="F19" s="199" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="200" t="str">
+      <c r="G19" s="199" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="200" t="str">
+      <c r="H19" s="199" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="200" t="str">
+      <c r="I19" s="199" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="200" t="str">
+      <c r="J19" s="199" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="200" t="str">
+      <c r="K19" s="199" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="200" t="str">
+      <c r="L19" s="199" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="200" t="str">
+      <c r="M19" s="199" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -7187,47 +7192,47 @@
       <c r="B20" s="97" t="s">
         <v>235</v>
       </c>
-      <c r="C20" s="153">
+      <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="153">
+      <c r="D20" s="152">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="153" t="str">
+      <c r="E20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="153" t="str">
+      <c r="F20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="153" t="str">
+      <c r="G20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="153" t="str">
+      <c r="H20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="153" t="str">
+      <c r="I20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="153" t="str">
+      <c r="J20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="153" t="str">
+      <c r="K20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="153" t="str">
+      <c r="L20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="153" t="str">
+      <c r="M20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -7238,47 +7243,47 @@
       <c r="B21" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="200" t="str">
+      <c r="C21" s="199" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="200" t="str">
+      <c r="D21" s="199" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="200" t="str">
+      <c r="E21" s="199" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="200" t="str">
+      <c r="F21" s="199" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="200" t="str">
+      <c r="G21" s="199" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="200" t="str">
+      <c r="H21" s="199" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="200" t="str">
+      <c r="I21" s="199" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="200" t="str">
+      <c r="J21" s="199" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="200" t="str">
+      <c r="K21" s="199" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="200" t="str">
+      <c r="L21" s="199" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="200" t="str">
+      <c r="M21" s="199" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -7289,47 +7294,47 @@
       <c r="B22" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="162">
+      <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>534174.66666666674</v>
       </c>
-      <c r="D22" s="162">
+      <c r="D22" s="161">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>434837</v>
       </c>
-      <c r="E22" s="162" t="str">
+      <c r="E22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="162" t="str">
+      <c r="F22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="162" t="str">
+      <c r="G22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="162" t="str">
+      <c r="H22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="162" t="str">
+      <c r="I22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="162" t="str">
+      <c r="J22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="162" t="str">
+      <c r="K22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="162" t="str">
+      <c r="L22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="162" t="str">
+      <c r="M22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7340,47 +7345,47 @@
       <c r="B23" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="154">
+      <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>0.25965597920838929</v>
       </c>
-      <c r="D23" s="154">
+      <c r="D23" s="153">
         <f t="shared" si="9"/>
         <v>0.25505152212370003</v>
       </c>
-      <c r="E23" s="154" t="str">
+      <c r="E23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="154" t="str">
+      <c r="F23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="154" t="str">
+      <c r="G23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="154" t="str">
+      <c r="H23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="154" t="str">
+      <c r="I23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="154" t="str">
+      <c r="J23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="154" t="str">
+      <c r="K23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="154" t="str">
+      <c r="L23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="154" t="str">
+      <c r="M23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7391,7 +7396,7 @@
       <c r="B24" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="155">
+      <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>400631.00000000006</v>
       </c>
@@ -7439,50 +7444,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="235" t="s">
+      <c r="B25" s="234" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="234">
+      <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.22844805448171784</v>
       </c>
-      <c r="D25" s="234" t="str">
+      <c r="D25" s="233" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="234" t="str">
+      <c r="E25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="234" t="str">
+      <c r="F25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="234" t="str">
+      <c r="G25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="234" t="str">
+      <c r="H25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="234" t="str">
+      <c r="I25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="234" t="str">
+      <c r="J25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="234" t="str">
+      <c r="K25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="234" t="str">
+      <c r="L25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="234" t="str">
+      <c r="M25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7599,43 +7604,43 @@
         <f>Fin_Analysis!C28</f>
         <v>46016636</v>
       </c>
-      <c r="D28" s="200" t="str">
+      <c r="D28" s="199" t="str">
         <f>IF(Inputs!D34="","",Inputs!D34)</f>
         <v/>
       </c>
-      <c r="E28" s="200" t="str">
+      <c r="E28" s="199" t="str">
         <f>IF(Inputs!E34="","",Inputs!E34)</f>
         <v/>
       </c>
-      <c r="F28" s="200" t="str">
+      <c r="F28" s="199" t="str">
         <f>IF(Inputs!F34="","",Inputs!F34)</f>
         <v/>
       </c>
-      <c r="G28" s="200" t="str">
+      <c r="G28" s="199" t="str">
         <f>IF(Inputs!G34="","",Inputs!G34)</f>
         <v/>
       </c>
-      <c r="H28" s="200" t="str">
+      <c r="H28" s="199" t="str">
         <f>IF(Inputs!H34="","",Inputs!H34)</f>
         <v/>
       </c>
-      <c r="I28" s="200" t="str">
+      <c r="I28" s="199" t="str">
         <f>IF(Inputs!I34="","",Inputs!I34)</f>
         <v/>
       </c>
-      <c r="J28" s="200" t="str">
+      <c r="J28" s="199" t="str">
         <f>IF(Inputs!J34="","",Inputs!J34)</f>
         <v/>
       </c>
-      <c r="K28" s="200" t="str">
+      <c r="K28" s="199" t="str">
         <f>IF(Inputs!K34="","",Inputs!K34)</f>
         <v/>
       </c>
-      <c r="L28" s="200" t="str">
+      <c r="L28" s="199" t="str">
         <f>IF(Inputs!L34="","",Inputs!L34)</f>
         <v/>
       </c>
-      <c r="M28" s="200" t="str">
+      <c r="M28" s="199" t="str">
         <f>IF(Inputs!M34="","",Inputs!M34)</f>
         <v/>
       </c>
@@ -7650,43 +7655,43 @@
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D29" s="200" t="str">
+      <c r="D29" s="199" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E29" s="200" t="str">
+      <c r="E29" s="199" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F29" s="200" t="str">
+      <c r="F29" s="199" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G29" s="200" t="str">
+      <c r="G29" s="199" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H29" s="200" t="str">
+      <c r="H29" s="199" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I29" s="200" t="str">
+      <c r="I29" s="199" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J29" s="200" t="str">
+      <c r="J29" s="199" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K29" s="200" t="str">
+      <c r="K29" s="199" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L29" s="200" t="str">
+      <c r="L29" s="199" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M29" s="200" t="str">
+      <c r="M29" s="199" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -7701,43 +7706,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D30" s="200" t="str">
+      <c r="D30" s="199" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E30" s="200" t="str">
+      <c r="E30" s="199" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F30" s="200" t="str">
+      <c r="F30" s="199" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G30" s="200" t="str">
+      <c r="G30" s="199" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H30" s="200" t="str">
+      <c r="H30" s="199" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I30" s="200" t="str">
+      <c r="I30" s="199" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J30" s="200" t="str">
+      <c r="J30" s="199" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K30" s="200" t="str">
+      <c r="K30" s="199" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L30" s="200" t="str">
+      <c r="L30" s="199" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M30" s="200" t="str">
+      <c r="M30" s="199" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -7752,43 +7757,43 @@
         <f>Fin_Analysis!I28</f>
         <v>43252035</v>
       </c>
-      <c r="D31" s="200" t="str">
+      <c r="D31" s="199" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E31" s="200" t="str">
+      <c r="E31" s="199" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F31" s="200" t="str">
+      <c r="F31" s="199" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G31" s="200" t="str">
+      <c r="G31" s="199" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H31" s="200" t="str">
+      <c r="H31" s="199" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I31" s="200" t="str">
+      <c r="I31" s="199" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J31" s="200" t="str">
+      <c r="J31" s="199" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K31" s="200" t="str">
+      <c r="K31" s="199" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L31" s="200" t="str">
+      <c r="L31" s="199" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M31" s="200" t="str">
+      <c r="M31" s="199" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7803,43 +7808,43 @@
         <f>Fin_Analysis!I48</f>
         <v>0</v>
       </c>
-      <c r="D32" s="200" t="str">
+      <c r="D32" s="199" t="str">
         <f>IF(Inputs!D38="","",Inputs!D38)</f>
         <v/>
       </c>
-      <c r="E32" s="200" t="str">
+      <c r="E32" s="199" t="str">
         <f>IF(Inputs!E38="","",Inputs!E38)</f>
         <v/>
       </c>
-      <c r="F32" s="200" t="str">
+      <c r="F32" s="199" t="str">
         <f>IF(Inputs!F38="","",Inputs!F38)</f>
         <v/>
       </c>
-      <c r="G32" s="200" t="str">
+      <c r="G32" s="199" t="str">
         <f>IF(Inputs!G38="","",Inputs!G38)</f>
         <v/>
       </c>
-      <c r="H32" s="200" t="str">
+      <c r="H32" s="199" t="str">
         <f>IF(Inputs!H38="","",Inputs!H38)</f>
         <v/>
       </c>
-      <c r="I32" s="200" t="str">
+      <c r="I32" s="199" t="str">
         <f>IF(Inputs!I38="","",Inputs!I38)</f>
         <v/>
       </c>
-      <c r="J32" s="200" t="str">
+      <c r="J32" s="199" t="str">
         <f>IF(Inputs!J38="","",Inputs!J38)</f>
         <v/>
       </c>
-      <c r="K32" s="200" t="str">
+      <c r="K32" s="199" t="str">
         <f>IF(Inputs!K38="","",Inputs!K38)</f>
         <v/>
       </c>
-      <c r="L32" s="200" t="str">
+      <c r="L32" s="199" t="str">
         <f>IF(Inputs!L38="","",Inputs!L38)</f>
         <v/>
       </c>
-      <c r="M32" s="200" t="str">
+      <c r="M32" s="199" t="str">
         <f>IF(Inputs!M38="","",Inputs!M38)</f>
         <v/>
       </c>
@@ -7854,43 +7859,43 @@
         <f>Fin_Analysis!I15</f>
         <v>42280604</v>
       </c>
-      <c r="D33" s="200" t="str">
+      <c r="D33" s="199" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E33" s="200" t="str">
+      <c r="E33" s="199" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F33" s="200" t="str">
+      <c r="F33" s="199" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G33" s="200" t="str">
+      <c r="G33" s="199" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H33" s="200" t="str">
+      <c r="H33" s="199" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I33" s="200" t="str">
+      <c r="I33" s="199" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J33" s="200" t="str">
+      <c r="J33" s="199" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K33" s="200" t="str">
+      <c r="K33" s="199" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L33" s="200" t="str">
+      <c r="L33" s="199" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M33" s="200" t="str">
+      <c r="M33" s="199" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7905,43 +7910,43 @@
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D34" s="200" t="str">
+      <c r="D34" s="199" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E34" s="200" t="str">
+      <c r="E34" s="199" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F34" s="200" t="str">
+      <c r="F34" s="199" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G34" s="200" t="str">
+      <c r="G34" s="199" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H34" s="200" t="str">
+      <c r="H34" s="199" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I34" s="200" t="str">
+      <c r="I34" s="199" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J34" s="200" t="str">
+      <c r="J34" s="199" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K34" s="200" t="str">
+      <c r="K34" s="199" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L34" s="200" t="str">
+      <c r="L34" s="199" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M34" s="200" t="str">
+      <c r="M34" s="199" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -8007,43 +8012,43 @@
         <f>Fin_Analysis!D3</f>
         <v>3864501</v>
       </c>
-      <c r="D36" s="200" t="str">
+      <c r="D36" s="199" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E36" s="200" t="str">
+      <c r="E36" s="199" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F36" s="200" t="str">
+      <c r="F36" s="199" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G36" s="200" t="str">
+      <c r="G36" s="199" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H36" s="200" t="str">
+      <c r="H36" s="199" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I36" s="200" t="str">
+      <c r="I36" s="199" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J36" s="200" t="str">
+      <c r="J36" s="199" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K36" s="200" t="str">
+      <c r="K36" s="199" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L36" s="200" t="str">
+      <c r="L36" s="199" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M36" s="200" t="str">
+      <c r="M36" s="199" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -8058,43 +8063,43 @@
         <f>Fin_Analysis!D4</f>
         <v>629840</v>
       </c>
-      <c r="D37" s="200" t="str">
+      <c r="D37" s="199" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E37" s="200" t="str">
+      <c r="E37" s="199" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F37" s="200" t="str">
+      <c r="F37" s="199" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G37" s="200" t="str">
+      <c r="G37" s="199" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H37" s="200" t="str">
+      <c r="H37" s="199" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I37" s="200" t="str">
+      <c r="I37" s="199" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J37" s="200" t="str">
+      <c r="J37" s="199" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K37" s="200" t="str">
+      <c r="K37" s="199" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L37" s="200" t="str">
+      <c r="L37" s="199" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M37" s="200" t="str">
+      <c r="M37" s="199" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -8109,43 +8114,43 @@
         <f>Fin_Analysis!C63</f>
         <v>16682618</v>
       </c>
-      <c r="D38" s="200" t="str">
+      <c r="D38" s="199" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E38" s="200" t="str">
+      <c r="E38" s="199" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F38" s="200" t="str">
+      <c r="F38" s="199" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G38" s="200" t="str">
+      <c r="G38" s="199" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H38" s="200" t="str">
+      <c r="H38" s="199" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I38" s="200" t="str">
+      <c r="I38" s="199" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J38" s="200" t="str">
+      <c r="J38" s="199" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K38" s="200" t="str">
+      <c r="K38" s="199" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L38" s="200" t="str">
+      <c r="L38" s="199" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M38" s="200" t="str">
+      <c r="M38" s="199" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -8207,47 +8212,47 @@
       <c r="B40" s="98" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
         <v>4.2196363500311286E-2</v>
       </c>
-      <c r="D40" s="156" t="e">
+      <c r="D40" s="155" t="e">
         <f>IF(D6="","",D14/MAX(D39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="156" t="str">
+      <c r="E40" s="155" t="str">
         <f>IF(E6="","",E14/MAX(E39,0))</f>
         <v/>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -8276,47 +8281,47 @@
       <c r="B42" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="157">
+      <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
         <v>1.2012210534502537E-2</v>
       </c>
-      <c r="D42" s="157">
+      <c r="D42" s="156">
         <f t="shared" si="34"/>
         <v>1.2898518308810534E-2</v>
       </c>
-      <c r="E42" s="157" t="str">
+      <c r="E42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F42" s="157" t="str">
+      <c r="F42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G42" s="157" t="str">
+      <c r="G42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H42" s="157" t="str">
+      <c r="H42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I42" s="157" t="str">
+      <c r="I42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J42" s="157" t="str">
+      <c r="J42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K42" s="157" t="str">
+      <c r="K42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L42" s="157" t="str">
+      <c r="L42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M42" s="157" t="str">
+      <c r="M42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -8327,47 +8332,47 @@
       <c r="B43" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="C43" s="154">
+      <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.15470436118294414</v>
       </c>
-      <c r="D43" s="154">
+      <c r="D43" s="153">
         <f t="shared" si="35"/>
         <v>0.18718688266125691</v>
       </c>
-      <c r="E43" s="154" t="str">
+      <c r="E43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F43" s="154" t="str">
+      <c r="F43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G43" s="154" t="str">
+      <c r="G43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H43" s="154" t="str">
+      <c r="H43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I43" s="154" t="str">
+      <c r="I43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J43" s="154" t="str">
+      <c r="J43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K43" s="154" t="str">
+      <c r="K43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L43" s="154" t="str">
+      <c r="L43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M43" s="154" t="str">
+      <c r="M43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -8378,47 +8383,47 @@
       <c r="B44" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="154">
+      <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="154">
+      <c r="D44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E44" s="154" t="str">
+      <c r="E44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F44" s="154" t="str">
+      <c r="F44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G44" s="154" t="str">
+      <c r="G44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H44" s="154" t="str">
+      <c r="H44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I44" s="154" t="str">
+      <c r="I44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J44" s="154" t="str">
+      <c r="J44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K44" s="154" t="str">
+      <c r="K44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L44" s="154" t="str">
+      <c r="L44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M44" s="154" t="str">
+      <c r="M44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -8429,47 +8434,47 @@
       <c r="B45" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="C45" s="154">
+      <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>0.48610500800425166</v>
       </c>
-      <c r="D45" s="154">
+      <c r="D45" s="153">
         <f t="shared" si="37"/>
         <v>0.45882609640924893</v>
       </c>
-      <c r="E45" s="154" t="str">
+      <c r="E45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F45" s="154" t="str">
+      <c r="F45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G45" s="154" t="str">
+      <c r="G45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H45" s="154" t="str">
+      <c r="H45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I45" s="154" t="str">
+      <c r="I45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J45" s="154" t="str">
+      <c r="J45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K45" s="154" t="str">
+      <c r="K45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L45" s="154" t="str">
+      <c r="L45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M45" s="154" t="str">
+      <c r="M45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -8480,47 +8485,47 @@
       <c r="B46" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="154">
+      <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
         <v>9.7044800044936142E-4</v>
       </c>
-      <c r="D46" s="154">
+      <c r="D46" s="153">
         <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
         <v>1.0198064557502538E-3</v>
       </c>
-      <c r="E46" s="154" t="str">
+      <c r="E46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F46" s="154" t="str">
+      <c r="F46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G46" s="154" t="str">
+      <c r="G46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H46" s="154" t="str">
+      <c r="H46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I46" s="154" t="str">
+      <c r="I46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J46" s="154" t="str">
+      <c r="J46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K46" s="154" t="str">
+      <c r="K46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L46" s="154" t="str">
+      <c r="L46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M46" s="154" t="str">
+      <c r="M46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -8531,47 +8536,47 @@
       <c r="B47" s="94" t="s">
         <v>236</v>
       </c>
-      <c r="C47" s="154">
+      <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="154">
+      <c r="D47" s="153">
         <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="154" t="str">
+      <c r="E47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F47" s="154" t="str">
+      <c r="F47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G47" s="154" t="str">
+      <c r="G47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H47" s="154" t="str">
+      <c r="H47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I47" s="154" t="str">
+      <c r="I47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J47" s="154" t="str">
+      <c r="J47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K47" s="154" t="str">
+      <c r="K47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L47" s="154" t="str">
+      <c r="L47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M47" s="154" t="str">
+      <c r="M47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -8582,47 +8587,47 @@
       <c r="B48" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="C48" s="154">
+      <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
         <v>0.34620797227785238</v>
       </c>
-      <c r="D48" s="154">
+      <c r="D48" s="153">
         <f t="shared" si="40"/>
         <v>0.34006869616493335</v>
       </c>
-      <c r="E48" s="154" t="str">
+      <c r="E48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F48" s="154" t="str">
+      <c r="F48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G48" s="154" t="str">
+      <c r="G48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H48" s="154" t="str">
+      <c r="H48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I48" s="154" t="str">
+      <c r="I48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J48" s="154" t="str">
+      <c r="J48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K48" s="154" t="str">
+      <c r="K48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L48" s="154" t="str">
+      <c r="L48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M48" s="154" t="str">
+      <c r="M48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -8651,47 +8656,47 @@
       <c r="B50" s="95" t="s">
         <v>146</v>
       </c>
-      <c r="C50" s="157">
+      <c r="C50" s="156">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="157" t="str">
+      <c r="D50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E50" s="157" t="str">
+      <c r="E50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="157" t="str">
+      <c r="F50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="157" t="str">
+      <c r="G50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="157" t="str">
+      <c r="H50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="157" t="str">
+      <c r="I50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="157" t="str">
+      <c r="J50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="157" t="str">
+      <c r="K50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="157" t="str">
+      <c r="L50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M50" s="157" t="str">
+      <c r="M50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8702,47 +8707,47 @@
       <c r="B51" s="94" t="s">
         <v>147</v>
       </c>
-      <c r="C51" s="154">
+      <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
         <v>0</v>
       </c>
-      <c r="D51" s="154" t="str">
+      <c r="D51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E51" s="154" t="str">
+      <c r="E51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F51" s="154" t="str">
+      <c r="F51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G51" s="154" t="str">
+      <c r="G51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H51" s="154" t="str">
+      <c r="H51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I51" s="154" t="str">
+      <c r="I51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J51" s="154" t="str">
+      <c r="J51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K51" s="154" t="str">
+      <c r="K51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L51" s="154" t="str">
+      <c r="L51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M51" s="154" t="str">
+      <c r="M51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -8770,47 +8775,47 @@
       <c r="B53" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="157">
+      <c r="C53" s="156">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>0.91797994232852775</v>
       </c>
-      <c r="D53" s="157" t="str">
+      <c r="D53" s="156" t="str">
         <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
         <v/>
       </c>
-      <c r="E53" s="157" t="str">
+      <c r="E53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F53" s="157" t="str">
+      <c r="F53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G53" s="157" t="str">
+      <c r="G53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H53" s="157" t="str">
+      <c r="H53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I53" s="157" t="str">
+      <c r="I53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J53" s="157" t="str">
+      <c r="J53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K53" s="157" t="str">
+      <c r="K53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L53" s="157" t="str">
+      <c r="L53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M53" s="157" t="str">
+      <c r="M53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -8820,47 +8825,47 @@
       <c r="B54" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="158">
+      <c r="C54" s="157">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
         <v>1.2634035849314423E-2</v>
       </c>
-      <c r="D54" s="158" t="str">
+      <c r="D54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="158" t="str">
+      <c r="E54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="158" t="str">
+      <c r="F54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="158" t="str">
+      <c r="G54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="158" t="str">
+      <c r="H54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="158" t="str">
+      <c r="I54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="158" t="str">
+      <c r="J54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="158" t="str">
+      <c r="K54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="158" t="str">
+      <c r="L54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M54" s="158" t="str">
+      <c r="M54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8870,47 +8875,47 @@
       <c r="B55" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="154">
+      <c r="C55" s="153">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>1.4040838077932061</v>
       </c>
-      <c r="D55" s="154">
+      <c r="D55" s="153">
         <f t="shared" si="45"/>
         <v>1.3492159130892725</v>
       </c>
-      <c r="E55" s="154" t="str">
+      <c r="E55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="154" t="str">
+      <c r="F55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="154" t="str">
+      <c r="G55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="154" t="str">
+      <c r="H55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="154" t="str">
+      <c r="I55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="154" t="str">
+      <c r="J55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="154" t="str">
+      <c r="K55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="154" t="str">
+      <c r="L55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="154" t="str">
+      <c r="M55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8920,47 +8925,47 @@
       <c r="B56" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="159">
+      <c r="C56" s="158">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
         <v>1.0639184029144524</v>
       </c>
-      <c r="D56" s="159" t="str">
+      <c r="D56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E56" s="159" t="str">
+      <c r="E56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="159" t="str">
+      <c r="F56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="159" t="str">
+      <c r="G56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="159" t="str">
+      <c r="H56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="159" t="str">
+      <c r="I56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="159" t="str">
+      <c r="J56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="159" t="str">
+      <c r="K56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="159" t="str">
+      <c r="L56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="159" t="str">
+      <c r="M56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -10258,8 +10263,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10308,7 +10313,7 @@
       <c r="H3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="205">
+      <c r="I3" s="204">
         <f>Inputs!C83</f>
         <v>3234661</v>
       </c>
@@ -10352,11 +10357,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-16694982.635255815</v>
+        <v>-16679659.03305191</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>5.3200875443571665</v>
+        <v>5.3161223229213581</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10405,7 +10410,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="204">
+      <c r="D9" s="203">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
@@ -10452,7 +10457,7 @@
         <f>Inputs!C48</f>
         <v>3628128</v>
       </c>
-      <c r="D11" s="199">
+      <c r="D11" s="198">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -10480,7 +10485,7 @@
         <f>Inputs!C49</f>
         <v>2171209</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -10508,7 +10513,7 @@
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="199">
+      <c r="D13" s="198">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -10536,7 +10541,7 @@
         <f>Inputs!C51</f>
         <v>3557823</v>
       </c>
-      <c r="D14" s="199">
+      <c r="D14" s="198">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -10549,7 +10554,7 @@
       <c r="H14" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="206">
+      <c r="I14" s="205">
         <f>Inputs!C76</f>
         <v>1783937</v>
       </c>
@@ -10564,7 +10569,7 @@
         <f>Inputs!C52</f>
         <v>9431099</v>
       </c>
-      <c r="D15" s="199">
+      <c r="D15" s="198">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10591,7 +10596,7 @@
         <f>Inputs!C53</f>
         <v>27228377</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10613,7 +10618,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10635,7 +10640,7 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="199">
+      <c r="D18" s="198">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10656,7 +10661,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10681,7 +10686,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="199">
+      <c r="D20" s="198">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10708,7 +10713,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10729,7 +10734,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="199">
+      <c r="D22" s="198">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10894,7 +10899,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="207">
+      <c r="I28" s="206">
         <f>Inputs!C77</f>
         <v>43252035</v>
       </c>
@@ -10923,7 +10928,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199">
+      <c r="D30" s="198">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10949,7 +10954,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="199">
+      <c r="D31" s="198">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10976,7 +10981,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199">
+      <c r="D32" s="198">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -11003,7 +11008,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="199">
+      <c r="D33" s="198">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -11019,7 +11024,7 @@
       <c r="H33" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="I33" s="206">
+      <c r="I33" s="205">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -11033,7 +11038,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199">
+      <c r="D34" s="198">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -11060,7 +11065,7 @@
         <f>Inputs!C65</f>
         <v>65568</v>
       </c>
-      <c r="D35" s="199">
+      <c r="D35" s="198">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -11086,7 +11091,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199">
+      <c r="D36" s="198">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -11113,7 +11118,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="199">
+      <c r="D37" s="198">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -11140,7 +11145,7 @@
         <f>Inputs!C68</f>
         <v>297776</v>
       </c>
-      <c r="D38" s="199">
+      <c r="D38" s="198">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -11161,7 +11166,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="199">
+      <c r="D39" s="198">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -11182,7 +11187,7 @@
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="199">
+      <c r="D40" s="198">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -11203,7 +11208,7 @@
         <f>Inputs!C71</f>
         <v>97938</v>
       </c>
-      <c r="D41" s="199">
+      <c r="D41" s="198">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -11224,7 +11229,7 @@
         <f>Inputs!C72</f>
         <v>638618</v>
       </c>
-      <c r="D42" s="199">
+      <c r="D42" s="198">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -11370,7 +11375,7 @@
       <c r="H48" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="I48" s="208">
+      <c r="I48" s="207">
         <f>Inputs!C82</f>
         <v>0</v>
       </c>
@@ -11479,11 +11484,11 @@
         <v>89</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="283">
+      <c r="D56" s="284">
         <f>I15+I34</f>
         <v>42280604</v>
       </c>
-      <c r="E56" s="281"/>
+      <c r="E56" s="282"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11494,11 +11499,11 @@
         <v>90</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="282">
+      <c r="D57" s="283">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="281"/>
+      <c r="E57" s="282"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11510,11 +11515,11 @@
         <v>92</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="282">
+      <c r="D58" s="283">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="281"/>
+      <c r="E58" s="282"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11610,8 +11615,8 @@
       <c r="B64" s="121" t="s">
         <v>151</v>
       </c>
-      <c r="C64" s="209"/>
-      <c r="D64" s="209"/>
+      <c r="C64" s="208"/>
+      <c r="D64" s="208"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>42280604</v>
@@ -11691,8 +11696,8 @@
       <c r="B69" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="C69" s="209"/>
-      <c r="D69" s="209"/>
+      <c r="C69" s="208"/>
+      <c r="D69" s="208"/>
       <c r="E69" s="126">
         <f>I49-E64</f>
         <v>971431</v>
@@ -11728,19 +11733,19 @@
       <c r="B72" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="270">
+      <c r="C72" s="271">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="270"/>
-      <c r="E72" s="284" t="s">
+      <c r="D72" s="271"/>
+      <c r="E72" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F72" s="284"/>
-      <c r="H72" s="284" t="s">
+      <c r="F72" s="285"/>
+      <c r="H72" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I72" s="284"/>
+      <c r="I72" s="285"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11750,18 +11755,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="271" t="s">
+      <c r="C73" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D73" s="271"/>
-      <c r="E73" s="285" t="s">
+      <c r="D73" s="272"/>
+      <c r="E73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="F73" s="271"/>
-      <c r="H73" s="285" t="s">
+      <c r="F73" s="272"/>
+      <c r="H73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="I73" s="271"/>
+      <c r="I73" s="272"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11772,17 +11777,17 @@
         <f>Data!C6</f>
         <v>1542930</v>
       </c>
-      <c r="D74" s="210"/>
-      <c r="E74" s="239">
+      <c r="D74" s="209"/>
+      <c r="E74" s="238">
         <f>Inputs!E91</f>
         <v>1542930</v>
       </c>
-      <c r="F74" s="210"/>
-      <c r="H74" s="239">
+      <c r="F74" s="209"/>
+      <c r="H74" s="238">
         <f>Inputs!F91</f>
         <v>1542930</v>
       </c>
-      <c r="I74" s="210"/>
+      <c r="I74" s="209"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11793,23 +11798,23 @@
         <f>Data!C8</f>
         <v>18534</v>
       </c>
-      <c r="D75" s="160">
+      <c r="D75" s="159">
         <f>C75/$C$74</f>
         <v>1.2012210534502537E-2</v>
       </c>
-      <c r="E75" s="239">
+      <c r="E75" s="238">
         <f>Inputs!E92</f>
         <v>18534</v>
       </c>
-      <c r="F75" s="161">
+      <c r="F75" s="160">
         <f>E75/E74</f>
         <v>1.2012210534502537E-2</v>
       </c>
-      <c r="H75" s="239">
+      <c r="H75" s="238">
         <f>Inputs!F92</f>
         <v>18534</v>
       </c>
-      <c r="I75" s="161">
+      <c r="I75" s="160">
         <f>H75/$H$74</f>
         <v>1.2012210534502537E-2</v>
       </c>
@@ -11819,21 +11824,21 @@
       <c r="B76" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C76" s="162">
+      <c r="C76" s="161">
         <f>C74-C75</f>
         <v>1524396</v>
       </c>
-      <c r="D76" s="211"/>
-      <c r="E76" s="163">
+      <c r="D76" s="210"/>
+      <c r="E76" s="162">
         <f>E74-E75</f>
         <v>1524396</v>
       </c>
-      <c r="F76" s="211"/>
-      <c r="H76" s="163">
+      <c r="F76" s="210"/>
+      <c r="H76" s="162">
         <f>H74-H75</f>
         <v>1524396</v>
       </c>
-      <c r="I76" s="211"/>
+      <c r="I76" s="210"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11844,23 +11849,23 @@
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>238698</v>
       </c>
-      <c r="D77" s="160">
+      <c r="D77" s="159">
         <f>C77/$C$74</f>
         <v>0.15470436118294414</v>
       </c>
-      <c r="E77" s="239">
+      <c r="E77" s="238">
         <f>Inputs!E93</f>
         <v>238698</v>
       </c>
-      <c r="F77" s="161">
+      <c r="F77" s="160">
         <f>E77/E74</f>
         <v>0.15470436118294414</v>
       </c>
-      <c r="H77" s="239">
+      <c r="H77" s="238">
         <f>Inputs!F93</f>
         <v>238698</v>
       </c>
-      <c r="I77" s="161">
+      <c r="I77" s="160">
         <f>H77/$H$74</f>
         <v>0.15470436118294414</v>
       </c>
@@ -11874,54 +11879,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>1497.3333333333333</v>
       </c>
-      <c r="D78" s="160">
+      <c r="D78" s="159">
         <f>C78/$C$74</f>
         <v>9.7044800044936142E-4</v>
       </c>
-      <c r="E78" s="181">
+      <c r="E78" s="180">
         <f>E74*F78</f>
         <v>1497.3333333333333</v>
       </c>
-      <c r="F78" s="161">
+      <c r="F78" s="160">
         <f>I78</f>
         <v>9.7044800044936142E-4</v>
       </c>
-      <c r="H78" s="239">
+      <c r="H78" s="238">
         <f>Inputs!F97</f>
         <v>1497.3333333333333</v>
       </c>
-      <c r="I78" s="161">
+      <c r="I78" s="160">
         <f>H78/$H$74</f>
         <v>9.7044800044936142E-4</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="257" t="s">
+      <c r="B79" s="256" t="s">
         <v>232</v>
       </c>
-      <c r="C79" s="258">
+      <c r="C79" s="257">
         <f>C76-C77-C78</f>
         <v>1284200.6666666667</v>
       </c>
-      <c r="D79" s="259">
+      <c r="D79" s="258">
         <f>C79/C74</f>
         <v>0.83231298028210399</v>
       </c>
-      <c r="E79" s="260">
+      <c r="E79" s="259">
         <f>E76-E77-E78</f>
         <v>1284200.6666666667</v>
       </c>
-      <c r="F79" s="259">
+      <c r="F79" s="258">
         <f>E79/E74</f>
         <v>0.83231298028210399</v>
       </c>
-      <c r="G79" s="261"/>
-      <c r="H79" s="260">
+      <c r="G79" s="260"/>
+      <c r="H79" s="259">
         <f>H76-H77-H78</f>
         <v>1284200.6666666667</v>
       </c>
-      <c r="I79" s="259">
+      <c r="I79" s="258">
         <f>H79/H74</f>
         <v>0.83231298028210399</v>
       </c>
@@ -11935,27 +11940,27 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="160">
+      <c r="D80" s="159">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="181">
+      <c r="E80" s="180">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="161">
+      <c r="F80" s="160">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="239">
+      <c r="H80" s="238">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="161">
+      <c r="I80" s="160">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="182" t="s">
+      <c r="K80" s="181" t="s">
         <v>131</v>
       </c>
     </row>
@@ -11967,23 +11972,23 @@
         <f>MAX(Data!C17,0)</f>
         <v>750026</v>
       </c>
-      <c r="D81" s="160">
+      <c r="D81" s="159">
         <f>C81/$C$74</f>
         <v>0.48610500800425166</v>
       </c>
-      <c r="E81" s="181">
+      <c r="E81" s="180">
         <f>E74*F81</f>
         <v>750026</v>
       </c>
-      <c r="F81" s="161">
+      <c r="F81" s="160">
         <f>I81</f>
         <v>0.48610500800425166</v>
       </c>
-      <c r="H81" s="239">
+      <c r="H81" s="238">
         <f>Inputs!F94</f>
         <v>750026</v>
       </c>
-      <c r="I81" s="161">
+      <c r="I81" s="160">
         <f>H81/$H$74</f>
         <v>0.48610500800425166</v>
       </c>
@@ -11997,23 +12002,23 @@
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="160">
+      <c r="D82" s="159">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="239">
+      <c r="E82" s="238">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="161">
+      <c r="F82" s="160">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="239">
+      <c r="H82" s="238">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="161">
+      <c r="I82" s="160">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
@@ -12023,27 +12028,27 @@
       <c r="B83" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="C83" s="164">
+      <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
         <v>534174.66666666674</v>
       </c>
-      <c r="D83" s="165">
+      <c r="D83" s="164">
         <f>C83/$C$74</f>
         <v>0.34620797227785238</v>
       </c>
-      <c r="E83" s="166">
+      <c r="E83" s="165">
         <f>E79-E81-E82-E80</f>
         <v>534174.66666666674</v>
       </c>
-      <c r="F83" s="165">
+      <c r="F83" s="164">
         <f>E83/E74</f>
         <v>0.34620797227785238</v>
       </c>
-      <c r="H83" s="166">
+      <c r="H83" s="165">
         <f>H79-H81-H82-H80</f>
         <v>534174.66666666674</v>
       </c>
-      <c r="I83" s="165">
+      <c r="I83" s="164">
         <f>H83/$H$74</f>
         <v>0.34620797227785238</v>
       </c>
@@ -12053,49 +12058,49 @@
       <c r="B84" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C84" s="212"/>
-      <c r="D84" s="160">
+      <c r="C84" s="211"/>
+      <c r="D84" s="159">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="213"/>
-      <c r="F84" s="180">
+      <c r="E84" s="212"/>
+      <c r="F84" s="179">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="213"/>
-      <c r="I84" s="203">
+      <c r="H84" s="212"/>
+      <c r="I84" s="202">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="264" t="s">
+      <c r="B85" s="263" t="s">
         <v>164</v>
       </c>
-      <c r="C85" s="258">
+      <c r="C85" s="257">
         <f>C83*(1-I84)</f>
         <v>400631.00000000006</v>
       </c>
-      <c r="D85" s="259">
+      <c r="D85" s="258">
         <f>C85/$C$74</f>
         <v>0.25965597920838929</v>
       </c>
-      <c r="E85" s="265">
+      <c r="E85" s="264">
         <f>E83*(1-F84)</f>
         <v>400631.00000000006</v>
       </c>
-      <c r="F85" s="259">
+      <c r="F85" s="258">
         <f>E85/E74</f>
         <v>0.25965597920838929</v>
       </c>
-      <c r="G85" s="261"/>
-      <c r="H85" s="265">
+      <c r="G85" s="260"/>
+      <c r="H85" s="264">
         <f>H83*(1-I84)</f>
         <v>400631.00000000006</v>
       </c>
-      <c r="I85" s="259">
+      <c r="I85" s="258">
         <f>H85/$H$74</f>
         <v>0.25965597920838929</v>
       </c>
@@ -12105,69 +12110,69 @@
       <c r="B86" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C86" s="168">
+      <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
         <v>1.1240852034198616</v>
       </c>
-      <c r="D86" s="210"/>
-      <c r="E86" s="169">
+      <c r="D86" s="209"/>
+      <c r="E86" s="168">
         <f>E85*Data!C4/Common_Shares</f>
         <v>1.1240852034198616</v>
       </c>
-      <c r="F86" s="210"/>
-      <c r="H86" s="169">
+      <c r="F86" s="209"/>
+      <c r="H86" s="168">
         <f>H85*Data!C4/Common_Shares</f>
         <v>1.1240852034198616</v>
       </c>
-      <c r="I86" s="210"/>
+      <c r="I86" s="209"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="C87" s="262">
+      <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.25539636937734428</v>
-      </c>
-      <c r="D87" s="210"/>
-      <c r="E87" s="263">
+        <v>0.2546224976561729</v>
+      </c>
+      <c r="D87" s="209"/>
+      <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.25539636937734428</v>
-      </c>
-      <c r="F87" s="210"/>
-      <c r="H87" s="263">
+        <v>0.2546224976561729</v>
+      </c>
+      <c r="F87" s="209"/>
+      <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.25539636937734428</v>
-      </c>
-      <c r="I87" s="210"/>
+        <v>0.2546224976561729</v>
+      </c>
+      <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C88" s="170">
+      <c r="C88" s="169">
         <f>Inputs!C44</f>
         <v>0.44979999999999998</v>
       </c>
-      <c r="D88" s="167">
+      <c r="D88" s="166">
         <f>C88/C86</f>
         <v>0.40014760325244969</v>
       </c>
-      <c r="E88" s="171">
+      <c r="E88" s="170">
         <f>Inputs!E98</f>
         <v>0.30640000000000001</v>
       </c>
-      <c r="F88" s="167">
+      <c r="F88" s="166">
         <f>E88/E86</f>
         <v>0.27257720239339839</v>
       </c>
-      <c r="H88" s="171">
+      <c r="H88" s="170">
         <f>Inputs!F98</f>
         <v>0.30640000000000001</v>
       </c>
-      <c r="I88" s="167">
+      <c r="I88" s="166">
         <f>H88/H86</f>
         <v>0.27257720239339839</v>
       </c>
@@ -12177,21 +12182,21 @@
       <c r="B89" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="C89" s="262">
+      <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10219624508572164</v>
-      </c>
-      <c r="D89" s="210"/>
-      <c r="E89" s="262">
+        <v>0.10188658217127008</v>
+      </c>
+      <c r="D89" s="209"/>
+      <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.96152278663075E-2</v>
-      </c>
-      <c r="F89" s="210"/>
-      <c r="H89" s="262">
+        <v>6.9404288077539247E-2</v>
+      </c>
+      <c r="F89" s="209"/>
+      <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.96152278663075E-2</v>
-      </c>
-      <c r="I89" s="210"/>
+        <v>6.9404288077539247E-2</v>
+      </c>
+      <c r="I89" s="209"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12213,22 +12218,22 @@
       <c r="B92" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C92" s="199" t="str">
+      <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E92" s="284" t="s">
+      <c r="E92" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F92" s="284"/>
+      <c r="F92" s="285"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="284" t="s">
+      <c r="H92" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I92" s="284"/>
+      <c r="I92" s="285"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12238,9 +12243,9 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D93" s="240">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D93" s="239">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
@@ -12248,15 +12253,15 @@
         <v>209</v>
       </c>
       <c r="F93" s="144">
-        <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>54.476847643128394</v>
+        <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
+        <v>51.99849488759309</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
-        <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>54.476847643128394</v>
+        <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
+        <v>51.99849488759309</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12264,24 +12269,27 @@
       <c r="B94" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C94" s="183">
+      <c r="C94" s="182">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="145"/>
+      <c r="D94" s="270">
+        <f>Inputs!D87</f>
+        <v>0</v>
+      </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F94" s="144">
-        <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>6.6670704328410242</v>
+        <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
+        <v>6.377119482055627</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
-        <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>6.6670704328410242</v>
+        <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
+        <v>6.377119482055627</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12302,14 +12310,14 @@
       <c r="D96" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E96" s="184" t="str">
+      <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="228" t="s">
+      <c r="F96" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H96" s="184" t="str">
+      <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
@@ -12324,21 +12332,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9653128.4881468173</v>
-      </c>
-      <c r="D97" s="214"/>
+        <v>9213972.0643967222</v>
+      </c>
+      <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>27.084621260552915</v>
-      </c>
-      <c r="F97" s="214"/>
+        <v>25.852441928638349</v>
+      </c>
+      <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>27.084621260552915</v>
+        <v>25.852441928638349</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>39.023250583843783</v>
+        <v>36.729654762341376</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12348,16 +12356,16 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>675441.4757283529</v>
-      </c>
-      <c r="D98" s="214"/>
-      <c r="E98" s="214"/>
-      <c r="F98" s="214"/>
+        <v>674821.51722272241</v>
+      </c>
+      <c r="D98" s="213"/>
+      <c r="E98" s="213"/>
+      <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.895144830635465</v>
-      </c>
-      <c r="I98" s="216"/>
+        <v>1.8934053591943796</v>
+      </c>
+      <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -12366,19 +12374,19 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>-34486817.389688745</v>
-      </c>
-      <c r="D99" s="215"/>
-      <c r="E99" s="146">
+        <v>-34455163.432179242</v>
+      </c>
+      <c r="D99" s="214"/>
+      <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>-111.27705871964642</v>
-      </c>
-      <c r="F99" s="215"/>
-      <c r="H99" s="146">
+        <v>-111.17492232217336</v>
+      </c>
+      <c r="F99" s="214"/>
+      <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-96.76265975621429</v>
-      </c>
-      <c r="I99" s="217"/>
+        <v>-96.673845497542061</v>
+      </c>
+      <c r="I99" s="216"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -12387,7 +12395,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-25509130.377270281</v>
+        <v>-25916012.885005243</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12426,14 +12434,14 @@
       <c r="D102" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E102" s="184" t="str">
+      <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="228" t="s">
+      <c r="F102" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H102" s="184" t="str">
+      <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12448,27 +12456,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1181384.2083767676</v>
+        <v>1130005.7989370867</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.8175054650331082</v>
+        <v>2.6949721279912073</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.3147123118036568</v>
+        <v>3.170555444695538</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>3.3147123118036568</v>
+        <v>3.170555444695538</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.3147123118036568</v>
+        <v>3.170555444695538</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>4.7758042437631492</v>
+        <v>4.5045418614605293</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12487,14 +12495,14 @@
       <c r="D105" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E105" s="185" t="str">
+      <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="228" t="s">
+      <c r="F105" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H105" s="185" t="str">
+      <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12509,27 +12517,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>590692.10418838379</v>
+        <v>565002.89946854336</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.4087527325165541</v>
+        <v>1.3474860639956037</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.6573561559018284</v>
+        <v>1.585277722347769</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.6573561559018284</v>
+        <v>1.585277722347769</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.6573561559018284</v>
+        <v>1.585277722347769</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>2.3879021218815746</v>
+        <v>2.2522709307302646</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1398.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1398.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AF9D3AC-C5A7-4855-8D91-BFE7147849C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31BBBFE8-58C3-4734-A648-7A818C9954AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
   <si>
     <t>Company Info:</t>
   </si>
@@ -936,6 +936,9 @@
   </si>
   <si>
     <t>工商银行</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superior Cycl. </t>
   </si>
   <si>
     <t>C0014</t>
@@ -3577,7 +3580,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3630,7 +3633,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3639,7 +3642,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3655,7 +3658,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3687,7 +3690,7 @@
         <v>254</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3704,7 +3707,7 @@
         <v>224</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3713,7 +3716,7 @@
         <v>238</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D18" s="24"/>
     </row>
@@ -3722,7 +3725,7 @@
         <v>239</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3731,7 +3734,7 @@
         <v>228</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3740,7 +3743,7 @@
         <v>231</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3749,7 +3752,7 @@
         <v>230</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4151,7 +4154,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10188658217127008</v>
+        <v>0.10188675046135476</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4599,9 +4602,11 @@
         <v>247</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>266</v>
-      </c>
-      <c r="D87" s="269"/>
+        <v>267</v>
+      </c>
+      <c r="D87" s="269">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
@@ -4913,10 +4918,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.7300000000000004</v>
+        <v>4.72</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4954,7 +4959,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1685801.5960309701</v>
+        <v>1682237.5334600799</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4992,7 +4997,7 @@
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
-        <v>Y</v>
+        <v xml:space="preserve">Superior Cycl. </v>
       </c>
       <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
@@ -5003,7 +5008,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0714173714319866</v>
+        <v>1.0691539843877156</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5049,10 +5054,10 @@
         <v>252</v>
       </c>
       <c r="C12" s="174">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="D12" s="172">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5099,7 +5104,7 @@
         <v>253</v>
       </c>
       <c r="C17" s="175">
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5170,7 +5175,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.40714991937090239</v>
+        <v>0.40714924686643938</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5186,7 +5191,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>3.9273827301401329</v>
+        <v>3.927376243137954</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5218,7 +5223,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.9404288077539247E-2</v>
+        <v>6.9404402715338154E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5248,20 +5253,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.6949721279912073</v>
+        <v>2.6892803959037601</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.1802231406796082</v>
+        <v>4.7129302302233684</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.170555444695538</v>
+        <v>3.1638592892985415</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.5045418614605293</v>
+        <v>4.0982002001942339</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10357,11 +10362,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-16679659.03305191</v>
+        <v>-16644422.975503383</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>5.3161223229213581</v>
+        <v>5.3070044426184344</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12133,17 +12138,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.2546224976561729</v>
+        <v>0.25462291822619088</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.2546224976561729</v>
+        <v>0.25462291822619088</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.2546224976561729</v>
+        <v>0.25462291822619088</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12184,17 +12189,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10188658217127008</v>
+        <v>0.10188675046135476</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9404288077539247E-2</v>
+        <v>6.9404402715338154E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9404288077539247E-2</v>
+        <v>6.9404402715338154E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12243,7 +12248,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12254,14 +12259,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>51.99849488759309</v>
+        <v>51.88873417066079</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>51.99849488759309</v>
+        <v>51.88873417066079</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12275,21 +12280,21 @@
       </c>
       <c r="D94" s="270">
         <f>Inputs!D87</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.377119482055627</v>
+        <v>6.3636511217692613</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.377119482055627</v>
+        <v>6.3636511217692613</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12332,21 +12337,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9213972.0643967222</v>
+        <v>9194522.8056870513</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>25.852441928638349</v>
+        <v>25.79787145372995</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>25.852441928638349</v>
+        <v>25.79787145372995</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>36.729654762341376</v>
+        <v>33.416417194615953</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12356,14 +12361,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>674821.51722272241</v>
+        <v>673395.94552675879</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.8934053591943796</v>
+        <v>1.8894055088337063</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12374,17 +12379,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>-34455163.432179242</v>
+        <v>-34382376.32549233</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>-111.17492232217336</v>
+        <v>-110.94006344687295</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-96.673845497542061</v>
+        <v>-96.469620388585184</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -12395,7 +12400,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-25916012.885005243</v>
+        <v>-25861249.465332039</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12456,27 +12461,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1130005.7989370867</v>
+        <v>1127619.2472551567</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.6949721279912073</v>
+        <v>2.6892803959037601</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.170555444695538</v>
+        <v>3.1638592892985415</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>3.170555444695538</v>
+        <v>3.1638592892985415</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.170555444695538</v>
+        <v>3.1638592892985415</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>4.5045418614605293</v>
+        <v>4.0982002001942339</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12517,27 +12522,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>565002.89946854336</v>
+        <v>563809.62362757837</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.3474860639956037</v>
+        <v>1.3446401979518801</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.585277722347769</v>
+        <v>1.5819296446492708</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.585277722347769</v>
+        <v>1.5819296446492708</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.585277722347769</v>
+        <v>1.5819296446492708</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>2.2522709307302646</v>
+        <v>2.049100100097117</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1398.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1398.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31BBBFE8-58C3-4734-A648-7A818C9954AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{526B79FA-9C6C-493B-A6F0-75A27BF18246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4154,7 +4154,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10188675046135476</v>
+        <v>0.10224132220119089</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4918,7 +4918,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.72</v>
+        <v>4.71</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -4959,7 +4959,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1682237.5334600799</v>
+        <v>1678673.47088919</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5008,7 +5008,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691539843877156</v>
+        <v>1.0706016620000203</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5175,7 +5175,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.40714924686643938</v>
+        <v>0.40573725791983395</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5191,7 +5191,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>3.927376243137954</v>
+        <v>3.9137561470990918</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.9404402715338154E-2</v>
+        <v>6.9645934020553343E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5253,20 +5253,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.6892803959037601</v>
+        <v>2.6959642255241514</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>4.7129302302233684</v>
+        <v>4.7246435579669486</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.1638592892985415</v>
+        <v>3.1717226182637077</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.0982002001942339</v>
+        <v>4.1083857025799553</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10362,11 +10362,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-16644422.975503383</v>
+        <v>-16666960.195457874</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>5.3070044426184344</v>
+        <v>5.3128363003290398</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12138,17 +12138,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.25462291822619088</v>
+        <v>0.25550902059680142</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.25462291822619088</v>
+        <v>0.25550902059680142</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.25462291822619088</v>
+        <v>0.25550902059680142</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12189,17 +12189,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10188675046135476</v>
+        <v>0.10224132220119089</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9404402715338154E-2</v>
+        <v>6.9645934020553343E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9404402715338154E-2</v>
+        <v>6.9645934020553343E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12259,14 +12259,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>51.88873417066079</v>
+        <v>52.142738332202519</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>51.88873417066079</v>
+        <v>52.142738332202519</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12287,14 +12287,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.3636511217692613</v>
+        <v>6.3794670850010249</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.3636511217692613</v>
+        <v>6.3794670850010249</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12337,21 +12337,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9194522.8056870513</v>
+        <v>9239531.5555315465</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>25.79787145372995</v>
+        <v>25.924156413517444</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>25.79787145372995</v>
+        <v>25.924156413517444</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>33.416417194615953</v>
+        <v>33.579996229003854</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12361,14 +12361,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>673395.94552675879</v>
+        <v>674307.75079409278</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.8894055088337063</v>
+        <v>1.8919638400896761</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12379,17 +12379,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>-34382376.32549233</v>
+        <v>-34428931.449628867</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>-110.94006344687295</v>
+        <v>-111.09028076683335</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-96.469620388585184</v>
+        <v>-96.60024414507248</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -12400,7 +12400,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-25861249.465332039</v>
+        <v>-25863707.644891411</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12461,27 +12461,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1127619.2472551567</v>
+        <v>1130421.7868998912</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.6892803959037601</v>
+        <v>2.6959642255241514</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.1638592892985415</v>
+        <v>3.1717226182637077</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>3.1638592892985415</v>
+        <v>3.1717226182637077</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.1638592892985415</v>
+        <v>3.1717226182637077</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>4.0982002001942339</v>
+        <v>4.1083857025799553</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12522,27 +12522,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>563809.62362757837</v>
+        <v>565210.89344994561</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.3446401979518801</v>
+        <v>1.3479821127620757</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.5819296446492708</v>
+        <v>1.5858613091318539</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.5819296446492708</v>
+        <v>1.5858613091318539</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.5819296446492708</v>
+        <v>1.5858613091318539</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>2.049100100097117</v>
+        <v>2.0541928512899776</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1398.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1398.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{526B79FA-9C6C-493B-A6F0-75A27BF18246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{102E009F-27A1-4BCE-A1A2-96EEF1C82388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="271">
   <si>
     <t>Company Info:</t>
   </si>
@@ -932,6 +932,17 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>LT AR or Prepayments</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>1398.HK</t>
   </si>
   <si>
@@ -945,9 +956,6 @@
   </si>
   <si>
     <t>CNY</t>
-  </si>
-  <si>
-    <t>CN</t>
   </si>
   <si>
     <t>Strongly agree</t>
@@ -3580,7 +3588,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3601,7 +3609,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3609,7 +3617,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3633,7 +3641,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3642,7 +3650,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3658,7 +3666,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3690,7 +3698,7 @@
         <v>254</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3707,7 +3715,7 @@
         <v>224</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3716,7 +3724,7 @@
         <v>238</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D18" s="24"/>
     </row>
@@ -3725,7 +3733,7 @@
         <v>239</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3734,7 +3742,7 @@
         <v>228</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3743,7 +3751,7 @@
         <v>231</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3752,7 +3760,7 @@
         <v>230</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4154,7 +4162,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10224132220119089</v>
+        <v>0.10016319352227289</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4285,7 +4293,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>117</v>
+        <v>260</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4397,7 +4405,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>67</v>
+        <v>259</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4602,7 +4610,7 @@
         <v>247</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4918,10 +4926,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.71</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4959,7 +4967,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1678673.47088919</v>
+        <v>1714314.0965980899</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5008,7 +5016,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0706016620000203</v>
+        <v>1.0711092948913574</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5054,10 +5062,10 @@
         <v>252</v>
       </c>
       <c r="C12" s="174">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>8.5999999999999993E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5104,7 +5112,7 @@
         <v>253</v>
       </c>
       <c r="C17" s="175">
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5175,7 +5183,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.40573725791983395</v>
+        <v>0.4141552625993799</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5191,7 +5199,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>3.9137561470990918</v>
+        <v>3.9949565222625458</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5223,7 +5231,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.9645934020553343E-2</v>
+        <v>6.823033013611475E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5253,20 +5261,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.6959642255241514</v>
+        <v>3.188756975914036</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>4.7246435579669486</v>
+        <v>5.8920399388214388</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.1717226182637077</v>
+        <v>3.7514787951929836</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.1083857025799553</v>
+        <v>5.1235129902795125</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10362,11 +10370,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-16666960.195457874</v>
+        <v>-16674862.945373297</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>5.3128363003290398</v>
+        <v>5.3148812603162208</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12138,17 +12146,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.25550902059680142</v>
+        <v>0.25031561530828611</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.25550902059680142</v>
+        <v>0.25031561530828611</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.25550902059680142</v>
+        <v>0.25031561530828611</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12189,17 +12197,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10224132220119089</v>
+        <v>0.10016319352227289</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9645934020553343E-2</v>
+        <v>6.823033013611475E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9645934020553343E-2</v>
+        <v>6.823033013611475E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12248,7 +12256,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12259,14 +12267,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>52.142738332202519</v>
+        <v>60.81012838587538</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>52.142738332202519</v>
+        <v>60.81012838587538</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12287,14 +12295,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.3794670850010249</v>
+        <v>7.5455638384652453</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.3794670850010249</v>
+        <v>7.5455638384652453</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12337,21 +12345,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9239531.5555315465</v>
+        <v>10775366.198407466</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>25.924156413517444</v>
+        <v>30.233381103959388</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>25.924156413517444</v>
+        <v>30.233381103959388</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>33.579996229003854</v>
+        <v>41.29068276347239</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12361,14 +12369,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>674307.75079409278</v>
+        <v>674627.47829437256</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.8919638400896761</v>
+        <v>1.8928609273150554</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12379,17 +12387,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>-34428931.449628867</v>
+        <v>-34445256.156228684</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>-111.09028076683335</v>
+        <v>-111.14295496156583</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-96.60024414507248</v>
+        <v>-96.646047792665954</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -12400,7 +12408,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-25863707.644891411</v>
+        <v>-24344517.436115593</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12461,27 +12469,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1130421.7868998912</v>
+        <v>1337050.5159434825</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.6959642255241514</v>
+        <v>3.188756975914036</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.1717226182637077</v>
+        <v>3.7514787951929836</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>3.1717226182637077</v>
+        <v>3.7514787951929836</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.1717226182637077</v>
+        <v>3.7514787951929836</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>4.1083857025799553</v>
+        <v>5.1235129902795125</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12522,27 +12530,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>565210.89344994561</v>
+        <v>668525.25797174126</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.3479821127620757</v>
+        <v>1.594378487957018</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.5858613091318539</v>
+        <v>1.8757393975964918</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.5858613091318539</v>
+        <v>1.8757393975964918</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.5858613091318539</v>
+        <v>1.8757393975964918</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>2.0541928512899776</v>
+        <v>2.5617564951397562</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1398.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1398.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{102E009F-27A1-4BCE-A1A2-96EEF1C82388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79C380D7-EAED-4861-BD78-2663E76B5527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="272">
   <si>
     <t>Company Info:</t>
   </si>
@@ -940,6 +940,10 @@
   </si>
   <si>
     <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ΔWC/Δsales</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -3587,7 +3591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3609,7 +3613,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3617,7 +3621,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3641,7 +3645,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3650,7 +3654,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3666,7 +3670,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3715,7 +3719,7 @@
         <v>224</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3724,7 +3728,7 @@
         <v>238</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D18" s="24"/>
     </row>
@@ -3733,7 +3737,7 @@
         <v>239</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3742,7 +3746,7 @@
         <v>228</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3751,7 +3755,7 @@
         <v>231</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3760,7 +3764,7 @@
         <v>230</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4162,7 +4166,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10016319352227289</v>
+        <v>0.10029689890642961</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4610,7 +4614,7 @@
         <v>247</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4926,10 +4930,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.8099999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4967,7 +4971,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1714314.0965980899</v>
+        <v>1710750.0340272</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5016,7 +5020,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0711092948913574</v>
+        <v>1.0703092813491821</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5037,7 +5041,7 @@
         <v>175</v>
       </c>
       <c r="C10" s="172">
-        <v>4.2099999999999999E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
         <v>182</v>
@@ -5048,7 +5052,7 @@
         <v>179</v>
       </c>
       <c r="C11" s="173">
-        <v>5.3099999999999994E-2</v>
+        <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
         <v>189</v>
@@ -5075,7 +5079,7 @@
         <v>176</v>
       </c>
       <c r="C14" s="172">
-        <v>2.1309999999999999E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
         <v>181</v>
@@ -5183,7 +5187,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.4141552625993799</v>
+        <v>0.41360315391915004</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5199,7 +5203,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>3.9949565222625458</v>
+        <v>3.9896308621242715</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5231,7 +5235,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.823033013611475E-2</v>
+        <v>6.8321409126122792E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5261,20 +5265,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.188756975914036</v>
+        <v>3.1877338957223311</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.8920399388214388</v>
+        <v>5.890149537829557</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.7514787951929836</v>
+        <v>3.7502751714380369</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.1235129902795125</v>
+        <v>5.1218691633300502</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -5309,8 +5313,8 @@
         <v>225</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly disagree</v>
       </c>
     </row>
@@ -6336,12 +6340,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N930"/>
+  <dimension ref="A1:N931"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B19" sqref="B19"/>
+      <selection pane="topRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8767,118 +8771,119 @@
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" s="94" t="s">
+        <v>261</v>
+      </c>
+      <c r="C52" s="153" t="e">
+        <f>IF(D6="","",C16/(C6-D6))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="16"/>
+      <c r="B53" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="4"/>
+      <c r="B54" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="156">
+      <c r="C54" s="156">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>0.91797994232852775</v>
       </c>
-      <c r="D53" s="156" t="str">
-        <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" s="157">
-        <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>1.2634035849314423E-2</v>
-      </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
+        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
+        <v/>
+      </c>
+      <c r="E54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8886,107 +8891,154 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="153">
-        <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>1.4040838077932061</v>
-      </c>
-      <c r="D55" s="153">
+        <v>120</v>
+      </c>
+      <c r="C55" s="157">
+        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>1.2634035849314423E-2</v>
+      </c>
+      <c r="D55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>1.3492159130892725</v>
-      </c>
-      <c r="E55" s="153" t="str">
+        <v/>
+      </c>
+      <c r="E55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
+      <c r="B56" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="153">
+        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>1.4040838077932061</v>
+      </c>
+      <c r="D56" s="153">
+        <f t="shared" si="46"/>
+        <v>1.3492159130892725</v>
+      </c>
+      <c r="E56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="4"/>
+      <c r="B57" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="158">
-        <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
+      <c r="C57" s="158">
+        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
         <v>1.0639184029144524</v>
       </c>
-      <c r="D56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="4"/>
-    </row>
+      <c r="D57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="E57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
@@ -9554,7 +9606,9 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A248" s="4"/>
+    </row>
     <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10237,6 +10291,7 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10370,11 +10425,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-16674862.945373297</v>
+        <v>-16662408.458950818</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>5.3148812603162208</v>
+        <v>5.311658467406482</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12146,17 +12201,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.25031561530828611</v>
+        <v>0.25064975546824197</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.25031561530828611</v>
+        <v>0.25064975546824197</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.25031561530828611</v>
+        <v>0.25064975546824197</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12197,17 +12252,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10016319352227289</v>
+        <v>0.10029689890642961</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.823033013611475E-2</v>
+        <v>6.8321409126122792E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.823033013611475E-2</v>
+        <v>6.8321409126122792E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12267,14 +12322,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>60.81012838587538</v>
+        <v>60.845947813881409</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>60.81012838587538</v>
+        <v>60.845947813881409</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12295,14 +12350,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>7.5455638384652453</v>
+        <v>7.5431429211746881</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>7.5455638384652453</v>
+        <v>7.5431429211746881</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12345,21 +12400,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10775366.198407466</v>
+        <v>10781713.289986242</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>30.233381103959388</v>
+        <v>30.251189690235677</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>30.233381103959388</v>
+        <v>30.251189690235677</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>41.29068276347239</v>
+        <v>41.31500451180321</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12369,14 +12424,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>674627.47829437256</v>
+        <v>674123.59776496887</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.8928609273150554</v>
+        <v>1.8914471459366946</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12387,17 +12442,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>-34445256.156228684</v>
+        <v>-34419528.929772794</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>-111.14295496156583</v>
+        <v>-111.0599420799573</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-96.646047792665954</v>
+        <v>-96.573862678223747</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -12408,7 +12463,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-24344517.436115593</v>
+        <v>-24311939.237551522</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12469,27 +12524,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1337050.5159434825</v>
+        <v>1336621.5369060386</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.188756975914036</v>
+        <v>3.1877338957223311</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.7514787951929836</v>
+        <v>3.7502751714380369</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>3.7514787951929836</v>
+        <v>3.7502751714380369</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.7514787951929836</v>
+        <v>3.7502751714380369</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>5.1235129902795125</v>
+        <v>5.1218691633300502</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12530,27 +12585,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>668525.25797174126</v>
+        <v>668310.76845301932</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.594378487957018</v>
+        <v>1.5938669478611656</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.8757393975964918</v>
+        <v>1.8751375857190185</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.8757393975964918</v>
+        <v>1.8751375857190185</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.8757393975964918</v>
+        <v>1.8751375857190185</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>2.5617564951397562</v>
+        <v>2.5609345816650251</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1398.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1398.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79C380D7-EAED-4861-BD78-2663E76B5527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9332CE2-D658-4808-897B-4498779AF626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4166,7 +4166,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10029689890642961</v>
+        <v>0.10046872664758871</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4930,7 +4930,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.8</v>
+        <v>4.79</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -4971,7 +4971,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1710750.0340272</v>
+        <v>1707185.97145631</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5020,7 +5020,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0703092813491821</v>
+        <v>1.0699092944463093</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5187,7 +5187,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.41360315391915004</v>
+        <v>0.41289578459094611</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5203,7 +5203,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>3.9896308621242715</v>
+        <v>3.9828075522051356</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5235,7 +5235,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.8321409126122792E-2</v>
+        <v>6.8438456747045767E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5265,20 +5265,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.1877338957223311</v>
+        <v>3.1882886081569239</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.890149537829557</v>
+        <v>5.8911745102071533</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.7502751714380369</v>
+        <v>3.7509277743022635</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.1218691633300502</v>
+        <v>5.1227604436583949</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10331,8 +10331,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10425,11 +10425,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-16662408.458950818</v>
+        <v>-16656181.525044857</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>5.311658467406482</v>
+        <v>5.3100471509891847</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12201,17 +12201,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.25064975546824197</v>
+        <v>0.2510791663650272</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.25064975546824197</v>
+        <v>0.2510791663650272</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.25064975546824197</v>
+        <v>0.2510791663650272</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12252,17 +12252,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10029689890642961</v>
+        <v>0.10046872664758871</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8321409126122792E-2</v>
+        <v>6.8438456747045767E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8321409126122792E-2</v>
+        <v>6.8438456747045767E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12322,14 +12322,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>60.845947813881409</v>
+        <v>60.927699029045591</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>60.845947813881409</v>
+        <v>60.927699029045591</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12350,14 +12350,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>7.5431429211746881</v>
+        <v>7.5444555386362335</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>7.5431429211746881</v>
+        <v>7.5444555386362335</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12400,21 +12400,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10781713.289986242</v>
+        <v>10796199.351830564</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>30.251189690235677</v>
+        <v>30.291834492497674</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>30.251189690235677</v>
+        <v>30.291834492497674</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>41.31500451180321</v>
+        <v>41.370514401035024</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12423,15 +12423,15 @@
         <v>144</v>
       </c>
       <c r="C98" s="91">
-        <f>E53*Exchange_Rate</f>
-        <v>674123.59776496887</v>
+        <f>-E53*Exchange_Rate</f>
+        <v>-673871.67001406348</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.8914471459366946</v>
+        <v>-1.8907402903585602</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12442,17 +12442,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>-34419528.929772794</v>
+        <v>-34406665.955476612</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>-111.0599420799573</v>
+        <v>-111.01843770076533</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-96.573862678223747</v>
+        <v>-96.537771913708994</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -12462,15 +12462,15 @@
         <v>114</v>
       </c>
       <c r="C100" s="91">
-        <f>C97-C98+$C$99</f>
-        <v>-24311939.237551522</v>
+        <f>C97+C98+$C$99</f>
+        <v>-24284338.273660108</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
         <v>0</v>
       </c>
       <c r="E100" s="109">
-        <f>MAX(E97-H98+E99,0)</f>
+        <f>MAX(E97+H98+E99,0)</f>
         <v>0</v>
       </c>
       <c r="F100" s="109">
@@ -12482,7 +12482,7 @@
         <v>0</v>
       </c>
       <c r="I100" s="109">
-        <f>MAX(I97-H98+H99,0)</f>
+        <f>MAX(I97+H98+H99,0)</f>
         <v>0</v>
       </c>
       <c r="K100" s="24"/>
@@ -12524,27 +12524,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1336621.5369060386</v>
+        <v>1336854.1286502432</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.1877338957223311</v>
+        <v>3.1882886081569239</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.7502751714380369</v>
+        <v>3.7509277743022635</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>3.7502751714380369</v>
+        <v>3.7509277743022635</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.7502751714380369</v>
+        <v>3.7509277743022635</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>5.1218691633300502</v>
+        <v>5.1227604436583949</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12585,27 +12585,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>668310.76845301932</v>
+        <v>668427.06432512158</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.5938669478611656</v>
+        <v>1.594144304078462</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.8751375857190185</v>
+        <v>1.8754638871511318</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.8751375857190185</v>
+        <v>1.8754638871511318</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.8751375857190185</v>
+        <v>1.8754638871511318</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>2.5609345816650251</v>
+        <v>2.5613802218291974</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1398.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1398.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9332CE2-D658-4808-897B-4498779AF626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34FB884C-9FF1-4096-BAFE-0A7D144F1FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4166,7 +4166,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10046872664758871</v>
+        <v>0.10050172349190496</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5020,7 +5020,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0699092944463093</v>
+        <v>1.0702606836954753</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5187,7 +5187,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.41289578459094611</v>
+        <v>0.41276022216027713</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5203,7 +5203,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>3.9828075522051356</v>
+        <v>3.9814999121351393</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5235,7 +5235,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.8438456747045767E-2</v>
+        <v>6.8460933921564437E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5265,20 +5265,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.1882886081569239</v>
+        <v>3.1896712255072437</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.8911745102071533</v>
+        <v>5.8937292475890626</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.7509277743022635</v>
+        <v>3.7525543829496986</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.1227604436583949</v>
+        <v>5.1249819544252722</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10425,11 +10425,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-16656181.525044857</v>
+        <v>-16661651.898234846</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>5.3100471509891847</v>
+        <v>5.3114626955032085</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12201,17 +12201,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.2510791663650272</v>
+        <v>0.25116162804678677</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.2510791663650272</v>
+        <v>0.25116162804678677</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.2510791663650272</v>
+        <v>0.25116162804678677</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12252,17 +12252,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10046872664758871</v>
+        <v>0.10050172349190496</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8438456747045767E-2</v>
+        <v>6.8460933921564437E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8438456747045767E-2</v>
+        <v>6.8460933921564437E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12322,14 +12322,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>60.927699029045591</v>
+        <v>60.967798162390146</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>60.927699029045591</v>
+        <v>60.967798162390146</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12350,14 +12350,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>7.5444555386362335</v>
+        <v>7.5477272296305014</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>7.5444555386362335</v>
+        <v>7.5477272296305014</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12400,21 +12400,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10796199.351830564</v>
+        <v>10803304.793925416</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>30.291834492497674</v>
+        <v>30.31177084870221</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>30.291834492497674</v>
+        <v>30.31177084870221</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>41.370514401035024</v>
+        <v>41.397742111910979</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12424,14 +12424,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-673871.67001406348</v>
+        <v>-674092.98901875818</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-1.8907402903585602</v>
+        <v>-1.8913612643181712</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12442,17 +12442,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>-34406665.955476612</v>
+        <v>-34417966.102675214</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>-111.01843770076533</v>
+        <v>-111.05489937622674</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-96.537771913708994</v>
+        <v>-96.569477718458046</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -12463,7 +12463,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>-24284338.273660108</v>
+        <v>-24288754.297768556</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12524,27 +12524,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1336854.1286502432</v>
+        <v>1337433.8621500239</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.1882886081569239</v>
+        <v>3.1896712255072437</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.7509277743022635</v>
+        <v>3.7525543829496986</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>3.7509277743022635</v>
+        <v>3.7525543829496986</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.7509277743022635</v>
+        <v>3.7525543829496986</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>5.1227604436583949</v>
+        <v>5.1249819544252722</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12585,27 +12585,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>668427.06432512158</v>
+        <v>668716.93107501196</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.594144304078462</v>
+        <v>1.5948356127536218</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.8754638871511318</v>
+        <v>1.8762771914748493</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.8754638871511318</v>
+        <v>1.8762771914748493</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.8754638871511318</v>
+        <v>1.8762771914748493</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>2.5613802218291974</v>
+        <v>2.5624909772126361</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1398.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1398.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34FB884C-9FF1-4096-BAFE-0A7D144F1FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B307194-3666-4DA3-AE48-0217D4F09ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4166,7 +4166,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10050172349190496</v>
+        <v>0.10028297623660828</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4930,7 +4930,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.79</v>
+        <v>4.8</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -4971,7 +4971,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1707185.97145631</v>
+        <v>1710750.0340272</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5020,7 +5020,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0702606836954753</v>
+        <v>1.0701607068379719</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5066,10 +5066,10 @@
         <v>252</v>
       </c>
       <c r="C12" s="174">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5116,7 +5116,7 @@
         <v>253</v>
       </c>
       <c r="C17" s="175">
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5187,7 +5187,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.41276022216027713</v>
+        <v>0.41366057602971334</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5203,7 +5203,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>3.9814999121351393</v>
+        <v>3.9901847578629783</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5235,7 +5235,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.8460933921564437E-2</v>
+        <v>6.8311925119823882E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5265,20 +5265,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.1896712255072437</v>
+        <v>2.9105293597325406</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.8937292475890626</v>
+        <v>5.2371034614382381</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.7525543829496986</v>
+        <v>3.4241521879206362</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.1249819544252722</v>
+        <v>4.5540030099462943</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10425,11 +10425,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-16661651.898234846</v>
+        <v>-16660095.474063633</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>5.3114626955032085</v>
+        <v>5.3110599464364565</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12201,17 +12201,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.25116162804678677</v>
+        <v>0.25061496163289682</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.25116162804678677</v>
+        <v>0.25061496163289682</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.25116162804678677</v>
+        <v>0.25061496163289682</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12252,17 +12252,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10050172349190496</v>
+        <v>0.10028297623660828</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8460933921564437E-2</v>
+        <v>6.8311925119823882E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8460933921564437E-2</v>
+        <v>6.8311925119823882E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12311,7 +12311,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12322,14 +12322,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>60.967798162390146</v>
+        <v>55.549537776039109</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>60.967798162390146</v>
+        <v>55.549537776039109</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12350,14 +12350,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>7.5477272296305014</v>
+        <v>6.8871931142680198</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>7.5477272296305014</v>
+        <v>6.8871931142680198</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12400,21 +12400,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10803304.793925416</v>
+        <v>9843205.853650555</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>30.31177084870221</v>
+        <v>27.617937838820151</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>30.31177084870221</v>
+        <v>27.617937838820151</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>41.397742111910979</v>
+        <v>36.730894289740526</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12424,14 +12424,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-674092.98901875818</v>
+        <v>-674030.01959482825</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-1.8913612643181712</v>
+        <v>-1.8911845855346834</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12442,17 +12442,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>-34417966.102675214</v>
+        <v>-34414750.998032935</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>-111.05489937622674</v>
+        <v>-111.04452534304107</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-96.569477718458046</v>
+        <v>-96.560456820035725</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -12463,7 +12463,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>-24288754.297768556</v>
+        <v>-25245575.163977206</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12524,27 +12524,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1337433.8621500239</v>
+        <v>1220389.264999904</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.1896712255072437</v>
+        <v>2.9105293597325406</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.7525543829496986</v>
+        <v>3.4241521879206362</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>3.7525543829496986</v>
+        <v>3.4241521879206362</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.7525543829496986</v>
+        <v>3.4241521879206362</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>5.1249819544252722</v>
+        <v>4.5540030099462943</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12585,27 +12585,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>668716.93107501196</v>
+        <v>610194.63249995199</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.5948356127536218</v>
+        <v>1.4552646798662703</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.8762771914748493</v>
+        <v>1.7120760939603181</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.8762771914748493</v>
+        <v>1.7120760939603181</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.8762771914748493</v>
+        <v>1.7120760939603181</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>2.5624909772126361</v>
+        <v>2.2770015049731471</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1398.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1398.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B307194-3666-4DA3-AE48-0217D4F09ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B60E7A9-09D7-4D7C-BCFB-94472FFA30D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -4166,7 +4177,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10028297623660828</v>
+        <v>9.8752158912055535E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4930,7 +4941,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.8</v>
+        <v>4.87</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -4971,7 +4982,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1710750.0340272</v>
+        <v>1735698.47202343</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5020,7 +5031,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0701607068379719</v>
+        <v>1.0691930055618286</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5187,7 +5198,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.41366057602971334</v>
+        <v>0.4200729804089906</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5203,7 +5214,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>3.9901847578629783</v>
+        <v>4.0520390405723088</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5235,7 +5246,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.8311925119823882E-2</v>
+        <v>6.7269145154855089E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5265,20 +5276,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.9105293597325406</v>
+        <v>2.8937331660156094</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.2371034614382381</v>
+        <v>5.2068809852554141</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.4241521879206362</v>
+        <v>3.4043919600183643</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.5540030099462943</v>
+        <v>4.5277225958742733</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10425,11 +10436,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-16660095.474063633</v>
+        <v>-16645030.451074183</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>5.3110599464364565</v>
+        <v>5.3071616364115792</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12201,17 +12212,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.25061496163289682</v>
+        <v>0.2467893300106902</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.25061496163289682</v>
+        <v>0.2467893300106902</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.25061496163289682</v>
+        <v>0.2467893300106902</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12252,17 +12263,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10028297623660828</v>
+        <v>9.8752158912055535E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8311925119823882E-2</v>
+        <v>6.7269145154855089E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8311925119823882E-2</v>
+        <v>6.7269145154855089E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12322,14 +12333,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>55.549537776039109</v>
+        <v>54.655622147349433</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>55.549537776039109</v>
+        <v>54.655622147349433</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12350,14 +12361,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.8871931142680198</v>
+        <v>6.8474482378501476</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.8871931142680198</v>
+        <v>6.8474482378501476</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12400,21 +12411,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9843205.853650555</v>
+        <v>9684806.7759757228</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>27.617937838820151</v>
+        <v>27.1735037849161</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>27.617937838820151</v>
+        <v>27.1735037849161</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>36.730894289740526</v>
+        <v>36.139812495437816</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12424,14 +12435,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-674030.01959482825</v>
+        <v>-673420.52262306213</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-1.8911845855346834</v>
+        <v>-1.8894744669280565</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12442,17 +12453,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>-34414750.998032935</v>
+        <v>-34383631.187479101</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>-111.04452534304107</v>
+        <v>-110.94411245346609</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-96.560456820035725</v>
+        <v>-96.473141263883562</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -12463,7 +12474,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>-25245575.163977206</v>
+        <v>-25372244.93412644</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12524,27 +12535,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1220389.264999904</v>
+        <v>1213346.5961340298</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.9105293597325406</v>
+        <v>2.8937331660156094</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.4241521879206362</v>
+        <v>3.4043919600183643</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>3.4241521879206362</v>
+        <v>3.4043919600183643</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.4241521879206362</v>
+        <v>3.4043919600183643</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>4.5540030099462943</v>
+        <v>4.5277225958742733</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12585,27 +12596,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>610194.63249995199</v>
+        <v>606673.2980670149</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.4552646798662703</v>
+        <v>1.4468665830078047</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.7120760939603181</v>
+        <v>1.7021959800091822</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.7120760939603181</v>
+        <v>1.7021959800091822</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.7120760939603181</v>
+        <v>1.7021959800091822</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>2.2770015049731471</v>
+        <v>2.2638612979371366</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1398.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1398.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B60E7A9-09D7-4D7C-BCFB-94472FFA30D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{982634B3-E3F2-47C6-AEB6-7ABF3BA7B270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Total Liabilities / Total Assets</t>
-  </si>
-  <si>
     <t>Current Ratio</t>
   </si>
   <si>
@@ -126,15 +123,9 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>Orderly Liquidation Values =</t>
-  </si>
-  <si>
     <t>Book Current Ratio</t>
   </si>
   <si>
-    <t>Orderly Liquidation Value per Shares =</t>
-  </si>
-  <si>
     <t>Book Quick Ratio</t>
   </si>
   <si>
@@ -449,10 +440,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Solvency Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Pre-tax Profit =</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -549,10 +536,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Profibility Qaulity Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>2. Total Debt + PS + Options</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -911,10 +894,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Cost Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -955,6 +934,42 @@
   </si>
   <si>
     <t>ΔWC/Δsales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minority interests</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profibility Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Op_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_Equity / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-tax ROE</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1546,7 +1561,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2186,6 +2201,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3602,7 +3627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3616,28 +3641,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C6" s="189">
         <v>45605</v>
@@ -3653,24 +3678,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C10" s="193">
         <v>356406257089</v>
@@ -3678,10 +3703,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3702,7 +3727,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3710,15 +3735,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="222" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C16" s="223">
         <v>0.25</v>
@@ -3727,61 +3752,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3850,7 +3875,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C26" s="150">
         <v>18534</v>
@@ -3870,7 +3895,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C27" s="150">
         <v>238698</v>
@@ -3890,7 +3915,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C28" s="150"/>
       <c r="D28" s="150"/>
@@ -3906,7 +3931,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C29" s="150">
         <v>750026</v>
@@ -3926,7 +3951,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C30" s="150">
         <v>1123</v>
@@ -3946,7 +3971,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C31" s="150"/>
       <c r="D31" s="150"/>
@@ -3962,7 +3987,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C32" s="150"/>
       <c r="D32" s="150"/>
@@ -3978,7 +4003,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C33" s="150"/>
       <c r="D33" s="150"/>
@@ -4010,7 +4035,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -4026,7 +4051,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4058,7 +4083,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -4106,7 +4131,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C41" s="217"/>
       <c r="D41" s="150"/>
@@ -4122,7 +4147,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>138</v>
+        <v>256</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4138,7 +4163,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -4154,7 +4179,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C44" s="250">
         <f>0.3064+0.1434</f>
@@ -4173,11 +4198,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.8752158912055535E-2</v>
+        <v>9.8961523774556498E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4222,21 +4247,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C47" s="194" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C48" s="59">
         <v>3628128</v>
@@ -4248,7 +4273,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C49" s="59">
         <v>2171209</v>
@@ -4260,7 +4285,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -4271,7 +4296,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C51" s="59">
         <v>3557823</v>
@@ -4283,7 +4308,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C52" s="59">
         <v>9431099</v>
@@ -4295,7 +4320,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C53" s="59">
         <v>27228377</v>
@@ -4308,7 +4333,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4318,7 +4343,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
@@ -4329,7 +4354,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4337,24 +4362,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4365,7 +4390,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="195">
@@ -4376,7 +4401,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4387,7 +4412,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4398,7 +4423,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4409,7 +4434,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4420,7 +4445,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4430,7 +4455,7 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C65" s="59">
         <v>65568</v>
@@ -4439,24 +4464,24 @@
         <v>0.1</v>
       </c>
       <c r="E65" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4464,12 +4489,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C68" s="59">
         <v>297776</v>
@@ -4482,7 +4507,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4493,7 +4518,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
@@ -4503,7 +4528,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C71" s="59">
         <v>97938</v>
@@ -4516,7 +4541,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="246" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C72" s="247">
         <v>638618</v>
@@ -4528,7 +4553,7 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C73" s="59">
         <v>40496667</v>
@@ -4536,19 +4561,19 @@
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C76" s="120">
         <v>1783937</v>
@@ -4564,37 +4589,37 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C82" s="83"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C83" s="59">
         <v>3234661</v>
@@ -4602,19 +4627,19 @@
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4622,10 +4647,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4633,18 +4658,18 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C89" s="271">
+        <v>123</v>
+      </c>
+      <c r="C89" s="275">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="271"/>
+      <c r="D89" s="275"/>
       <c r="E89" s="89" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4653,20 +4678,20 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C90" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D90" s="272"/>
+      <c r="C90" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="276"/>
       <c r="E90" s="235" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F90" s="255" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4684,7 +4709,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4705,7 +4730,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4726,7 +4751,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4744,7 +4769,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4765,7 +4790,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4783,7 +4808,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4801,7 +4826,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4929,62 +4954,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="277" t="str">
+        <v>189</v>
+      </c>
+      <c r="C3" s="281" t="str">
         <f>Inputs!C4</f>
         <v>1398.HK</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="282"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.87</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="279" t="str">
+        <v>190</v>
+      </c>
+      <c r="C4" s="283" t="str">
         <f>Inputs!C5</f>
         <v>工商银行</v>
       </c>
-      <c r="D4" s="280"/>
+      <c r="D4" s="284"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="283">
+      <c r="G4" s="287">
         <f>Inputs!C10</f>
         <v>356406257089</v>
       </c>
-      <c r="H4" s="283"/>
+      <c r="H4" s="287"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="281">
+        <v>158</v>
+      </c>
+      <c r="C5" s="285">
         <f>Inputs!C6</f>
         <v>45605</v>
       </c>
-      <c r="D5" s="282"/>
+      <c r="D5" s="286"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="275">
+        <v>96</v>
+      </c>
+      <c r="G5" s="279">
         <f>G3*G4/1000000</f>
-        <v>1735698.47202343</v>
-      </c>
-      <c r="H5" s="275"/>
+        <v>1732134.4094525401</v>
+      </c>
+      <c r="H5" s="279"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5007,16 +5032,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="276" t="str">
+      <c r="G6" s="280" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="276"/>
+      <c r="H6" s="280"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5031,7 +5056,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691930055618286</v>
+        <v>1.0692596832911174</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5041,40 +5066,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5087,29 +5112,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5119,12 +5144,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5134,29 +5159,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>1.2012210534502537E-2</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -5164,7 +5189,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
@@ -5175,58 +5200,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>9.7044800044936142E-4</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.4200729804089906</v>
+        <v>0.4191842661043883</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>0.48610500800425166</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>4.0520390405723088</v>
+        <v>4.0434664705044652</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5235,18 +5260,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>0.34620797227785238</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.7269145154855089E-2</v>
+        <v>6.7411762749053167E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5256,62 +5281,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="G28" s="273" t="s">
-        <v>256</v>
-      </c>
-      <c r="H28" s="273"/>
+        <v>232</v>
+      </c>
+      <c r="G28" s="277" t="s">
+        <v>250</v>
+      </c>
+      <c r="H28" s="277"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.8937331660156094</v>
+        <v>2.8958476907079826</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.2068809852554141</v>
+        <v>5.2106857861067422</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.4043919600183643</v>
-      </c>
-      <c r="G29" s="274">
+        <v>3.4068796361270386</v>
+      </c>
+      <c r="G29" s="278">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.5277225958742733</v>
-      </c>
-      <c r="H29" s="274"/>
+        <v>4.5310311183536891</v>
+      </c>
+      <c r="H29" s="278"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5321,25 +5346,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly disagree</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5349,7 +5374,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5359,14 +5384,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5376,7 +5401,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5391,14 +5416,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6351,12 +6376,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N931"/>
+  <dimension ref="A1:N932"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D52" sqref="D52"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6383,16 +6408,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="148" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="147" t="s">
         <v>199</v>
-      </c>
-      <c r="F2" s="119" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="148" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>204</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6410,7 +6435,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6443,7 +6468,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6454,7 +6479,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6606,7 +6631,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6657,7 +6682,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6708,7 +6733,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6759,7 +6784,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6810,7 +6835,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6861,7 +6886,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6912,7 +6937,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6963,7 +6988,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7014,7 +7039,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7065,7 +7090,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7116,7 +7141,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C18" s="152" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7167,7 +7192,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C19" s="199" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7218,7 +7243,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7269,7 +7294,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C21" s="199" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7320,7 +7345,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7371,7 +7396,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7422,7 +7447,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7473,7 +7498,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7524,7 +7549,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7677,7 +7702,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7728,7 +7753,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7830,7 +7855,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -8034,7 +8059,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8085,7 +8110,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8136,7 +8161,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8187,7 +8212,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8238,7 +8263,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8289,7 +8314,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8307,7 +8332,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8358,7 +8383,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8409,7 +8434,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8460,7 +8485,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8511,7 +8536,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8562,7 +8587,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8613,7 +8638,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8664,7 +8689,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>149</v>
+        <v>258</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8681,50 +8706,50 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="156">
-        <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D50" s="156" t="str">
+      <c r="B50" s="271" t="s">
+        <v>260</v>
+      </c>
+      <c r="C50" s="272">
+        <f>IF(C6="","",C6/C39)</f>
+        <v>5.0697711678134902E-2</v>
+      </c>
+      <c r="D50" s="272" t="e">
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E50" s="156" t="str">
+      <c r="F50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="156" t="str">
+      <c r="G50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="156" t="str">
+      <c r="H50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="156" t="str">
+      <c r="I50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="156" t="str">
+      <c r="J50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="156" t="str">
+      <c r="K50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="156" t="str">
+      <c r="L50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="156" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="156" t="str">
+      <c r="M50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8733,10 +8758,10 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
+        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
       <c r="D51" s="153" t="str">
@@ -8784,167 +8809,168 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>261</v>
-      </c>
-      <c r="C52" s="153" t="e">
+        <v>143</v>
+      </c>
+      <c r="C52" s="153">
+        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="94" t="s">
+        <v>255</v>
+      </c>
+      <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="16"/>
-      <c r="B53" s="102" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
+      <c r="D53" s="153" t="str">
+        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="F53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="G53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="H53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="I53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="K53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="L53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="M53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N53" s="87"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="156">
-        <f>IF(C36="","",(C27-C36)/C27)</f>
-        <v>0.91797994232852775</v>
-      </c>
-      <c r="D54" s="156" t="str">
-        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
+      <c r="A54" s="16"/>
+      <c r="B54" s="102" t="s">
+        <v>259</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" s="157">
-        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>1.2634035849314423E-2</v>
-      </c>
-      <c r="D55" s="157" t="str">
+      <c r="B55" s="95" t="s">
+        <v>261</v>
+      </c>
+      <c r="C55" s="156">
+        <f>IF(C36="","",(C36-C37)/C27)</f>
+        <v>6.8652351692407951E-2</v>
+      </c>
+      <c r="D55" s="156" t="str">
+        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
+        <v/>
+      </c>
+      <c r="E55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E55" s="157" t="str">
+      <c r="F55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="157" t="str">
+      <c r="G55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="157" t="str">
+      <c r="H55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="157" t="str">
+      <c r="I55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="157" t="str">
+      <c r="J55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="157" t="str">
+      <c r="K55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="157" t="str">
+      <c r="L55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="157" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="157" t="str">
+      <c r="M55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8952,112 +8978,302 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="153">
-        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>1.4040838077932061</v>
-      </c>
-      <c r="D56" s="153">
+        <v>117</v>
+      </c>
+      <c r="C56" s="157">
+        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>1.2634035849314423E-2</v>
+      </c>
+      <c r="D56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>1.3492159130892725</v>
-      </c>
-      <c r="E56" s="153" t="str">
+        <v/>
+      </c>
+      <c r="E56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="153" t="str">
+      <c r="F56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="153" t="str">
+      <c r="G56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="153" t="str">
+      <c r="H56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="153" t="str">
+      <c r="I56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="153" t="str">
+      <c r="J56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="153" t="str">
+      <c r="K56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="153" t="str">
+      <c r="L56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="153" t="str">
+      <c r="M56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
-      <c r="B57" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="158">
-        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
+      <c r="B57" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="153">
+        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>1.4040838077932061</v>
+      </c>
+      <c r="D57" s="153">
+        <f t="shared" si="47"/>
+        <v>1.3492159130892725</v>
+      </c>
+      <c r="E57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="158">
+        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
         <v>1.0639184029144524</v>
       </c>
-      <c r="D57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="E57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="D58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="4"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="102" t="s">
+        <v>262</v>
+      </c>
+      <c r="C59" s="273" t="str">
+        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
+        <v>Error</v>
+      </c>
+      <c r="D59" s="273" t="str">
+        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="E59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
+      <c r="B60" s="271" t="s">
+        <v>263</v>
+      </c>
+      <c r="C60" s="274">
+        <f>IF(C14="","",C14/(C36-C37))</f>
+        <v>0.39701244324108981</v>
+      </c>
+      <c r="D60" s="274" t="e">
+        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
+      <c r="B61" s="271" t="s">
+        <v>264</v>
+      </c>
+      <c r="C61" s="274">
+        <f>IF(C22="","",C22/(C36-C37))</f>
+        <v>0.16514084989637762</v>
+      </c>
+      <c r="D61" s="274" t="e">
+        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="F61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="G61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="H61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="I61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="J61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="K61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="L61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="M61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9620,7 +9836,9 @@
     <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="4"/>
+    </row>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10303,6 +10521,7 @@
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10342,8 +10561,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10361,7 +10580,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10376,7 +10595,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10390,7 +10609,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="204">
         <f>Inputs!C83</f>
@@ -10400,7 +10619,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10418,10 +10637,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -10430,22 +10649,23 @@
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="20" t="s">
-        <v>26</v>
+      <c r="B6" s="20" t="str">
+        <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
+        <v>Adj. Net Asset in CNY</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
-        <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-16645030.451074183</v>
+        <f>(E49-I49-E53)</f>
+        <v>-15567844.5</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>5.3071616364115792</v>
+        <v>5.0284229451616129</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
@@ -10455,8 +10675,9 @@
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19" t="s">
-        <v>28</v>
+      <c r="B7" s="19" t="str">
+        <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
+        <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10468,7 +10689,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
@@ -10486,7 +10707,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="203">
@@ -10505,32 +10726,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="111" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>35</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10547,7 +10768,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10558,7 +10779,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10575,7 +10796,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10586,7 +10807,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10603,7 +10824,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10614,7 +10835,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10631,7 +10852,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I14" s="205">
         <f>Inputs!C76</f>
@@ -10642,7 +10863,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10659,7 +10880,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10669,7 +10890,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10691,7 +10912,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10713,7 +10934,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10734,7 +10955,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10759,7 +10980,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10786,7 +11007,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10807,7 +11028,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10824,7 +11045,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10836,13 +11057,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10864,7 +11085,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10884,7 +11105,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
@@ -10893,7 +11114,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10913,7 +11134,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -10926,7 +11147,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10946,7 +11167,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -10992,7 +11213,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -11001,7 +11222,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -11017,7 +11238,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -11027,7 +11248,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11044,7 +11265,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11054,7 +11275,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11071,7 +11292,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11081,7 +11302,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11101,7 +11322,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I33" s="205">
         <f>Inputs!C81</f>
@@ -11111,7 +11332,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11128,7 +11349,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11138,7 +11359,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11164,7 +11385,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11191,7 +11412,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11218,7 +11439,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11239,7 +11460,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11260,7 +11481,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11281,7 +11502,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11302,7 +11523,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11319,7 +11540,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11337,7 +11558,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11356,7 +11577,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11375,7 +11596,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11392,7 +11613,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -11405,7 +11626,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11422,7 +11643,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11435,7 +11656,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11452,7 +11673,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I48" s="207">
         <f>Inputs!C82</f>
@@ -11479,7 +11700,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11495,14 +11716,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11519,7 +11740,7 @@
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11549,7 +11770,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11560,14 +11781,14 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="284">
+      <c r="D56" s="288">
         <f>I15+I34</f>
         <v>42280604</v>
       </c>
-      <c r="E56" s="282"/>
+      <c r="E56" s="286"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11575,30 +11796,30 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="283">
+      <c r="D57" s="287">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="282"/>
+      <c r="E57" s="286"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="283">
+      <c r="D58" s="287">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="282"/>
+      <c r="E58" s="286"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11615,11 +11836,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11629,7 +11850,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11650,7 +11871,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11671,7 +11892,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11692,7 +11913,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11707,7 +11928,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11738,11 +11959,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11752,7 +11973,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11773,7 +11994,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11788,7 +12009,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11810,21 +12031,21 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="271">
+        <v>123</v>
+      </c>
+      <c r="C72" s="275">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="271"/>
-      <c r="E72" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F72" s="285"/>
-      <c r="H72" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I72" s="285"/>
+      <c r="D72" s="275"/>
+      <c r="E72" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F72" s="289"/>
+      <c r="H72" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I72" s="289"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11834,23 +12055,23 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D73" s="272"/>
-      <c r="E73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="F73" s="272"/>
-      <c r="H73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="I73" s="272"/>
+      <c r="C73" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="276"/>
+      <c r="E73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73" s="276"/>
+      <c r="H73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="I73" s="276"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11871,7 +12092,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11901,7 +12122,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C76" s="161">
         <f>C74-C75</f>
@@ -11922,7 +12143,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11952,7 +12173,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11982,7 +12203,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12013,7 +12234,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12040,12 +12261,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12075,7 +12296,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12105,7 +12326,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -12135,7 +12356,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C84" s="211"/>
       <c r="D84" s="159">
@@ -12156,7 +12377,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12187,7 +12408,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12208,28 +12429,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.2467893300106902</v>
+        <v>0.24731254909484621</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.2467893300106902</v>
+        <v>0.24731254909484621</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.2467893300106902</v>
+        <v>0.24731254909484621</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12259,21 +12480,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.8752158912055535E-2</v>
+        <v>9.8961523774556498E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7269145154855089E-2</v>
+        <v>6.7411762749053167E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7269145154855089E-2</v>
+        <v>6.7411762749053167E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12290,29 +12511,29 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E92" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F92" s="285"/>
+        <v>151</v>
+      </c>
+      <c r="E92" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F92" s="289"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I92" s="285"/>
+      <c r="H92" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I92" s="289"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12329,24 +12550,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>54.655622147349433</v>
+        <v>54.773816092602011</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>54.655622147349433</v>
+        <v>54.773816092602011</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12357,18 +12578,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.8474482378501476</v>
+        <v>6.8524518430715018</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.8474482378501476</v>
+        <v>6.8524518430715018</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12387,94 +12608,94 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9684806.7759757228</v>
+        <v>9705750.3765951674</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>27.1735037849161</v>
+        <v>27.2322670647488</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>27.1735037849161</v>
+        <v>27.2322670647488</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>36.139812495437816</v>
+        <v>36.217965608543153</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-673420.52262306213</v>
+        <v>-673462.51892407739</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-1.8894744669280565</v>
+        <v>-1.8895922995984431</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>-34383631.187479101</v>
+        <v>-34385775.442482978</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>-110.94411245346609</v>
+        <v>-110.95103122440629</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-96.473141263883562</v>
+        <v>-96.479157586440266</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>-25372244.93412644</v>
+        <v>-25353487.584811889</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12504,58 +12725,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1213346.5961340298</v>
+        <v>1214233.2194647719</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.8937331660156094</v>
+        <v>2.8958476907079826</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.4043919600183643</v>
+        <v>3.4068796361270386</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>3.4043919600183643</v>
+        <v>3.4068796361270386</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.4043919600183643</v>
+        <v>3.4068796361270386</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>4.5277225958742733</v>
+        <v>4.5310311183536891</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12565,58 +12786,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>606673.2980670149</v>
+        <v>607116.60973238596</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.4468665830078047</v>
+        <v>1.4479238453539913</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.7021959800091822</v>
+        <v>1.7034398180635193</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.7021959800091822</v>
+        <v>1.7034398180635193</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.7021959800091822</v>
+        <v>1.7034398180635193</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>2.2638612979371366</v>
+        <v>2.2655155591768446</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12625,7 +12846,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
@@ -12634,6 +12855,7 @@
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/1398.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1398.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{982634B3-E3F2-47C6-AEB6-7ABF3BA7B270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EDAC1C7-4716-4889-A004-4F6D98B86EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -524,14 +524,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ST AR / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST Inventory / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST Inventory</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -598,21 +590,9 @@
     <t>Value Range</t>
   </si>
   <si>
-    <t>COGS</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>ΔWC</t>
-  </si>
-  <si>
     <t>- Non-controling Interests</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-tax Profit </t>
-  </si>
-  <si>
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
@@ -640,9 +620,6 @@
     <t>https://fred.stlouisfed.org/series/DGS10</t>
   </si>
   <si>
-    <t>Normalized Cost Structure</t>
-  </si>
-  <si>
     <t>Price Indicators</t>
   </si>
   <si>
@@ -664,9 +641,6 @@
     <t>Market Yields</t>
   </si>
   <si>
-    <t>Non-controlling Interests</t>
-  </si>
-  <si>
     <t>Watchlist &amp; Comp_Group:</t>
   </si>
   <si>
@@ -866,14 +840,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>CAPX-D&amp;A</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPEX+R&amp;D</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>- (CAPX - D&amp;A)</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -953,10 +919,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales/Op_Assets</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Common_Equity / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -970,6 +932,42 @@
   </si>
   <si>
     <t>Pre-tax ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Total_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_AR / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_Inventory / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT Margin</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized ΔWC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized CAPX-D&amp;A</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE &amp; Cost Structure</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1297,7 +1295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1555,13 +1553,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2211,6 +2325,30 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2450,981 +2588,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Normalized Cost Structure</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$20:$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>COGS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPEX+R&amp;D</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Non-controlling Interests</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ΔWC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Interest</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CAPX-D&amp;A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pre-tax Profit </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dashboard!$C$20:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.2012210534502537E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.15470436118294414</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.7044800044936142E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.48610500800425166</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.34620797227785238</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A50-CA42-B693-027654020280}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773B95BE-F378-2977-0A32-CF810A38528E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3627,7 +2790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3641,28 +2804,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="189">
         <v>45605</v>
@@ -3678,24 +2841,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C10" s="193">
         <v>356406257089</v>
@@ -3703,10 +2866,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3727,7 +2890,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3735,10 +2898,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3752,55 +2915,55 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3931,7 +3094,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C29" s="150">
         <v>750026</v>
@@ -4051,7 +3214,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4147,7 +3310,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4179,7 +3342,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C44" s="250">
         <f>0.3064+0.1434</f>
@@ -4198,11 +3361,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.8961523774556498E-2</v>
+        <v>9.8749079687965799E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4247,13 +3410,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -4320,7 +3483,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C53" s="59">
         <v>27228377</v>
@@ -4333,7 +3496,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4434,7 +3597,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4445,7 +3608,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4619,7 +3782,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C83" s="59">
         <v>3234661</v>
@@ -4639,7 +3802,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4647,10 +3810,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4660,16 +3823,16 @@
       <c r="B89" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C89" s="275">
+      <c r="C89" s="283">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="275"/>
+      <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4678,10 +3841,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C90" s="276" t="s">
+      <c r="C90" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="276"/>
+      <c r="D90" s="284"/>
       <c r="E90" s="235" t="s">
         <v>98</v>
       </c>
@@ -4730,7 +3893,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4751,7 +3914,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4769,7 +3932,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4808,7 +3971,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4826,7 +3989,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4912,8 +4075,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4954,62 +4117,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="281" t="str">
+        <v>181</v>
+      </c>
+      <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
         <v>1398.HK</v>
       </c>
-      <c r="D3" s="282"/>
+      <c r="D3" s="290"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.8600000000000003</v>
+        <v>4.87</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="283" t="str">
+        <v>182</v>
+      </c>
+      <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
         <v>工商银行</v>
       </c>
-      <c r="D4" s="284"/>
+      <c r="D4" s="292"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="287">
+      <c r="G4" s="295">
         <f>Inputs!C10</f>
         <v>356406257089</v>
       </c>
-      <c r="H4" s="287"/>
+      <c r="H4" s="295"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="285">
+        <v>156</v>
+      </c>
+      <c r="C5" s="293">
         <f>Inputs!C6</f>
         <v>45605</v>
       </c>
-      <c r="D5" s="286"/>
+      <c r="D5" s="294"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="279">
+      <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>1732134.4094525401</v>
-      </c>
-      <c r="H5" s="279"/>
+        <v>1735698.47202343</v>
+      </c>
+      <c r="H5" s="287"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5032,16 +4195,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="280" t="str">
+      <c r="G6" s="288" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="280"/>
+      <c r="H6" s="288"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5056,7 +4219,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0692596832911174</v>
+        <v>1.0691596666971843</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5066,40 +4229,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5112,29 +4275,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5144,12 +4307,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5157,9 +4320,9 @@
       <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>178</v>
+        <v>262</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -5167,91 +4330,91 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="137" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="171">
-        <f>Fin_Analysis!I75</f>
-        <v>1.2012210534502537E-2</v>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="275" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" s="276">
+        <f>C23*C22*(1/C21)</f>
+        <v>0.39701244324108975</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="137" t="s">
-        <v>239</v>
-      </c>
-      <c r="C21" s="171">
-        <f>Fin_Analysis!I77</f>
-        <v>0.15470436118294414</v>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="277" t="s">
+        <v>250</v>
+      </c>
+      <c r="C21" s="278">
+        <f>Data!C55</f>
+        <v>6.8652351692407951E-2</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="137" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="171">
-        <f>Fin_Analysis!I78</f>
-        <v>9.7044800044936142E-4</v>
+      <c r="B22" s="279" t="s">
+        <v>257</v>
+      </c>
+      <c r="C22" s="280">
+        <f>Data!C50</f>
+        <v>3.2747101781845762E-2</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="171">
-        <f>Fin_Analysis!I80</f>
-        <v>0</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="281" t="s">
+        <v>258</v>
+      </c>
+      <c r="C23" s="282">
+        <f>Data!C13</f>
+        <v>0.83231298028210399</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.4191842661043883</v>
+        <v>0.4200860792535045</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>165</v>
+        <v>259</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>0.48610500800425166</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>4.0434664705044652</v>
+        <v>4.0521653924964554</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="C25" s="171">
-        <f>Fin_Analysis!I82</f>
+        <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5260,18 +4423,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>168</v>
+        <v>261</v>
       </c>
       <c r="C26" s="171">
-        <f>Fin_Analysis!I83</f>
-        <v>0.34620797227785238</v>
+        <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
+        <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.7411762749053167E-2</v>
+        <v>6.7267047613145226E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5281,62 +4444,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="G28" s="277" t="s">
-        <v>250</v>
-      </c>
-      <c r="H28" s="277"/>
+        <v>224</v>
+      </c>
+      <c r="G28" s="285" t="s">
+        <v>240</v>
+      </c>
+      <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.8958476907079826</v>
+        <v>2.8936145007730429</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.2106857861067422</v>
+        <v>5.2066674632201462</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.4068796361270386</v>
-      </c>
-      <c r="G29" s="278">
+        <v>3.4042523538506386</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.5310311183536891</v>
-      </c>
-      <c r="H29" s="278"/>
+        <v>4.527536924539258</v>
+      </c>
+      <c r="H29" s="286"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5346,7 +4509,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C34" s="225" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
@@ -5357,14 +4520,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5374,7 +4537,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5384,14 +4547,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5401,7 +4564,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5416,14 +4579,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6367,7 +5530,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="99" orientation="landscape" r:id="rId6"/>
-  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6381,7 +5543,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6408,16 +5570,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F2" s="119" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G2" s="148" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H2" s="147" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6435,7 +5597,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6468,7 +5630,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6835,7 +5997,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6886,7 +6048,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6937,7 +6099,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6988,7 +6150,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7090,7 +6252,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7243,7 +6405,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7753,7 +6915,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -8263,7 +7425,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8314,7 +7476,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8383,7 +7545,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8587,7 +7749,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8689,7 +7851,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8707,14 +7869,14 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="271" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C50" s="272">
-        <f>IF(C6="","",C6/C39)</f>
-        <v>5.0697711678134902E-2</v>
+        <f>IF(C6="","",C6/C27)</f>
+        <v>3.2747101781845762E-2</v>
       </c>
       <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E50" s="272" t="str">
@@ -8758,7 +7920,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>142</v>
+        <v>255</v>
       </c>
       <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
@@ -8809,7 +7971,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>143</v>
+        <v>256</v>
       </c>
       <c r="C52" s="153">
         <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
@@ -8860,7 +8022,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="94" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
@@ -8911,7 +8073,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="102" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
@@ -8928,7 +8090,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="95" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C55" s="156">
         <f>IF(C36="","",(C36-C37)/C27)</f>
@@ -9128,11 +8290,11 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
       <c r="B59" s="102" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C59" s="273" t="str">
         <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v>Error</v>
+        <v/>
       </c>
       <c r="D59" s="273" t="str">
         <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
@@ -9178,7 +8340,7 @@
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
       <c r="B60" s="271" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C60" s="274">
         <f>IF(C14="","",C14/(C36-C37))</f>
@@ -9228,7 +8390,7 @@
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="271" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C61" s="274">
         <f>IF(C22="","",C22/(C36-C37))</f>
@@ -10732,7 +9894,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -10890,7 +10052,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -11302,7 +10464,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11770,7 +10932,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11784,11 +10946,11 @@
         <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="288">
+      <c r="D56" s="296">
         <f>I15+I34</f>
         <v>42280604</v>
       </c>
-      <c r="E56" s="286"/>
+      <c r="E56" s="294"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11799,11 +10961,11 @@
         <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="287">
+      <c r="D57" s="295">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="286"/>
+      <c r="E57" s="294"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11815,11 +10977,11 @@
         <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="287">
+      <c r="D58" s="295">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="286"/>
+      <c r="E58" s="294"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11836,7 +10998,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11913,7 +11075,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11959,7 +11121,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11994,7 +11156,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -12033,19 +11195,19 @@
       <c r="B72" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="275">
+      <c r="C72" s="283">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="275"/>
-      <c r="E72" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F72" s="289"/>
-      <c r="H72" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I72" s="289"/>
+      <c r="D72" s="283"/>
+      <c r="E72" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F72" s="297"/>
+      <c r="H72" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -12055,18 +11217,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="276" t="s">
+      <c r="C73" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="276"/>
-      <c r="E73" s="290" t="s">
+      <c r="D73" s="284"/>
+      <c r="E73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="F73" s="276"/>
-      <c r="H73" s="290" t="s">
+      <c r="F73" s="284"/>
+      <c r="H73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="I73" s="276"/>
+      <c r="I73" s="284"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12143,7 +11305,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12173,7 +11335,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12203,7 +11365,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12266,7 +11428,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12296,7 +11458,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12377,7 +11539,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12408,7 +11570,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12429,28 +11591,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.24731254909484621</v>
+        <v>0.24678163479006485</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.24731254909484621</v>
+        <v>0.24678163479006485</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.24731254909484621</v>
+        <v>0.24678163479006485</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12480,21 +11642,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.8961523774556498E-2</v>
+        <v>9.8749079687965799E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7411762749053167E-2</v>
+        <v>6.7267047613145226E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7411762749053167E-2</v>
+        <v>6.7267047613145226E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12516,24 +11678,24 @@
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E92" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F92" s="289"/>
+        <v>149</v>
+      </c>
+      <c r="E92" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F92" s="297"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I92" s="289"/>
+      <c r="H92" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I92" s="297"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12550,24 +11712,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>54.773816092602011</v>
+        <v>54.652231304947939</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>54.773816092602011</v>
+        <v>54.652231304947939</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12578,18 +11740,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.8524518430715018</v>
+        <v>6.8471674399812734</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.8524518430715018</v>
+        <v>6.8471674399812734</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12608,14 +11770,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -12632,21 +11794,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9705750.3765951674</v>
+        <v>9684205.9292160273</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>27.2322670647488</v>
+        <v>27.171817936961013</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>27.2322670647488</v>
+        <v>27.171817936961013</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>36.217965608543153</v>
+        <v>36.137570376442973</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12656,14 +11818,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-673462.51892407739</v>
+        <v>-673399.52447255456</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-1.8895922995984431</v>
+        <v>-1.8894155505928634</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12674,17 +11836,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>-34385775.442482978</v>
+        <v>-34382559.059977166</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>-110.95103122440629</v>
+        <v>-110.94065306799601</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-96.479157586440266</v>
+        <v>-96.470133102605232</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -12695,7 +11857,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>-25353487.584811889</v>
+        <v>-25371752.655233696</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12725,21 +11887,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12752,31 +11914,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1214233.2194647719</v>
+        <v>1213296.8396223243</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.8958476907079826</v>
+        <v>2.8936145007730429</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.4068796361270386</v>
+        <v>3.4042523538506386</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>3.4068796361270386</v>
+        <v>3.4042523538506386</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.4068796361270386</v>
+        <v>3.4042523538506386</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>4.5310311183536891</v>
+        <v>4.527536924539258</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12786,21 +11948,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12813,31 +11975,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>607116.60973238596</v>
+        <v>606648.41981116217</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.4479238453539913</v>
+        <v>1.4468072503865215</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.7034398180635193</v>
+        <v>1.7021261769253193</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.7034398180635193</v>
+        <v>1.7021261769253193</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.7034398180635193</v>
+        <v>1.7021261769253193</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>2.2655155591768446</v>
+        <v>2.263768462269629</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12846,7 +12008,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/1398.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1398.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EDAC1C7-4716-4889-A004-4F6D98B86EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E616FC6-041A-4006-8230-BD888D1689C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -404,10 +404,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Noncurrent Liabilities</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST AR</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -903,10 +899,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Minority interests</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Profibility Analysis</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -968,6 +960,18 @@
   </si>
   <si>
     <t>ROE &amp; Cost Structure</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -2399,7 +2403,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2496,12 +2500,28 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2790,7 +2810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2804,28 +2824,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="189">
         <v>45605</v>
@@ -2841,24 +2861,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="193">
         <v>356406257089</v>
@@ -2866,10 +2886,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2890,7 +2910,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -2898,10 +2918,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2915,61 +2935,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3094,7 +3114,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C29" s="150">
         <v>750026</v>
@@ -3180,9 +3200,9 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B34" s="94" t="s">
-        <v>14</v>
+    <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="97" t="s">
+        <v>263</v>
       </c>
       <c r="C34" s="217"/>
       <c r="D34" s="150"/>
@@ -3198,7 +3218,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -3214,7 +3234,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -3229,10 +3249,11 @@
       <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="217"/>
+      <c r="B37" s="94" t="str">
+        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
+        <v>Total Liabilities Error</v>
+      </c>
+      <c r="C37" s="150"/>
       <c r="D37" s="150"/>
       <c r="E37" s="150"/>
       <c r="F37" s="150"/>
@@ -3244,9 +3265,9 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>112</v>
+        <v>262</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -3293,10 +3314,11 @@
       <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="217"/>
+      <c r="B41" s="94" t="str">
+        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
+        <v>Total Equity Error</v>
+      </c>
+      <c r="C41" s="150"/>
       <c r="D41" s="150"/>
       <c r="E41" s="150"/>
       <c r="F41" s="150"/>
@@ -3310,9 +3332,9 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>246</v>
-      </c>
-      <c r="C42" s="217"/>
+        <v>133</v>
+      </c>
+      <c r="C42" s="150"/>
       <c r="D42" s="150"/>
       <c r="E42" s="150"/>
       <c r="F42" s="150"/>
@@ -3326,7 +3348,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -3342,7 +3364,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C44" s="250">
         <f>0.3064+0.1434</f>
@@ -3361,11 +3383,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.8749079687965799E-2</v>
+        <v>9.8946095974847603E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3410,13 +3432,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -3436,7 +3458,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="59">
         <v>2171209</v>
@@ -3448,7 +3470,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -3483,7 +3505,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="59">
         <v>27228377</v>
@@ -3496,7 +3518,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3530,7 +3552,7 @@
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
@@ -3597,7 +3619,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -3608,7 +3630,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3657,7 +3679,7 @@
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="59">
         <v>297776</v>
@@ -3782,7 +3804,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C83" s="59">
         <v>3234661</v>
@@ -3802,7 +3824,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -3810,10 +3832,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -3821,7 +3843,7 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C89" s="283">
         <f>C24</f>
@@ -3829,10 +3851,10 @@
       </c>
       <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3854,7 +3876,7 @@
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -3893,7 +3915,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -3914,7 +3936,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -3932,7 +3954,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -3971,7 +3993,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -3989,7 +4011,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4012,28 +4034,33 @@
     <mergeCell ref="C90:D90"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C16 C25:M33 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="20" priority="11">
+  <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
+    <cfRule type="containsBlanks" dxfId="22" priority="14">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsBlanks" dxfId="21" priority="3">
+      <formula>LEN(TRIM(C37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C42">
+    <cfRule type="containsBlanks" dxfId="20" priority="1">
+      <formula>LEN(TRIM(C41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
+    <cfRule type="containsBlanks" dxfId="19" priority="7">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="3">
+    <cfRule type="containsBlanks" dxfId="18" priority="6">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:M43">
-    <cfRule type="containsBlanks" dxfId="17" priority="17">
-      <formula>LEN(TRIM(D34))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="4">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4075,8 +4102,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4117,7 +4144,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
@@ -4129,15 +4156,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.87</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
@@ -4157,7 +4184,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="293">
         <f>Inputs!C6</f>
@@ -4170,7 +4197,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>1735698.47202343</v>
+        <v>1732134.4094525401</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4204,7 +4231,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -4219,7 +4246,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691596666971843</v>
+        <v>1.0690929889678955</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4229,40 +4256,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -4275,29 +4302,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -4307,12 +4334,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -4322,7 +4349,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -4330,21 +4357,21 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="275" t="s">
-        <v>252</v>
-      </c>
-      <c r="C20" s="276">
+        <v>250</v>
+      </c>
+      <c r="C20" s="276" t="e">
         <f>C23*C22*(1/C21)</f>
-        <v>0.39701244324108975</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -4352,69 +4379,69 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="277" t="s">
-        <v>250</v>
-      </c>
-      <c r="C21" s="278">
-        <f>Data!C55</f>
-        <v>6.8652351692407951E-2</v>
+        <v>248</v>
+      </c>
+      <c r="C21" s="278" t="e">
+        <f>Data!C53</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="279" t="s">
-        <v>257</v>
-      </c>
-      <c r="C22" s="280">
-        <f>Data!C50</f>
-        <v>3.2747101781845762E-2</v>
+        <v>255</v>
+      </c>
+      <c r="C22" s="280" t="e">
+        <f>Data!C48</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="281" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C23" s="282">
         <f>Data!C13</f>
         <v>0.83231298028210399</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>176</v>
-      </c>
-      <c r="G23" s="177">
-        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.4200860792535045</v>
+        <v>175</v>
+      </c>
+      <c r="G23" s="177" t="e">
+        <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>0.48610500800425166</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>4.0521653924964554</v>
+        <v>4.0440969328811969</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -4423,18 +4450,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.7267047613145226E-2</v>
+        <v>6.7401253460856625E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4444,40 +4471,40 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>159</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.8936145007730429</v>
+        <v>2.895253705412022</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.2066674632201462</v>
+        <v>5.2096169899995601</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.4042523538506386</v>
+        <v>3.4061808298964964</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.527536924539258</v>
+        <v>4.5301017304344002</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4485,21 +4512,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -4509,25 +4536,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly disagree</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -4537,7 +4564,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -4547,14 +4574,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -4564,7 +4591,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -4579,14 +4606,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -5486,27 +5513,27 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="15" priority="5">
+    <cfRule type="containsBlanks" dxfId="16" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="14" priority="3">
+    <cfRule type="containsBlanks" dxfId="15" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="13" priority="2">
+    <cfRule type="containsBlanks" dxfId="14" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="12" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5538,12 +5565,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N932"/>
+  <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C60" sqref="C60"/>
+      <selection pane="topRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5570,16 +5597,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="148" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>190</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -5597,7 +5624,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -5630,7 +5657,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -5641,7 +5668,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5997,7 +6024,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6048,7 +6075,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6099,7 +6126,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6150,7 +6177,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6252,7 +6279,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -6405,7 +6432,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -6660,7 +6687,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -6711,7 +6738,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6765,15 +6792,15 @@
         <v>13</v>
       </c>
       <c r="C27" s="65">
-        <f>IF(C36="","",C36+C31+C32)</f>
-        <v>47116536</v>
+        <f>IF(C34="","",C34+C30)</f>
+        <v>0</v>
       </c>
       <c r="D27" s="65" t="str">
-        <f t="shared" ref="D27:M27" si="20">IF(D36="","",D36+D31+D32)</f>
+        <f>IF(D34="","",D34+D30)</f>
         <v/>
       </c>
       <c r="E27" s="65" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="E27:M27" si="20">IF(E34="","",E34+E30)</f>
         <v/>
       </c>
       <c r="F27" s="65" t="str">
@@ -6813,50 +6840,50 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="C28" s="65">
-        <f>Fin_Analysis!C28</f>
-        <v>46016636</v>
+        <f>Fin_Analysis!C13</f>
+        <v>0</v>
       </c>
       <c r="D28" s="199" t="str">
-        <f>IF(Inputs!D34="","",Inputs!D34)</f>
+        <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
       <c r="E28" s="199" t="str">
-        <f>IF(Inputs!E34="","",Inputs!E34)</f>
+        <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
       <c r="F28" s="199" t="str">
-        <f>IF(Inputs!F34="","",Inputs!F34)</f>
+        <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
       <c r="G28" s="199" t="str">
-        <f>IF(Inputs!G34="","",Inputs!G34)</f>
+        <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
       <c r="H28" s="199" t="str">
-        <f>IF(Inputs!H34="","",Inputs!H34)</f>
+        <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
       <c r="I28" s="199" t="str">
-        <f>IF(Inputs!I34="","",Inputs!I34)</f>
+        <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
       <c r="J28" s="199" t="str">
-        <f>IF(Inputs!J34="","",Inputs!J34)</f>
+        <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
       <c r="K28" s="199" t="str">
-        <f>IF(Inputs!K34="","",Inputs!K34)</f>
+        <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
       <c r="L28" s="199" t="str">
-        <f>IF(Inputs!L34="","",Inputs!L34)</f>
+        <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
       <c r="M28" s="199" t="str">
-        <f>IF(Inputs!M34="","",Inputs!M34)</f>
+        <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
       <c r="N28" s="87"/>
@@ -6864,50 +6891,50 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C29" s="65">
-        <f>Fin_Analysis!C13</f>
+        <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
       <c r="D29" s="199" t="str">
-        <f>IF(Inputs!D35="","",Inputs!D35)</f>
+        <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
       <c r="E29" s="199" t="str">
-        <f>IF(Inputs!E35="","",Inputs!E35)</f>
+        <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
       <c r="F29" s="199" t="str">
-        <f>IF(Inputs!F35="","",Inputs!F35)</f>
+        <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
       <c r="G29" s="199" t="str">
-        <f>IF(Inputs!G35="","",Inputs!G35)</f>
+        <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
       <c r="H29" s="199" t="str">
-        <f>IF(Inputs!H35="","",Inputs!H35)</f>
+        <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
       <c r="I29" s="199" t="str">
-        <f>IF(Inputs!I35="","",Inputs!I35)</f>
+        <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
       <c r="J29" s="199" t="str">
-        <f>IF(Inputs!J35="","",Inputs!J35)</f>
+        <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
       <c r="K29" s="199" t="str">
-        <f>IF(Inputs!K35="","",Inputs!K35)</f>
+        <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
       <c r="L29" s="199" t="str">
-        <f>IF(Inputs!L35="","",Inputs!L35)</f>
+        <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
       <c r="M29" s="199" t="str">
-        <f>IF(Inputs!M35="","",Inputs!M35)</f>
+        <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
       <c r="N29" s="87"/>
@@ -6915,101 +6942,101 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>142</v>
+        <v>261</v>
       </c>
       <c r="C30" s="65">
-        <f>Fin_Analysis!C18</f>
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="D30" s="199" t="str">
-        <f>IF(Inputs!D36="","",Inputs!D36)</f>
+        <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
       <c r="E30" s="199" t="str">
-        <f>IF(Inputs!E36="","",Inputs!E36)</f>
+        <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
       <c r="F30" s="199" t="str">
-        <f>IF(Inputs!F36="","",Inputs!F36)</f>
+        <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
       <c r="G30" s="199" t="str">
-        <f>IF(Inputs!G36="","",Inputs!G36)</f>
+        <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
       <c r="H30" s="199" t="str">
-        <f>IF(Inputs!H36="","",Inputs!H36)</f>
+        <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
       <c r="I30" s="199" t="str">
-        <f>IF(Inputs!I36="","",Inputs!I36)</f>
+        <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
       <c r="J30" s="199" t="str">
-        <f>IF(Inputs!J36="","",Inputs!J36)</f>
+        <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
       <c r="K30" s="199" t="str">
-        <f>IF(Inputs!K36="","",Inputs!K36)</f>
+        <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
       <c r="L30" s="199" t="str">
-        <f>IF(Inputs!L36="","",Inputs!L36)</f>
+        <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
       <c r="M30" s="199" t="str">
-        <f>IF(Inputs!M36="","",Inputs!M36)</f>
+        <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" s="65">
-        <f>Fin_Analysis!I28</f>
-        <v>43252035</v>
+        <f>Fin_Analysis!I15</f>
+        <v>42280604</v>
       </c>
       <c r="D31" s="199" t="str">
-        <f>IF(Inputs!D37="","",Inputs!D37)</f>
+        <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
       <c r="E31" s="199" t="str">
-        <f>IF(Inputs!E37="","",Inputs!E37)</f>
+        <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
       <c r="F31" s="199" t="str">
-        <f>IF(Inputs!F37="","",Inputs!F37)</f>
+        <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
       <c r="G31" s="199" t="str">
-        <f>IF(Inputs!G37="","",Inputs!G37)</f>
+        <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
       <c r="H31" s="199" t="str">
-        <f>IF(Inputs!H37="","",Inputs!H37)</f>
+        <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
       <c r="I31" s="199" t="str">
-        <f>IF(Inputs!I37="","",Inputs!I37)</f>
+        <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
       <c r="J31" s="199" t="str">
-        <f>IF(Inputs!J37="","",Inputs!J37)</f>
+        <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
       <c r="K31" s="199" t="str">
-        <f>IF(Inputs!K37="","",Inputs!K37)</f>
+        <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
       <c r="L31" s="199" t="str">
-        <f>IF(Inputs!L37="","",Inputs!L37)</f>
+        <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
       <c r="M31" s="199" t="str">
-        <f>IF(Inputs!M37="","",Inputs!M37)</f>
+        <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
       <c r="N31" s="87"/>
@@ -7017,101 +7044,101 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="C32" s="65">
-        <f>Fin_Analysis!I48</f>
+        <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
       <c r="D32" s="199" t="str">
-        <f>IF(Inputs!D38="","",Inputs!D38)</f>
+        <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
       <c r="E32" s="199" t="str">
-        <f>IF(Inputs!E38="","",Inputs!E38)</f>
+        <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
       <c r="F32" s="199" t="str">
-        <f>IF(Inputs!F38="","",Inputs!F38)</f>
+        <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
       <c r="G32" s="199" t="str">
-        <f>IF(Inputs!G38="","",Inputs!G38)</f>
+        <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
       <c r="H32" s="199" t="str">
-        <f>IF(Inputs!H38="","",Inputs!H38)</f>
+        <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
       <c r="I32" s="199" t="str">
-        <f>IF(Inputs!I38="","",Inputs!I38)</f>
+        <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
       <c r="J32" s="199" t="str">
-        <f>IF(Inputs!J38="","",Inputs!J38)</f>
+        <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
       <c r="K32" s="199" t="str">
-        <f>IF(Inputs!K38="","",Inputs!K38)</f>
+        <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
       <c r="L32" s="199" t="str">
-        <f>IF(Inputs!L38="","",Inputs!L38)</f>
+        <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
       <c r="M32" s="199" t="str">
-        <f>IF(Inputs!M38="","",Inputs!M38)</f>
+        <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="65">
-        <f>Fin_Analysis!I15</f>
+        <v>18</v>
+      </c>
+      <c r="C33" s="77">
+        <f t="shared" ref="C33" si="21">IF(OR(C31="",C32=""),"",C31+C32)</f>
         <v>42280604</v>
       </c>
-      <c r="D33" s="199" t="str">
-        <f>IF(Inputs!D39="","",Inputs!D39)</f>
-        <v/>
-      </c>
-      <c r="E33" s="199" t="str">
-        <f>IF(Inputs!E39="","",Inputs!E39)</f>
-        <v/>
-      </c>
-      <c r="F33" s="199" t="str">
-        <f>IF(Inputs!F39="","",Inputs!F39)</f>
-        <v/>
-      </c>
-      <c r="G33" s="199" t="str">
-        <f>IF(Inputs!G39="","",Inputs!G39)</f>
-        <v/>
-      </c>
-      <c r="H33" s="199" t="str">
-        <f>IF(Inputs!H39="","",Inputs!H39)</f>
-        <v/>
-      </c>
-      <c r="I33" s="199" t="str">
-        <f>IF(Inputs!I39="","",Inputs!I39)</f>
-        <v/>
-      </c>
-      <c r="J33" s="199" t="str">
-        <f>IF(Inputs!J39="","",Inputs!J39)</f>
-        <v/>
-      </c>
-      <c r="K33" s="199" t="str">
-        <f>IF(Inputs!K39="","",Inputs!K39)</f>
-        <v/>
-      </c>
-      <c r="L33" s="199" t="str">
-        <f>IF(Inputs!L39="","",Inputs!L39)</f>
-        <v/>
-      </c>
-      <c r="M33" s="199" t="str">
-        <f>IF(Inputs!M39="","",Inputs!M39)</f>
+      <c r="D33" s="77" t="str">
+        <f t="shared" ref="D33" si="22">IF(OR(D31="",D32=""),"",D31+D32)</f>
+        <v/>
+      </c>
+      <c r="E33" s="77" t="str">
+        <f t="shared" ref="E33" si="23">IF(OR(E31="",E32=""),"",E31+E32)</f>
+        <v/>
+      </c>
+      <c r="F33" s="77" t="str">
+        <f t="shared" ref="F33" si="24">IF(OR(F31="",F32=""),"",F31+F32)</f>
+        <v/>
+      </c>
+      <c r="G33" s="77" t="str">
+        <f t="shared" ref="G33" si="25">IF(OR(G31="",G32=""),"",G31+G32)</f>
+        <v/>
+      </c>
+      <c r="H33" s="77" t="str">
+        <f t="shared" ref="H33" si="26">IF(OR(H31="",H32=""),"",H31+H32)</f>
+        <v/>
+      </c>
+      <c r="I33" s="77" t="str">
+        <f t="shared" ref="I33" si="27">IF(OR(I31="",I32=""),"",I31+I32)</f>
+        <v/>
+      </c>
+      <c r="J33" s="77" t="str">
+        <f t="shared" ref="J33" si="28">IF(OR(J31="",J32=""),"",J31+J32)</f>
+        <v/>
+      </c>
+      <c r="K33" s="77" t="str">
+        <f t="shared" ref="K33" si="29">IF(OR(K31="",K32=""),"",K31+K32)</f>
+        <v/>
+      </c>
+      <c r="L33" s="77" t="str">
+        <f t="shared" ref="L33" si="30">IF(OR(L31="",L32=""),"",L31+L32)</f>
+        <v/>
+      </c>
+      <c r="M33" s="77" t="str">
+        <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
       <c r="N33" s="87"/>
@@ -7119,50 +7146,50 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="C34" s="65">
-        <f>Fin_Analysis!I34</f>
+        <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="D34" s="199" t="str">
-        <f>IF(Inputs!D40="","",Inputs!D40)</f>
+        <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
       <c r="E34" s="199" t="str">
-        <f>IF(Inputs!E40="","",Inputs!E40)</f>
+        <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
       <c r="F34" s="199" t="str">
-        <f>IF(Inputs!F40="","",Inputs!F40)</f>
+        <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
       <c r="G34" s="199" t="str">
-        <f>IF(Inputs!G40="","",Inputs!G40)</f>
+        <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
       <c r="H34" s="199" t="str">
-        <f>IF(Inputs!H40="","",Inputs!H40)</f>
+        <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
       <c r="I34" s="199" t="str">
-        <f>IF(Inputs!I40="","",Inputs!I40)</f>
+        <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
       <c r="J34" s="199" t="str">
-        <f>IF(Inputs!J40="","",Inputs!J40)</f>
+        <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
       <c r="K34" s="199" t="str">
-        <f>IF(Inputs!K40="","",Inputs!K40)</f>
+        <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
       <c r="L34" s="199" t="str">
-        <f>IF(Inputs!L40="","",Inputs!L40)</f>
+        <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
       <c r="M34" s="199" t="str">
-        <f>IF(Inputs!M40="","",Inputs!M40)</f>
+        <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
       <c r="N34" s="87"/>
@@ -7170,50 +7197,50 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="77">
-        <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
-        <v>42280604</v>
-      </c>
-      <c r="D35" s="77" t="str">
-        <f t="shared" ref="D35" si="22">IF(OR(D33="",D34=""),"",D33+D34)</f>
-        <v/>
-      </c>
-      <c r="E35" s="77" t="str">
-        <f t="shared" ref="E35" si="23">IF(OR(E33="",E34=""),"",E33+E34)</f>
-        <v/>
-      </c>
-      <c r="F35" s="77" t="str">
-        <f t="shared" ref="F35" si="24">IF(OR(F33="",F34=""),"",F33+F34)</f>
-        <v/>
-      </c>
-      <c r="G35" s="77" t="str">
-        <f t="shared" ref="G35" si="25">IF(OR(G33="",G34=""),"",G33+G34)</f>
-        <v/>
-      </c>
-      <c r="H35" s="77" t="str">
-        <f t="shared" ref="H35" si="26">IF(OR(H33="",H34=""),"",H33+H34)</f>
-        <v/>
-      </c>
-      <c r="I35" s="77" t="str">
-        <f t="shared" ref="I35" si="27">IF(OR(I33="",I34=""),"",I33+I34)</f>
-        <v/>
-      </c>
-      <c r="J35" s="77" t="str">
-        <f t="shared" ref="J35" si="28">IF(OR(J33="",J34=""),"",J33+J34)</f>
-        <v/>
-      </c>
-      <c r="K35" s="77" t="str">
-        <f t="shared" ref="K35" si="29">IF(OR(K33="",K34=""),"",K33+K34)</f>
-        <v/>
-      </c>
-      <c r="L35" s="77" t="str">
-        <f t="shared" ref="L35" si="30">IF(OR(L33="",L34=""),"",L33+L34)</f>
-        <v/>
-      </c>
-      <c r="M35" s="77" t="str">
-        <f t="shared" ref="M35" si="31">IF(OR(M33="",M34=""),"",M33+M34)</f>
+        <v>133</v>
+      </c>
+      <c r="C35" s="65">
+        <f>Inputs!C42</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="199" t="str">
+        <f>IF(Inputs!D42="","",Inputs!D42)</f>
+        <v/>
+      </c>
+      <c r="E35" s="199" t="str">
+        <f>IF(Inputs!E42="","",Inputs!E42)</f>
+        <v/>
+      </c>
+      <c r="F35" s="199" t="str">
+        <f>IF(Inputs!F42="","",Inputs!F42)</f>
+        <v/>
+      </c>
+      <c r="G35" s="199" t="str">
+        <f>IF(Inputs!G42="","",Inputs!G42)</f>
+        <v/>
+      </c>
+      <c r="H35" s="199" t="str">
+        <f>IF(Inputs!H42="","",Inputs!H42)</f>
+        <v/>
+      </c>
+      <c r="I35" s="199" t="str">
+        <f>IF(Inputs!I42="","",Inputs!I42)</f>
+        <v/>
+      </c>
+      <c r="J35" s="199" t="str">
+        <f>IF(Inputs!J42="","",Inputs!J42)</f>
+        <v/>
+      </c>
+      <c r="K35" s="199" t="str">
+        <f>IF(Inputs!K42="","",Inputs!K42)</f>
+        <v/>
+      </c>
+      <c r="L35" s="199" t="str">
+        <f>IF(Inputs!L42="","",Inputs!L42)</f>
+        <v/>
+      </c>
+      <c r="M35" s="199" t="str">
+        <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
       <c r="N35" s="87"/>
@@ -7221,50 +7248,50 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C36" s="65">
-        <f>Fin_Analysis!D3</f>
-        <v>3864501</v>
+        <f>Inputs!C40</f>
+        <v>0</v>
       </c>
       <c r="D36" s="199" t="str">
-        <f>IF(Inputs!D41="","",Inputs!D41)</f>
+        <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
       <c r="E36" s="199" t="str">
-        <f>IF(Inputs!E41="","",Inputs!E41)</f>
+        <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
       <c r="F36" s="199" t="str">
-        <f>IF(Inputs!F41="","",Inputs!F41)</f>
+        <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
       <c r="G36" s="199" t="str">
-        <f>IF(Inputs!G41="","",Inputs!G41)</f>
+        <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
       <c r="H36" s="199" t="str">
-        <f>IF(Inputs!H41="","",Inputs!H41)</f>
+        <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
       <c r="I36" s="199" t="str">
-        <f>IF(Inputs!I41="","",Inputs!I41)</f>
+        <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
       <c r="J36" s="199" t="str">
-        <f>IF(Inputs!J41="","",Inputs!J41)</f>
+        <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
       <c r="K36" s="199" t="str">
-        <f>IF(Inputs!K41="","",Inputs!K41)</f>
+        <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
       <c r="L36" s="199" t="str">
-        <f>IF(Inputs!L41="","",Inputs!L41)</f>
+        <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
       <c r="M36" s="199" t="str">
-        <f>IF(Inputs!M41="","",Inputs!M41)</f>
+        <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
       <c r="N36" s="87"/>
@@ -7272,272 +7299,272 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C37" s="65">
-        <f>Fin_Analysis!D4</f>
-        <v>629840</v>
-      </c>
-      <c r="D37" s="199" t="str">
-        <f>IF(Inputs!D42="","",Inputs!D42)</f>
-        <v/>
-      </c>
-      <c r="E37" s="199" t="str">
-        <f>IF(Inputs!E42="","",Inputs!E42)</f>
-        <v/>
-      </c>
-      <c r="F37" s="199" t="str">
-        <f>IF(Inputs!F42="","",Inputs!F42)</f>
-        <v/>
-      </c>
-      <c r="G37" s="199" t="str">
-        <f>IF(Inputs!G42="","",Inputs!G42)</f>
-        <v/>
-      </c>
-      <c r="H37" s="199" t="str">
-        <f>IF(Inputs!H42="","",Inputs!H42)</f>
-        <v/>
-      </c>
-      <c r="I37" s="199" t="str">
-        <f>IF(Inputs!I42="","",Inputs!I42)</f>
-        <v/>
-      </c>
-      <c r="J37" s="199" t="str">
-        <f>IF(Inputs!J42="","",Inputs!J42)</f>
-        <v/>
-      </c>
-      <c r="K37" s="199" t="str">
-        <f>IF(Inputs!K42="","",Inputs!K42)</f>
-        <v/>
-      </c>
-      <c r="L37" s="199" t="str">
-        <f>IF(Inputs!L42="","",Inputs!L42)</f>
-        <v/>
-      </c>
-      <c r="M37" s="199" t="str">
-        <f>IF(Inputs!M42="","",Inputs!M42)</f>
+        <f>Fin_Analysis!C68</f>
+        <v>30433918</v>
+      </c>
+      <c r="D37" s="65" t="str">
+        <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
+        <v/>
+      </c>
+      <c r="E37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="F37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="I37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M37" s="65" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N37" s="87"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="65">
-        <f>Fin_Analysis!C63</f>
-        <v>16682618</v>
-      </c>
-      <c r="D38" s="199" t="str">
-        <f>IF(Inputs!D43="","",Inputs!D43)</f>
-        <v/>
-      </c>
-      <c r="E38" s="199" t="str">
-        <f>IF(Inputs!E43="","",Inputs!E43)</f>
-        <v/>
-      </c>
-      <c r="F38" s="199" t="str">
-        <f>IF(Inputs!F43="","",Inputs!F43)</f>
-        <v/>
-      </c>
-      <c r="G38" s="199" t="str">
-        <f>IF(Inputs!G43="","",Inputs!G43)</f>
-        <v/>
-      </c>
-      <c r="H38" s="199" t="str">
-        <f>IF(Inputs!H43="","",Inputs!H43)</f>
-        <v/>
-      </c>
-      <c r="I38" s="199" t="str">
-        <f>IF(Inputs!I43="","",Inputs!I43)</f>
-        <v/>
-      </c>
-      <c r="J38" s="199" t="str">
-        <f>IF(Inputs!J43="","",Inputs!J43)</f>
-        <v/>
-      </c>
-      <c r="K38" s="199" t="str">
-        <f>IF(Inputs!K43="","",Inputs!K43)</f>
-        <v/>
-      </c>
-      <c r="L38" s="199" t="str">
-        <f>IF(Inputs!L43="","",Inputs!L43)</f>
-        <v/>
-      </c>
-      <c r="M38" s="199" t="str">
-        <f>IF(Inputs!M43="","",Inputs!M43)</f>
+      <c r="B38" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="155">
+        <f>IF(C6="","",C14/MAX(C37,0))</f>
+        <v>4.2196363500311286E-2</v>
+      </c>
+      <c r="D38" s="155" t="e">
+        <f>IF(D6="","",D14/MAX(D37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="155" t="str">
+        <f>IF(E6="","",E14/MAX(E37,0))</f>
+        <v/>
+      </c>
+      <c r="F38" s="155" t="str">
+        <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
+        <v/>
+      </c>
+      <c r="G38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M38" s="155" t="str">
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N38" s="87"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="65">
-        <f>Fin_Analysis!C68</f>
-        <v>30433918</v>
-      </c>
-      <c r="D39" s="65" t="str">
-        <f>IF(D38="","",D27-D38)</f>
-        <v/>
-      </c>
-      <c r="E39" s="65" t="str">
-        <f t="shared" ref="E39:M39" si="32">IF(E38="","",E27-E38)</f>
-        <v/>
-      </c>
-      <c r="F39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="G39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="H39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="J39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="K39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="L39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="M39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
+      <c r="A39" s="16"/>
+      <c r="B39" s="55" t="s">
+        <v>245</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" s="155">
-        <f>IF(C6="","",C14/MAX(C39,0))</f>
-        <v>4.2196363500311286E-2</v>
-      </c>
-      <c r="D40" s="155" t="e">
-        <f>IF(D6="","",D14/MAX(D39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E40" s="155" t="str">
-        <f>IF(E6="","",E14/MAX(E39,0))</f>
-        <v/>
-      </c>
-      <c r="F40" s="155" t="str">
-        <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
-        <v/>
-      </c>
-      <c r="G40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="H40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M40" s="155" t="str">
-        <f t="shared" si="33"/>
+      <c r="B40" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="156">
+        <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
+        <v>1.2012210534502537E-2</v>
+      </c>
+      <c r="D40" s="156">
+        <f t="shared" si="34"/>
+        <v>1.2898518308810534E-2</v>
+      </c>
+      <c r="E40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="F40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="G40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="H40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="I40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="J40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="K40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="L40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="M40" s="156" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="N40" s="87"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="16"/>
-      <c r="B41" s="55" t="s">
-        <v>247</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" s="153">
+        <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
+        <v>0.15470436118294414</v>
+      </c>
+      <c r="D41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.18718688266125691</v>
+      </c>
+      <c r="E41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="F41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="H41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="I41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
       <c r="N41" s="87"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="156">
-        <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
-        <v>1.2012210534502537E-2</v>
-      </c>
-      <c r="D42" s="156">
-        <f t="shared" si="34"/>
-        <v>1.2898518308810534E-2</v>
-      </c>
-      <c r="E42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="F42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="G42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="H42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="I42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="J42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="K42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="L42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="M42" s="156" t="str">
-        <f t="shared" si="34"/>
+      <c r="B42" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="153">
+        <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="F42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="G42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="H42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="I42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="K42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="L42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="M42" s="153" t="str">
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N42" s="87"/>
@@ -7545,50 +7572,50 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="C43" s="153">
-        <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
-        <v>0.15470436118294414</v>
+        <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
+        <v>0.48610500800425166</v>
       </c>
       <c r="D43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.18718688266125691</v>
+        <f t="shared" si="37"/>
+        <v>0.45882609640924893</v>
       </c>
       <c r="E43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="F43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="G43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="H43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N43" s="87"/>
@@ -7596,50 +7623,50 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C44" s="153">
-        <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
-        <v>0</v>
+        <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
+        <v>9.7044800044936142E-4</v>
       </c>
       <c r="D44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>1.0198064557502538E-3</v>
       </c>
       <c r="E44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="F44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="G44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="H44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="I44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N44" s="87"/>
@@ -7647,50 +7674,50 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="C45" s="153">
-        <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
-        <v>0.48610500800425166</v>
+        <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
+        <v>0</v>
       </c>
       <c r="D45" s="153">
-        <f t="shared" si="37"/>
-        <v>0.45882609640924893</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="E45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="F45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="G45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="H45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="J45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="K45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="L45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="N45" s="87"/>
@@ -7698,221 +7725,221 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C46" s="153">
-        <f>IF(C6="","",MAX(C12,0)/C6)</f>
-        <v>9.7044800044936142E-4</v>
+        <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
+        <v>0.34620797227785238</v>
       </c>
       <c r="D46" s="153">
-        <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
-        <v>1.0198064557502538E-3</v>
+        <f t="shared" si="40"/>
+        <v>0.34006869616493335</v>
       </c>
       <c r="E46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="F46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="G46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="H46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N46" s="87"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="4"/>
-      <c r="B47" s="94" t="s">
-        <v>223</v>
-      </c>
-      <c r="C47" s="153">
-        <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="153">
-        <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="F47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="G47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="H47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="I47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="J47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="K47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="L47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="M47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
+      <c r="A47" s="16"/>
+      <c r="B47" s="102" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
       <c r="N47" s="87"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="153">
-        <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
-        <v>0.34620797227785238</v>
-      </c>
-      <c r="D48" s="153">
-        <f t="shared" si="40"/>
-        <v>0.34006869616493335</v>
-      </c>
-      <c r="E48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="F48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="G48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="H48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="I48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="J48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="K48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M48" s="153" t="str">
-        <f t="shared" si="40"/>
+      <c r="B48" s="271" t="s">
+        <v>252</v>
+      </c>
+      <c r="C48" s="272" t="e">
+        <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="F48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="G48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="H48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="I48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="J48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="K48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="L48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="M48" s="272" t="str">
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="N48" s="87"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="16"/>
-      <c r="B49" s="102" t="s">
-        <v>248</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="94" t="s">
+        <v>253</v>
+      </c>
+      <c r="C49" s="153">
+        <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="F49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="G49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="H49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="I49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="J49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="K49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="L49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="M49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
       <c r="N49" s="87"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="271" t="s">
+      <c r="B50" s="94" t="s">
         <v>254</v>
       </c>
-      <c r="C50" s="272">
-        <f>IF(C6="","",C6/C27)</f>
-        <v>3.2747101781845762E-2</v>
-      </c>
-      <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="F50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="G50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="H50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="I50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="J50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="K50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="L50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="272" t="str">
-        <f t="shared" si="41"/>
+      <c r="C50" s="153">
+        <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M50" s="153" t="str">
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N50" s="87"/>
@@ -7920,522 +7947,426 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
-        <v>0</v>
+        <v>244</v>
+      </c>
+      <c r="C51" s="153" t="e">
+        <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="D51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="E51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="F51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="G51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="K51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="L51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="M51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C52" s="153">
-        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="102" t="s">
+        <v>247</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="94" t="s">
-        <v>245</v>
-      </c>
-      <c r="C53" s="153" t="e">
-        <f>IF(D6="","",C16/(C6-D6))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D53" s="153" t="str">
-        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="N53" s="87"/>
+      <c r="B53" s="95" t="s">
+        <v>248</v>
+      </c>
+      <c r="C53" s="156" t="e">
+        <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="E53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="F53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="G53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="H53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="I53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="J53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="K53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="L53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="M53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="16"/>
-      <c r="B54" s="102" t="s">
-        <v>249</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="157">
+        <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
+        <v>1.2634035849314423E-2</v>
+      </c>
+      <c r="D54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="95" t="s">
-        <v>250</v>
-      </c>
-      <c r="C55" s="156">
-        <f>IF(C36="","",(C36-C37)/C27)</f>
-        <v>6.8652351692407951E-2</v>
-      </c>
-      <c r="D55" s="156" t="str">
-        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
-        <v/>
-      </c>
-      <c r="E55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="F55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="G55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="H55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="156" t="str">
-        <f t="shared" si="45"/>
+      <c r="B55" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="153">
+        <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>1.4040838077932061</v>
+      </c>
+      <c r="D55" s="153">
+        <f t="shared" si="47"/>
+        <v>1.3492159130892725</v>
+      </c>
+      <c r="E55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M55" s="153" t="str">
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" s="157">
-        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>1.2634035849314423E-2</v>
-      </c>
-      <c r="D56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
+      <c r="B56" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/C30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/D30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/E30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/F30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/G30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/H30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/I30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/J30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/K30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/L30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/M30)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4"/>
-      <c r="B57" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="153">
-        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>1.4040838077932061</v>
-      </c>
-      <c r="D57" s="153">
-        <f t="shared" si="47"/>
-        <v>1.3492159130892725</v>
-      </c>
-      <c r="E57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="153" t="str">
-        <f t="shared" si="47"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="C57" s="273" t="str">
+        <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M57" s="273" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="158">
-        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
-        <v>1.0639184029144524</v>
-      </c>
-      <c r="D58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="E58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="F58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="G58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="H58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="I58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="J58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="K58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="L58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="M58" s="158" t="str">
-        <f t="shared" si="48"/>
+      <c r="B58" s="271" t="s">
+        <v>250</v>
+      </c>
+      <c r="C58" s="274" t="e">
+        <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M58" s="274" t="str">
+        <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="16"/>
-      <c r="B59" s="102" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="271" t="s">
         <v>251</v>
       </c>
-      <c r="C59" s="273" t="str">
-        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="D59" s="273" t="str">
-        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="E59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="F59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="G59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="H59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="I59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="J59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="K59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="L59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="M59" s="273" t="str">
-        <f t="shared" si="49"/>
+      <c r="C59" s="274" t="e">
+        <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M59" s="274" t="str">
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
-      <c r="B60" s="271" t="s">
-        <v>252</v>
-      </c>
-      <c r="C60" s="274">
-        <f>IF(C14="","",C14/(C36-C37))</f>
-        <v>0.39701244324108981</v>
-      </c>
-      <c r="D60" s="274" t="e">
-        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="F60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="G60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="H60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="I60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="J60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="K60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="L60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="M60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
-      <c r="B61" s="271" t="s">
-        <v>253</v>
-      </c>
-      <c r="C61" s="274">
-        <f>IF(C22="","",C22/(C36-C37))</f>
-        <v>0.16514084989637762</v>
-      </c>
-      <c r="D61" s="274" t="e">
-        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="F61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="G61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="H61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="I61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="J61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="K61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="L61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="M61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -8995,12 +8926,8 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="4"/>
-    </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="4"/>
-    </row>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9682,27 +9609,30 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C6:M23 C27:M40">
-    <cfRule type="containsBlanks" dxfId="10" priority="4">
+  <conditionalFormatting sqref="C6:M23">
+    <cfRule type="containsBlanks" dxfId="11" priority="5">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C27:M38">
+    <cfRule type="containsBlanks" dxfId="9" priority="1">
+      <formula>LEN(TRIM(C27))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9816,13 +9746,13 @@
         <v>Adj. Net Asset in CNY</v>
       </c>
       <c r="C6" s="87"/>
-      <c r="D6" s="69">
+      <c r="D6" s="69" t="e">
         <f>(E49-I49-E53)</f>
-        <v>-15567844.5</v>
-      </c>
-      <c r="E6" s="56">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E6" s="56" t="e">
         <f>1-D6/D3</f>
-        <v>5.0284229451616129</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -9842,9 +9772,9 @@
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
-      <c r="D7" s="66">
+      <c r="D7" s="66" t="e">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -9894,7 +9824,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -9941,7 +9871,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -9969,7 +9899,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10052,7 +9982,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10074,7 +10004,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10142,7 +10072,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10464,7 +10394,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10601,7 +10531,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -10888,9 +10818,9 @@
         <v>84</v>
       </c>
       <c r="C52" s="87"/>
-      <c r="D52" s="74" t="str">
+      <c r="D52" s="74" t="e">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>BV of the MI</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87"/>
@@ -10908,13 +10838,13 @@
         <f>MAX(D4,0)</f>
         <v>629840</v>
       </c>
-      <c r="D53" s="29">
+      <c r="D53" s="29" t="e">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1</v>
-      </c>
-      <c r="E53" s="88">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E53" s="88" t="e">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>629840</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -10932,7 +10862,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -10998,7 +10928,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11033,7 +10963,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11054,7 +10984,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11075,7 +11005,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11090,7 +11020,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11121,7 +11051,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11135,7 +11065,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11156,7 +11086,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11171,7 +11101,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11193,7 +11123,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C72" s="283">
         <f>Data!C5</f>
@@ -11201,11 +11131,11 @@
       </c>
       <c r="D72" s="283"/>
       <c r="E72" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F72" s="297"/>
       <c r="H72" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
@@ -11233,7 +11163,7 @@
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11305,7 +11235,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11335,7 +11265,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11365,7 +11295,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11423,12 +11353,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11458,7 +11388,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11488,7 +11418,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -11539,7 +11469,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -11570,7 +11500,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -11591,28 +11521,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.24678163479006485</v>
+        <v>0.24727399382278284</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.24678163479006485</v>
+        <v>0.24727399382278284</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.24678163479006485</v>
+        <v>0.24727399382278284</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -11642,21 +11572,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.8749079687965799E-2</v>
+        <v>9.8946095974847603E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7267047613145226E-2</v>
+        <v>6.7401253460856625E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7267047613145226E-2</v>
+        <v>6.7401253460856625E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -11673,27 +11603,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E92" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F92" s="297"/>
       <c r="G92" s="87"/>
       <c r="H92" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I92" s="297"/>
       <c r="K92" s="24"/>
@@ -11712,24 +11642,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>54.652231304947939</v>
+        <v>54.756813386762502</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>54.652231304947939</v>
+        <v>54.756813386762502</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -11740,18 +11670,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.8471674399812734</v>
+        <v>6.8510462941370305</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.8471674399812734</v>
+        <v>6.8510462941370305</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11770,14 +11700,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -11790,63 +11720,63 @@
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9684205.9292160273</v>
+        <v>9702737.5498400275</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>27.171817936961013</v>
+        <v>27.223813714968276</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>27.171817936961013</v>
+        <v>27.223813714968276</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>36.137570376442973</v>
+        <v>36.206722948102872</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C98" s="91">
+        <v>139</v>
+      </c>
+      <c r="C98" s="91" t="e">
         <f>-E53*Exchange_Rate</f>
-        <v>-673399.52447255456</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
-      <c r="H98" s="123">
+      <c r="H98" s="123" t="e">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-1.8894155505928634</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>-34382559.059977166</v>
+        <v>-34380414.804973289</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>-110.94065306799601</v>
+        <v>-110.93373429705578</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-96.470133102605232</v>
+        <v>-96.464116780048514</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -11855,29 +11785,29 @@
       <c r="B100" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C100" s="91">
+      <c r="C100" s="91" t="e">
         <f>C97+C98+$C$99</f>
-        <v>-25371752.655233696</v>
-      </c>
-      <c r="D100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D100" s="109" t="e">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0</v>
-      </c>
-      <c r="E100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E100" s="109" t="e">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F100" s="109" t="e">
         <f>(E100+H100)/2</f>
-        <v>0</v>
-      </c>
-      <c r="H100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H100" s="109" t="e">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I100" s="109" t="e">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11887,21 +11817,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -11914,31 +11844,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1213296.8396223243</v>
+        <v>1213984.160551714</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.8936145007730429</v>
+        <v>2.895253705412022</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.4042523538506386</v>
+        <v>3.4061808298964964</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>3.4042523538506386</v>
+        <v>3.4061808298964964</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.4042523538506386</v>
+        <v>3.4061808298964964</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>4.527536924539258</v>
+        <v>4.5301017304344002</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11948,21 +11878,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -11975,31 +11905,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C106" s="91">
+        <v>184</v>
+      </c>
+      <c r="C106" s="91" t="e">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>606648.41981116217</v>
-      </c>
-      <c r="D106" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D106" s="109" t="e">
         <f>(D100+D103)/2</f>
-        <v>1.4468072503865215</v>
-      </c>
-      <c r="E106" s="123">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E106" s="123" t="e">
         <f>(E100+E103)/2</f>
-        <v>1.7021261769253193</v>
-      </c>
-      <c r="F106" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F106" s="109" t="e">
         <f>(F100+F103)/2</f>
-        <v>1.7021261769253193</v>
-      </c>
-      <c r="H106" s="123">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H106" s="123" t="e">
         <f>(H100+H103)/2</f>
-        <v>1.7021261769253193</v>
-      </c>
-      <c r="I106" s="123">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I106" s="123" t="e">
         <f>(I100+I103)/2</f>
-        <v>2.263768462269629</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12008,7 +11938,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/1398.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1398.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E616FC6-041A-4006-8230-BD888D1689C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8728A698-D648-40FE-BD19-D23E50E26C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="276">
   <si>
     <t>Company Info:</t>
   </si>
@@ -745,10 +745,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Common Equity =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>D/P Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -939,10 +935,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales Turnover</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>EBIT Margin</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -972,6 +964,22 @@
   </si>
   <si>
     <t>PlaceHolder_1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t># In general, the higher the accounts receivable, the higher the inventory, and the lower the fixed assets, the lower the asset turnover ratio.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_4</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1914,7 +1922,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2150,12 +2157,8 @@
     <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2354,6 +2357,11 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2593,8 +2601,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFB6D7A8"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
@@ -2810,7 +2818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2828,162 +2836,162 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="188" t="s">
-        <v>264</v>
+      <c r="C4" s="187" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="191" t="s">
-        <v>265</v>
+      <c r="C5" s="190" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="140" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="189">
+      <c r="C6" s="188">
         <v>45605</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="190">
+      <c r="C7" s="189">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="191" t="s">
-        <v>266</v>
-      </c>
-      <c r="E8" s="267"/>
+      <c r="C8" s="190" t="s">
+        <v>268</v>
+      </c>
+      <c r="E8" s="264"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="192" t="s">
-        <v>267</v>
+      <c r="C9" s="191" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="139" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="193">
+      <c r="C10" s="192">
         <v>356406257089</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="139" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="192" t="s">
-        <v>268</v>
+      <c r="C11" s="191" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="219">
+      <c r="C12" s="216">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="218" t="s">
+      <c r="B13" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="220">
+      <c r="C13" s="217">
         <v>1000000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="218" t="s">
+      <c r="B14" s="215" t="s">
         <v>205</v>
       </c>
-      <c r="C14" s="219">
+      <c r="C14" s="216">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="218" t="s">
-        <v>237</v>
-      </c>
-      <c r="C15" s="176" t="s">
-        <v>241</v>
+      <c r="B15" s="215" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="175" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="222" t="s">
+      <c r="B16" s="219" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="223">
+      <c r="C16" s="220">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="240" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="242" t="s">
-        <v>269</v>
+      <c r="B17" s="237" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="239" t="s">
+        <v>271</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="237" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="239" t="s">
+        <v>272</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="237" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="242" t="s">
-        <v>270</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="240" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="242" t="s">
-        <v>270</v>
+      <c r="C19" s="239" t="s">
+        <v>272</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="241" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="242" t="s">
-        <v>270</v>
+      <c r="B20" s="238" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="239" t="s">
+        <v>272</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="224" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="242" t="s">
-        <v>269</v>
+      <c r="B21" s="221" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="239" t="s">
+        <v>271</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="243" t="s">
-        <v>271</v>
+      <c r="B22" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="240" t="s">
+        <v>273</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3040,404 +3048,408 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="149">
+      <c r="C25" s="148">
         <v>1542930</v>
       </c>
-      <c r="D25" s="149">
+      <c r="D25" s="148">
         <v>1278674</v>
       </c>
-      <c r="E25" s="149"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="149"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="150">
+      <c r="C26" s="149">
         <v>18534</v>
       </c>
-      <c r="D26" s="150">
+      <c r="D26" s="149">
         <v>16493</v>
       </c>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="150">
+      <c r="C27" s="149">
         <v>238698</v>
       </c>
-      <c r="D27" s="150">
+      <c r="D27" s="149">
         <v>239351</v>
       </c>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>238</v>
-      </c>
-      <c r="C29" s="150">
+        <v>237</v>
+      </c>
+      <c r="C29" s="149">
         <v>750026</v>
       </c>
-      <c r="D29" s="150">
+      <c r="D29" s="149">
         <v>586689</v>
       </c>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="150">
+      <c r="C30" s="149">
         <v>1123</v>
       </c>
-      <c r="D30" s="150">
+      <c r="D30" s="149">
         <v>978</v>
       </c>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="150"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="150"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="150"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="150"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="97" t="s">
-        <v>263</v>
-      </c>
-      <c r="C34" s="217"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="150"/>
+        <v>261</v>
+      </c>
+      <c r="C34" s="214"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="217"/>
-      <c r="D35" s="150"/>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
+      <c r="C35" s="214"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="217"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="150"/>
+      <c r="C36" s="214"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="str">
-        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
-        <v>Total Liabilities Error</v>
-      </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150"/>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="150"/>
+      <c r="B37" s="94" t="s">
+        <v>259</v>
+      </c>
+      <c r="C37" s="149">
+        <v>43252035</v>
+      </c>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>262</v>
-      </c>
-      <c r="C38" s="217"/>
-      <c r="D38" s="150"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="150"/>
+        <v>260</v>
+      </c>
+      <c r="C38" s="214"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="217"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
+      <c r="C39" s="214"/>
+      <c r="D39" s="149"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="217"/>
-      <c r="D40" s="150"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="150"/>
+      <c r="C40" s="214"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="str">
-        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
-        <v>Total Equity Error</v>
-      </c>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="150"/>
+      <c r="B41" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="149">
+        <v>3864501</v>
+      </c>
+      <c r="D41" s="149"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="149"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="149"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="150"/>
+      <c r="C42" s="149">
+        <v>629840</v>
+      </c>
+      <c r="D42" s="149"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="217"/>
-      <c r="D43" s="150"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="150"/>
+      <c r="C43" s="214"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="C44" s="250">
+      <c r="C44" s="247">
         <f>0.3064+0.1434</f>
         <v>0.44979999999999998</v>
       </c>
-      <c r="D44" s="250"/>
-      <c r="E44" s="250"/>
-      <c r="F44" s="250"/>
-      <c r="G44" s="250"/>
-      <c r="H44" s="250"/>
-      <c r="I44" s="250"/>
-      <c r="J44" s="250"/>
-      <c r="K44" s="250"/>
-      <c r="L44" s="250"/>
-      <c r="M44" s="250"/>
+      <c r="D44" s="247"/>
+      <c r="E44" s="247"/>
+      <c r="F44" s="247"/>
+      <c r="G44" s="247"/>
+      <c r="H44" s="247"/>
+      <c r="I44" s="247"/>
+      <c r="J44" s="247"/>
+      <c r="K44" s="247"/>
+      <c r="L44" s="247"/>
+      <c r="M44" s="247"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>234</v>
-      </c>
-      <c r="C45" s="152">
+        <v>233</v>
+      </c>
+      <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.8946095974847603E-2</v>
-      </c>
-      <c r="D45" s="152" t="str">
+        <v>9.9480611243027484E-2</v>
+      </c>
+      <c r="D45" s="151" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C47" s="194" t="s">
+        <v>231</v>
+      </c>
+      <c r="C47" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="193" t="s">
         <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -3518,7 +3530,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3546,7 +3558,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="221" t="s">
+      <c r="E56" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3558,7 +3570,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="221" t="s">
+      <c r="E57" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3577,8 +3589,8 @@
       <c r="B59" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="120"/>
-      <c r="D59" s="195">
+      <c r="C59" s="119"/>
+      <c r="D59" s="194">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -3630,7 +3642,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3648,7 +3660,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="221" t="s">
+      <c r="E65" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3660,7 +3672,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="221" t="s">
+      <c r="E66" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3673,7 +3685,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="221" t="s">
+      <c r="E67" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3725,16 +3737,16 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="246" t="s">
+      <c r="B72" s="243" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="247">
+      <c r="C72" s="244">
         <v>638618</v>
       </c>
-      <c r="D72" s="248">
+      <c r="D72" s="245">
         <v>0</v>
       </c>
-      <c r="E72" s="249"/>
+      <c r="E72" s="246"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -3760,7 +3772,7 @@
       <c r="B76" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="C76" s="120">
+      <c r="C76" s="119">
         <v>1783937</v>
       </c>
     </row>
@@ -3794,19 +3806,19 @@
       <c r="B81" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="120"/>
-    </row>
-    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C81" s="119"/>
+    </row>
+    <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" s="83"/>
-    </row>
-    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+        <v>264</v>
+      </c>
+      <c r="C82" s="214"/>
+    </row>
+    <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>206</v>
-      </c>
-      <c r="C83" s="59">
+        <v>265</v>
+      </c>
+      <c r="C83" s="214">
         <v>3234661</v>
       </c>
     </row>
@@ -3824,20 +3836,20 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C86" s="197">
+        <v>232</v>
+      </c>
+      <c r="C86" s="196">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C87" s="236" t="s">
-        <v>272</v>
-      </c>
-      <c r="D87" s="269">
+        <v>230</v>
+      </c>
+      <c r="C87" s="233" t="s">
+        <v>274</v>
+      </c>
+      <c r="D87" s="266">
         <v>0.02</v>
       </c>
     </row>
@@ -3867,10 +3879,10 @@
         <v>97</v>
       </c>
       <c r="D90" s="284"/>
-      <c r="E90" s="235" t="s">
+      <c r="E90" s="232" t="s">
         <v>98</v>
       </c>
-      <c r="F90" s="255" t="s">
+      <c r="F90" s="252" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3882,12 +3894,12 @@
         <f>C25</f>
         <v>1542930</v>
       </c>
-      <c r="D91" s="209"/>
-      <c r="E91" s="251">
+      <c r="D91" s="206"/>
+      <c r="E91" s="248">
         <f>C91</f>
         <v>1542930</v>
       </c>
-      <c r="F91" s="251">
+      <c r="F91" s="248">
         <f>C91</f>
         <v>1542930</v>
       </c>
@@ -3900,75 +3912,75 @@
         <f>C26</f>
         <v>18534</v>
       </c>
-      <c r="D92" s="159">
+      <c r="D92" s="158">
         <f>C92/C91</f>
         <v>1.2012210534502537E-2</v>
       </c>
-      <c r="E92" s="252">
+      <c r="E92" s="249">
         <f>E91*D92</f>
         <v>18534</v>
       </c>
-      <c r="F92" s="252">
+      <c r="F92" s="249">
         <f>F91*D92</f>
         <v>18534</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>238698</v>
       </c>
-      <c r="D93" s="159">
+      <c r="D93" s="158">
         <f>C93/C91</f>
         <v>0.15470436118294414</v>
       </c>
-      <c r="E93" s="252">
+      <c r="E93" s="249">
         <f>E91*D93</f>
         <v>238698</v>
       </c>
-      <c r="F93" s="252">
+      <c r="F93" s="249">
         <f>F91*D93</f>
         <v>238698</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>750026</v>
       </c>
-      <c r="D94" s="159">
+      <c r="D94" s="158">
         <f>C94/C91</f>
         <v>0.48610500800425166</v>
       </c>
-      <c r="E94" s="253"/>
-      <c r="F94" s="252">
+      <c r="E94" s="250"/>
+      <c r="F94" s="249">
         <f>F91*D94</f>
         <v>750026</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="159">
+      <c r="D95" s="158">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="252">
+      <c r="E95" s="249">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="252">
+      <c r="F95" s="249">
         <f>F91*D95</f>
         <v>0</v>
       </c>
@@ -3981,12 +3993,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="159">
+      <c r="D96" s="158">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="253"/>
-      <c r="F96" s="252">
+      <c r="E96" s="250"/>
+      <c r="F96" s="249">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -3999,12 +4011,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>1497.3333333333333</v>
       </c>
-      <c r="D97" s="159">
+      <c r="D97" s="158">
         <f>C97/C91</f>
         <v>9.7044800044936142E-4</v>
       </c>
-      <c r="E97" s="253"/>
-      <c r="F97" s="252">
+      <c r="E97" s="250"/>
+      <c r="F97" s="249">
         <f>F91*D97</f>
         <v>1497.3333333333333</v>
       </c>
@@ -4013,16 +4025,16 @@
       <c r="B98" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C98" s="237">
+      <c r="C98" s="234">
         <f>C44</f>
         <v>0.44979999999999998</v>
       </c>
-      <c r="D98" s="266"/>
-      <c r="E98" s="254">
+      <c r="D98" s="263"/>
+      <c r="E98" s="251">
         <f>F98</f>
         <v>0.30640000000000001</v>
       </c>
-      <c r="F98" s="254">
+      <c r="F98" s="251">
         <f>0.3064</f>
         <v>0.30640000000000001</v>
       </c>
@@ -4103,7 +4115,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4155,11 +4167,11 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="132">
-        <v>4.8600000000000003</v>
-      </c>
-      <c r="H3" s="134" t="s">
-        <v>273</v>
+      <c r="G3" s="131">
+        <v>4.83</v>
+      </c>
+      <c r="H3" s="133" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4197,7 +4209,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>1732134.4094525401</v>
+        <v>1721442.22173987</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4207,11 +4219,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="185">
+      <c r="C6" s="184">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="186">
+      <c r="D6" s="185">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4233,11 +4245,11 @@
       <c r="B7" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="187" t="str">
+      <c r="C7" s="186" t="str">
         <f>Inputs!C8</f>
         <v xml:space="preserve">Superior Cycl. </v>
       </c>
-      <c r="D7" s="187" t="str">
+      <c r="D7" s="186" t="str">
         <f>Inputs!C9</f>
         <v>C0014</v>
       </c>
@@ -4245,8 +4257,8 @@
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="133">
-        <v>1.0690929889678955</v>
+      <c r="G7" s="132">
+        <v>1.0682333310445149</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4255,10 +4267,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="138" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="142" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4266,7 +4278,7 @@
       <c r="B10" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="172">
+      <c r="C10" s="171">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -4274,13 +4286,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="173">
+      <c r="C11" s="172">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="136" t="s">
         <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
@@ -4289,12 +4301,12 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>235</v>
-      </c>
-      <c r="C12" s="174">
+        <v>234</v>
+      </c>
+      <c r="C12" s="173">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="171">
         <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
@@ -4304,7 +4316,7 @@
       <c r="B14" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="172">
+      <c r="C14" s="171">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -4315,7 +4327,7 @@
       <c r="B15" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="172">
+      <c r="C15" s="171">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -4323,13 +4335,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="121" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="173">
+      <c r="C16" s="172">
         <v>0.16</v>
       </c>
-      <c r="D16" s="265" t="str">
+      <c r="D16" s="262" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -4339,129 +4351,129 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="C17" s="175">
+        <v>235</v>
+      </c>
+      <c r="C17" s="174">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="176"/>
+      <c r="D17" s="175"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="142" t="s">
-        <v>260</v>
-      </c>
-      <c r="C19" s="135" t="s">
+      <c r="B19" s="141" t="s">
+        <v>258</v>
+      </c>
+      <c r="C19" s="134" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="141" t="s">
         <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="275" t="s">
-        <v>250</v>
-      </c>
-      <c r="C20" s="276" t="e">
+      <c r="B20" s="272" t="s">
+        <v>249</v>
+      </c>
+      <c r="C20" s="273">
         <f>C23*C22*(1/C21)</f>
-        <v>#DIV/0!</v>
+        <v>0.39701244324108975</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="G20" s="172">
+      <c r="G20" s="171">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="277" t="s">
-        <v>248</v>
-      </c>
-      <c r="C21" s="278" t="e">
+      <c r="B21" s="274" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" s="275">
         <f>Data!C53</f>
-        <v>#DIV/0!</v>
+        <v>6.8652351692407951E-2</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="279" t="s">
-        <v>255</v>
-      </c>
-      <c r="C22" s="280" t="e">
+      <c r="B22" s="276" t="s">
+        <v>262</v>
+      </c>
+      <c r="C22" s="277">
         <f>Data!C48</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="142" t="s">
+        <v>3.2747101781845762E-2</v>
+      </c>
+      <c r="F22" s="141" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="281" t="s">
-        <v>256</v>
-      </c>
-      <c r="C23" s="282">
+      <c r="B23" s="278" t="s">
+        <v>254</v>
+      </c>
+      <c r="C23" s="279">
         <f>Data!C13</f>
         <v>0.83231298028210399</v>
       </c>
-      <c r="F23" s="140" t="s">
+      <c r="F23" s="139" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="177" t="e">
+      <c r="G23" s="176">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>#DIV/0!</v>
+        <v>0.4169969725524475</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="137" t="s">
-        <v>257</v>
-      </c>
-      <c r="C24" s="171">
+      <c r="B24" s="136" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" s="170">
         <f>Fin_Analysis!I81</f>
         <v>0.48610500800425166</v>
       </c>
-      <c r="F24" s="140" t="s">
-        <v>240</v>
-      </c>
-      <c r="G24" s="268">
+      <c r="F24" s="139" t="s">
+        <v>239</v>
+      </c>
+      <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>4.0440969328811969</v>
+        <v>4.0223677584258484</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="137" t="s">
-        <v>258</v>
-      </c>
-      <c r="C25" s="171">
+      <c r="B25" s="136" t="s">
+        <v>256</v>
+      </c>
+      <c r="C25" s="170">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="140" t="s">
+      <c r="F25" s="139" t="s">
         <v>162</v>
       </c>
-      <c r="G25" s="171">
+      <c r="G25" s="170">
         <f>Fin_Analysis!I88</f>
         <v>0.27257720239339839</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="138" t="s">
-        <v>259</v>
-      </c>
-      <c r="C26" s="171">
+      <c r="B26" s="137" t="s">
+        <v>257</v>
+      </c>
+      <c r="C26" s="170">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="141" t="s">
+      <c r="F26" s="140" t="s">
         <v>179</v>
       </c>
-      <c r="G26" s="178">
+      <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.7401253460856625E-2</v>
+        <v>6.7765360793382898E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4478,10 +4490,10 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H28" s="285"/>
     </row>
@@ -4489,22 +4501,22 @@
       <c r="B29" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="130">
+      <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.895253705412022</v>
-      </c>
-      <c r="D29" s="129">
+        <v>2.8978631104329242</v>
+      </c>
+      <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>5.2096169899995601</v>
+        <v>5.2143122609892041</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131">
+      <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.4061808298964964</v>
+        <v>3.4092507181563816</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.5301017304344002</v>
+        <v>4.5341845747732217</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4512,23 +4524,23 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="196" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="224"/>
+      <c r="B32" s="195" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="221"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" s="245" t="str">
+        <v>209</v>
+      </c>
+      <c r="C33" s="242" t="str">
         <f>Inputs!C17</f>
         <v>Strongly agree</v>
       </c>
@@ -4536,9 +4548,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="225" t="str">
+        <v>210</v>
+      </c>
+      <c r="C34" s="222" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly disagree</v>
@@ -4546,17 +4558,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="196" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="224"/>
+      <c r="B35" s="195" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="221"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="245" t="str">
+        <v>223</v>
+      </c>
+      <c r="C36" s="242" t="str">
         <f>Inputs!C18</f>
         <v>agree</v>
       </c>
@@ -4564,26 +4576,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="245" t="str">
+        <v>224</v>
+      </c>
+      <c r="C37" s="242" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="196" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="224"/>
+      <c r="B38" s="195" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="221"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="245" t="str">
+        <v>213</v>
+      </c>
+      <c r="C39" s="242" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -4591,9 +4603,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="245" t="str">
+        <v>216</v>
+      </c>
+      <c r="C40" s="242" t="str">
         <f>Inputs!C21</f>
         <v>Strongly agree</v>
       </c>
@@ -4606,16 +4618,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C43" s="244" t="str">
+      <c r="B43" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="241" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -5567,10 +5579,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D36" sqref="D36"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5596,16 +5608,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="148" t="s">
+      <c r="E2" s="147" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="118" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="147" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="146" t="s">
         <v>190</v>
       </c>
       <c r="I2" s="7"/>
@@ -5619,11 +5631,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="201">
+      <c r="C3" s="200">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="145" t="s">
         <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -5648,7 +5660,7 @@
       <c r="B4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="127">
         <f>Inputs!C13</f>
         <v>1000000</v>
       </c>
@@ -5656,7 +5668,7 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="146" t="s">
+      <c r="E4" s="145" t="s">
         <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -5720,47 +5732,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="200">
+      <c r="C6" s="199">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>1542930</v>
       </c>
-      <c r="D6" s="200">
+      <c r="D6" s="199">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>1278674</v>
       </c>
-      <c r="E6" s="200" t="str">
+      <c r="E6" s="199" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="200" t="str">
+      <c r="F6" s="199" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="200" t="str">
+      <c r="G6" s="199" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="200" t="str">
+      <c r="H6" s="199" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="200" t="str">
+      <c r="I6" s="199" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="200" t="str">
+      <c r="J6" s="199" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="200" t="str">
+      <c r="K6" s="199" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="200" t="str">
+      <c r="L6" s="199" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="200" t="str">
+      <c r="M6" s="199" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -5822,47 +5834,47 @@
       <c r="B8" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="199">
+      <c r="C8" s="198">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>18534</v>
       </c>
-      <c r="D8" s="199">
+      <c r="D8" s="198">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>16493</v>
       </c>
-      <c r="E8" s="199" t="str">
+      <c r="E8" s="198" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="199" t="str">
+      <c r="F8" s="198" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="199" t="str">
+      <c r="G8" s="198" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="199" t="str">
+      <c r="H8" s="198" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="199" t="str">
+      <c r="I8" s="198" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="199" t="str">
+      <c r="J8" s="198" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="199" t="str">
+      <c r="K8" s="198" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="199" t="str">
+      <c r="L8" s="198" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="199" t="str">
+      <c r="M8" s="198" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -5873,47 +5885,47 @@
       <c r="B9" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="151">
+      <c r="C9" s="150">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>1524396</v>
       </c>
-      <c r="D9" s="151">
+      <c r="D9" s="150">
         <f t="shared" si="2"/>
         <v>1262181</v>
       </c>
-      <c r="E9" s="151" t="str">
+      <c r="E9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="151" t="str">
+      <c r="F9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="151" t="str">
+      <c r="G9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="151" t="str">
+      <c r="H9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="151" t="str">
+      <c r="I9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="151" t="str">
+      <c r="J9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="151" t="str">
+      <c r="K9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="151" t="str">
+      <c r="L9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="151" t="str">
+      <c r="M9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5924,47 +5936,47 @@
       <c r="B10" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="198">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>238698</v>
       </c>
-      <c r="D10" s="199">
+      <c r="D10" s="198">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>239351</v>
       </c>
-      <c r="E10" s="199" t="str">
+      <c r="E10" s="198" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="199" t="str">
+      <c r="F10" s="198" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="199" t="str">
+      <c r="G10" s="198" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="199" t="str">
+      <c r="H10" s="198" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="199" t="str">
+      <c r="I10" s="198" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="199" t="str">
+      <c r="J10" s="198" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="199" t="str">
+      <c r="K10" s="198" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="199" t="str">
+      <c r="L10" s="198" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="199" t="str">
+      <c r="M10" s="198" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -5975,47 +5987,47 @@
       <c r="B11" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="199" t="str">
+      <c r="C11" s="198" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="199" t="str">
+      <c r="D11" s="198" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="199" t="str">
+      <c r="E11" s="198" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="199" t="str">
+      <c r="F11" s="198" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="199" t="str">
+      <c r="G11" s="198" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="199" t="str">
+      <c r="H11" s="198" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="199" t="str">
+      <c r="I11" s="198" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="199" t="str">
+      <c r="J11" s="198" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="199" t="str">
+      <c r="K11" s="198" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="199" t="str">
+      <c r="L11" s="198" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="199" t="str">
+      <c r="M11" s="198" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6024,49 +6036,49 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="199">
+        <v>225</v>
+      </c>
+      <c r="C12" s="198">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>1497.3333333333333</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>1304</v>
       </c>
-      <c r="E12" s="199" t="str">
+      <c r="E12" s="198" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="199" t="str">
+      <c r="F12" s="198" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="199" t="str">
+      <c r="G12" s="198" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="199" t="str">
+      <c r="H12" s="198" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="199" t="str">
+      <c r="I12" s="198" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="199" t="str">
+      <c r="J12" s="198" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="199" t="str">
+      <c r="K12" s="198" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="199" t="str">
+      <c r="L12" s="198" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="199" t="str">
+      <c r="M12" s="198" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6074,50 +6086,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="229">
+      <c r="B13" s="225" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="226">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.83231298028210399</v>
       </c>
-      <c r="D13" s="229">
+      <c r="D13" s="226">
         <f t="shared" si="3"/>
         <v>0.79889479257418228</v>
       </c>
-      <c r="E13" s="229" t="str">
+      <c r="E13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="229" t="str">
+      <c r="F13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="229" t="str">
+      <c r="G13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="229" t="str">
+      <c r="H13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="229" t="str">
+      <c r="I13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="229" t="str">
+      <c r="J13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="229" t="str">
+      <c r="K13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="229" t="str">
+      <c r="L13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="229" t="str">
+      <c r="M13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6125,50 +6137,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="228" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="230">
+      <c r="B14" s="225" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="227">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>1284200.6666666667</v>
       </c>
-      <c r="D14" s="230">
+      <c r="D14" s="227">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>1021526</v>
       </c>
-      <c r="E14" s="230" t="str">
+      <c r="E14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="230" t="str">
+      <c r="F14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="230" t="str">
+      <c r="G14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="230" t="str">
+      <c r="H14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="230" t="str">
+      <c r="I14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="230" t="str">
+      <c r="J14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="230" t="str">
+      <c r="K14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="230" t="str">
+      <c r="L14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="230" t="str">
+      <c r="M14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6176,50 +6188,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="231" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="232">
+      <c r="B15" s="228" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="229">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.2571394821734021</v>
       </c>
-      <c r="D15" s="232" t="str">
+      <c r="D15" s="229" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="232" t="str">
+      <c r="E15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="232" t="str">
+      <c r="F15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="232" t="str">
+      <c r="G15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="232" t="str">
+      <c r="H15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="232" t="str">
+      <c r="I15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="232" t="str">
+      <c r="J15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="232" t="str">
+      <c r="K15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="232" t="str">
+      <c r="L15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="232" t="str">
+      <c r="M15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6230,47 +6242,47 @@
       <c r="B16" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="199" t="str">
+      <c r="C16" s="198" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="199" t="str">
+      <c r="D16" s="198" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="199" t="str">
+      <c r="E16" s="198" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="199" t="str">
+      <c r="F16" s="198" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="199" t="str">
+      <c r="G16" s="198" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="199" t="str">
+      <c r="H16" s="198" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="199" t="str">
+      <c r="I16" s="198" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="199" t="str">
+      <c r="J16" s="198" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="199" t="str">
+      <c r="K16" s="198" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="199" t="str">
+      <c r="L16" s="198" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="199" t="str">
+      <c r="M16" s="198" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -6279,49 +6291,49 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="199">
+        <v>237</v>
+      </c>
+      <c r="C17" s="198">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>750026</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>586689</v>
       </c>
-      <c r="E17" s="199" t="str">
+      <c r="E17" s="198" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="199" t="str">
+      <c r="F17" s="198" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="199" t="str">
+      <c r="G17" s="198" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="199" t="str">
+      <c r="H17" s="198" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="199" t="str">
+      <c r="I17" s="198" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="199" t="str">
+      <c r="J17" s="198" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="199" t="str">
+      <c r="K17" s="198" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="199" t="str">
+      <c r="L17" s="198" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="199" t="str">
+      <c r="M17" s="198" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -6332,47 +6344,47 @@
       <c r="B18" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="152" t="str">
+      <c r="C18" s="151" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="152" t="str">
+      <c r="D18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="152" t="str">
+      <c r="E18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="152" t="str">
+      <c r="F18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="152" t="str">
+      <c r="G18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="152" t="str">
+      <c r="H18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="152" t="str">
+      <c r="I18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="152" t="str">
+      <c r="J18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="152" t="str">
+      <c r="K18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="152" t="str">
+      <c r="L18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="152" t="str">
+      <c r="M18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6383,47 +6395,47 @@
       <c r="B19" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="199" t="str">
+      <c r="C19" s="198" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="199" t="str">
+      <c r="D19" s="198" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="199" t="str">
+      <c r="E19" s="198" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="199" t="str">
+      <c r="F19" s="198" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="199" t="str">
+      <c r="G19" s="198" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="199" t="str">
+      <c r="H19" s="198" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="199" t="str">
+      <c r="I19" s="198" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="199" t="str">
+      <c r="J19" s="198" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="199" t="str">
+      <c r="K19" s="198" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="199" t="str">
+      <c r="L19" s="198" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="199" t="str">
+      <c r="M19" s="198" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -6432,49 +6444,49 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="152">
+        <v>220</v>
+      </c>
+      <c r="C20" s="151">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="152">
+      <c r="D20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="152" t="str">
+      <c r="E20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="152" t="str">
+      <c r="F20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="152" t="str">
+      <c r="G20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="152" t="str">
+      <c r="H20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="152" t="str">
+      <c r="I20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="152" t="str">
+      <c r="J20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="152" t="str">
+      <c r="K20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="152" t="str">
+      <c r="L20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="152" t="str">
+      <c r="M20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6485,47 +6497,47 @@
       <c r="B21" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="199" t="str">
+      <c r="C21" s="198" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="199" t="str">
+      <c r="D21" s="198" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="199" t="str">
+      <c r="E21" s="198" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="199" t="str">
+      <c r="F21" s="198" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="199" t="str">
+      <c r="G21" s="198" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="199" t="str">
+      <c r="H21" s="198" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="199" t="str">
+      <c r="I21" s="198" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="199" t="str">
+      <c r="J21" s="198" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="199" t="str">
+      <c r="K21" s="198" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="199" t="str">
+      <c r="L21" s="198" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="199" t="str">
+      <c r="M21" s="198" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -6536,47 +6548,47 @@
       <c r="B22" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="161">
+      <c r="C22" s="160">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>534174.66666666674</v>
       </c>
-      <c r="D22" s="161">
+      <c r="D22" s="160">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>434837</v>
       </c>
-      <c r="E22" s="161" t="str">
+      <c r="E22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="161" t="str">
+      <c r="F22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="161" t="str">
+      <c r="G22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="161" t="str">
+      <c r="H22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="161" t="str">
+      <c r="I22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="161" t="str">
+      <c r="J22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="161" t="str">
+      <c r="K22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="161" t="str">
+      <c r="L22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="161" t="str">
+      <c r="M22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6587,47 +6599,47 @@
       <c r="B23" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="153">
+      <c r="C23" s="152">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>0.25965597920838929</v>
       </c>
-      <c r="D23" s="153">
+      <c r="D23" s="152">
         <f t="shared" si="9"/>
         <v>0.25505152212370003</v>
       </c>
-      <c r="E23" s="153" t="str">
+      <c r="E23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="153" t="str">
+      <c r="F23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="153" t="str">
+      <c r="G23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="153" t="str">
+      <c r="H23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="153" t="str">
+      <c r="I23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="153" t="str">
+      <c r="J23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="153" t="str">
+      <c r="K23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="153" t="str">
+      <c r="L23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="153" t="str">
+      <c r="M23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -6638,7 +6650,7 @@
       <c r="B24" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="154">
+      <c r="C24" s="153">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>400631.00000000006</v>
       </c>
@@ -6686,50 +6698,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="234" t="s">
+      <c r="B25" s="231" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="233">
+      <c r="C25" s="230">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.22844805448171784</v>
       </c>
-      <c r="D25" s="233" t="str">
+      <c r="D25" s="230" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="233" t="str">
+      <c r="E25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="233" t="str">
+      <c r="F25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="233" t="str">
+      <c r="G25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="233" t="str">
+      <c r="H25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="233" t="str">
+      <c r="I25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="233" t="str">
+      <c r="J25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="233" t="str">
+      <c r="K25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="233" t="str">
+      <c r="L25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="233" t="str">
+      <c r="M25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6793,7 +6805,7 @@
       </c>
       <c r="C27" s="65">
         <f>IF(C34="","",C34+C30)</f>
-        <v>0</v>
+        <v>47116536</v>
       </c>
       <c r="D27" s="65" t="str">
         <f>IF(D34="","",D34+D30)</f>
@@ -6846,43 +6858,43 @@
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="199" t="str">
+      <c r="D28" s="198" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="199" t="str">
+      <c r="E28" s="198" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="199" t="str">
+      <c r="F28" s="198" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="199" t="str">
+      <c r="G28" s="198" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="199" t="str">
+      <c r="H28" s="198" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="199" t="str">
+      <c r="I28" s="198" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="199" t="str">
+      <c r="J28" s="198" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="199" t="str">
+      <c r="K28" s="198" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="199" t="str">
+      <c r="L28" s="198" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="199" t="str">
+      <c r="M28" s="198" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -6897,43 +6909,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="199" t="str">
+      <c r="D29" s="198" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="199" t="str">
+      <c r="E29" s="198" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="199" t="str">
+      <c r="F29" s="198" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="199" t="str">
+      <c r="G29" s="198" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="199" t="str">
+      <c r="H29" s="198" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="199" t="str">
+      <c r="I29" s="198" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="199" t="str">
+      <c r="J29" s="198" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="199" t="str">
+      <c r="K29" s="198" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="199" t="str">
+      <c r="L29" s="198" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="199" t="str">
+      <c r="M29" s="198" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -6942,49 +6954,49 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="199" t="str">
+        <v>43252035</v>
+      </c>
+      <c r="D30" s="198" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="199" t="str">
+      <c r="E30" s="198" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="199" t="str">
+      <c r="F30" s="198" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="199" t="str">
+      <c r="G30" s="198" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="199" t="str">
+      <c r="H30" s="198" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="199" t="str">
+      <c r="I30" s="198" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="199" t="str">
+      <c r="J30" s="198" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="199" t="str">
+      <c r="K30" s="198" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="199" t="str">
+      <c r="L30" s="198" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="199" t="str">
+      <c r="M30" s="198" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -6999,43 +7011,43 @@
         <f>Fin_Analysis!I15</f>
         <v>42280604</v>
       </c>
-      <c r="D31" s="199" t="str">
+      <c r="D31" s="198" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="199" t="str">
+      <c r="E31" s="198" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="199" t="str">
+      <c r="F31" s="198" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="199" t="str">
+      <c r="G31" s="198" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="199" t="str">
+      <c r="H31" s="198" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="199" t="str">
+      <c r="I31" s="198" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="199" t="str">
+      <c r="J31" s="198" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="199" t="str">
+      <c r="K31" s="198" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="199" t="str">
+      <c r="L31" s="198" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="199" t="str">
+      <c r="M31" s="198" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7050,43 +7062,43 @@
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199" t="str">
+      <c r="D32" s="198" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="199" t="str">
+      <c r="E32" s="198" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="199" t="str">
+      <c r="F32" s="198" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="199" t="str">
+      <c r="G32" s="198" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="199" t="str">
+      <c r="H32" s="198" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="199" t="str">
+      <c r="I32" s="198" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="199" t="str">
+      <c r="J32" s="198" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="199" t="str">
+      <c r="K32" s="198" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="199" t="str">
+      <c r="L32" s="198" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="199" t="str">
+      <c r="M32" s="198" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7150,45 +7162,45 @@
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="199" t="str">
+        <v>3864501</v>
+      </c>
+      <c r="D34" s="198" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="199" t="str">
+      <c r="E34" s="198" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="199" t="str">
+      <c r="F34" s="198" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="199" t="str">
+      <c r="G34" s="198" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="199" t="str">
+      <c r="H34" s="198" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="199" t="str">
+      <c r="I34" s="198" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="199" t="str">
+      <c r="J34" s="198" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="199" t="str">
+      <c r="K34" s="198" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="199" t="str">
+      <c r="L34" s="198" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="199" t="str">
+      <c r="M34" s="198" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -7201,45 +7213,45 @@
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="199" t="str">
+        <v>629840</v>
+      </c>
+      <c r="D35" s="198" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="199" t="str">
+      <c r="E35" s="198" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="199" t="str">
+      <c r="F35" s="198" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="199" t="str">
+      <c r="G35" s="198" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="199" t="str">
+      <c r="H35" s="198" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="199" t="str">
+      <c r="I35" s="198" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="199" t="str">
+      <c r="J35" s="198" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="199" t="str">
+      <c r="K35" s="198" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="199" t="str">
+      <c r="L35" s="198" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="199" t="str">
+      <c r="M35" s="198" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -7254,43 +7266,43 @@
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199" t="str">
+      <c r="D36" s="198" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="199" t="str">
+      <c r="E36" s="198" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="199" t="str">
+      <c r="F36" s="198" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="199" t="str">
+      <c r="G36" s="198" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="199" t="str">
+      <c r="H36" s="198" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="199" t="str">
+      <c r="I36" s="198" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="199" t="str">
+      <c r="J36" s="198" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="199" t="str">
+      <c r="K36" s="198" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="199" t="str">
+      <c r="L36" s="198" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="199" t="str">
+      <c r="M36" s="198" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -7352,47 +7364,47 @@
       <c r="B38" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="155">
+      <c r="C38" s="154">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>4.2196363500311286E-2</v>
       </c>
-      <c r="D38" s="155" t="e">
+      <c r="D38" s="154" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="155" t="str">
+      <c r="E38" s="154" t="str">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v/>
       </c>
-      <c r="F38" s="155" t="str">
+      <c r="F38" s="154" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="155" t="str">
+      <c r="G38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="155" t="str">
+      <c r="H38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="155" t="str">
+      <c r="I38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="155" t="str">
+      <c r="J38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="155" t="str">
+      <c r="K38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="155" t="str">
+      <c r="L38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="155" t="str">
+      <c r="M38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -7401,7 +7413,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7421,47 +7433,47 @@
       <c r="B40" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>1.2012210534502537E-2</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f t="shared" si="34"/>
         <v>1.2898518308810534E-2</v>
       </c>
-      <c r="E40" s="156" t="str">
+      <c r="E40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -7470,49 +7482,49 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="153">
+        <v>219</v>
+      </c>
+      <c r="C41" s="152">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.15470436118294414</v>
       </c>
-      <c r="D41" s="153">
+      <c r="D41" s="152">
         <f t="shared" si="35"/>
         <v>0.18718688266125691</v>
       </c>
-      <c r="E41" s="153" t="str">
+      <c r="E41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F41" s="153" t="str">
+      <c r="F41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="153" t="str">
+      <c r="G41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="153" t="str">
+      <c r="H41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="153" t="str">
+      <c r="I41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="153" t="str">
+      <c r="J41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="153" t="str">
+      <c r="K41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="153" t="str">
+      <c r="L41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="153" t="str">
+      <c r="M41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -7523,47 +7535,47 @@
       <c r="B42" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="153">
+      <c r="C42" s="152">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="153">
+      <c r="D42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="153" t="str">
+      <c r="E42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F42" s="153" t="str">
+      <c r="F42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="153" t="str">
+      <c r="G42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="153" t="str">
+      <c r="H42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="153" t="str">
+      <c r="I42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="153" t="str">
+      <c r="J42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="153" t="str">
+      <c r="K42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="153" t="str">
+      <c r="L42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="153" t="str">
+      <c r="M42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -7574,47 +7586,47 @@
       <c r="B43" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="153">
+      <c r="C43" s="152">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>0.48610500800425166</v>
       </c>
-      <c r="D43" s="153">
+      <c r="D43" s="152">
         <f t="shared" si="37"/>
         <v>0.45882609640924893</v>
       </c>
-      <c r="E43" s="153" t="str">
+      <c r="E43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F43" s="153" t="str">
+      <c r="F43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="153" t="str">
+      <c r="G43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="153" t="str">
+      <c r="H43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="153" t="str">
+      <c r="I43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="153" t="str">
+      <c r="J43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="153" t="str">
+      <c r="K43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="153" t="str">
+      <c r="L43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="153" t="str">
+      <c r="M43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -7625,47 +7637,47 @@
       <c r="B44" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="153">
+      <c r="C44" s="152">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>9.7044800044936142E-4</v>
       </c>
-      <c r="D44" s="153">
+      <c r="D44" s="152">
         <f t="shared" si="38"/>
         <v>1.0198064557502538E-3</v>
       </c>
-      <c r="E44" s="153" t="str">
+      <c r="E44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F44" s="153" t="str">
+      <c r="F44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="153" t="str">
+      <c r="G44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="153" t="str">
+      <c r="H44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="153" t="str">
+      <c r="I44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="153" t="str">
+      <c r="J44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="153" t="str">
+      <c r="K44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="153" t="str">
+      <c r="L44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="153" t="str">
+      <c r="M44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -7674,49 +7686,49 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="153">
+        <v>221</v>
+      </c>
+      <c r="C45" s="152">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="153">
+      <c r="D45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -7727,47 +7739,47 @@
       <c r="B46" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="153">
+      <c r="C46" s="152">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>0.34620797227785238</v>
       </c>
-      <c r="D46" s="153">
+      <c r="D46" s="152">
         <f t="shared" si="40"/>
         <v>0.34006869616493335</v>
       </c>
-      <c r="E46" s="153" t="str">
+      <c r="E46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F46" s="153" t="str">
+      <c r="F46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="153" t="str">
+      <c r="G46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="153" t="str">
+      <c r="H46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="153" t="str">
+      <c r="I46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="153" t="str">
+      <c r="J46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="153" t="str">
+      <c r="K46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="153" t="str">
+      <c r="L46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="153" t="str">
+      <c r="M46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -7776,9 +7788,11 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="102" t="s">
-        <v>246</v>
-      </c>
-      <c r="C47" s="36"/>
+        <v>245</v>
+      </c>
+      <c r="C47" s="280" t="s">
+        <v>263</v>
+      </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
@@ -7793,50 +7807,50 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="271" t="s">
-        <v>252</v>
-      </c>
-      <c r="C48" s="272" t="e">
+      <c r="B48" s="268" t="s">
+        <v>251</v>
+      </c>
+      <c r="C48" s="269">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D48" s="272" t="e">
+        <v>3.2747101781845762E-2</v>
+      </c>
+      <c r="D48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="272" t="str">
+      <c r="E48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F48" s="272" t="str">
+      <c r="F48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="272" t="str">
+      <c r="G48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="272" t="str">
+      <c r="H48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="272" t="str">
+      <c r="I48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="272" t="str">
+      <c r="J48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="272" t="str">
+      <c r="K48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="272" t="str">
+      <c r="L48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="272" t="str">
+      <c r="M48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -7845,49 +7859,49 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="94" t="s">
-        <v>253</v>
-      </c>
-      <c r="C49" s="153">
+        <v>252</v>
+      </c>
+      <c r="C49" s="152">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="153" t="str">
+      <c r="D49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="153" t="str">
+      <c r="E49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="153" t="str">
+      <c r="F49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="153" t="str">
+      <c r="G49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="153" t="str">
+      <c r="H49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="153" t="str">
+      <c r="I49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="153" t="str">
+      <c r="J49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="153" t="str">
+      <c r="K49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="153" t="str">
+      <c r="L49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="153" t="str">
+      <c r="M49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -7896,49 +7910,49 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="94" t="s">
-        <v>254</v>
-      </c>
-      <c r="C50" s="153">
+        <v>253</v>
+      </c>
+      <c r="C50" s="152">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="153" t="str">
+      <c r="D50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="153" t="str">
+      <c r="E50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="153" t="str">
+      <c r="F50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="153" t="str">
+      <c r="G50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="153" t="str">
+      <c r="H50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="153" t="str">
+      <c r="I50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="153" t="str">
+      <c r="J50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="153" t="str">
+      <c r="K50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="153" t="str">
+      <c r="L50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="153" t="str">
+      <c r="M50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -7947,49 +7961,49 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>244</v>
-      </c>
-      <c r="C51" s="153" t="e">
+        <v>243</v>
+      </c>
+      <c r="C51" s="152" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="153" t="str">
+      <c r="D51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E51" s="153" t="str">
+      <c r="E51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="153" t="str">
+      <c r="F51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="153" t="str">
+      <c r="G51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="153" t="str">
+      <c r="H51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="153" t="str">
+      <c r="I51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="153" t="str">
+      <c r="J51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="153" t="str">
+      <c r="K51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="153" t="str">
+      <c r="L51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="153" t="str">
+      <c r="M51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -7998,7 +8012,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8015,49 +8029,49 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>248</v>
-      </c>
-      <c r="C53" s="156" t="e">
+        <v>247</v>
+      </c>
+      <c r="C53" s="155">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D53" s="156" t="str">
+        <v>6.8652351692407951E-2</v>
+      </c>
+      <c r="D53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="156" t="str">
+      <c r="E53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="156" t="str">
+      <c r="F53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="156" t="str">
+      <c r="G53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="156" t="str">
+      <c r="H53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="156" t="str">
+      <c r="I53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="156" t="str">
+      <c r="J53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="156" t="str">
+      <c r="K53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="156" t="str">
+      <c r="L53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="156" t="str">
+      <c r="M53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8067,47 +8081,47 @@
       <c r="B54" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="157">
+      <c r="C54" s="156">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>1.2634035849314423E-2</v>
       </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="E54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -8117,47 +8131,47 @@
       <c r="B55" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="153">
+      <c r="C55" s="152">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>1.4040838077932061</v>
       </c>
-      <c r="D55" s="153">
+      <c r="D55" s="152">
         <f t="shared" si="47"/>
         <v>1.3492159130892725</v>
       </c>
-      <c r="E55" s="153" t="str">
+      <c r="E55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
@@ -8167,47 +8181,47 @@
       <c r="B56" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="158" t="e">
+      <c r="C56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/C30)</f>
         <v>#REF!</v>
       </c>
-      <c r="D56" s="158" t="e">
+      <c r="D56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/D30)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="158" t="e">
+      <c r="E56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/E30)</f>
         <v>#REF!</v>
       </c>
-      <c r="F56" s="158" t="e">
+      <c r="F56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="158" t="e">
+      <c r="G56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/G30)</f>
         <v>#REF!</v>
       </c>
-      <c r="H56" s="158" t="e">
+      <c r="H56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/H30)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="158" t="e">
+      <c r="I56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/I30)</f>
         <v>#REF!</v>
       </c>
-      <c r="J56" s="158" t="e">
+      <c r="J56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/J30)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="158" t="e">
+      <c r="K56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/K30)</f>
         <v>#REF!</v>
       </c>
-      <c r="L56" s="158" t="e">
+      <c r="L56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/L30)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="158" t="e">
+      <c r="M56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/M30)</f>
         <v>#REF!</v>
       </c>
@@ -8215,149 +8229,149 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="102" t="s">
-        <v>249</v>
-      </c>
-      <c r="C57" s="273" t="str">
+        <v>248</v>
+      </c>
+      <c r="C57" s="270" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="273" t="str">
+      <c r="D57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="273" t="str">
+      <c r="E57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="273" t="str">
+      <c r="F57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="273" t="str">
+      <c r="G57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="273" t="str">
+      <c r="H57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="273" t="str">
+      <c r="I57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="273" t="str">
+      <c r="J57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="273" t="str">
+      <c r="K57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="273" t="str">
+      <c r="L57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="273" t="str">
+      <c r="M57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="271" t="s">
-        <v>250</v>
-      </c>
-      <c r="C58" s="274" t="e">
+      <c r="B58" s="268" t="s">
+        <v>249</v>
+      </c>
+      <c r="C58" s="271">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D58" s="274" t="e">
+        <v>0.39701244324108981</v>
+      </c>
+      <c r="D58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="274" t="str">
+      <c r="E58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="F58" s="274" t="str">
+      <c r="F58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="274" t="str">
+      <c r="G58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="274" t="str">
+      <c r="H58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="274" t="str">
+      <c r="I58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="274" t="str">
+      <c r="J58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="274" t="str">
+      <c r="K58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="274" t="str">
+      <c r="L58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="274" t="str">
+      <c r="M58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="271" t="s">
-        <v>251</v>
-      </c>
-      <c r="C59" s="274" t="e">
+      <c r="B59" s="268" t="s">
+        <v>250</v>
+      </c>
+      <c r="C59" s="271">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D59" s="274" t="e">
+        <v>0.16514084989637762</v>
+      </c>
+      <c r="D59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="274" t="str">
+      <c r="E59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="F59" s="274" t="str">
+      <c r="F59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="274" t="str">
+      <c r="G59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="274" t="str">
+      <c r="H59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="274" t="str">
+      <c r="I59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="274" t="str">
+      <c r="J59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="274" t="str">
+      <c r="K59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="274" t="str">
+      <c r="L59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="274" t="str">
+      <c r="M59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9653,8 +9667,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9690,8 +9704,8 @@
         <v>21</v>
       </c>
       <c r="C3" s="87"/>
-      <c r="D3" s="116">
-        <f>C49-I49</f>
+      <c r="D3" s="204">
+        <f>Inputs!C41</f>
         <v>3864501</v>
       </c>
       <c r="E3" s="67" t="str">
@@ -9703,8 +9717,8 @@
       <c r="H3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="204">
-        <f>Inputs!C83</f>
+      <c r="I3" s="282">
+        <f>D3-D4</f>
         <v>3234661</v>
       </c>
       <c r="K3" s="24"/>
@@ -9714,8 +9728,8 @@
         <v>23</v>
       </c>
       <c r="C4" s="87"/>
-      <c r="D4" s="65">
-        <f>D3-I3</f>
+      <c r="D4" s="198">
+        <f>Inputs!C42</f>
         <v>629840</v>
       </c>
       <c r="E4" s="37"/>
@@ -9746,13 +9760,13 @@
         <v>Adj. Net Asset in CNY</v>
       </c>
       <c r="C6" s="87"/>
-      <c r="D6" s="69" t="e">
+      <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E6" s="56" t="e">
+        <v>-15567844.5</v>
+      </c>
+      <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>#DIV/0!</v>
+        <v>5.0284229451616129</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -9772,9 +9786,9 @@
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
-      <c r="D7" s="66" t="e">
+      <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -9802,11 +9816,11 @@
         <v>28</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="203">
+      <c r="D9" s="202">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="119" t="str">
+      <c r="E9" s="118" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
@@ -9849,7 +9863,7 @@
         <f>Inputs!C48</f>
         <v>3628128</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="197">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -9877,7 +9891,7 @@
         <f>Inputs!C49</f>
         <v>2171209</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="197">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -9905,7 +9919,7 @@
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="198">
+      <c r="D13" s="197">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -9933,7 +9947,7 @@
         <f>Inputs!C51</f>
         <v>3557823</v>
       </c>
-      <c r="D14" s="198">
+      <c r="D14" s="197">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -9946,7 +9960,7 @@
       <c r="H14" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="205">
+      <c r="I14" s="203">
         <f>Inputs!C76</f>
         <v>1783937</v>
       </c>
@@ -9961,7 +9975,7 @@
         <f>Inputs!C52</f>
         <v>9431099</v>
       </c>
-      <c r="D15" s="198">
+      <c r="D15" s="197">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -9988,7 +10002,7 @@
         <f>Inputs!C53</f>
         <v>27228377</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="197">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10010,7 +10024,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="197">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10032,7 +10046,7 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="198">
+      <c r="D18" s="197">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10053,7 +10067,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="197">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10061,7 +10075,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="134" t="str">
+      <c r="F19" s="133" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10078,7 +10092,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="198">
+      <c r="D20" s="197">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10086,7 +10100,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="134" t="str">
+      <c r="F20" s="133" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10105,7 +10119,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="197">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10126,7 +10140,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="198">
+      <c r="D22" s="197">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10291,7 +10305,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="206">
+      <c r="I28" s="204">
         <f>Inputs!C77</f>
         <v>43252035</v>
       </c>
@@ -10320,7 +10334,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="197">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10346,7 +10360,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="197">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10373,7 +10387,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="197">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10400,7 +10414,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="198">
+      <c r="D33" s="197">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10416,7 +10430,7 @@
       <c r="H33" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="205">
+      <c r="I33" s="203">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -10430,7 +10444,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="197">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -10457,7 +10471,7 @@
         <f>Inputs!C65</f>
         <v>65568</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="197">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -10465,7 +10479,7 @@
         <f t="shared" si="1"/>
         <v>6556.8</v>
       </c>
-      <c r="F35" s="134" t="str">
+      <c r="F35" s="133" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10483,7 +10497,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="197">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -10491,7 +10505,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="134" t="str">
+      <c r="F36" s="133" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10510,7 +10524,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="198">
+      <c r="D37" s="197">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -10518,7 +10532,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="134" t="str">
+      <c r="F37" s="133" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10537,7 +10551,7 @@
         <f>Inputs!C68</f>
         <v>297776</v>
       </c>
-      <c r="D38" s="198">
+      <c r="D38" s="197">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -10558,7 +10572,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="198">
+      <c r="D39" s="197">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -10579,7 +10593,7 @@
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="198">
+      <c r="D40" s="197">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -10600,7 +10614,7 @@
         <f>Inputs!C71</f>
         <v>97938</v>
       </c>
-      <c r="D41" s="198">
+      <c r="D41" s="197">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -10621,7 +10635,7 @@
         <f>Inputs!C72</f>
         <v>638618</v>
       </c>
-      <c r="D42" s="198">
+      <c r="D42" s="197">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -10767,8 +10781,8 @@
       <c r="H48" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="207">
-        <f>Inputs!C82</f>
+      <c r="I48" s="281">
+        <f>I49-I28</f>
         <v>0</v>
       </c>
       <c r="J48" s="8"/>
@@ -10794,8 +10808,8 @@
       <c r="H49" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I49" s="52">
-        <f>I28+I48</f>
+      <c r="I49" s="40">
+        <f>Inputs!C37</f>
         <v>43252035</v>
       </c>
       <c r="J49" s="87"/>
@@ -10818,9 +10832,9 @@
         <v>84</v>
       </c>
       <c r="C52" s="87"/>
-      <c r="D52" s="74" t="e">
+      <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>#DIV/0!</v>
+        <v>BV of the MI</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87"/>
@@ -10838,13 +10852,13 @@
         <f>MAX(D4,0)</f>
         <v>629840</v>
       </c>
-      <c r="D53" s="29" t="e">
+      <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E53" s="88" t="e">
+        <v>1</v>
+      </c>
+      <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>#DIV/0!</v>
+        <v>629840</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -10865,7 +10879,7 @@
         <v>142</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="125"/>
+      <c r="E55" s="124"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="I55" s="87"/>
@@ -10965,7 +10979,7 @@
       <c r="B62" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="117">
+      <c r="C62" s="116">
         <f>C11+C30</f>
         <v>3628128</v>
       </c>
@@ -10973,7 +10987,7 @@
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="E62" s="118">
+      <c r="E62" s="117">
         <f>E11+E30</f>
         <v>3265315.2</v>
       </c>
@@ -11004,11 +11018,11 @@
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="121" t="s">
+      <c r="B64" s="120" t="s">
         <v>143</v>
       </c>
-      <c r="C64" s="208"/>
-      <c r="D64" s="208"/>
+      <c r="C64" s="205"/>
+      <c r="D64" s="205"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>42280604</v>
@@ -11085,12 +11099,12 @@
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="121" t="s">
+      <c r="B69" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="208"/>
-      <c r="D69" s="208"/>
-      <c r="E69" s="126">
+      <c r="C69" s="205"/>
+      <c r="D69" s="205"/>
+      <c r="E69" s="125">
         <f>I49-E64</f>
         <v>971431</v>
       </c>
@@ -11169,17 +11183,17 @@
         <f>Data!C6</f>
         <v>1542930</v>
       </c>
-      <c r="D74" s="209"/>
-      <c r="E74" s="238">
+      <c r="D74" s="206"/>
+      <c r="E74" s="235">
         <f>Inputs!E91</f>
         <v>1542930</v>
       </c>
-      <c r="F74" s="209"/>
-      <c r="H74" s="238">
+      <c r="F74" s="206"/>
+      <c r="H74" s="235">
         <f>Inputs!F91</f>
         <v>1542930</v>
       </c>
-      <c r="I74" s="209"/>
+      <c r="I74" s="206"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11190,23 +11204,23 @@
         <f>Data!C8</f>
         <v>18534</v>
       </c>
-      <c r="D75" s="159">
+      <c r="D75" s="158">
         <f>C75/$C$74</f>
         <v>1.2012210534502537E-2</v>
       </c>
-      <c r="E75" s="238">
+      <c r="E75" s="235">
         <f>Inputs!E92</f>
         <v>18534</v>
       </c>
-      <c r="F75" s="160">
+      <c r="F75" s="159">
         <f>E75/E74</f>
         <v>1.2012210534502537E-2</v>
       </c>
-      <c r="H75" s="238">
+      <c r="H75" s="235">
         <f>Inputs!F92</f>
         <v>18534</v>
       </c>
-      <c r="I75" s="160">
+      <c r="I75" s="159">
         <f>H75/$H$74</f>
         <v>1.2012210534502537E-2</v>
       </c>
@@ -11216,48 +11230,48 @@
       <c r="B76" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C76" s="161">
+      <c r="C76" s="160">
         <f>C74-C75</f>
         <v>1524396</v>
       </c>
-      <c r="D76" s="210"/>
-      <c r="E76" s="162">
+      <c r="D76" s="207"/>
+      <c r="E76" s="161">
         <f>E74-E75</f>
         <v>1524396</v>
       </c>
-      <c r="F76" s="210"/>
-      <c r="H76" s="162">
+      <c r="F76" s="207"/>
+      <c r="H76" s="161">
         <f>H74-H75</f>
         <v>1524396</v>
       </c>
-      <c r="I76" s="210"/>
+      <c r="I76" s="207"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>238698</v>
       </c>
-      <c r="D77" s="159">
+      <c r="D77" s="158">
         <f>C77/$C$74</f>
         <v>0.15470436118294414</v>
       </c>
-      <c r="E77" s="238">
+      <c r="E77" s="235">
         <f>Inputs!E93</f>
         <v>238698</v>
       </c>
-      <c r="F77" s="160">
+      <c r="F77" s="159">
         <f>E77/E74</f>
         <v>0.15470436118294414</v>
       </c>
-      <c r="H77" s="238">
+      <c r="H77" s="235">
         <f>Inputs!F93</f>
         <v>238698</v>
       </c>
-      <c r="I77" s="160">
+      <c r="I77" s="159">
         <f>H77/$H$74</f>
         <v>0.15470436118294414</v>
       </c>
@@ -11271,54 +11285,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>1497.3333333333333</v>
       </c>
-      <c r="D78" s="159">
+      <c r="D78" s="158">
         <f>C78/$C$74</f>
         <v>9.7044800044936142E-4</v>
       </c>
-      <c r="E78" s="180">
+      <c r="E78" s="179">
         <f>E74*F78</f>
         <v>1497.3333333333333</v>
       </c>
-      <c r="F78" s="160">
+      <c r="F78" s="159">
         <f>I78</f>
         <v>9.7044800044936142E-4</v>
       </c>
-      <c r="H78" s="238">
+      <c r="H78" s="235">
         <f>Inputs!F97</f>
         <v>1497.3333333333333</v>
       </c>
-      <c r="I78" s="160">
+      <c r="I78" s="159">
         <f>H78/$H$74</f>
         <v>9.7044800044936142E-4</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="256" t="s">
-        <v>218</v>
-      </c>
-      <c r="C79" s="257">
+      <c r="B79" s="253" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="254">
         <f>C76-C77-C78</f>
         <v>1284200.6666666667</v>
       </c>
-      <c r="D79" s="258">
+      <c r="D79" s="255">
         <f>C79/C74</f>
         <v>0.83231298028210399</v>
       </c>
-      <c r="E79" s="259">
+      <c r="E79" s="256">
         <f>E76-E77-E78</f>
         <v>1284200.6666666667</v>
       </c>
-      <c r="F79" s="258">
+      <c r="F79" s="255">
         <f>E79/E74</f>
         <v>0.83231298028210399</v>
       </c>
-      <c r="G79" s="260"/>
-      <c r="H79" s="259">
+      <c r="G79" s="257"/>
+      <c r="H79" s="256">
         <f>H76-H77-H78</f>
         <v>1284200.6666666667</v>
       </c>
-      <c r="I79" s="258">
+      <c r="I79" s="255">
         <f>H79/H74</f>
         <v>0.83231298028210399</v>
       </c>
@@ -11332,55 +11346,55 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="159">
+      <c r="D80" s="158">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="180">
+      <c r="E80" s="179">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="160">
+      <c r="F80" s="159">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="238">
+      <c r="H80" s="235">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="160">
+      <c r="I80" s="159">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="181" t="s">
+      <c r="K80" s="180" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>750026</v>
       </c>
-      <c r="D81" s="159">
+      <c r="D81" s="158">
         <f>C81/$C$74</f>
         <v>0.48610500800425166</v>
       </c>
-      <c r="E81" s="180">
+      <c r="E81" s="179">
         <f>E74*F81</f>
         <v>750026</v>
       </c>
-      <c r="F81" s="160">
+      <c r="F81" s="159">
         <f>I81</f>
         <v>0.48610500800425166</v>
       </c>
-      <c r="H81" s="238">
+      <c r="H81" s="235">
         <f>Inputs!F94</f>
         <v>750026</v>
       </c>
-      <c r="I81" s="160">
+      <c r="I81" s="159">
         <f>H81/$H$74</f>
         <v>0.48610500800425166</v>
       </c>
@@ -11388,29 +11402,29 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="159">
+      <c r="D82" s="158">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="238">
+      <c r="E82" s="235">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="160">
+      <c r="F82" s="159">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="238">
+      <c r="H82" s="235">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="160">
+      <c r="I82" s="159">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
@@ -11420,27 +11434,27 @@
       <c r="B83" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="C83" s="163">
+      <c r="C83" s="162">
         <f>C79-C81-C82-C80</f>
         <v>534174.66666666674</v>
       </c>
-      <c r="D83" s="164">
+      <c r="D83" s="163">
         <f>C83/$C$74</f>
         <v>0.34620797227785238</v>
       </c>
-      <c r="E83" s="165">
+      <c r="E83" s="164">
         <f>E79-E81-E82-E80</f>
         <v>534174.66666666674</v>
       </c>
-      <c r="F83" s="164">
+      <c r="F83" s="163">
         <f>E83/E74</f>
         <v>0.34620797227785238</v>
       </c>
-      <c r="H83" s="165">
+      <c r="H83" s="164">
         <f>H79-H81-H82-H80</f>
         <v>534174.66666666674</v>
       </c>
-      <c r="I83" s="164">
+      <c r="I83" s="163">
         <f>H83/$H$74</f>
         <v>0.34620797227785238</v>
       </c>
@@ -11450,49 +11464,49 @@
       <c r="B84" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="211"/>
-      <c r="D84" s="159">
+      <c r="C84" s="208"/>
+      <c r="D84" s="158">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="212"/>
-      <c r="F84" s="179">
+      <c r="E84" s="209"/>
+      <c r="F84" s="178">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="212"/>
-      <c r="I84" s="202">
+      <c r="H84" s="209"/>
+      <c r="I84" s="201">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="263" t="s">
+      <c r="B85" s="260" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="257">
+      <c r="C85" s="254">
         <f>C83*(1-I84)</f>
         <v>400631.00000000006</v>
       </c>
-      <c r="D85" s="258">
+      <c r="D85" s="255">
         <f>C85/$C$74</f>
         <v>0.25965597920838929</v>
       </c>
-      <c r="E85" s="264">
+      <c r="E85" s="261">
         <f>E83*(1-F84)</f>
         <v>400631.00000000006</v>
       </c>
-      <c r="F85" s="258">
+      <c r="F85" s="255">
         <f>E85/E74</f>
         <v>0.25965597920838929</v>
       </c>
-      <c r="G85" s="260"/>
-      <c r="H85" s="264">
+      <c r="G85" s="257"/>
+      <c r="H85" s="261">
         <f>H83*(1-I84)</f>
         <v>400631.00000000006</v>
       </c>
-      <c r="I85" s="258">
+      <c r="I85" s="255">
         <f>H85/$H$74</f>
         <v>0.25965597920838929</v>
       </c>
@@ -11502,69 +11516,69 @@
       <c r="B86" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="C86" s="167">
+      <c r="C86" s="166">
         <f>C85*Data!C4/Common_Shares</f>
         <v>1.1240852034198616</v>
       </c>
-      <c r="D86" s="209"/>
-      <c r="E86" s="168">
+      <c r="D86" s="206"/>
+      <c r="E86" s="167">
         <f>E85*Data!C4/Common_Shares</f>
         <v>1.1240852034198616</v>
       </c>
-      <c r="F86" s="209"/>
-      <c r="H86" s="168">
+      <c r="F86" s="206"/>
+      <c r="H86" s="167">
         <f>H85*Data!C4/Common_Shares</f>
         <v>1.1240852034198616</v>
       </c>
-      <c r="I86" s="209"/>
+      <c r="I86" s="206"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="C87" s="261">
+      <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.24727399382278284</v>
-      </c>
-      <c r="D87" s="209"/>
-      <c r="E87" s="262">
+        <v>0.24860978907392337</v>
+      </c>
+      <c r="D87" s="206"/>
+      <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.24727399382278284</v>
-      </c>
-      <c r="F87" s="209"/>
-      <c r="H87" s="262">
+        <v>0.24860978907392337</v>
+      </c>
+      <c r="F87" s="206"/>
+      <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.24727399382278284</v>
-      </c>
-      <c r="I87" s="209"/>
+        <v>0.24860978907392337</v>
+      </c>
+      <c r="I87" s="206"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C88" s="169">
+      <c r="C88" s="168">
         <f>Inputs!C44</f>
         <v>0.44979999999999998</v>
       </c>
-      <c r="D88" s="166">
+      <c r="D88" s="165">
         <f>C88/C86</f>
         <v>0.40014760325244969</v>
       </c>
-      <c r="E88" s="170">
+      <c r="E88" s="169">
         <f>Inputs!E98</f>
         <v>0.30640000000000001</v>
       </c>
-      <c r="F88" s="166">
+      <c r="F88" s="165">
         <f>E88/E86</f>
         <v>0.27257720239339839</v>
       </c>
-      <c r="H88" s="170">
+      <c r="H88" s="169">
         <f>Inputs!F98</f>
         <v>0.30640000000000001</v>
       </c>
-      <c r="I88" s="166">
+      <c r="I88" s="165">
         <f>H88/H86</f>
         <v>0.27257720239339839</v>
       </c>
@@ -11572,23 +11586,23 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" s="261">
+        <v>206</v>
+      </c>
+      <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.8946095974847603E-2</v>
-      </c>
-      <c r="D89" s="209"/>
-      <c r="E89" s="261">
+        <v>9.9480611243027484E-2</v>
+      </c>
+      <c r="D89" s="206"/>
+      <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7401253460856625E-2</v>
-      </c>
-      <c r="F89" s="209"/>
-      <c r="H89" s="261">
+        <v>6.7765360793382898E-2</v>
+      </c>
+      <c r="F89" s="206"/>
+      <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7401253460856625E-2</v>
-      </c>
-      <c r="I89" s="209"/>
+        <v>6.7765360793382898E-2</v>
+      </c>
+      <c r="I89" s="206"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11610,7 +11624,7 @@
       <c r="B92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C92" s="198" t="str">
+      <c r="C92" s="197" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -11633,27 +11647,27 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="136">
+      <c r="C93" s="135">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="239">
+      <c r="D93" s="236">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="F93" s="144">
+      <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>54.756813386762502</v>
+        <v>55.006390873338596</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="I93" s="144">
+      <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>54.756813386762502</v>
+        <v>55.006390873338596</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11661,27 +11675,27 @@
       <c r="B94" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C94" s="182">
+      <c r="C94" s="181">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="270">
+      <c r="D94" s="267">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="F94" s="144">
+      <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.8510462941370305</v>
+        <v>6.8572209359533725</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="I94" s="144">
+      <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.8510462941370305</v>
+        <v>6.8572209359533725</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11695,25 +11709,25 @@
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="127" t="str">
+      <c r="C96" s="126" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="124" t="s">
+      <c r="D96" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E96" s="183" t="str">
+      <c r="E96" s="182" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H96" s="183" t="str">
+      <c r="F96" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H96" s="182" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="124" t="s">
+      <c r="I96" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K96" s="24"/>
@@ -11724,21 +11738,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9702737.5498400275</v>
-      </c>
-      <c r="D97" s="213"/>
-      <c r="E97" s="123">
+        <v>9746961.9066062309</v>
+      </c>
+      <c r="D97" s="210"/>
+      <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>27.223813714968276</v>
-      </c>
-      <c r="F97" s="213"/>
-      <c r="H97" s="123">
+        <v>27.347897834948132</v>
+      </c>
+      <c r="F97" s="210"/>
+      <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>27.223813714968276</v>
-      </c>
-      <c r="I97" s="123">
+        <v>27.347897834948132</v>
+      </c>
+      <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>36.206722948102872</v>
+        <v>36.371750500870014</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11746,18 +11760,18 @@
       <c r="B98" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="C98" s="91" t="e">
+      <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D98" s="213"/>
-      <c r="E98" s="213"/>
-      <c r="F98" s="213"/>
-      <c r="H98" s="123" t="e">
+        <v>-672816.08122507727</v>
+      </c>
+      <c r="D98" s="210"/>
+      <c r="E98" s="210"/>
+      <c r="F98" s="210"/>
+      <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I98" s="215"/>
+        <v>-1.8877785331840147</v>
+      </c>
+      <c r="I98" s="212"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11766,48 +11780,48 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>-34380414.804973289</v>
-      </c>
-      <c r="D99" s="214"/>
-      <c r="E99" s="145">
+        <v>-34352769.505358391</v>
+      </c>
+      <c r="D99" s="211"/>
+      <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>-110.93373429705578</v>
-      </c>
-      <c r="F99" s="214"/>
-      <c r="H99" s="145">
+        <v>-110.84453245526771</v>
+      </c>
+      <c r="F99" s="211"/>
+      <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-96.464116780048514</v>
-      </c>
-      <c r="I99" s="216"/>
+        <v>-96.386549961102361</v>
+      </c>
+      <c r="I99" s="213"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C100" s="91" t="e">
+      <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D100" s="109" t="e">
+        <v>-25278623.679977238</v>
+      </c>
+      <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E100" s="109" t="e">
+        <v>0</v>
+      </c>
+      <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F100" s="109" t="e">
+        <v>0</v>
+      </c>
+      <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H100" s="109" t="e">
+        <v>0</v>
+      </c>
+      <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I100" s="109" t="e">
+        <v>0</v>
+      </c>
+      <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11819,25 +11833,25 @@
       <c r="B102" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C102" s="127" t="str">
+      <c r="C102" s="126" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="124" t="s">
+      <c r="D102" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E102" s="183" t="str">
+      <c r="E102" s="182" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H102" s="183" t="str">
+      <c r="F102" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H102" s="182" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="124" t="s">
+      <c r="I102" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K102" s="24"/>
@@ -11848,27 +11862,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1213984.160551714</v>
+        <v>1215078.2879361012</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.895253705412022</v>
-      </c>
-      <c r="E103" s="123">
+        <v>2.8978631104329242</v>
+      </c>
+      <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.4061808298964964</v>
+        <v>3.4092507181563816</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>3.4061808298964964</v>
-      </c>
-      <c r="H103" s="123">
+        <v>3.4092507181563816</v>
+      </c>
+      <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.4061808298964964</v>
+        <v>3.4092507181563816</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>4.5301017304344002</v>
+        <v>4.5341845747732217</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11880,25 +11894,25 @@
       <c r="B105" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C105" s="127" t="str">
+      <c r="C105" s="126" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="124" t="s">
+      <c r="D105" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E105" s="184" t="str">
+      <c r="E105" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H105" s="184" t="str">
+      <c r="F105" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H105" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="124" t="s">
+      <c r="I105" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K105" s="24"/>
@@ -11907,29 +11921,29 @@
       <c r="B106" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C106" s="91" t="e">
+      <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D106" s="109" t="e">
+        <v>607539.1439680506</v>
+      </c>
+      <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E106" s="123" t="e">
+        <v>1.4489315552164621</v>
+      </c>
+      <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F106" s="109" t="e">
+        <v>1.7046253590781908</v>
+      </c>
+      <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H106" s="123" t="e">
+        <v>1.7046253590781908</v>
+      </c>
+      <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I106" s="123" t="e">
+        <v>1.7046253590781908</v>
+      </c>
+      <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>#DIV/0!</v>
+        <v>2.2670922873866108</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11940,14 +11954,13 @@
       <c r="B108" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C108" s="128" t="str">
+      <c r="C108" s="127" t="str">
         <f>Inputs!C87</f>
         <v>Dividend</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/1398.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1398.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8728A698-D648-40FE-BD19-D23E50E26C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB164A36-77D1-4414-B11C-8BA137396EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3260,9 +3260,7 @@
       <c r="B37" s="94" t="s">
         <v>259</v>
       </c>
-      <c r="C37" s="149">
-        <v>43252035</v>
-      </c>
+      <c r="C37" s="149"/>
       <c r="D37" s="149"/>
       <c r="E37" s="149"/>
       <c r="F37" s="149"/>
@@ -3326,9 +3324,7 @@
       <c r="B41" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="149">
-        <v>3864501</v>
-      </c>
+      <c r="C41" s="149"/>
       <c r="D41" s="149"/>
       <c r="E41" s="149"/>
       <c r="F41" s="149"/>
@@ -3344,9 +3340,7 @@
       <c r="B42" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="149">
-        <v>629840</v>
-      </c>
+      <c r="C42" s="149"/>
       <c r="D42" s="149"/>
       <c r="E42" s="149"/>
       <c r="F42" s="149"/>
@@ -3399,7 +3393,7 @@
       </c>
       <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.9480611243027484E-2</v>
+        <v>9.9891134403847351E-2</v>
       </c>
       <c r="D45" s="151" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4168,7 +4162,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="131">
-        <v>4.83</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="H3" s="133" t="s">
         <v>275</v>
@@ -4209,7 +4203,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>1721442.22173987</v>
+        <v>1714314.0965980899</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4258,7 +4252,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="132">
-        <v>1.0682333310445149</v>
+        <v>1.0681999921798706</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4378,9 +4372,9 @@
       <c r="B20" s="272" t="s">
         <v>249</v>
       </c>
-      <c r="C20" s="273">
+      <c r="C20" s="273" t="e">
         <f>C23*C22*(1/C21)</f>
-        <v>0.39701244324108975</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>197</v>
@@ -4393,9 +4387,9 @@
       <c r="B21" s="274" t="s">
         <v>247</v>
       </c>
-      <c r="C21" s="275">
+      <c r="C21" s="275" t="e">
         <f>Data!C53</f>
-        <v>6.8652351692407951E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
@@ -4404,9 +4398,9 @@
       <c r="B22" s="276" t="s">
         <v>262</v>
       </c>
-      <c r="C22" s="277">
+      <c r="C22" s="277" t="e">
         <f>Data!C48</f>
-        <v>3.2747101781845762E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="141" t="s">
         <v>171</v>
@@ -4423,9 +4417,9 @@
       <c r="F23" s="139" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="176">
+      <c r="G23" s="176" t="e">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.4169969725524475</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4441,7 +4435,7 @@
       </c>
       <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>4.0223677584258484</v>
+        <v>4.0058370108672809</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4473,7 +4467,7 @@
       </c>
       <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.7765360793382898E-2</v>
+        <v>6.8045005738859118E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4503,20 +4497,20 @@
       </c>
       <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.8978631104329242</v>
+        <v>2.9015692534105448</v>
       </c>
       <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>5.2143122609892041</v>
+        <v>5.2209809634201827</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.4092507181563816</v>
+        <v>3.4136108863653467</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.5341845747732217</v>
+        <v>4.5399834464523332</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -6805,7 +6799,7 @@
       </c>
       <c r="C27" s="65">
         <f>IF(C34="","",C34+C30)</f>
-        <v>47116536</v>
+        <v>0</v>
       </c>
       <c r="D27" s="65" t="str">
         <f>IF(D34="","",D34+D30)</f>
@@ -6958,7 +6952,7 @@
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
-        <v>43252035</v>
+        <v>0</v>
       </c>
       <c r="D30" s="198" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
@@ -7162,7 +7156,7 @@
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
-        <v>3864501</v>
+        <v>0</v>
       </c>
       <c r="D34" s="198" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
@@ -7213,7 +7207,7 @@
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
-        <v>629840</v>
+        <v>0</v>
       </c>
       <c r="D35" s="198" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
@@ -7810,9 +7804,9 @@
       <c r="B48" s="268" t="s">
         <v>251</v>
       </c>
-      <c r="C48" s="269">
+      <c r="C48" s="269" t="e">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
-        <v>3.2747101781845762E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D48" s="269" t="e">
         <f t="shared" si="41"/>
@@ -8031,9 +8025,9 @@
       <c r="B53" s="95" t="s">
         <v>247</v>
       </c>
-      <c r="C53" s="155">
+      <c r="C53" s="155" t="e">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
-        <v>6.8652351692407951E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D53" s="155" t="str">
         <f t="shared" si="45"/>
@@ -8281,9 +8275,9 @@
       <c r="B58" s="268" t="s">
         <v>249</v>
       </c>
-      <c r="C58" s="271">
+      <c r="C58" s="271" t="e">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
-        <v>0.39701244324108981</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D58" s="271" t="e">
         <f t="shared" si="49"/>
@@ -8331,9 +8325,9 @@
       <c r="B59" s="268" t="s">
         <v>250</v>
       </c>
-      <c r="C59" s="271">
+      <c r="C59" s="271" t="e">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
-        <v>0.16514084989637762</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D59" s="271" t="e">
         <f t="shared" si="50"/>
@@ -9706,11 +9700,11 @@
       <c r="C3" s="87"/>
       <c r="D3" s="204">
         <f>Inputs!C41</f>
-        <v>3864501</v>
+        <v>0</v>
       </c>
       <c r="E3" s="67" t="str">
         <f>IF((C49-I49)=D3,"", "Error!")</f>
-        <v/>
+        <v>Error!</v>
       </c>
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
@@ -9719,7 +9713,7 @@
       </c>
       <c r="I3" s="282">
         <f>D3-D4</f>
-        <v>3234661</v>
+        <v>0</v>
       </c>
       <c r="K3" s="24"/>
     </row>
@@ -9730,7 +9724,7 @@
       <c r="C4" s="87"/>
       <c r="D4" s="198">
         <f>Inputs!C42</f>
-        <v>629840</v>
+        <v>0</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="87"/>
@@ -9762,11 +9756,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>-15567844.5</v>
-      </c>
-      <c r="E6" s="56">
+        <v>28314030.5</v>
+      </c>
+      <c r="E6" s="56" t="e">
         <f>1-D6/D3</f>
-        <v>5.0284229451616129</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -9788,7 +9782,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>0</v>
+        <v>84.861156495150908</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -10309,9 +10303,9 @@
         <f>Inputs!C77</f>
         <v>43252035</v>
       </c>
-      <c r="J28" s="32">
+      <c r="J28" s="32" t="e">
         <f>IF(J26="",1,0)+IF(J27="",1,0)+IF(J46="",1,0)+IF(J47="",1,0)</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10650,7 +10644,7 @@
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
-        <v>0</v>
+        <v>-43252035</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10751,13 +10745,13 @@
       <c r="H47" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I47" s="63">
+      <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
-        <v>0.65190247580258365</v>
-      </c>
-      <c r="J47" s="8" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J47" s="8" t="e">
         <f>IF(OR(I47&lt;0.5,C49&lt;I49),"Liquidity Issue!","")</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10783,7 +10777,7 @@
       </c>
       <c r="I48" s="281">
         <f>I49-I28</f>
-        <v>0</v>
+        <v>-43252035</v>
       </c>
       <c r="J48" s="8"/>
     </row>
@@ -10810,7 +10804,7 @@
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
-        <v>43252035</v>
+        <v>0</v>
       </c>
       <c r="J49" s="87"/>
     </row>
@@ -10850,15 +10844,15 @@
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
-        <v>629840</v>
+        <v>0</v>
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>629840</v>
+        <v>0</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11106,7 +11100,7 @@
       <c r="D69" s="205"/>
       <c r="E69" s="125">
         <f>I49-E64</f>
-        <v>971431</v>
+        <v>-42280604</v>
       </c>
       <c r="F69" s="87"/>
       <c r="G69" s="87"/>
@@ -11119,15 +11113,15 @@
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
-        <v>29462487</v>
+        <v>72714522</v>
       </c>
       <c r="D70" s="29">
         <f t="shared" si="2"/>
-        <v>0.58448847851846308</v>
+        <v>0.83164294472017575</v>
       </c>
       <c r="E70" s="68">
         <f>E68-E69</f>
-        <v>17220484.199999999</v>
+        <v>60472519.200000003</v>
       </c>
       <c r="F70" s="87"/>
       <c r="G70" s="87"/>
@@ -11539,17 +11533,17 @@
       </c>
       <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.24860978907392337</v>
+        <v>0.24963571839970988</v>
       </c>
       <c r="D87" s="206"/>
       <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.24860978907392337</v>
+        <v>0.24963571839970988</v>
       </c>
       <c r="F87" s="206"/>
       <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.24860978907392337</v>
+        <v>0.24963571839970988</v>
       </c>
       <c r="I87" s="206"/>
       <c r="K87" s="24"/>
@@ -11590,17 +11584,17 @@
       </c>
       <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.9480611243027484E-2</v>
+        <v>9.9891134403847351E-2</v>
       </c>
       <c r="D89" s="206"/>
       <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7765360793382898E-2</v>
+        <v>6.8045005738859118E-2</v>
       </c>
       <c r="F89" s="206"/>
       <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7765360793382898E-2</v>
+        <v>6.8045005738859118E-2</v>
       </c>
       <c r="I89" s="206"/>
       <c r="K89" s="24"/>
@@ -11660,14 +11654,14 @@
       </c>
       <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>55.006390873338596</v>
+        <v>55.231020768368339</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>55.006390873338596</v>
+        <v>55.231020768368339</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11688,14 +11682,14 @@
       </c>
       <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.8572209359533725</v>
+        <v>6.8659907916191836</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
       <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.8572209359533725</v>
+        <v>6.8659907916191836</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11738,21 +11732,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9746961.9066062309</v>
+        <v>9786765.6275044344</v>
       </c>
       <c r="D97" s="210"/>
       <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>27.347897834948132</v>
+        <v>27.459578592809418</v>
       </c>
       <c r="F97" s="210"/>
       <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>27.347897834948132</v>
+        <v>27.459578592809418</v>
       </c>
       <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>36.371750500870014</v>
+        <v>36.520282014523971</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11762,14 +11756,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-672816.08122507727</v>
+        <v>0</v>
       </c>
       <c r="D98" s="210"/>
       <c r="E98" s="210"/>
       <c r="F98" s="210"/>
       <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-1.8877785331840147</v>
+        <v>0</v>
       </c>
       <c r="I98" s="212"/>
       <c r="K98" s="24"/>
@@ -11780,17 +11774,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>-34352769.505358391</v>
+        <v>-34351697.377856456</v>
       </c>
       <c r="D99" s="211"/>
       <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>-110.84453245526771</v>
+        <v>-110.84107306979762</v>
       </c>
       <c r="F99" s="211"/>
       <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-96.386549961102361</v>
+        <v>-96.383541799824016</v>
       </c>
       <c r="I99" s="213"/>
       <c r="K99" s="24"/>
@@ -11801,7 +11795,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>-25278623.679977238</v>
+        <v>-24564931.750352021</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -11862,27 +11856,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1215078.2879361012</v>
+        <v>1216632.2791677369</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.8978631104329242</v>
+        <v>2.9015692534105448</v>
       </c>
       <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.4092507181563816</v>
+        <v>3.4136108863653467</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>3.4092507181563816</v>
+        <v>3.4136108863653467</v>
       </c>
       <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.4092507181563816</v>
+        <v>3.4136108863653467</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>4.5341845747732217</v>
+        <v>4.5399834464523332</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11923,27 +11917,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>607539.1439680506</v>
+        <v>608316.13958386844</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.4489315552164621</v>
+        <v>1.4507846267052724</v>
       </c>
       <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>1.7046253590781908</v>
+        <v>1.7068054431826734</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.7046253590781908</v>
+        <v>1.7068054431826734</v>
       </c>
       <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>1.7046253590781908</v>
+        <v>1.7068054431826734</v>
       </c>
       <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>2.2670922873866108</v>
+        <v>2.2699917232261666</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1398.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1398.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB164A36-77D1-4414-B11C-8BA137396EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C44DD813-46F8-46AE-9B64-C37D5C298DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Current Ratio</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
@@ -844,10 +841,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Balance Sheet</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Years of Projection</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -959,10 +952,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>PlaceHolder_2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -980,6 +969,14 @@
   </si>
   <si>
     <t>PlaceHolder_4</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contingent Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contin. Liabilities / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1687,7 +1684,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1835,7 +1832,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2025,9 +2021,6 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2363,6 +2356,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2818,7 +2812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2832,172 +2826,172 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B4" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="185" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B5" s="139" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="188" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B6" s="139" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="186">
+        <v>45605</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B7" s="138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B8" s="138" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="140" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="187" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="140" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="190" t="s">
+      <c r="C8" s="188" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="140" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="188">
-        <v>45605</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="139" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="189">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="139" t="s">
+      <c r="E8" s="262"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="138" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="190" t="s">
+      <c r="C9" s="189" t="s">
         <v>268</v>
       </c>
-      <c r="E8" s="264"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="138" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="191" t="s">
+      <c r="C10" s="190">
+        <v>356406257089</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B11" s="138" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="189" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="139" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="192">
-        <v>356406257089</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="139" t="s">
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B12" s="213" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="214">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B13" s="213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="215">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B14" s="213" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="191" t="s">
+      <c r="C14" s="214">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B15" s="213" t="s">
+        <v>234</v>
+      </c>
+      <c r="C15" s="173" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B16" s="217" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="218">
+        <v>0.25</v>
+      </c>
+      <c r="D16" s="24"/>
+    </row>
+    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B17" s="235" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="237" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="215" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="216">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="215" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="217">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="215" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="216">
-        <v>45473</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="215" t="s">
-        <v>236</v>
-      </c>
-      <c r="C15" s="175" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="219" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="220">
-        <v>0.25</v>
-      </c>
-      <c r="D16" s="24"/>
-    </row>
-    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="237" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="239" t="s">
+      <c r="D17" s="24"/>
+    </row>
+    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B18" s="235" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="237" t="s">
         <v>271</v>
       </c>
-      <c r="D17" s="24"/>
-    </row>
-    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="237" t="s">
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="235" t="s">
         <v>223</v>
       </c>
-      <c r="C18" s="239" t="s">
+      <c r="C19" s="237" t="s">
+        <v>271</v>
+      </c>
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B20" s="236" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="237" t="s">
+        <v>271</v>
+      </c>
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B21" s="219" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="237" t="s">
+        <v>270</v>
+      </c>
+      <c r="D21" s="24"/>
+    </row>
+    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="B22" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="238" t="s">
         <v>272</v>
       </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="237" t="s">
-        <v>224</v>
-      </c>
-      <c r="C19" s="239" t="s">
-        <v>272</v>
-      </c>
-      <c r="D19" s="24"/>
-    </row>
-    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="238" t="s">
-        <v>213</v>
-      </c>
-      <c r="C20" s="239" t="s">
-        <v>272</v>
-      </c>
-      <c r="D20" s="24"/>
-    </row>
-    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="221" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" s="239" t="s">
-        <v>271</v>
-      </c>
-      <c r="D21" s="24"/>
-    </row>
-    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" s="240" t="s">
-        <v>273</v>
-      </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B24" s="115" t="s">
-        <v>128</v>
+      <c r="B24" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3045,414 +3039,415 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="148">
+      <c r="C25" s="147">
         <v>1542930</v>
       </c>
-      <c r="D25" s="148">
+      <c r="D25" s="147">
         <v>1278674</v>
       </c>
-      <c r="E25" s="148"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="148"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="148">
+        <v>18534</v>
+      </c>
+      <c r="D26" s="148">
+        <v>16493</v>
+      </c>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
+    </row>
+    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B27" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="148">
+        <v>238698</v>
+      </c>
+      <c r="D27" s="148">
+        <v>239351</v>
+      </c>
+      <c r="E27" s="148"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
+    </row>
+    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B28" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="149">
-        <v>18534</v>
-      </c>
-      <c r="D26" s="149">
-        <v>16493</v>
-      </c>
-      <c r="E26" s="149"/>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="149"/>
-    </row>
-    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B27" s="97" t="s">
+      <c r="C28" s="148"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
+    </row>
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B29" s="96" t="s">
+        <v>235</v>
+      </c>
+      <c r="C29" s="148">
+        <v>750026</v>
+      </c>
+      <c r="D29" s="148">
+        <v>586689</v>
+      </c>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="148"/>
+    </row>
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B30" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="148">
+        <v>1123</v>
+      </c>
+      <c r="D30" s="148">
+        <v>978</v>
+      </c>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="148"/>
+    </row>
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B31" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="148"/>
+    </row>
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B32" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="149">
-        <v>238698</v>
-      </c>
-      <c r="D27" s="149">
-        <v>239351</v>
-      </c>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="149"/>
-    </row>
-    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B28" s="97" t="s">
+      <c r="C32" s="148"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
+    </row>
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B33" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="149"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="149"/>
-    </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B29" s="97" t="s">
-        <v>237</v>
-      </c>
-      <c r="C29" s="149">
-        <v>750026</v>
-      </c>
-      <c r="D29" s="149">
-        <v>586689</v>
-      </c>
-      <c r="E29" s="149"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="149"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="149"/>
-    </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B30" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="149">
-        <v>1123</v>
-      </c>
-      <c r="D30" s="149">
-        <v>978</v>
-      </c>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="149"/>
-    </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B31" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="149"/>
-      <c r="D31" s="149"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="149"/>
-    </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B32" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="149"/>
-      <c r="D32" s="149"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="149"/>
-      <c r="M32" s="149"/>
-    </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B33" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="149"/>
-      <c r="D33" s="149"/>
-      <c r="E33" s="149"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="149"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="97" t="s">
-        <v>261</v>
-      </c>
-      <c r="C34" s="214"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
+      <c r="B34" s="96" t="s">
+        <v>258</v>
+      </c>
+      <c r="C34" s="212"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B35" s="94" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="214"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="149"/>
-      <c r="M35" s="149"/>
+      <c r="B35" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="212"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B36" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="214"/>
-      <c r="D36" s="149"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="149"/>
+      <c r="B36" s="93" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="212"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="148"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>259</v>
-      </c>
-      <c r="C37" s="149"/>
-      <c r="D37" s="149"/>
-      <c r="E37" s="149"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="149"/>
-    </row>
-    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="94" t="s">
-        <v>260</v>
-      </c>
-      <c r="C38" s="214"/>
-      <c r="D38" s="149"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="149"/>
+      <c r="B37" s="93" t="s">
+        <v>257</v>
+      </c>
+      <c r="C37" s="148"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
+    </row>
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B38" s="93" t="s">
+        <v>263</v>
+      </c>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="148"/>
+      <c r="M38" s="148"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="214"/>
-      <c r="D39" s="149"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="149"/>
+      <c r="C39" s="212"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="148"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="214"/>
-      <c r="D40" s="149"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="149"/>
-      <c r="M40" s="149"/>
+      <c r="C40" s="212"/>
+      <c r="D40" s="148"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="148"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="148"/>
+      <c r="D41" s="148"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="148"/>
+      <c r="M41" s="148"/>
+    </row>
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B42" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="149"/>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="149"/>
-    </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B42" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="149"/>
-      <c r="D42" s="149"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="149"/>
-      <c r="M42" s="149"/>
+      <c r="C42" s="148"/>
+      <c r="D42" s="148"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="148"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="148"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B43" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="214"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="149"/>
-      <c r="M43" s="149"/>
+      <c r="B43" s="93" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="212"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="148"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="148"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>193</v>
-      </c>
-      <c r="C44" s="247">
+        <v>192</v>
+      </c>
+      <c r="C44" s="245">
         <f>0.3064+0.1434</f>
         <v>0.44979999999999998</v>
       </c>
-      <c r="D44" s="247"/>
-      <c r="E44" s="247"/>
-      <c r="F44" s="247"/>
-      <c r="G44" s="247"/>
-      <c r="H44" s="247"/>
-      <c r="I44" s="247"/>
-      <c r="J44" s="247"/>
-      <c r="K44" s="247"/>
-      <c r="L44" s="247"/>
-      <c r="M44" s="247"/>
+      <c r="D44" s="245"/>
+      <c r="E44" s="245"/>
+      <c r="F44" s="245"/>
+      <c r="G44" s="245"/>
+      <c r="H44" s="245"/>
+      <c r="I44" s="245"/>
+      <c r="J44" s="245"/>
+      <c r="K44" s="245"/>
+      <c r="L44" s="245"/>
+      <c r="M44" s="245"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>233</v>
-      </c>
-      <c r="C45" s="151">
+        <v>231</v>
+      </c>
+      <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.9891134403847351E-2</v>
-      </c>
-      <c r="D45" s="151" t="str">
+        <v>9.9045650228192297E-2</v>
+      </c>
+      <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="151" t="str">
+      <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="151" t="str">
+      <c r="F45" s="150" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="151" t="str">
+      <c r="G45" s="150" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="151" t="str">
+      <c r="H45" s="150" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="151" t="str">
+      <c r="I45" s="150" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="151" t="str">
+      <c r="J45" s="150" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="151" t="str">
+      <c r="K45" s="150" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="151" t="str">
+      <c r="L45" s="150" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="151" t="str">
+      <c r="M45" s="150" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B47" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C47" s="193" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>182</v>
-      </c>
-      <c r="E47" s="111" t="s">
-        <v>32</v>
+      <c r="B47" s="10" t="str">
+        <f>"Balance Sheet"&amp;IF(SUM(C48:C72)=C37+C41,"","- Error")</f>
+        <v>Balance Sheet- Error</v>
+      </c>
+      <c r="C47" s="191" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="191" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47" s="110" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" s="59">
         <v>3628128</v>
@@ -3460,11 +3455,11 @@
       <c r="D48" s="60">
         <v>0.9</v>
       </c>
-      <c r="E48" s="112"/>
+      <c r="E48" s="111"/>
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49" s="59">
         <v>2171209</v>
@@ -3472,22 +3467,22 @@
       <c r="D49" s="60">
         <v>0.8</v>
       </c>
-      <c r="E49" s="112"/>
+      <c r="E49" s="111"/>
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E50" s="112"/>
+      <c r="E50" s="111"/>
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51" s="59">
         <v>3557823</v>
@@ -3495,11 +3490,11 @@
       <c r="D51" s="60">
         <v>0.6</v>
       </c>
-      <c r="E51" s="112"/>
+      <c r="E51" s="111"/>
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" s="59">
         <v>9431099</v>
@@ -3507,11 +3502,11 @@
       <c r="D52" s="60">
         <v>0.5</v>
       </c>
-      <c r="E52" s="112"/>
+      <c r="E52" s="111"/>
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C53" s="59">
         <v>27228377</v>
@@ -3520,133 +3515,133 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E53" s="112"/>
+      <c r="E53" s="111"/>
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
         <v>0.1</v>
       </c>
-      <c r="E54" s="112"/>
+      <c r="E54" s="111"/>
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E55" s="112"/>
+      <c r="E55" s="111"/>
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="218" t="s">
-        <v>67</v>
+      <c r="E56" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="218" t="s">
-        <v>42</v>
+      <c r="E57" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
         <f>D48</f>
         <v>0.9</v>
       </c>
-      <c r="E58" s="112"/>
+      <c r="E58" s="111"/>
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="119"/>
-      <c r="D59" s="194">
+        <v>46</v>
+      </c>
+      <c r="C59" s="118"/>
+      <c r="D59" s="192">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E59" s="112"/>
+      <c r="E59" s="111"/>
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
         <f>D49</f>
         <v>0.8</v>
       </c>
-      <c r="E60" s="112"/>
+      <c r="E60" s="111"/>
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E61" s="112"/>
+      <c r="E61" s="111"/>
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E62" s="112"/>
+      <c r="E62" s="111"/>
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
         <f>D62</f>
         <v>0.5</v>
       </c>
-      <c r="E63" s="112"/>
+      <c r="E63" s="111"/>
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
         <v>0.4</v>
       </c>
-      <c r="E64" s="112"/>
+      <c r="E64" s="111"/>
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C65" s="59">
         <v>65568</v>
@@ -3654,38 +3649,38 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="218" t="s">
-        <v>67</v>
+      <c r="E65" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="218" t="s">
-        <v>67</v>
+      <c r="E66" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="218" t="s">
-        <v>42</v>
+      <c r="E67" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C68" s="59">
         <v>297776</v>
@@ -3694,32 +3689,32 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E68" s="112"/>
+      <c r="E68" s="111"/>
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E69" s="112"/>
+      <c r="E69" s="111"/>
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
         <v>0.05</v>
       </c>
-      <c r="E70" s="112"/>
+      <c r="E70" s="111"/>
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71" s="59">
         <v>97938</v>
@@ -3728,23 +3723,23 @@
         <f>D58</f>
         <v>0.9</v>
       </c>
-      <c r="E71" s="112"/>
+      <c r="E71" s="111"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="243" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" s="244">
+      <c r="B72" s="241" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="242">
         <v>638618</v>
       </c>
-      <c r="D72" s="245">
+      <c r="D72" s="243">
         <v>0</v>
       </c>
-      <c r="E72" s="246"/>
+      <c r="E72" s="244"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C73" s="59">
         <v>40496667</v>
@@ -3752,21 +3747,21 @@
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B76" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="C76" s="119">
+      <c r="B76" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="118">
         <v>1783937</v>
       </c>
     </row>
@@ -3774,93 +3769,93 @@
       <c r="B77" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="83">
+      <c r="C77" s="82">
         <v>43252035</v>
       </c>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" s="59"/>
+    </row>
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B81" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="59"/>
-    </row>
-    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B81" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="C81" s="119"/>
+      <c r="C81" s="118"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>264</v>
-      </c>
-      <c r="C82" s="214"/>
+        <v>261</v>
+      </c>
+      <c r="C82" s="212"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>265</v>
-      </c>
-      <c r="C83" s="214">
+        <v>262</v>
+      </c>
+      <c r="C83" s="212">
         <v>3234661</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C86" s="196">
+        <v>230</v>
+      </c>
+      <c r="C86" s="194">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="C87" s="233" t="s">
-        <v>274</v>
-      </c>
-      <c r="D87" s="266">
+        <v>229</v>
+      </c>
+      <c r="C87" s="231" t="s">
+        <v>273</v>
+      </c>
+      <c r="D87" s="264">
         <v>0.02</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B89" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C89" s="283">
+      <c r="B89" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" s="282">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="283"/>
-      <c r="E89" s="89" t="s">
-        <v>192</v>
-      </c>
-      <c r="F89" s="89" t="s">
+      <c r="D89" s="282"/>
+      <c r="E89" s="88" t="s">
         <v>191</v>
+      </c>
+      <c r="F89" s="88" t="s">
+        <v>190</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3869,166 +3864,166 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C90" s="284" t="s">
+      <c r="C90" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D90" s="283"/>
+      <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="284"/>
-      <c r="E90" s="232" t="s">
-        <v>98</v>
-      </c>
-      <c r="F90" s="252" t="s">
-        <v>98</v>
+      <c r="F90" s="250" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
         <v>1542930</v>
       </c>
-      <c r="D91" s="206"/>
-      <c r="E91" s="248">
+      <c r="D91" s="204"/>
+      <c r="E91" s="246">
         <f>C91</f>
         <v>1542930</v>
       </c>
-      <c r="F91" s="248">
+      <c r="F91" s="246">
         <f>C91</f>
         <v>1542930</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B92" s="104" t="s">
-        <v>102</v>
+      <c r="B92" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
         <v>18534</v>
       </c>
-      <c r="D92" s="158">
+      <c r="D92" s="156">
         <f>C92/C91</f>
         <v>1.2012210534502537E-2</v>
       </c>
-      <c r="E92" s="249">
+      <c r="E92" s="247">
         <f>E91*D92</f>
         <v>18534</v>
       </c>
-      <c r="F92" s="249">
+      <c r="F92" s="247">
         <f>F91*D92</f>
         <v>18534</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B93" s="104" t="s">
-        <v>229</v>
+      <c r="B93" s="103" t="s">
+        <v>228</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>238698</v>
       </c>
-      <c r="D93" s="158">
+      <c r="D93" s="156">
         <f>C93/C91</f>
         <v>0.15470436118294414</v>
       </c>
-      <c r="E93" s="249">
+      <c r="E93" s="247">
         <f>E91*D93</f>
         <v>238698</v>
       </c>
-      <c r="F93" s="249">
+      <c r="F93" s="247">
         <f>F91*D93</f>
         <v>238698</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B94" s="104" t="s">
-        <v>237</v>
+      <c r="B94" s="103" t="s">
+        <v>235</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>750026</v>
       </c>
-      <c r="D94" s="158">
+      <c r="D94" s="156">
         <f>C94/C91</f>
         <v>0.48610500800425166</v>
       </c>
-      <c r="E94" s="250"/>
-      <c r="F94" s="249">
+      <c r="E94" s="248"/>
+      <c r="F94" s="247">
         <f>F91*D94</f>
         <v>750026</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="158">
+      <c r="D95" s="156">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="249">
+      <c r="E95" s="247">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="249">
+      <c r="F95" s="247">
         <f>F91*D95</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="158">
+      <c r="D96" s="156">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="250"/>
-      <c r="F96" s="249">
+      <c r="E96" s="248"/>
+      <c r="F96" s="247">
         <f>F91*D96</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
         <v>1497.3333333333333</v>
       </c>
-      <c r="D97" s="158">
+      <c r="D97" s="156">
         <f>C97/C91</f>
         <v>9.7044800044936142E-4</v>
       </c>
-      <c r="E97" s="250"/>
-      <c r="F97" s="249">
+      <c r="E97" s="248"/>
+      <c r="F97" s="247">
         <f>F91*D97</f>
         <v>1497.3333333333333</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B98" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C98" s="234">
+      <c r="B98" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" s="232">
         <f>C44</f>
         <v>0.44979999999999998</v>
       </c>
-      <c r="D98" s="263"/>
-      <c r="E98" s="251">
+      <c r="D98" s="261"/>
+      <c r="E98" s="249">
         <f>F98</f>
         <v>0.30640000000000001</v>
       </c>
-      <c r="F98" s="251">
+      <c r="F98" s="249">
         <f>0.3064</f>
         <v>0.30640000000000001</v>
       </c>
@@ -4041,32 +4036,32 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="22" priority="14">
+    <cfRule type="containsBlanks" dxfId="22" priority="15">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="containsBlanks" dxfId="21" priority="3">
+  <conditionalFormatting sqref="C37:C38">
+    <cfRule type="containsBlanks" dxfId="21" priority="1">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C42">
-    <cfRule type="containsBlanks" dxfId="20" priority="1">
+    <cfRule type="containsBlanks" dxfId="20" priority="2">
       <formula>LEN(TRIM(C41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="7">
+    <cfRule type="containsBlanks" dxfId="19" priority="8">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="6">
+    <cfRule type="containsBlanks" dxfId="18" priority="7">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="17" priority="4">
+    <cfRule type="containsBlanks" dxfId="17" priority="5">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4125,13 +4120,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
@@ -4142,82 +4137,82 @@
         <f>C3&amp;" : "&amp;C4</f>
         <v>1398.HK : 工商银行</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="289" t="str">
+        <v>179</v>
+      </c>
+      <c r="C3" s="288" t="str">
         <f>Inputs!C4</f>
         <v>1398.HK</v>
       </c>
-      <c r="D3" s="290"/>
-      <c r="E3" s="87"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="131">
-        <v>4.8099999999999996</v>
-      </c>
-      <c r="H3" s="133" t="s">
-        <v>275</v>
+      <c r="G3" s="130">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="H3" s="132" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="291" t="str">
+        <v>180</v>
+      </c>
+      <c r="C4" s="290" t="str">
         <f>Inputs!C5</f>
         <v>工商银行</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="87"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="295">
+      <c r="G4" s="294">
         <f>Inputs!C10</f>
         <v>356406257089</v>
       </c>
-      <c r="H4" s="295"/>
+      <c r="H4" s="294"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="293">
+        <v>154</v>
+      </c>
+      <c r="C5" s="292">
         <f>Inputs!C6</f>
         <v>45605</v>
       </c>
-      <c r="D5" s="294"/>
+      <c r="D5" s="293"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="287">
+        <v>95</v>
+      </c>
+      <c r="G5" s="286">
         <f>G3*G4/1000000</f>
-        <v>1714314.0965980899</v>
-      </c>
-      <c r="H5" s="287"/>
+        <v>1728570.3468816499</v>
+      </c>
+      <c r="H5" s="286"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="184">
+      <c r="C6" s="182">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="185">
+      <c r="D6" s="183">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4228,31 +4223,31 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="288" t="str">
+      <c r="G6" s="287" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="288"/>
+      <c r="H6" s="287"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="86" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="186" t="str">
+      <c r="B7" s="85" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="184" t="str">
         <f>Inputs!C8</f>
         <v xml:space="preserve">Superior Cycl. </v>
       </c>
-      <c r="D7" s="186" t="str">
+      <c r="D7" s="184" t="str">
         <f>Inputs!C9</f>
         <v>C0014</v>
       </c>
-      <c r="E7" s="87"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="132">
-        <v>1.0681999921798706</v>
+      <c r="G7" s="131">
+        <v>1.0679666598637898</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4261,280 +4256,280 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="138" t="s">
-        <v>177</v>
-      </c>
-      <c r="F9" s="142" t="s">
-        <v>172</v>
+      <c r="B9" s="137" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" s="141" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="171">
+        <v>162</v>
+      </c>
+      <c r="C10" s="169">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F10" s="110" t="s">
-        <v>170</v>
+      <c r="F10" s="109" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="121" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="172">
+      <c r="B11" s="120" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="170">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="136" t="s">
-        <v>176</v>
-      </c>
-      <c r="F11" s="110" t="s">
-        <v>165</v>
+      <c r="D11" s="135" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="109" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="87" t="s">
-        <v>234</v>
-      </c>
-      <c r="C12" s="173">
+      <c r="B12" s="86" t="s">
+        <v>232</v>
+      </c>
+      <c r="C12" s="171">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="171">
+      <c r="D12" s="169">
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="F12" s="110"/>
+      <c r="F12" s="109"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="171">
+        <v>163</v>
+      </c>
+      <c r="C14" s="169">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="F14" s="110" t="s">
-        <v>169</v>
+      <c r="F14" s="109" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="169">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F15" s="109" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="120" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="171">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F15" s="110" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="121" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="172">
+      <c r="C16" s="170">
         <v>0.16</v>
       </c>
-      <c r="D16" s="262" t="str">
+      <c r="D16" s="260" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
-      <c r="F16" s="110" t="s">
-        <v>166</v>
+      <c r="F16" s="109" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="87" t="s">
-        <v>235</v>
-      </c>
-      <c r="C17" s="174">
+      <c r="B17" s="86" t="s">
+        <v>233</v>
+      </c>
+      <c r="C17" s="172">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="175"/>
+      <c r="D17" s="173"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="141" t="s">
-        <v>258</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="141" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
+      <c r="B19" s="140" t="s">
+        <v>256</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="140" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="272" t="s">
-        <v>249</v>
-      </c>
-      <c r="C20" s="273" t="e">
+      <c r="B20" s="270" t="s">
+        <v>247</v>
+      </c>
+      <c r="C20" s="271" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F20" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="G20" s="171">
+      <c r="F20" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="169">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="274" t="s">
-        <v>247</v>
-      </c>
-      <c r="C21" s="275" t="e">
+      <c r="B21" s="272" t="s">
+        <v>245</v>
+      </c>
+      <c r="C21" s="273" t="e">
         <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F21" s="87"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="276" t="s">
-        <v>262</v>
-      </c>
-      <c r="C22" s="277" t="e">
+      <c r="B22" s="274" t="s">
+        <v>259</v>
+      </c>
+      <c r="C22" s="275" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="141" t="s">
-        <v>171</v>
+      <c r="F22" s="140" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="278" t="s">
-        <v>254</v>
-      </c>
-      <c r="C23" s="279">
+      <c r="B23" s="276" t="s">
+        <v>252</v>
+      </c>
+      <c r="C23" s="277">
         <f>Data!C13</f>
         <v>0.83231298028210399</v>
       </c>
-      <c r="F23" s="139" t="s">
-        <v>175</v>
-      </c>
-      <c r="G23" s="176" t="e">
+      <c r="F23" s="138" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="174" t="e">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="136" t="s">
-        <v>255</v>
-      </c>
-      <c r="C24" s="170">
+      <c r="B24" s="135" t="s">
+        <v>253</v>
+      </c>
+      <c r="C24" s="168">
         <f>Fin_Analysis!I81</f>
         <v>0.48610500800425166</v>
       </c>
-      <c r="F24" s="139" t="s">
-        <v>239</v>
-      </c>
-      <c r="G24" s="265">
+      <c r="F24" s="138" t="s">
+        <v>237</v>
+      </c>
+      <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>4.0058370108672809</v>
+        <v>4.0400320693593859</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="136" t="s">
-        <v>256</v>
-      </c>
-      <c r="C25" s="170">
+      <c r="B25" s="135" t="s">
+        <v>254</v>
+      </c>
+      <c r="C25" s="168">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="139" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25" s="170">
+      <c r="F25" s="138" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="168">
         <f>Fin_Analysis!I88</f>
         <v>0.27257720239339839</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="137" t="s">
-        <v>257</v>
-      </c>
-      <c r="C26" s="170">
+      <c r="B26" s="136" t="s">
+        <v>255</v>
+      </c>
+      <c r="C26" s="168">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="140" t="s">
-        <v>179</v>
-      </c>
-      <c r="G26" s="177">
+      <c r="F26" s="139" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.8045005738859118E-2</v>
+        <v>6.7469068986034067E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>158</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>159</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>222</v>
-      </c>
-      <c r="G28" s="285" t="s">
-        <v>238</v>
-      </c>
-      <c r="H28" s="285"/>
+        <v>221</v>
+      </c>
+      <c r="G28" s="284" t="s">
+        <v>236</v>
+      </c>
+      <c r="H28" s="284"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" s="129">
+      <c r="B29" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.9015692534105448</v>
-      </c>
-      <c r="D29" s="128">
+        <v>2.8931223211946051</v>
+      </c>
+      <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>5.2209809634201827</v>
-      </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="130">
+        <v>5.2057818527159032</v>
+      </c>
+      <c r="E29" s="86"/>
+      <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.4136108863653467</v>
-      </c>
-      <c r="G29" s="286">
+        <v>3.4036733190524768</v>
+      </c>
+      <c r="G29" s="285">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.5399834464523332</v>
-      </c>
-      <c r="H29" s="286"/>
+        <v>4.5267668284486122</v>
+      </c>
+      <c r="H29" s="285"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="195" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="221"/>
+      <c r="B32" s="193" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="219"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="C33" s="242" t="str">
+        <v>208</v>
+      </c>
+      <c r="C33" s="240" t="str">
         <f>Inputs!C17</f>
         <v>Strongly agree</v>
       </c>
@@ -4542,9 +4537,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C34" s="222" t="str">
+        <v>209</v>
+      </c>
+      <c r="C34" s="220" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly disagree</v>
@@ -4552,17 +4547,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="195" t="s">
-        <v>211</v>
-      </c>
-      <c r="C35" s="221"/>
+      <c r="B35" s="193" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="219"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="C36" s="242" t="str">
+        <v>222</v>
+      </c>
+      <c r="C36" s="240" t="str">
         <f>Inputs!C18</f>
         <v>agree</v>
       </c>
@@ -4570,26 +4565,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C37" s="242" t="str">
+        <v>223</v>
+      </c>
+      <c r="C37" s="240" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="195" t="s">
-        <v>212</v>
-      </c>
-      <c r="C38" s="221"/>
+      <c r="B38" s="193" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="219"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="C39" s="242" t="str">
+        <v>212</v>
+      </c>
+      <c r="C39" s="240" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -4597,9 +4592,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C40" s="242" t="str">
+        <v>215</v>
+      </c>
+      <c r="C40" s="240" t="str">
         <f>Inputs!C21</f>
         <v>Strongly agree</v>
       </c>
@@ -4612,16 +4607,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C43" s="241" t="str">
+      <c r="B43" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" s="239" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -5573,10 +5568,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5602,59 +5597,59 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="147" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="118" t="s">
+      <c r="E2" s="146" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="117" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="146" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="H2" s="145" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="146" t="s">
-        <v>190</v>
-      </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="87"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="200">
+      <c r="C3" s="198">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="145" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="85" t="str">
+      <c r="E3" s="144" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="84" t="str">
         <f>H14</f>
         <v/>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="84">
         <f>C14</f>
         <v>1284200.6666666667</v>
       </c>
-      <c r="H3" s="85">
+      <c r="H3" s="84">
         <v>6</v>
       </c>
-      <c r="I3" s="87"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="127">
+      <c r="C4" s="126">
         <f>Inputs!C13</f>
         <v>1000000</v>
       </c>
@@ -5662,19 +5657,19 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="93" t="e">
+      <c r="E4" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="92" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J4" s="87"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="115" t="s">
-        <v>128</v>
+      <c r="B5" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5723,928 +5718,928 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="199">
+      <c r="C6" s="197">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>1542930</v>
       </c>
-      <c r="D6" s="199">
+      <c r="D6" s="197">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>1278674</v>
       </c>
-      <c r="E6" s="199" t="str">
+      <c r="E6" s="197" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="199" t="str">
+      <c r="F6" s="197" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="199" t="str">
+      <c r="G6" s="197" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="199" t="str">
+      <c r="H6" s="197" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="199" t="str">
+      <c r="I6" s="197" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="199" t="str">
+      <c r="J6" s="197" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="199" t="str">
+      <c r="K6" s="197" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="199" t="str">
+      <c r="L6" s="197" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="199" t="str">
+      <c r="M6" s="197" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
-      <c r="N6" s="87"/>
+      <c r="N6" s="86"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="91">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
         <v>0.20666409108185513</v>
       </c>
-      <c r="D7" s="92" t="str">
+      <c r="D7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E7" s="92" t="str">
+      <c r="E7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F7" s="92" t="str">
+      <c r="F7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G7" s="92" t="str">
+      <c r="G7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H7" s="92" t="str">
+      <c r="H7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I7" s="92" t="str">
+      <c r="I7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J7" s="92" t="str">
+      <c r="J7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K7" s="92" t="str">
+      <c r="K7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L7" s="92" t="str">
+      <c r="L7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M7" s="92" t="str">
+      <c r="M7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N7" s="87"/>
+      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="198">
+      <c r="B8" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="196">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>18534</v>
       </c>
-      <c r="D8" s="198">
+      <c r="D8" s="196">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>16493</v>
       </c>
-      <c r="E8" s="198" t="str">
+      <c r="E8" s="196" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="198" t="str">
+      <c r="F8" s="196" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="198" t="str">
+      <c r="G8" s="196" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="198" t="str">
+      <c r="H8" s="196" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="198" t="str">
+      <c r="I8" s="196" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="198" t="str">
+      <c r="J8" s="196" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="198" t="str">
+      <c r="K8" s="196" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="198" t="str">
+      <c r="L8" s="196" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="198" t="str">
+      <c r="M8" s="196" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
-      <c r="N8" s="87"/>
+      <c r="N8" s="86"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="98" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="150">
+      <c r="B9" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="149">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>1524396</v>
       </c>
-      <c r="D9" s="150">
+      <c r="D9" s="149">
         <f t="shared" si="2"/>
         <v>1262181</v>
       </c>
-      <c r="E9" s="150" t="str">
+      <c r="E9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="150" t="str">
+      <c r="F9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="150" t="str">
+      <c r="G9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="150" t="str">
+      <c r="H9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="150" t="str">
+      <c r="I9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="150" t="str">
+      <c r="J9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="150" t="str">
+      <c r="K9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="150" t="str">
+      <c r="L9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="150" t="str">
+      <c r="M9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N9" s="87"/>
+      <c r="N9" s="86"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="198">
+      <c r="B10" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="196">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>238698</v>
       </c>
-      <c r="D10" s="198">
+      <c r="D10" s="196">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>239351</v>
       </c>
-      <c r="E10" s="198" t="str">
+      <c r="E10" s="196" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="198" t="str">
+      <c r="F10" s="196" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="198" t="str">
+      <c r="G10" s="196" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="198" t="str">
+      <c r="H10" s="196" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="198" t="str">
+      <c r="I10" s="196" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="198" t="str">
+      <c r="J10" s="196" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="198" t="str">
+      <c r="K10" s="196" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="198" t="str">
+      <c r="L10" s="196" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="198" t="str">
+      <c r="M10" s="196" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
-      <c r="N10" s="87"/>
+      <c r="N10" s="86"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="198" t="str">
+      <c r="B11" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="196" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="198" t="str">
+      <c r="D11" s="196" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="198" t="str">
+      <c r="E11" s="196" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="198" t="str">
+      <c r="F11" s="196" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="198" t="str">
+      <c r="G11" s="196" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="198" t="str">
+      <c r="H11" s="196" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="198" t="str">
+      <c r="I11" s="196" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="198" t="str">
+      <c r="J11" s="196" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="198" t="str">
+      <c r="K11" s="196" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="198" t="str">
+      <c r="L11" s="196" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="198" t="str">
+      <c r="M11" s="196" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
-      <c r="N11" s="87"/>
+      <c r="N11" s="86"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="99" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" s="198">
+      <c r="B12" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="196">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>1497.3333333333333</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="196">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>1304</v>
       </c>
-      <c r="E12" s="198" t="str">
+      <c r="E12" s="196" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="198" t="str">
+      <c r="F12" s="196" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="198" t="str">
+      <c r="G12" s="196" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="198" t="str">
+      <c r="H12" s="196" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="198" t="str">
+      <c r="I12" s="196" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="198" t="str">
+      <c r="J12" s="196" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="198" t="str">
+      <c r="K12" s="196" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="198" t="str">
+      <c r="L12" s="196" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="198" t="str">
+      <c r="M12" s="196" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N12" s="87"/>
+      <c r="N12" s="86"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="225" t="s">
-        <v>226</v>
-      </c>
-      <c r="C13" s="226">
+      <c r="B13" s="223" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="224">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.83231298028210399</v>
       </c>
-      <c r="D13" s="226">
+      <c r="D13" s="224">
         <f t="shared" si="3"/>
         <v>0.79889479257418228</v>
       </c>
-      <c r="E13" s="226" t="str">
+      <c r="E13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="226" t="str">
+      <c r="F13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="226" t="str">
+      <c r="G13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="226" t="str">
+      <c r="H13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="226" t="str">
+      <c r="I13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="226" t="str">
+      <c r="J13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="226" t="str">
+      <c r="K13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="226" t="str">
+      <c r="L13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="226" t="str">
+      <c r="M13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N13" s="87"/>
+      <c r="N13" s="86"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="225" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="227">
+      <c r="B14" s="223" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="225">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>1284200.6666666667</v>
       </c>
-      <c r="D14" s="227">
+      <c r="D14" s="225">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>1021526</v>
       </c>
-      <c r="E14" s="227" t="str">
+      <c r="E14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="227" t="str">
+      <c r="F14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="227" t="str">
+      <c r="G14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="227" t="str">
+      <c r="H14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="227" t="str">
+      <c r="I14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="227" t="str">
+      <c r="J14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="227" t="str">
+      <c r="K14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="227" t="str">
+      <c r="L14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="227" t="str">
+      <c r="M14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N14" s="87"/>
+      <c r="N14" s="86"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C15" s="229">
+      <c r="B15" s="226" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="227">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.2571394821734021</v>
       </c>
-      <c r="D15" s="229" t="str">
+      <c r="D15" s="227" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="229" t="str">
+      <c r="E15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="229" t="str">
+      <c r="F15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="229" t="str">
+      <c r="G15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="229" t="str">
+      <c r="H15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="229" t="str">
+      <c r="I15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="229" t="str">
+      <c r="J15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="229" t="str">
+      <c r="K15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="229" t="str">
+      <c r="L15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="229" t="str">
+      <c r="M15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N15" s="87"/>
+      <c r="N15" s="86"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="198" t="str">
+      <c r="B16" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="196" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="198" t="str">
+      <c r="D16" s="196" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="198" t="str">
+      <c r="E16" s="196" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="198" t="str">
+      <c r="F16" s="196" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="198" t="str">
+      <c r="G16" s="196" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="198" t="str">
+      <c r="H16" s="196" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="198" t="str">
+      <c r="I16" s="196" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="198" t="str">
+      <c r="J16" s="196" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="198" t="str">
+      <c r="K16" s="196" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="198" t="str">
+      <c r="L16" s="196" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="198" t="str">
+      <c r="M16" s="196" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
-      <c r="N16" s="87"/>
+      <c r="N16" s="86"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="97" t="s">
-        <v>237</v>
-      </c>
-      <c r="C17" s="198">
+      <c r="B17" s="96" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="196">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>750026</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="196">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>586689</v>
       </c>
-      <c r="E17" s="198" t="str">
+      <c r="E17" s="196" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="198" t="str">
+      <c r="F17" s="196" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="198" t="str">
+      <c r="G17" s="196" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="198" t="str">
+      <c r="H17" s="196" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="198" t="str">
+      <c r="I17" s="196" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="198" t="str">
+      <c r="J17" s="196" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="198" t="str">
+      <c r="K17" s="196" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="198" t="str">
+      <c r="L17" s="196" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="198" t="str">
+      <c r="M17" s="196" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
-      <c r="N17" s="87"/>
+      <c r="N17" s="86"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="94" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="151" t="str">
+      <c r="B18" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="150" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="151" t="str">
+      <c r="D18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="151" t="str">
+      <c r="E18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="151" t="str">
+      <c r="F18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="151" t="str">
+      <c r="G18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="151" t="str">
+      <c r="H18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="151" t="str">
+      <c r="I18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="151" t="str">
+      <c r="J18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="151" t="str">
+      <c r="K18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="151" t="str">
+      <c r="L18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="151" t="str">
+      <c r="M18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N18" s="87"/>
+      <c r="N18" s="86"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="198" t="str">
+      <c r="B19" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="196" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="198" t="str">
+      <c r="D19" s="196" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="198" t="str">
+      <c r="E19" s="196" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="198" t="str">
+      <c r="F19" s="196" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="198" t="str">
+      <c r="G19" s="196" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="198" t="str">
+      <c r="H19" s="196" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="198" t="str">
+      <c r="I19" s="196" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="198" t="str">
+      <c r="J19" s="196" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="198" t="str">
+      <c r="K19" s="196" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="198" t="str">
+      <c r="L19" s="196" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="198" t="str">
+      <c r="M19" s="196" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
-      <c r="N19" s="87"/>
+      <c r="N19" s="86"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="97" t="s">
-        <v>220</v>
-      </c>
-      <c r="C20" s="151">
+      <c r="B20" s="96" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="150">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="151">
+      <c r="D20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="151" t="str">
+      <c r="E20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="151" t="str">
+      <c r="F20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="151" t="str">
+      <c r="G20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="151" t="str">
+      <c r="H20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="151" t="str">
+      <c r="I20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="151" t="str">
+      <c r="J20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="151" t="str">
+      <c r="K20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="151" t="str">
+      <c r="L20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="151" t="str">
+      <c r="M20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N20" s="87"/>
+      <c r="N20" s="86"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="198" t="str">
+      <c r="B21" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="196" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="198" t="str">
+      <c r="D21" s="196" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="198" t="str">
+      <c r="E21" s="196" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="198" t="str">
+      <c r="F21" s="196" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="198" t="str">
+      <c r="G21" s="196" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="198" t="str">
+      <c r="H21" s="196" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="198" t="str">
+      <c r="I21" s="196" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="198" t="str">
+      <c r="J21" s="196" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="198" t="str">
+      <c r="K21" s="196" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="198" t="str">
+      <c r="L21" s="196" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="198" t="str">
+      <c r="M21" s="196" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
-      <c r="N21" s="87"/>
+      <c r="N21" s="86"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
-      <c r="B22" s="98" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="160">
+      <c r="B22" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="158">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>534174.66666666674</v>
       </c>
-      <c r="D22" s="160">
+      <c r="D22" s="158">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>434837</v>
       </c>
-      <c r="E22" s="160" t="str">
+      <c r="E22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="160" t="str">
+      <c r="F22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="160" t="str">
+      <c r="G22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="160" t="str">
+      <c r="H22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="160" t="str">
+      <c r="I22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="160" t="str">
+      <c r="J22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="160" t="str">
+      <c r="K22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="160" t="str">
+      <c r="L22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="160" t="str">
+      <c r="M22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N22" s="87"/>
+      <c r="N22" s="86"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
-      <c r="B23" s="100" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="152">
+      <c r="B23" s="99" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="151">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>0.25965597920838929</v>
       </c>
-      <c r="D23" s="152">
+      <c r="D23" s="151">
         <f t="shared" si="9"/>
         <v>0.25505152212370003</v>
       </c>
-      <c r="E23" s="152" t="str">
+      <c r="E23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="152" t="str">
+      <c r="F23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="152" t="str">
+      <c r="G23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="152" t="str">
+      <c r="H23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="152" t="str">
+      <c r="I23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="152" t="str">
+      <c r="J23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="152" t="str">
+      <c r="K23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="152" t="str">
+      <c r="L23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="152" t="str">
+      <c r="M23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N23" s="87"/>
+      <c r="N23" s="86"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
-      <c r="B24" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="153">
+      <c r="B24" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="152">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>400631.00000000006</v>
       </c>
@@ -6688,63 +6683,63 @@
         <f>IF(M6="","",M22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N24" s="87"/>
+      <c r="N24" s="86"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="231" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="230">
+      <c r="B25" s="229" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="228">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.22844805448171784</v>
       </c>
-      <c r="D25" s="230" t="str">
+      <c r="D25" s="228" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="230" t="str">
+      <c r="E25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="230" t="str">
+      <c r="F25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="230" t="str">
+      <c r="G25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="230" t="str">
+      <c r="H25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="230" t="str">
+      <c r="I25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="230" t="str">
+      <c r="J25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="230" t="str">
+      <c r="K25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="230" t="str">
+      <c r="L25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="230" t="str">
+      <c r="M25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N25" s="87"/>
+      <c r="N25" s="86"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
-      <c r="B26" s="114" t="s">
-        <v>129</v>
+      <c r="B26" s="113" t="s">
+        <v>128</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6790,11 +6785,11 @@
         <f t="shared" ref="M26" si="19">EOMONTH(EDATE(L26,-12),0)</f>
         <v>41639</v>
       </c>
-      <c r="N26" s="87"/>
+      <c r="N26" s="86"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="93" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="65">
@@ -6841,266 +6836,266 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="N27" s="87"/>
+      <c r="N27" s="86"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
-      <c r="B28" s="94" t="s">
-        <v>112</v>
+      <c r="B28" s="93" t="s">
+        <v>111</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="198" t="str">
+      <c r="D28" s="196" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="198" t="str">
+      <c r="E28" s="196" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="198" t="str">
+      <c r="F28" s="196" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="198" t="str">
+      <c r="G28" s="196" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="198" t="str">
+      <c r="H28" s="196" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="198" t="str">
+      <c r="I28" s="196" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="198" t="str">
+      <c r="J28" s="196" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="198" t="str">
+      <c r="K28" s="196" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="198" t="str">
+      <c r="L28" s="196" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="198" t="str">
+      <c r="M28" s="196" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
-      <c r="N28" s="87"/>
+      <c r="N28" s="86"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
-      <c r="B29" s="94" t="s">
-        <v>141</v>
+      <c r="B29" s="93" t="s">
+        <v>140</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="198" t="str">
+      <c r="D29" s="196" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="198" t="str">
+      <c r="E29" s="196" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="198" t="str">
+      <c r="F29" s="196" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="198" t="str">
+      <c r="G29" s="196" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="198" t="str">
+      <c r="H29" s="196" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="198" t="str">
+      <c r="I29" s="196" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="198" t="str">
+      <c r="J29" s="196" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="198" t="str">
+      <c r="K29" s="196" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="198" t="str">
+      <c r="L29" s="196" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="198" t="str">
+      <c r="M29" s="196" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
-      <c r="N29" s="87"/>
+      <c r="N29" s="86"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
-      <c r="B30" s="94" t="s">
-        <v>259</v>
+      <c r="B30" s="93" t="s">
+        <v>257</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198" t="str">
+      <c r="D30" s="196" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="198" t="str">
+      <c r="E30" s="196" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="198" t="str">
+      <c r="F30" s="196" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="198" t="str">
+      <c r="G30" s="196" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="198" t="str">
+      <c r="H30" s="196" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="198" t="str">
+      <c r="I30" s="196" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="198" t="str">
+      <c r="J30" s="196" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="198" t="str">
+      <c r="K30" s="196" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="198" t="str">
+      <c r="L30" s="196" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="198" t="str">
+      <c r="M30" s="196" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
-      <c r="N30" s="87"/>
+      <c r="N30" s="86"/>
     </row>
     <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="93" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I15</f>
         <v>42280604</v>
       </c>
-      <c r="D31" s="198" t="str">
+      <c r="D31" s="196" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="198" t="str">
+      <c r="E31" s="196" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="198" t="str">
+      <c r="F31" s="196" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="198" t="str">
+      <c r="G31" s="196" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="198" t="str">
+      <c r="H31" s="196" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="198" t="str">
+      <c r="I31" s="196" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="198" t="str">
+      <c r="J31" s="196" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="198" t="str">
+      <c r="K31" s="196" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="198" t="str">
+      <c r="L31" s="196" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="198" t="str">
+      <c r="M31" s="196" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
-      <c r="N31" s="87"/>
+      <c r="N31" s="86"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="93" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198" t="str">
+      <c r="D32" s="196" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="198" t="str">
+      <c r="E32" s="196" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="198" t="str">
+      <c r="F32" s="196" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="198" t="str">
+      <c r="G32" s="196" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="198" t="str">
+      <c r="H32" s="196" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="198" t="str">
+      <c r="I32" s="196" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="198" t="str">
+      <c r="J32" s="196" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="198" t="str">
+      <c r="K32" s="196" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="198" t="str">
+      <c r="L32" s="196" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="198" t="str">
+      <c r="M32" s="196" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
-      <c r="N32" s="87"/>
+      <c r="N32" s="86"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="93" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="77">
@@ -7147,169 +7142,169 @@
         <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
-      <c r="N33" s="87"/>
+      <c r="N33" s="86"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
-      <c r="B34" s="94" t="s">
-        <v>132</v>
+      <c r="B34" s="93" t="s">
+        <v>131</v>
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198" t="str">
+      <c r="D34" s="196" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="198" t="str">
+      <c r="E34" s="196" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="198" t="str">
+      <c r="F34" s="196" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="198" t="str">
+      <c r="G34" s="196" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="198" t="str">
+      <c r="H34" s="196" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="198" t="str">
+      <c r="I34" s="196" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="198" t="str">
+      <c r="J34" s="196" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="198" t="str">
+      <c r="K34" s="196" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="198" t="str">
+      <c r="L34" s="196" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="198" t="str">
+      <c r="M34" s="196" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
-      <c r="N34" s="87"/>
+      <c r="N34" s="86"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
-      <c r="B35" s="94" t="s">
-        <v>133</v>
+      <c r="B35" s="93" t="s">
+        <v>132</v>
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
-      <c r="D35" s="198" t="str">
+      <c r="D35" s="196" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="198" t="str">
+      <c r="E35" s="196" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="198" t="str">
+      <c r="F35" s="196" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="198" t="str">
+      <c r="G35" s="196" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="198" t="str">
+      <c r="H35" s="196" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="198" t="str">
+      <c r="I35" s="196" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="198" t="str">
+      <c r="J35" s="196" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="198" t="str">
+      <c r="K35" s="196" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="198" t="str">
+      <c r="L35" s="196" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="198" t="str">
+      <c r="M35" s="196" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
-      <c r="N35" s="87"/>
+      <c r="N35" s="86"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
-      <c r="B36" s="94" t="s">
-        <v>131</v>
+      <c r="B36" s="93" t="s">
+        <v>130</v>
       </c>
       <c r="C36" s="65">
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198" t="str">
+      <c r="D36" s="196" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="198" t="str">
+      <c r="E36" s="196" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="198" t="str">
+      <c r="F36" s="196" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="198" t="str">
+      <c r="G36" s="196" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="198" t="str">
+      <c r="H36" s="196" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="198" t="str">
+      <c r="I36" s="196" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="198" t="str">
+      <c r="J36" s="196" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="198" t="str">
+      <c r="K36" s="196" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="198" t="str">
+      <c r="L36" s="196" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="198" t="str">
+      <c r="M36" s="196" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
-      <c r="N36" s="87"/>
+      <c r="N36" s="86"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
-      <c r="B37" s="94" t="s">
-        <v>135</v>
+      <c r="B37" s="93" t="s">
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!C68</f>
-        <v>30433918</v>
+        <v>-16682618</v>
       </c>
       <c r="D37" s="65" t="str">
         <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
@@ -7351,63 +7346,63 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="N37" s="87"/>
+      <c r="N37" s="86"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="98" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="154">
+      <c r="B38" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="153" t="e">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
-        <v>4.2196363500311286E-2</v>
-      </c>
-      <c r="D38" s="154" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D38" s="153" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="154" t="str">
+      <c r="E38" s="153" t="str">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v/>
       </c>
-      <c r="F38" s="154" t="str">
+      <c r="F38" s="153" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="154" t="str">
+      <c r="G38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="154" t="str">
+      <c r="H38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="154" t="str">
+      <c r="I38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="154" t="str">
+      <c r="J38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="154" t="str">
+      <c r="K38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="154" t="str">
+      <c r="L38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="154" t="str">
+      <c r="M38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="N38" s="87"/>
+      <c r="N38" s="86"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7420,372 +7415,372 @@
       <c r="K39" s="54"/>
       <c r="L39" s="54"/>
       <c r="M39" s="54"/>
-      <c r="N39" s="87"/>
+      <c r="N39" s="86"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="155">
+      <c r="B40" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="154">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>1.2012210534502537E-2</v>
       </c>
-      <c r="D40" s="155">
+      <c r="D40" s="154">
         <f t="shared" si="34"/>
         <v>1.2898518308810534E-2</v>
       </c>
-      <c r="E40" s="155" t="str">
+      <c r="E40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F40" s="155" t="str">
+      <c r="F40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="155" t="str">
+      <c r="G40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="155" t="str">
+      <c r="H40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="155" t="str">
+      <c r="I40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="155" t="str">
+      <c r="J40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="155" t="str">
+      <c r="K40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="155" t="str">
+      <c r="L40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="155" t="str">
+      <c r="M40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="N40" s="87"/>
+      <c r="N40" s="86"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
-      <c r="B41" s="94" t="s">
-        <v>219</v>
-      </c>
-      <c r="C41" s="152">
+      <c r="B41" s="93" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="151">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.15470436118294414</v>
       </c>
-      <c r="D41" s="152">
+      <c r="D41" s="151">
         <f t="shared" si="35"/>
         <v>0.18718688266125691</v>
       </c>
-      <c r="E41" s="152" t="str">
+      <c r="E41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F41" s="152" t="str">
+      <c r="F41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="152" t="str">
+      <c r="G41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="152" t="str">
+      <c r="H41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="152" t="str">
+      <c r="I41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="152" t="str">
+      <c r="J41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="152" t="str">
+      <c r="K41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="152" t="str">
+      <c r="L41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="152" t="str">
+      <c r="M41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="N41" s="87"/>
+      <c r="N41" s="86"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="152">
+      <c r="B42" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="151">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="152">
+      <c r="D42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="152" t="str">
+      <c r="E42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F42" s="152" t="str">
+      <c r="F42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="152" t="str">
+      <c r="G42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="152" t="str">
+      <c r="H42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="152" t="str">
+      <c r="I42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="152" t="str">
+      <c r="J42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="152" t="str">
+      <c r="K42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="152" t="str">
+      <c r="L42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="152" t="str">
+      <c r="M42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="N42" s="87"/>
+      <c r="N42" s="86"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
-      <c r="B43" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" s="152">
+      <c r="B43" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="151">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>0.48610500800425166</v>
       </c>
-      <c r="D43" s="152">
+      <c r="D43" s="151">
         <f t="shared" si="37"/>
         <v>0.45882609640924893</v>
       </c>
-      <c r="E43" s="152" t="str">
+      <c r="E43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F43" s="152" t="str">
+      <c r="F43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="152" t="str">
+      <c r="G43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="152" t="str">
+      <c r="H43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="152" t="str">
+      <c r="I43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="152" t="str">
+      <c r="J43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="152" t="str">
+      <c r="K43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="152" t="str">
+      <c r="L43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="152" t="str">
+      <c r="M43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="N43" s="87"/>
+      <c r="N43" s="86"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
-      <c r="B44" s="94" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="152">
+      <c r="B44" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="151">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>9.7044800044936142E-4</v>
       </c>
-      <c r="D44" s="152">
+      <c r="D44" s="151">
         <f t="shared" si="38"/>
         <v>1.0198064557502538E-3</v>
       </c>
-      <c r="E44" s="152" t="str">
+      <c r="E44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F44" s="152" t="str">
+      <c r="F44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="152" t="str">
+      <c r="G44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="152" t="str">
+      <c r="H44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="152" t="str">
+      <c r="I44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="152" t="str">
+      <c r="J44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="152" t="str">
+      <c r="K44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="152" t="str">
+      <c r="L44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="152" t="str">
+      <c r="M44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="N44" s="87"/>
+      <c r="N44" s="86"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
-      <c r="B45" s="94" t="s">
-        <v>221</v>
-      </c>
-      <c r="C45" s="152">
+      <c r="B45" s="93" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" s="151">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="152">
+      <c r="D45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="N45" s="87"/>
+      <c r="N45" s="86"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
-      <c r="B46" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="152">
+      <c r="B46" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="151">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>0.34620797227785238</v>
       </c>
-      <c r="D46" s="152">
+      <c r="D46" s="151">
         <f t="shared" si="40"/>
         <v>0.34006869616493335</v>
       </c>
-      <c r="E46" s="152" t="str">
+      <c r="E46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F46" s="152" t="str">
+      <c r="F46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="152" t="str">
+      <c r="G46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="152" t="str">
+      <c r="H46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="152" t="str">
+      <c r="I46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="152" t="str">
+      <c r="J46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="152" t="str">
+      <c r="K46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="152" t="str">
+      <c r="L46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="152" t="str">
+      <c r="M46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="N46" s="87"/>
+      <c r="N46" s="86"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
-      <c r="B47" s="102" t="s">
-        <v>245</v>
-      </c>
-      <c r="C47" s="280" t="s">
-        <v>263</v>
+      <c r="B47" s="101" t="s">
+        <v>243</v>
+      </c>
+      <c r="C47" s="278" t="s">
+        <v>260</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -7797,216 +7792,216 @@
       <c r="K47" s="36"/>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
-      <c r="N47" s="87"/>
+      <c r="N47" s="86"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="268" t="s">
-        <v>251</v>
-      </c>
-      <c r="C48" s="269" t="e">
+      <c r="B48" s="266" t="s">
+        <v>249</v>
+      </c>
+      <c r="C48" s="267" t="e">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="269" t="e">
+      <c r="D48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="269" t="str">
+      <c r="E48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F48" s="269" t="str">
+      <c r="F48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="269" t="str">
+      <c r="G48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="269" t="str">
+      <c r="H48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="269" t="str">
+      <c r="I48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="269" t="str">
+      <c r="J48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="269" t="str">
+      <c r="K48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="269" t="str">
+      <c r="L48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="269" t="str">
+      <c r="M48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="N48" s="87"/>
+      <c r="N48" s="86"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
-      <c r="B49" s="94" t="s">
-        <v>252</v>
-      </c>
-      <c r="C49" s="152">
+      <c r="B49" s="93" t="s">
+        <v>250</v>
+      </c>
+      <c r="C49" s="151">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="152" t="str">
+      <c r="D49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="152" t="str">
+      <c r="E49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="152" t="str">
+      <c r="F49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="152" t="str">
+      <c r="G49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="152" t="str">
+      <c r="H49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="152" t="str">
+      <c r="I49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="152" t="str">
+      <c r="J49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="152" t="str">
+      <c r="K49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="152" t="str">
+      <c r="L49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="152" t="str">
+      <c r="M49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="N49" s="87"/>
+      <c r="N49" s="86"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="94" t="s">
-        <v>253</v>
-      </c>
-      <c r="C50" s="152">
+      <c r="B50" s="93" t="s">
+        <v>251</v>
+      </c>
+      <c r="C50" s="151">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="152" t="str">
+      <c r="D50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="152" t="str">
+      <c r="E50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="152" t="str">
+      <c r="F50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="152" t="str">
+      <c r="G50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="152" t="str">
+      <c r="H50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="152" t="str">
+      <c r="I50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="152" t="str">
+      <c r="J50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="152" t="str">
+      <c r="K50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="152" t="str">
+      <c r="L50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="152" t="str">
+      <c r="M50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="N50" s="87"/>
+      <c r="N50" s="86"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="94" t="s">
-        <v>243</v>
-      </c>
-      <c r="C51" s="152" t="e">
+      <c r="B51" s="93" t="s">
+        <v>241</v>
+      </c>
+      <c r="C51" s="151" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="152" t="str">
+      <c r="D51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E51" s="152" t="str">
+      <c r="E51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="152" t="str">
+      <c r="F51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="152" t="str">
+      <c r="G51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="152" t="str">
+      <c r="H51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="152" t="str">
+      <c r="I51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="152" t="str">
+      <c r="J51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="152" t="str">
+      <c r="K51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="152" t="str">
+      <c r="L51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="152" t="str">
+      <c r="M51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="N51" s="87"/>
+      <c r="N51" s="86"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
-        <v>246</v>
+      <c r="B52" s="101" t="s">
+        <v>244</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8022,350 +8017,350 @@
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
-        <v>247</v>
-      </c>
-      <c r="C53" s="155" t="e">
+      <c r="B53" s="94" t="s">
+        <v>245</v>
+      </c>
+      <c r="C53" s="154" t="e">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="155" t="str">
+      <c r="D53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="155" t="str">
+      <c r="E53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="155" t="str">
+      <c r="F53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="155" t="str">
+      <c r="G53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="155" t="str">
+      <c r="H53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="155" t="str">
+      <c r="I53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="155" t="str">
+      <c r="J53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="155" t="str">
+      <c r="K53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="155" t="str">
+      <c r="L53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="155" t="str">
+      <c r="M53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" s="156">
+      <c r="B54" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="155">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>1.2634035849314423E-2</v>
       </c>
-      <c r="D54" s="156" t="str">
+      <c r="D54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="156" t="str">
+      <c r="E54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="156" t="str">
+      <c r="F54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="156" t="str">
+      <c r="G54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="156" t="str">
+      <c r="H54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="156" t="str">
+      <c r="I54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="156" t="str">
+      <c r="J54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="156" t="str">
+      <c r="K54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="156" t="str">
+      <c r="L54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="156" t="str">
+      <c r="M54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="152">
+      <c r="B55" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="151">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>1.4040838077932061</v>
       </c>
-      <c r="D55" s="152">
+      <c r="D55" s="151">
         <f t="shared" si="47"/>
         <v>1.3492159130892725</v>
       </c>
-      <c r="E55" s="152" t="str">
+      <c r="E55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F55" s="152" t="str">
+      <c r="F55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="152" t="str">
+      <c r="G55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="152" t="str">
+      <c r="H55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="152" t="str">
+      <c r="I55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="152" t="str">
+      <c r="J55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="152" t="str">
+      <c r="K55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="152" t="str">
+      <c r="L55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="152" t="str">
+      <c r="M55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/C30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/D30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/E30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/F30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/G30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/H30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/I30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/J30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/K30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/L30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/M30)</f>
-        <v>#REF!</v>
+      <c r="B56" s="93" t="s">
+        <v>264</v>
+      </c>
+      <c r="C56" s="151">
+        <f>IF(C34="","",IF(Inputs!C38=0,0,Inputs!C38/C27))</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="151" t="str">
+        <f>IF(D34="","",IF(Inputs!D38=0,0,Inputs!D38/D27))</f>
+        <v/>
+      </c>
+      <c r="E56" s="151" t="str">
+        <f>IF(E34="","",IF(Inputs!E38=0,0,Inputs!E38/E27))</f>
+        <v/>
+      </c>
+      <c r="F56" s="151" t="str">
+        <f>IF(F34="","",IF(Inputs!F38=0,0,Inputs!F38/F27))</f>
+        <v/>
+      </c>
+      <c r="G56" s="151" t="str">
+        <f>IF(G34="","",IF(Inputs!G38=0,0,Inputs!G38/G27))</f>
+        <v/>
+      </c>
+      <c r="H56" s="151" t="str">
+        <f>IF(H34="","",IF(Inputs!H38=0,0,Inputs!H38/H27))</f>
+        <v/>
+      </c>
+      <c r="I56" s="151" t="str">
+        <f>IF(I34="","",IF(Inputs!I38=0,0,Inputs!I38/I27))</f>
+        <v/>
+      </c>
+      <c r="J56" s="151" t="str">
+        <f>IF(J34="","",IF(Inputs!J38=0,0,Inputs!J38/J27))</f>
+        <v/>
+      </c>
+      <c r="K56" s="151" t="str">
+        <f>IF(K34="","",IF(Inputs!K38=0,0,Inputs!K38/K27))</f>
+        <v/>
+      </c>
+      <c r="L56" s="151" t="str">
+        <f>IF(L34="","",IF(Inputs!L38=0,0,Inputs!L38/L27))</f>
+        <v/>
+      </c>
+      <c r="M56" s="151" t="str">
+        <f>IF(M34="","",IF(Inputs!M38=0,0,Inputs!M38/M27))</f>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
-      <c r="B57" s="102" t="s">
-        <v>248</v>
-      </c>
-      <c r="C57" s="270" t="str">
+      <c r="B57" s="101" t="s">
+        <v>246</v>
+      </c>
+      <c r="C57" s="268" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="270" t="str">
+      <c r="D57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="270" t="str">
+      <c r="E57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="270" t="str">
+      <c r="F57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="270" t="str">
+      <c r="G57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="270" t="str">
+      <c r="H57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="270" t="str">
+      <c r="I57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="270" t="str">
+      <c r="J57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="270" t="str">
+      <c r="K57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="270" t="str">
+      <c r="L57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="270" t="str">
+      <c r="M57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="268" t="s">
-        <v>249</v>
-      </c>
-      <c r="C58" s="271" t="e">
+      <c r="B58" s="266" t="s">
+        <v>247</v>
+      </c>
+      <c r="C58" s="269" t="e">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="271" t="e">
+      <c r="D58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="271" t="str">
+      <c r="E58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="F58" s="271" t="str">
+      <c r="F58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="271" t="str">
+      <c r="G58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="271" t="str">
+      <c r="H58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="271" t="str">
+      <c r="I58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="271" t="str">
+      <c r="J58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="271" t="str">
+      <c r="K58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="271" t="str">
+      <c r="L58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="271" t="str">
+      <c r="M58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="268" t="s">
-        <v>250</v>
-      </c>
-      <c r="C59" s="271" t="e">
+      <c r="B59" s="266" t="s">
+        <v>248</v>
+      </c>
+      <c r="C59" s="269" t="e">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D59" s="271" t="e">
+      <c r="D59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="271" t="str">
+      <c r="E59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="F59" s="271" t="str">
+      <c r="F59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="271" t="str">
+      <c r="G59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="271" t="str">
+      <c r="H59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="271" t="str">
+      <c r="I59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="271" t="str">
+      <c r="J59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="271" t="str">
+      <c r="K59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="271" t="str">
+      <c r="L59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="271" t="str">
+      <c r="M59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9644,7 +9639,7 @@
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9662,7 +9657,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9680,38 +9675,38 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="87"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="87"/>
+      <c r="I2" s="86"/>
       <c r="K2" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="204">
+        <v>20</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="202">
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="E3" s="67" t="str">
         <f>IF((C49-I49)=D3,"", "Error!")</f>
-        <v>Error!</v>
-      </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
+        <v/>
+      </c>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="282">
+        <v>21</v>
+      </c>
+      <c r="I3" s="280">
         <f>D3-D4</f>
         <v>0</v>
       </c>
@@ -9719,28 +9714,28 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="198">
+        <v>22</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="196">
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
       <c r="E4" s="37"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="21"/>
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -9753,7 +9748,7 @@
         <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
         <v>Adj. Net Asset in CNY</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
         <v>28314030.5</v>
@@ -9762,16 +9757,16 @@
         <f>1-D6/D3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
         <v>1.0639184029144524</v>
       </c>
-      <c r="J6" s="87"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -9779,297 +9774,297 @@
         <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>84.861156495150908</v>
+        <v>84.842619844397049</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
         <v>0.21634034098048796</v>
       </c>
-      <c r="J7" s="87"/>
+      <c r="J7" s="86"/>
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="202">
+        <v>27</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="200">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="118" t="str">
+      <c r="E9" s="117" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="G10" s="86"/>
+      <c r="H10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="22" t="s">
-        <v>33</v>
-      </c>
       <c r="I10" s="74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
         <v>3628128</v>
       </c>
-      <c r="D11" s="197">
+      <c r="D11" s="195">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="87">
         <f t="shared" ref="E11:E22" si="0">C11*D11</f>
         <v>3265315.2</v>
       </c>
-      <c r="F11" s="112"/>
-      <c r="G11" s="87"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
         <v>40496667</v>
       </c>
-      <c r="J11" s="87"/>
+      <c r="J11" s="86"/>
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
         <v>2171209</v>
       </c>
-      <c r="D12" s="197">
+      <c r="D12" s="195">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="87">
         <f t="shared" si="0"/>
         <v>1736967.2000000002</v>
       </c>
-      <c r="F12" s="112"/>
-      <c r="G12" s="87"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
         <v>0</v>
       </c>
-      <c r="J12" s="87"/>
+      <c r="J12" s="86"/>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="197">
+      <c r="D13" s="195">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="112"/>
-      <c r="G13" s="87"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
         <v>0</v>
       </c>
-      <c r="J13" s="87"/>
+      <c r="J13" s="86"/>
       <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
         <v>3557823</v>
       </c>
-      <c r="D14" s="197">
+      <c r="D14" s="195">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="87">
         <f t="shared" si="0"/>
         <v>2134693.7999999998</v>
       </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="203">
+      <c r="F14" s="111"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="201">
         <f>Inputs!C76</f>
         <v>1783937</v>
       </c>
-      <c r="J14" s="87"/>
+      <c r="J14" s="86"/>
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
         <v>9431099</v>
       </c>
-      <c r="D15" s="197">
+      <c r="D15" s="195">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="87">
         <f t="shared" si="0"/>
         <v>4715549.5</v>
       </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="87"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="84">
+        <v>49</v>
+      </c>
+      <c r="I15" s="83">
         <f>SUM(I11:I14)</f>
         <v>42280604</v>
       </c>
-      <c r="J15" s="87"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
         <v>27228377</v>
       </c>
-      <c r="D16" s="197">
+      <c r="D16" s="195">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E16" s="87">
         <f t="shared" si="0"/>
         <v>16337026.199999999</v>
       </c>
-      <c r="F16" s="112"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="30"/>
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="87"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="197">
+      <c r="D17" s="195">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="112"/>
-      <c r="G17" s="87"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="87"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="197">
+      <c r="D18" s="195">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="112"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="197">
+      <c r="D19" s="195">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="133" t="str">
+      <c r="F19" s="132" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10080,21 +10075,21 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="197">
+      <c r="D20" s="195">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E20" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="133" t="str">
+      <c r="F20" s="132" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10107,45 +10102,45 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="197">
+      <c r="D21" s="195">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="87"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="197">
+      <c r="D22" s="195">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="87"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="86"/>
       <c r="H22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10153,17 +10148,17 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="111" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="87"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="110" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10173,19 +10168,19 @@
         <f>IF(E24=0,0,E24/C24)</f>
         <v>0.76272888355013702</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="87">
         <f>SUM(E11:E14)</f>
         <v>7136976.2000000002</v>
       </c>
-      <c r="F24" s="113">
+      <c r="F24" s="112">
         <f>E24/$E$28</f>
         <v>0.25317806488438721</v>
       </c>
-      <c r="G24" s="87"/>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10195,17 +10190,17 @@
         <f>IF(E25=0,0,E25/C25)</f>
         <v>0.57427377576264316</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="87">
         <f>SUM(E15:E17)</f>
         <v>21052575.699999999</v>
       </c>
-      <c r="F25" s="113">
+      <c r="F25" s="112">
         <f>E25/$E$28</f>
         <v>0.74682193511561279</v>
       </c>
-      <c r="G25" s="87"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
@@ -10214,7 +10209,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10224,17 +10219,17 @@
         <f>IF(E26=0,0,E26/C26)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="87">
         <f>E18+E19+E20</f>
         <v>0</v>
       </c>
-      <c r="F26" s="113">
+      <c r="F26" s="112">
         <f>E26/$E$28</f>
         <v>0</v>
       </c>
-      <c r="G26" s="87"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -10247,7 +10242,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10257,17 +10252,17 @@
         <f>IF(E27=0,0,E27/C27)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="87">
         <f>E21+E22</f>
         <v>0</v>
       </c>
-      <c r="F27" s="113">
+      <c r="F27" s="112">
         <f>E27/$E$28</f>
         <v>0</v>
       </c>
-      <c r="G27" s="87"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -10294,12 +10289,12 @@
         <f>SUM(E24:E27)</f>
         <v>28189551.899999999</v>
       </c>
-      <c r="F28" s="112"/>
-      <c r="G28" s="87"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="204">
+      <c r="I28" s="202">
         <f>Inputs!C77</f>
         <v>43252035</v>
       </c>
@@ -10309,171 +10304,171 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="112" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="197">
+      <c r="D30" s="195">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
-      <c r="E30" s="88">
+      <c r="E30" s="87">
         <v>0</v>
       </c>
-      <c r="F30" s="112"/>
-      <c r="G30" s="87"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="86"/>
       <c r="H30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
         <v>0</v>
       </c>
-      <c r="J30" s="87"/>
+      <c r="J30" s="86"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="197">
+      <c r="D31" s="195">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
-      <c r="E31" s="88">
+      <c r="E31" s="87">
         <f t="shared" ref="E31:E42" si="1">C31*D31</f>
         <v>0</v>
       </c>
-      <c r="F31" s="112"/>
-      <c r="G31" s="87"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="86"/>
       <c r="H31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
         <v>0</v>
       </c>
-      <c r="J31" s="87"/>
+      <c r="J31" s="86"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="197">
+      <c r="D32" s="195">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
-      <c r="E32" s="88">
+      <c r="E32" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="112"/>
-      <c r="G32" s="87"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
         <v>0</v>
       </c>
-      <c r="J32" s="87"/>
+      <c r="J32" s="86"/>
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="197">
+      <c r="D33" s="195">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
-      <c r="E33" s="88">
+      <c r="E33" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="112"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="30">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H33" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="203">
+      <c r="H33" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="201">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
-      <c r="J33" s="87"/>
+      <c r="J33" s="86"/>
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="197">
+      <c r="D34" s="195">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
-      <c r="E34" s="88">
+      <c r="E34" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="112"/>
-      <c r="G34" s="87"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" s="84">
+        <v>73</v>
+      </c>
+      <c r="I34" s="83">
         <f>SUM(I30:I33)</f>
         <v>0</v>
       </c>
-      <c r="J34" s="87"/>
+      <c r="J34" s="86"/>
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
         <v>65568</v>
       </c>
-      <c r="D35" s="197">
+      <c r="D35" s="195">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
-      <c r="E35" s="88">
+      <c r="E35" s="87">
         <f t="shared" si="1"/>
         <v>6556.8</v>
       </c>
-      <c r="F35" s="133" t="str">
+      <c r="F35" s="132" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10481,25 +10476,25 @@
         <f>IF(F35="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="87"/>
+      <c r="J35" s="86"/>
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="197">
+      <c r="D36" s="195">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
-      <c r="E36" s="88">
+      <c r="E36" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="133" t="str">
+      <c r="F36" s="132" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10507,26 +10502,26 @@
         <f>IF(F36="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="197">
+      <c r="D37" s="195">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
-      <c r="E37" s="88">
+      <c r="E37" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="133" t="str">
+      <c r="F37" s="132" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10534,113 +10529,113 @@
         <f>IF(F37="Y",0,1)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
         <v>297776</v>
       </c>
-      <c r="D38" s="197">
+      <c r="D38" s="195">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
-      <c r="E38" s="88">
+      <c r="E38" s="87">
         <f t="shared" si="1"/>
         <v>29777.600000000002</v>
       </c>
-      <c r="F38" s="112"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="197">
+      <c r="D39" s="195">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
-      <c r="E39" s="88">
+      <c r="E39" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="112"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="197">
+      <c r="D40" s="195">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
-      <c r="E40" s="88">
+      <c r="E40" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F40" s="112"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
         <v>97938</v>
       </c>
-      <c r="D41" s="197">
+      <c r="D41" s="195">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
-      <c r="E41" s="88">
+      <c r="E41" s="87">
         <f t="shared" si="1"/>
         <v>88144.2</v>
       </c>
-      <c r="F41" s="112"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
         <v>638618</v>
       </c>
-      <c r="D42" s="197">
+      <c r="D42" s="195">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
-      <c r="E42" s="88">
+      <c r="E42" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F42" s="112"/>
-      <c r="G42" s="87"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="86"/>
       <c r="H42" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -10648,17 +10643,17 @@
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -10668,16 +10663,16 @@
         <f>IF(E44=0,0,E44/C44)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="88">
+      <c r="E44" s="87">
         <f>SUM(E30:E31)</f>
         <v>0</v>
       </c>
       <c r="F44" s="72"/>
-      <c r="G44" s="87"/>
+      <c r="G44" s="86"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -10687,16 +10682,16 @@
         <f>IF(E45=0,0,E45/C45)</f>
         <v>0.1</v>
       </c>
-      <c r="E45" s="88">
+      <c r="E45" s="87">
         <f>SUM(E32:E35)</f>
         <v>6556.8</v>
       </c>
       <c r="F45" s="72"/>
-      <c r="G45" s="87"/>
+      <c r="G45" s="86"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -10706,14 +10701,14 @@
         <f>IF(E46=0,0,E46/C46)</f>
         <v>0.1</v>
       </c>
-      <c r="E46" s="88">
+      <c r="E46" s="87">
         <f>E36+E37+E38+E39</f>
         <v>29777.600000000002</v>
       </c>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
       <c r="H46" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -10726,7 +10721,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -10736,14 +10731,14 @@
         <f>IF(E47=0,0,E47/C47)</f>
         <v>0.11967073786650302</v>
       </c>
-      <c r="E47" s="88">
+      <c r="E47" s="87">
         <f>E40+E41+E42</f>
         <v>88144.2</v>
       </c>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -10756,13 +10751,13 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="81">
+        <v>79</v>
+      </c>
+      <c r="C48" s="281">
         <f>SUM(C30:C42)</f>
         <v>1099900</v>
       </c>
-      <c r="D48" s="82">
+      <c r="D48" s="81">
         <f>E48/C48</f>
         <v>0.11317265205927812</v>
       </c>
@@ -10770,12 +10765,12 @@
         <f>SUM(E30:E42)</f>
         <v>124478.6</v>
       </c>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
       <c r="H48" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="I48" s="281">
+        <v>80</v>
+      </c>
+      <c r="I48" s="279">
         <f>I49-I28</f>
         <v>-43252035</v>
       </c>
@@ -10786,63 +10781,63 @@
         <v>13</v>
       </c>
       <c r="C49" s="61">
-        <f>C28+C48</f>
-        <v>47116536</v>
-      </c>
-      <c r="D49" s="56">
+        <f>Inputs!C41+Inputs!C37</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="56" t="e">
         <f>E49/C49</f>
-        <v>0.60093616602035427</v>
-      </c>
-      <c r="E49" s="88">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E49" s="87">
         <f>E28+E48</f>
         <v>28314030.5</v>
       </c>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
       <c r="H49" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="J49" s="87"/>
+      <c r="J49" s="86"/>
     </row>
     <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="I50" s="87"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="I50" s="86"/>
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="87"/>
+        <v>83</v>
+      </c>
+      <c r="C52" s="86"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
         <v>BV of the MI</v>
       </c>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="I52" s="87"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="I52" s="86"/>
       <c r="K52" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" s="88">
+        <v>84</v>
+      </c>
+      <c r="C53" s="87">
         <f>MAX(D4,0)</f>
         <v>0</v>
       </c>
@@ -10850,45 +10845,45 @@
         <f>IF(E53=0, 0,E53/C53)</f>
         <v>0</v>
       </c>
-      <c r="E53" s="88">
+      <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
         <v>0</v>
       </c>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
     <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="I54" s="87"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="I54" s="86"/>
       <c r="K54" s="33"/>
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="124"/>
+      <c r="E55" s="123"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="I55" s="87"/>
+      <c r="I55" s="86"/>
       <c r="K55" s="33"/>
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="87"/>
-      <c r="D56" s="296">
+        <v>85</v>
+      </c>
+      <c r="C56" s="86"/>
+      <c r="D56" s="295">
         <f>I15+I34</f>
         <v>42280604</v>
       </c>
-      <c r="E56" s="294"/>
+      <c r="E56" s="293"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10896,61 +10891,61 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C57" s="87"/>
-      <c r="D57" s="295">
+        <v>86</v>
+      </c>
+      <c r="C57" s="86"/>
+      <c r="D57" s="294">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="294"/>
-      <c r="G57" s="87"/>
-      <c r="I57" s="87"/>
+      <c r="E57" s="293"/>
+      <c r="G57" s="86"/>
+      <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="87"/>
-      <c r="D58" s="295">
+        <v>88</v>
+      </c>
+      <c r="C58" s="86"/>
+      <c r="D58" s="294">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="294"/>
+      <c r="E58" s="293"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="I58" s="87"/>
+      <c r="I58" s="86"/>
       <c r="K58" s="33"/>
     </row>
     <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="I59" s="87"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="I59" s="86"/>
       <c r="K59" s="33"/>
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="E60" s="87"/>
+        <v>89</v>
+      </c>
+      <c r="E60" s="86"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="I60" s="87"/>
+      <c r="I60" s="86"/>
       <c r="K60" s="33"/>
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -10964,35 +10959,35 @@
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E35*G35)+(E36*G36)+(E37*G37)</f>
         <v>6856800.0999999996</v>
       </c>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="I61" s="87"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="I61" s="86"/>
       <c r="K61" s="33"/>
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" s="116">
+        <v>133</v>
+      </c>
+      <c r="C62" s="115">
         <f>C11+C30</f>
         <v>3628128</v>
       </c>
-      <c r="D62" s="107">
+      <c r="D62" s="106">
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="E62" s="117">
+      <c r="E62" s="116">
         <f>E11+E30</f>
         <v>3265315.2</v>
       </c>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="I62" s="87"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="I62" s="86"/>
       <c r="K62" s="33"/>
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11006,29 +11001,29 @@
         <f>E61+E62</f>
         <v>10122115.300000001</v>
       </c>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="I63" s="87"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="I63" s="86"/>
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="120" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="205"/>
-      <c r="D64" s="205"/>
+      <c r="B64" s="119" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="203"/>
+      <c r="D64" s="203"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>42280604</v>
       </c>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="I64" s="87"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="I64" s="86"/>
       <c r="K64" s="33"/>
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11042,9 +11037,9 @@
         <f>E63-E64</f>
         <v>-32158488.699999999</v>
       </c>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="I65" s="87"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="I65" s="86"/>
       <c r="K65" s="33"/>
     </row>
     <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -11052,100 +11047,100 @@
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
       <c r="E66" s="61"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="I66" s="87"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="I66" s="86"/>
       <c r="K66" s="33"/>
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E67" s="61"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="I67" s="87"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="I67" s="86"/>
       <c r="K67" s="33"/>
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
-        <v>30433918</v>
+        <v>-16682618</v>
       </c>
       <c r="D68" s="29">
         <f t="shared" si="2"/>
-        <v>0.59775133783300594</v>
+        <v>-1.090471243782001</v>
       </c>
       <c r="E68" s="68">
         <f>E49-E63</f>
         <v>18191915.199999999</v>
       </c>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="I68" s="87"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="I68" s="86"/>
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="120" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="205"/>
-      <c r="D69" s="205"/>
-      <c r="E69" s="125">
+      <c r="B69" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="203"/>
+      <c r="D69" s="203"/>
+      <c r="E69" s="124">
         <f>I49-E64</f>
         <v>-42280604</v>
       </c>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
-      <c r="I69" s="87"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="I69" s="86"/>
       <c r="K69" s="33"/>
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
-        <v>72714522</v>
+        <v>25597986</v>
       </c>
       <c r="D70" s="29">
         <f t="shared" si="2"/>
-        <v>0.83164294472017575</v>
+        <v>2.3623936351867685</v>
       </c>
       <c r="E70" s="68">
         <f>E68-E69</f>
         <v>60472519.200000003</v>
       </c>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
-      <c r="I70" s="87"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="I70" s="86"/>
       <c r="K70" s="33"/>
     </row>
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
-      <c r="B72" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" s="283">
+      <c r="B72" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="282">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="283"/>
-      <c r="E72" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F72" s="297"/>
-      <c r="H72" s="297" t="s">
+      <c r="D72" s="282"/>
+      <c r="E72" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I72" s="297"/>
+      <c r="F72" s="296"/>
+      <c r="H72" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I72" s="296"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11155,66 +11150,66 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="284" t="s">
+      <c r="C73" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="283"/>
+      <c r="E73" s="297" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="284"/>
-      <c r="E73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="F73" s="284"/>
-      <c r="H73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="I73" s="284"/>
+      <c r="F73" s="283"/>
+      <c r="H73" s="297" t="s">
+        <v>97</v>
+      </c>
+      <c r="I73" s="283"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
         <v>1542930</v>
       </c>
-      <c r="D74" s="206"/>
-      <c r="E74" s="235">
+      <c r="D74" s="204"/>
+      <c r="E74" s="233">
         <f>Inputs!E91</f>
         <v>1542930</v>
       </c>
-      <c r="F74" s="206"/>
-      <c r="H74" s="235">
+      <c r="F74" s="204"/>
+      <c r="H74" s="233">
         <f>Inputs!F91</f>
         <v>1542930</v>
       </c>
-      <c r="I74" s="206"/>
+      <c r="I74" s="204"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="104" t="s">
-        <v>102</v>
+      <c r="B75" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
         <v>18534</v>
       </c>
-      <c r="D75" s="158">
+      <c r="D75" s="156">
         <f>C75/$C$74</f>
         <v>1.2012210534502537E-2</v>
       </c>
-      <c r="E75" s="235">
+      <c r="E75" s="233">
         <f>Inputs!E92</f>
         <v>18534</v>
       </c>
-      <c r="F75" s="159">
+      <c r="F75" s="157">
         <f>E75/E74</f>
         <v>1.2012210534502537E-2</v>
       </c>
-      <c r="H75" s="235">
+      <c r="H75" s="233">
         <f>Inputs!F92</f>
         <v>18534</v>
       </c>
-      <c r="I75" s="159">
+      <c r="I75" s="157">
         <f>H75/$H$74</f>
         <v>1.2012210534502537E-2</v>
       </c>
@@ -11222,50 +11217,50 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C76" s="160">
+        <v>91</v>
+      </c>
+      <c r="C76" s="158">
         <f>C74-C75</f>
         <v>1524396</v>
       </c>
-      <c r="D76" s="207"/>
-      <c r="E76" s="161">
+      <c r="D76" s="205"/>
+      <c r="E76" s="159">
         <f>E74-E75</f>
         <v>1524396</v>
       </c>
-      <c r="F76" s="207"/>
-      <c r="H76" s="161">
+      <c r="F76" s="205"/>
+      <c r="H76" s="159">
         <f>H74-H75</f>
         <v>1524396</v>
       </c>
-      <c r="I76" s="207"/>
+      <c r="I76" s="205"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="104" t="s">
-        <v>229</v>
+      <c r="B77" s="103" t="s">
+        <v>228</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>238698</v>
       </c>
-      <c r="D77" s="158">
+      <c r="D77" s="156">
         <f>C77/$C$74</f>
         <v>0.15470436118294414</v>
       </c>
-      <c r="E77" s="235">
+      <c r="E77" s="233">
         <f>Inputs!E93</f>
         <v>238698</v>
       </c>
-      <c r="F77" s="159">
+      <c r="F77" s="157">
         <f>E77/E74</f>
         <v>0.15470436118294414</v>
       </c>
-      <c r="H77" s="235">
+      <c r="H77" s="233">
         <f>Inputs!F93</f>
         <v>238698</v>
       </c>
-      <c r="I77" s="159">
+      <c r="I77" s="157">
         <f>H77/$H$74</f>
         <v>0.15470436118294414</v>
       </c>
@@ -11273,60 +11268,60 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
         <v>1497.3333333333333</v>
       </c>
-      <c r="D78" s="158">
+      <c r="D78" s="156">
         <f>C78/$C$74</f>
         <v>9.7044800044936142E-4</v>
       </c>
-      <c r="E78" s="179">
+      <c r="E78" s="177">
         <f>E74*F78</f>
         <v>1497.3333333333333</v>
       </c>
-      <c r="F78" s="159">
+      <c r="F78" s="157">
         <f>I78</f>
         <v>9.7044800044936142E-4</v>
       </c>
-      <c r="H78" s="235">
+      <c r="H78" s="233">
         <f>Inputs!F97</f>
         <v>1497.3333333333333</v>
       </c>
-      <c r="I78" s="159">
+      <c r="I78" s="157">
         <f>H78/$H$74</f>
         <v>9.7044800044936142E-4</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="253" t="s">
-        <v>217</v>
-      </c>
-      <c r="C79" s="254">
+      <c r="B79" s="251" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" s="252">
         <f>C76-C77-C78</f>
         <v>1284200.6666666667</v>
       </c>
-      <c r="D79" s="255">
+      <c r="D79" s="253">
         <f>C79/C74</f>
         <v>0.83231298028210399</v>
       </c>
-      <c r="E79" s="256">
+      <c r="E79" s="254">
         <f>E76-E77-E78</f>
         <v>1284200.6666666667</v>
       </c>
-      <c r="F79" s="255">
+      <c r="F79" s="253">
         <f>E79/E74</f>
         <v>0.83231298028210399</v>
       </c>
-      <c r="G79" s="257"/>
-      <c r="H79" s="256">
+      <c r="G79" s="255"/>
+      <c r="H79" s="254">
         <f>H76-H77-H78</f>
         <v>1284200.6666666667</v>
       </c>
-      <c r="I79" s="255">
+      <c r="I79" s="253">
         <f>H79/H74</f>
         <v>0.83231298028210399</v>
       </c>
@@ -11334,61 +11329,61 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="158">
+      <c r="D80" s="156">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="179">
+      <c r="E80" s="177">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="159">
+      <c r="F80" s="157">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="235">
+      <c r="H80" s="233">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="159">
+      <c r="I80" s="157">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="180" t="s">
-        <v>126</v>
+      <c r="K80" s="178" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="104" t="s">
-        <v>237</v>
+      <c r="B81" s="103" t="s">
+        <v>235</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>750026</v>
       </c>
-      <c r="D81" s="158">
+      <c r="D81" s="156">
         <f>C81/$C$74</f>
         <v>0.48610500800425166</v>
       </c>
-      <c r="E81" s="179">
+      <c r="E81" s="177">
         <f>E74*F81</f>
         <v>750026</v>
       </c>
-      <c r="F81" s="159">
+      <c r="F81" s="157">
         <f>I81</f>
         <v>0.48610500800425166</v>
       </c>
-      <c r="H81" s="235">
+      <c r="H81" s="233">
         <f>Inputs!F94</f>
         <v>750026</v>
       </c>
-      <c r="I81" s="159">
+      <c r="I81" s="157">
         <f>H81/$H$74</f>
         <v>0.48610500800425166</v>
       </c>
@@ -11396,59 +11391,59 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="158">
+      <c r="D82" s="156">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="235">
+      <c r="E82" s="233">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="159">
+      <c r="F82" s="157">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="235">
+      <c r="H82" s="233">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="159">
+      <c r="I82" s="157">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
       <c r="K82" s="24"/>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="105" t="s">
-        <v>120</v>
-      </c>
-      <c r="C83" s="162">
+      <c r="B83" s="104" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" s="160">
         <f>C79-C81-C82-C80</f>
         <v>534174.66666666674</v>
       </c>
-      <c r="D83" s="163">
+      <c r="D83" s="161">
         <f>C83/$C$74</f>
         <v>0.34620797227785238</v>
       </c>
-      <c r="E83" s="164">
+      <c r="E83" s="162">
         <f>E79-E81-E82-E80</f>
         <v>534174.66666666674</v>
       </c>
-      <c r="F83" s="163">
+      <c r="F83" s="161">
         <f>E83/E74</f>
         <v>0.34620797227785238</v>
       </c>
-      <c r="H83" s="164">
+      <c r="H83" s="162">
         <f>H79-H81-H82-H80</f>
         <v>534174.66666666674</v>
       </c>
-      <c r="I83" s="163">
+      <c r="I83" s="161">
         <f>H83/$H$74</f>
         <v>0.34620797227785238</v>
       </c>
@@ -11456,184 +11451,184 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" s="208"/>
-      <c r="D84" s="158">
+        <v>92</v>
+      </c>
+      <c r="C84" s="206"/>
+      <c r="D84" s="156">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="209"/>
-      <c r="F84" s="178">
+      <c r="E84" s="207"/>
+      <c r="F84" s="176">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="209"/>
-      <c r="I84" s="201">
+      <c r="H84" s="207"/>
+      <c r="I84" s="199">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="260" t="s">
-        <v>156</v>
-      </c>
-      <c r="C85" s="254">
+      <c r="B85" s="258" t="s">
+        <v>155</v>
+      </c>
+      <c r="C85" s="252">
         <f>C83*(1-I84)</f>
         <v>400631.00000000006</v>
       </c>
-      <c r="D85" s="255">
+      <c r="D85" s="253">
         <f>C85/$C$74</f>
         <v>0.25965597920838929</v>
       </c>
-      <c r="E85" s="261">
+      <c r="E85" s="259">
         <f>E83*(1-F84)</f>
         <v>400631.00000000006</v>
       </c>
-      <c r="F85" s="255">
+      <c r="F85" s="253">
         <f>E85/E74</f>
         <v>0.25965597920838929</v>
       </c>
-      <c r="G85" s="257"/>
-      <c r="H85" s="261">
+      <c r="G85" s="255"/>
+      <c r="H85" s="259">
         <f>H83*(1-I84)</f>
         <v>400631.00000000006</v>
       </c>
-      <c r="I85" s="255">
+      <c r="I85" s="253">
         <f>H85/$H$74</f>
         <v>0.25965597920838929</v>
       </c>
       <c r="K85" s="24"/>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="C86" s="166">
+      <c r="B86" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="C86" s="164">
         <f>C85*Data!C4/Common_Shares</f>
         <v>1.1240852034198616</v>
       </c>
-      <c r="D86" s="206"/>
-      <c r="E86" s="167">
+      <c r="D86" s="204"/>
+      <c r="E86" s="165">
         <f>E85*Data!C4/Common_Shares</f>
         <v>1.1240852034198616</v>
       </c>
-      <c r="F86" s="206"/>
-      <c r="H86" s="167">
+      <c r="F86" s="204"/>
+      <c r="H86" s="165">
         <f>H85*Data!C4/Common_Shares</f>
         <v>1.1240852034198616</v>
       </c>
-      <c r="I86" s="206"/>
+      <c r="I86" s="204"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="87" t="s">
-        <v>194</v>
-      </c>
-      <c r="C87" s="258">
+      <c r="B87" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.24963571839970988</v>
-      </c>
-      <c r="D87" s="206"/>
-      <c r="E87" s="259">
+        <v>0.24752278764919969</v>
+      </c>
+      <c r="D87" s="204"/>
+      <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.24963571839970988</v>
-      </c>
-      <c r="F87" s="206"/>
-      <c r="H87" s="259">
+        <v>0.24752278764919969</v>
+      </c>
+      <c r="F87" s="204"/>
+      <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.24963571839970988</v>
-      </c>
-      <c r="I87" s="206"/>
+        <v>0.24752278764919969</v>
+      </c>
+      <c r="I87" s="204"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C88" s="168">
+      <c r="B88" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C88" s="166">
         <f>Inputs!C44</f>
         <v>0.44979999999999998</v>
       </c>
-      <c r="D88" s="165">
+      <c r="D88" s="163">
         <f>C88/C86</f>
         <v>0.40014760325244969</v>
       </c>
-      <c r="E88" s="169">
+      <c r="E88" s="167">
         <f>Inputs!E98</f>
         <v>0.30640000000000001</v>
       </c>
-      <c r="F88" s="165">
+      <c r="F88" s="163">
         <f>E88/E86</f>
         <v>0.27257720239339839</v>
       </c>
-      <c r="H88" s="169">
+      <c r="H88" s="167">
         <f>Inputs!F98</f>
         <v>0.30640000000000001</v>
       </c>
-      <c r="I88" s="165">
+      <c r="I88" s="163">
         <f>H88/H86</f>
         <v>0.27257720239339839</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="87" t="s">
-        <v>206</v>
-      </c>
-      <c r="C89" s="258">
+      <c r="B89" s="86" t="s">
+        <v>205</v>
+      </c>
+      <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.9891134403847351E-2</v>
-      </c>
-      <c r="D89" s="206"/>
-      <c r="E89" s="258">
+        <v>9.9045650228192297E-2</v>
+      </c>
+      <c r="D89" s="204"/>
+      <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8045005738859118E-2</v>
-      </c>
-      <c r="F89" s="206"/>
-      <c r="H89" s="258">
+        <v>6.7469068986034067E-2</v>
+      </c>
+      <c r="F89" s="204"/>
+      <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8045005738859118E-2</v>
-      </c>
-      <c r="I89" s="206"/>
+        <v>6.7469068986034067E-2</v>
+      </c>
+      <c r="I89" s="204"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
-      <c r="C90" s="88"/>
+      <c r="C90" s="87"/>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
-      <c r="B91" s="106" t="str">
+      <c r="B91" s="105" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
         <v>Valuation Drivers in HKD</v>
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C92" s="197" t="str">
+        <v>146</v>
+      </c>
+      <c r="C92" s="195" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E92" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F92" s="297"/>
-      <c r="G92" s="87"/>
-      <c r="H92" s="297" t="s">
+        <v>147</v>
+      </c>
+      <c r="E92" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I92" s="297"/>
+      <c r="F92" s="296"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I92" s="296"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11641,55 +11636,55 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="135">
+      <c r="C93" s="134">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="236">
+      <c r="D93" s="234">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
-      <c r="E93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="F93" s="143">
+      <c r="E93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>55.231020768368339</v>
-      </c>
-      <c r="H93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="I93" s="143">
+        <v>54.753701012306976</v>
+      </c>
+      <c r="H93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>55.231020768368339</v>
+        <v>54.753701012306976</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C94" s="181">
+        <v>196</v>
+      </c>
+      <c r="C94" s="179">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="267">
+      <c r="D94" s="265">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
-      <c r="E94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="F94" s="143">
+      <c r="E94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.8659907916191836</v>
-      </c>
-      <c r="H94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="I94" s="143">
+        <v>6.8460027941781778</v>
+      </c>
+      <c r="H94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.8659907916191836</v>
+        <v>6.8460027941781778</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11699,121 +11694,121 @@
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
-      <c r="B96" s="106" t="str">
+      <c r="B96" s="105" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="126" t="str">
+      <c r="C96" s="125" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E96" s="182" t="str">
+      <c r="D96" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E96" s="180" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H96" s="182" t="str">
+      <c r="F96" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H96" s="180" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="123" t="s">
-        <v>111</v>
+      <c r="I96" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C97" s="91">
+        <v>124</v>
+      </c>
+      <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9786765.6275044344</v>
-      </c>
-      <c r="D97" s="210"/>
-      <c r="E97" s="122">
+        <v>9702186.0467369258</v>
+      </c>
+      <c r="D97" s="208"/>
+      <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>27.459578592809418</v>
-      </c>
-      <c r="F97" s="210"/>
-      <c r="H97" s="122">
+        <v>27.222266314797452</v>
+      </c>
+      <c r="F97" s="208"/>
+      <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>27.459578592809418</v>
-      </c>
-      <c r="I97" s="122">
+        <v>27.222266314797452</v>
+      </c>
+      <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>36.520282014523971</v>
+        <v>36.20466495983343</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="C98" s="91">
+        <v>138</v>
+      </c>
+      <c r="C98" s="90">
         <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="210"/>
-      <c r="E98" s="210"/>
-      <c r="F98" s="210"/>
-      <c r="H98" s="122">
+      <c r="D98" s="208"/>
+      <c r="E98" s="208"/>
+      <c r="F98" s="208"/>
+      <c r="H98" s="121">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="212"/>
+      <c r="I98" s="210"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="105" t="s">
-        <v>140</v>
-      </c>
-      <c r="C99" s="108">
+      <c r="B99" s="104" t="s">
+        <v>139</v>
+      </c>
+      <c r="C99" s="107">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>-34351697.377856456</v>
-      </c>
-      <c r="D99" s="211"/>
-      <c r="E99" s="144">
+        <v>-34344193.76320643</v>
+      </c>
+      <c r="D99" s="209"/>
+      <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>-110.84107306979762</v>
-      </c>
-      <c r="F99" s="211"/>
-      <c r="H99" s="144">
+        <v>-110.81686149473154</v>
+      </c>
+      <c r="F99" s="209"/>
+      <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-96.383541799824016</v>
-      </c>
-      <c r="I99" s="213"/>
+        <v>-96.362488256288302</v>
+      </c>
+      <c r="I99" s="211"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C100" s="91">
+        <v>110</v>
+      </c>
+      <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>-24564931.750352021</v>
-      </c>
-      <c r="D100" s="109">
+        <v>-24642007.716469504</v>
+      </c>
+      <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
         <v>0</v>
       </c>
-      <c r="E100" s="109">
+      <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
         <v>0</v>
       </c>
-      <c r="F100" s="109">
+      <c r="F100" s="108">
         <f>(E100+H100)/2</f>
         <v>0</v>
       </c>
-      <c r="H100" s="109">
+      <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
         <v>0</v>
       </c>
-      <c r="I100" s="109">
+      <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
         <v>0</v>
       </c>
@@ -11825,58 +11820,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C102" s="126" t="str">
+        <v>153</v>
+      </c>
+      <c r="C102" s="125" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E102" s="182" t="str">
+      <c r="D102" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E102" s="180" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H102" s="182" t="str">
+      <c r="F102" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H102" s="180" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="123" t="s">
-        <v>111</v>
+      <c r="I102" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C103" s="91">
+        <v>152</v>
+      </c>
+      <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1216632.2791677369</v>
-      </c>
-      <c r="D103" s="109">
+        <v>1213090.4679971871</v>
+      </c>
+      <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.9015692534105448</v>
-      </c>
-      <c r="E103" s="122">
+        <v>2.8931223211946051</v>
+      </c>
+      <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.4136108863653467</v>
-      </c>
-      <c r="F103" s="109">
+        <v>3.4036733190524768</v>
+      </c>
+      <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>3.4136108863653467</v>
-      </c>
-      <c r="H103" s="122">
+        <v>3.4036733190524768</v>
+      </c>
+      <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.4136108863653467</v>
-      </c>
-      <c r="I103" s="109">
+        <v>3.4036733190524768</v>
+      </c>
+      <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>4.5399834464523332</v>
+        <v>4.5267668284486122</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11886,58 +11881,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C105" s="126" t="str">
+        <v>182</v>
+      </c>
+      <c r="C105" s="125" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E105" s="183" t="str">
+      <c r="D105" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E105" s="181" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H105" s="183" t="str">
+      <c r="F105" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H105" s="181" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="123" t="s">
-        <v>111</v>
+      <c r="I105" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C106" s="91">
+        <v>183</v>
+      </c>
+      <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>608316.13958386844</v>
-      </c>
-      <c r="D106" s="109">
+        <v>606545.23399859353</v>
+      </c>
+      <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>1.4507846267052724</v>
-      </c>
-      <c r="E106" s="122">
+        <v>1.4465611605973026</v>
+      </c>
+      <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>1.7068054431826734</v>
-      </c>
-      <c r="F106" s="109">
+        <v>1.7018366595262384</v>
+      </c>
+      <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>1.7068054431826734</v>
-      </c>
-      <c r="H106" s="122">
+        <v>1.7018366595262384</v>
+      </c>
+      <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>1.7068054431826734</v>
-      </c>
-      <c r="I106" s="122">
+        <v>1.7018366595262384</v>
+      </c>
+      <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>2.2699917232261666</v>
+        <v>2.2633834142243061</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11946,15 +11941,16 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C108" s="127" t="str">
+        <v>156</v>
+      </c>
+      <c r="C108" s="126" t="str">
         <f>Inputs!C87</f>
         <v>Dividend</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/1398.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1398.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C44DD813-46F8-46AE-9B64-C37D5C298DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACB9E0E1-C73C-450A-A952-2A01B3EFE0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="277">
   <si>
     <t>Company Info:</t>
   </si>
@@ -977,6 +977,14 @@
   </si>
   <si>
     <t>Contin. Liabilities / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pages.stern.nyu.edu/~adamodar/New_Home_Page/datafile/countrytaxrates.html</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1684,7 +1692,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2336,9 +2344,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2347,9 +2352,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2357,6 +2359,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2812,7 +2826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2834,7 +2848,7 @@
         <v>179</v>
       </c>
       <c r="C4" s="185" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2842,7 +2856,7 @@
         <v>180</v>
       </c>
       <c r="C5" s="188" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2866,7 +2880,7 @@
         <v>200</v>
       </c>
       <c r="C8" s="188" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E8" s="262"/>
     </row>
@@ -2875,7 +2889,7 @@
         <v>201</v>
       </c>
       <c r="C9" s="189" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2891,7 +2905,7 @@
         <v>203</v>
       </c>
       <c r="C11" s="189" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2934,13 +2948,16 @@
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
+      <c r="E16" s="109" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="235" t="s">
         <v>208</v>
       </c>
       <c r="C17" s="237" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -2949,7 +2966,7 @@
         <v>222</v>
       </c>
       <c r="C18" s="237" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D18" s="24"/>
     </row>
@@ -2958,7 +2975,7 @@
         <v>223</v>
       </c>
       <c r="C19" s="237" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -2967,7 +2984,7 @@
         <v>212</v>
       </c>
       <c r="C20" s="237" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -2976,7 +2993,7 @@
         <v>215</v>
       </c>
       <c r="C21" s="237" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -2985,7 +3002,7 @@
         <v>214</v>
       </c>
       <c r="C22" s="238" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3387,7 +3404,7 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.9045650228192297E-2</v>
+        <v>9.8583693424371066E-2</v>
       </c>
       <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3836,7 +3853,7 @@
         <v>229</v>
       </c>
       <c r="C87" s="231" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D87" s="264">
         <v>0.02</v>
@@ -3846,11 +3863,11 @@
       <c r="B89" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C89" s="282">
+      <c r="C89" s="284">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="282"/>
+      <c r="D89" s="284"/>
       <c r="E89" s="88" t="s">
         <v>191</v>
       </c>
@@ -3864,10 +3881,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C90" s="283" t="s">
+      <c r="C90" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D90" s="283"/>
+      <c r="D90" s="285"/>
       <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
@@ -4089,8 +4106,11 @@
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4103,8 +4123,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4147,60 +4167,60 @@
       <c r="B3" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="288" t="str">
+      <c r="C3" s="290" t="str">
         <f>Inputs!C4</f>
         <v>1398.HK</v>
       </c>
-      <c r="D3" s="289"/>
+      <c r="D3" s="291"/>
       <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>4.8499999999999996</v>
+        <v>4.87</v>
       </c>
       <c r="H3" s="132" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="290" t="str">
+      <c r="C4" s="292" t="str">
         <f>Inputs!C5</f>
         <v>工商银行</v>
       </c>
-      <c r="D4" s="291"/>
+      <c r="D4" s="293"/>
       <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="294">
+      <c r="G4" s="296">
         <f>Inputs!C10</f>
         <v>356406257089</v>
       </c>
-      <c r="H4" s="294"/>
+      <c r="H4" s="296"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="292">
+      <c r="C5" s="294">
         <f>Inputs!C6</f>
         <v>45605</v>
       </c>
-      <c r="D5" s="293"/>
+      <c r="D5" s="295"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="286">
+      <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>1728570.3468816499</v>
-      </c>
-      <c r="H5" s="286"/>
+        <v>1735698.47202343</v>
+      </c>
+      <c r="H5" s="288"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4223,11 +4243,11 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="287" t="str">
+      <c r="G6" s="289" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="287"/>
+      <c r="H6" s="289"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4247,7 +4267,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.0679666598637898</v>
+        <v>1.067369023958842</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4368,7 +4388,7 @@
         <v>247</v>
       </c>
       <c r="C20" s="271" t="e">
-        <f>C23*C22*(1/C21)</f>
+        <f>C21*C22*C23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="86" t="s">
@@ -4380,20 +4400,20 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="272" t="s">
-        <v>245</v>
-      </c>
-      <c r="C21" s="273" t="e">
-        <f>Data!C53</f>
-        <v>#DIV/0!</v>
+        <v>252</v>
+      </c>
+      <c r="C21" s="283">
+        <f>Data!C13</f>
+        <v>0.83231298028210399</v>
       </c>
       <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="274" t="s">
+      <c r="B22" s="273" t="s">
         <v>259</v>
       </c>
-      <c r="C22" s="275" t="e">
+      <c r="C22" s="274" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
@@ -4402,12 +4422,12 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="276" t="s">
-        <v>252</v>
-      </c>
-      <c r="C23" s="277">
-        <f>Data!C13</f>
-        <v>0.83231298028210399</v>
+      <c r="B23" s="275" t="s">
+        <v>265</v>
+      </c>
+      <c r="C23" s="282" t="e">
+        <f>1/Data!C53</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F23" s="138" t="s">
         <v>174</v>
@@ -4418,10 +4438,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="280" t="s">
         <v>253</v>
       </c>
-      <c r="C24" s="168">
+      <c r="C24" s="281">
         <f>Fin_Analysis!I81</f>
         <v>0.48610500800425166</v>
       </c>
@@ -4430,7 +4450,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>4.0400320693593859</v>
+        <v>4.058963398033212</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4462,7 +4482,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.7469068986034067E-2</v>
+        <v>6.7154387872893059E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4481,10 +4501,10 @@
       <c r="F28" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="G28" s="284" t="s">
+      <c r="G28" s="286" t="s">
         <v>236</v>
       </c>
-      <c r="H28" s="284"/>
+      <c r="H28" s="286"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="86" t="s">
@@ -4492,22 +4512,22 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.8931223211946051</v>
+        <v>2.8872438800649656</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>5.2057818527159032</v>
+        <v>5.1952043939162005</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.4036733190524768</v>
-      </c>
-      <c r="G29" s="285">
+        <v>3.3967575059587833</v>
+      </c>
+      <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.5267668284486122</v>
-      </c>
-      <c r="H29" s="285"/>
+        <v>4.5175690381880012</v>
+      </c>
+      <c r="H29" s="287"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5538,7 +5558,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -7779,7 +7799,7 @@
       <c r="B47" s="101" t="s">
         <v>243</v>
       </c>
-      <c r="C47" s="278" t="s">
+      <c r="C47" s="276" t="s">
         <v>260</v>
       </c>
       <c r="D47" s="36"/>
@@ -9706,7 +9726,7 @@
       <c r="H3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="280">
+      <c r="I3" s="278">
         <f>D3-D4</f>
         <v>0</v>
       </c>
@@ -9777,7 +9797,7 @@
       <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>84.842619844397049</v>
+        <v>84.795141774346334</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -10753,7 +10773,7 @@
       <c r="B48" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="281">
+      <c r="C48" s="279">
         <f>SUM(C30:C42)</f>
         <v>1099900</v>
       </c>
@@ -10770,7 +10790,7 @@
       <c r="H48" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="I48" s="279">
+      <c r="I48" s="277">
         <f>I49-I28</f>
         <v>-43252035</v>
       </c>
@@ -10879,11 +10899,11 @@
         <v>85</v>
       </c>
       <c r="C56" s="86"/>
-      <c r="D56" s="295">
+      <c r="D56" s="297">
         <f>I15+I34</f>
         <v>42280604</v>
       </c>
-      <c r="E56" s="293"/>
+      <c r="E56" s="295"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10894,11 +10914,11 @@
         <v>86</v>
       </c>
       <c r="C57" s="86"/>
-      <c r="D57" s="294">
+      <c r="D57" s="296">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="293"/>
+      <c r="E57" s="295"/>
       <c r="G57" s="86"/>
       <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
@@ -10910,11 +10930,11 @@
         <v>88</v>
       </c>
       <c r="C58" s="86"/>
-      <c r="D58" s="294">
+      <c r="D58" s="296">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="293"/>
+      <c r="E58" s="295"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="86"/>
@@ -11128,19 +11148,19 @@
       <c r="B72" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C72" s="282">
+      <c r="C72" s="284">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="282"/>
-      <c r="E72" s="296" t="s">
+      <c r="D72" s="284"/>
+      <c r="E72" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F72" s="296"/>
-      <c r="H72" s="296" t="s">
+      <c r="F72" s="298"/>
+      <c r="H72" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I72" s="296"/>
+      <c r="I72" s="298"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11150,18 +11170,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="283" t="s">
+      <c r="C73" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D73" s="283"/>
-      <c r="E73" s="297" t="s">
+      <c r="D73" s="285"/>
+      <c r="E73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="F73" s="283"/>
-      <c r="H73" s="297" t="s">
+      <c r="F73" s="285"/>
+      <c r="H73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="I73" s="283"/>
+      <c r="I73" s="285"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11528,17 +11548,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.24752278764919969</v>
+        <v>0.24636832164698852</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.24752278764919969</v>
+        <v>0.24636832164698852</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.24752278764919969</v>
+        <v>0.24636832164698852</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11579,17 +11599,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.9045650228192297E-2</v>
+        <v>9.8583693424371066E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7469068986034067E-2</v>
+        <v>6.7154387872893059E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7469068986034067E-2</v>
+        <v>6.7154387872893059E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11620,15 +11640,15 @@
       <c r="D92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E92" s="296" t="s">
+      <c r="E92" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="296"/>
+      <c r="F92" s="298"/>
       <c r="G92" s="86"/>
-      <c r="H92" s="296" t="s">
+      <c r="H92" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I92" s="296"/>
+      <c r="I92" s="298"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11649,14 +11669,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>54.753701012306976</v>
+        <v>54.470323505834656</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>54.753701012306976</v>
+        <v>54.470323505834656</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11677,14 +11697,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.8460027941781778</v>
+        <v>6.8320926238047708</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.8460027941781778</v>
+        <v>6.8320926238047708</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11727,21 +11747,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9702186.0467369258</v>
+        <v>9651972.4312475026</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>27.222266314797452</v>
+        <v>27.081377611272575</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>27.222266314797452</v>
+        <v>27.081377611272575</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>36.20466495983343</v>
+        <v>36.017287896926256</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11769,17 +11789,17 @@
       </c>
       <c r="C99" s="107">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>-34344193.76320643</v>
+        <v>-34324974.69571045</v>
       </c>
       <c r="D99" s="209"/>
       <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>-110.81686149473154</v>
+        <v>-110.75484819619716</v>
       </c>
       <c r="F99" s="209"/>
       <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-96.362488256288302</v>
+        <v>-96.308563648867107</v>
       </c>
       <c r="I99" s="211"/>
       <c r="K99" s="24"/>
@@ -11790,7 +11810,7 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>-24642007.716469504</v>
+        <v>-24673002.264462948</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -11851,27 +11871,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1213090.4679971871</v>
+        <v>1210625.6289377366</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.8931223211946051</v>
+        <v>2.8872438800649656</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.4036733190524768</v>
+        <v>3.3967575059587833</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>3.4036733190524768</v>
+        <v>3.3967575059587833</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.4036733190524768</v>
+        <v>3.3967575059587833</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>4.5267668284486122</v>
+        <v>4.5175690381880012</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11912,27 +11932,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>606545.23399859353</v>
+        <v>605312.81446886831</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>1.4465611605973026</v>
+        <v>1.4436219400324828</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>1.7018366595262384</v>
+        <v>1.6983787529793917</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>1.7018366595262384</v>
+        <v>1.6983787529793917</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>1.7018366595262384</v>
+        <v>1.6983787529793917</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>2.2633834142243061</v>
+        <v>2.2587845190940006</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1398.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1398.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACB9E0E1-C73C-450A-A952-2A01B3EFE0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BAB8155-C395-4B9B-8812-F4B944FCAB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.8583693424371066E-2</v>
+        <v>9.9036979284496687E-2</v>
       </c>
       <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4177,7 +4177,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>4.87</v>
+        <v>4.84</v>
       </c>
       <c r="H3" s="132" t="s">
         <v>276</v>
@@ -4218,7 +4218,7 @@
       </c>
       <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>1735698.47202343</v>
+        <v>1725006.28431076</v>
       </c>
       <c r="H5" s="288"/>
       <c r="I5" s="38"/>
@@ -4267,7 +4267,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.067369023958842</v>
+        <v>1.0656713644663494</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4450,7 +4450,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>4.058963398033212</v>
+        <v>4.040385784616606</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4482,7 +4482,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.7154387872893059E-2</v>
+        <v>6.7463162411671371E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4512,20 +4512,20 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.8872438800649656</v>
+        <v>2.8868244956388747</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>5.1952043939162005</v>
+        <v>5.1944497684312489</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.3967575059587833</v>
+        <v>3.3962641125163233</v>
       </c>
       <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.5175690381880012</v>
+        <v>4.51691284211413</v>
       </c>
       <c r="H29" s="287"/>
     </row>
@@ -9677,7 +9677,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9797,7 +9797,7 @@
       <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>84.795141774346334</v>
+        <v>84.660274381608474</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -11548,17 +11548,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.24636832164698852</v>
+        <v>0.24750111828613178</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.24636832164698852</v>
+        <v>0.24750111828613178</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.24636832164698852</v>
+        <v>0.24750111828613178</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11599,17 +11599,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.8583693424371066E-2</v>
+        <v>9.9036979284496687E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7154387872893059E-2</v>
+        <v>6.7463162411671371E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7154387872893059E-2</v>
+        <v>6.7463162411671371E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11669,14 +11669,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>54.470323505834656</v>
+        <v>54.631278308080532</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>54.470323505834656</v>
+        <v>54.631278308080532</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11697,14 +11697,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.8320926238047708</v>
+        <v>6.8311002333580131</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.8320926238047708</v>
+        <v>6.8311002333580131</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11747,21 +11747,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9651972.4312475026</v>
+        <v>9680493.1231392566</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>27.081377611272575</v>
+        <v>27.16140059438376</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>27.081377611272575</v>
+        <v>27.16140059438376</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>36.017287896926256</v>
+        <v>36.123715674067356</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11788,18 +11788,18 @@
         <v>139</v>
       </c>
       <c r="C99" s="107">
-        <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>-34324974.69571045</v>
+        <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
+        <v>-34270380.532104678</v>
       </c>
       <c r="D99" s="209"/>
       <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>-110.75484819619716</v>
+        <v>-110.57869167004797</v>
       </c>
       <c r="F99" s="209"/>
       <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-96.308563648867107</v>
+        <v>-96.155384060911288</v>
       </c>
       <c r="I99" s="211"/>
       <c r="K99" s="24"/>
@@ -11810,7 +11810,7 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>-24673002.264462948</v>
+        <v>-24589887.408965424</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -11871,27 +11871,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1210625.6289377366</v>
+        <v>1210449.7804276373</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.8872438800649656</v>
+        <v>2.8868244956388747</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.3967575059587833</v>
+        <v>3.3962641125163233</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>3.3967575059587833</v>
+        <v>3.3962641125163233</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.3967575059587833</v>
+        <v>3.3962641125163233</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>4.5175690381880012</v>
+        <v>4.51691284211413</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11932,27 +11932,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>605312.81446886831</v>
+        <v>605224.89021381864</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>1.4436219400324828</v>
+        <v>1.4434122478194373</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>1.6983787529793917</v>
+        <v>1.6981320562581617</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>1.6983787529793917</v>
+        <v>1.6981320562581617</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>1.6983787529793917</v>
+        <v>1.6981320562581617</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>2.2587845190940006</v>
+        <v>2.258456421057065</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1398.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1398.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C576EC4-1123-4CFB-9704-D0D6000D248A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{60139518-E810-4F13-AA0C-7EB4B12434F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3617,7 +3617,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.2382929659564836E-2</v>
+        <v>9.2377139767164426E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4480,7 +4480,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0639030138651531</v>
+        <v>1.0638363361358643</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4611,7 +4611,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>4.3314019670843003</v>
+        <v>4.3316734449780254</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4700,7 +4700,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.2930479430170438E-2</v>
+        <v>6.2926535403866571E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4730,20 +4730,20 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.3025157990807785</v>
+        <v>2.8211336931734459</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>5.3018565283265318</v>
+        <v>5.0762480647356814</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.8853127048009162</v>
+        <v>3.3189808154981715</v>
       </c>
       <c r="G29" s="312">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.610310024631767</v>
+        <v>4.4141287519440713</v>
       </c>
       <c r="H29" s="312"/>
     </row>
@@ -10002,7 +10002,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="177">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>84.51979106555811</v>
+        <v>84.514493977689412</v>
       </c>
       <c r="E7" s="173" t="str">
         <f>Dashboard!H3</f>
@@ -11194,7 +11194,7 @@
       </c>
       <c r="I61" s="209">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-95.995826023713278</v>
+        <v>-95.98980970115656</v>
       </c>
       <c r="K61" s="178"/>
     </row>
@@ -11248,7 +11248,7 @@
       </c>
       <c r="I63" s="213">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>-95.995826023713278</v>
+        <v>-95.98980970115656</v>
       </c>
       <c r="K63" s="178"/>
     </row>
@@ -11269,7 +11269,7 @@
       </c>
       <c r="I64" s="213">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>-95.995826023713278</v>
+        <v>-95.98980970115656</v>
       </c>
       <c r="K64" s="178"/>
     </row>
@@ -11780,17 +11780,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.23087213045552402</v>
+        <v>0.2308576610638462</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.23087213045552402</v>
+        <v>0.2308576610638462</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.23087213045552402</v>
+        <v>0.2308576610638462</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11831,17 +11831,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.2382929659564836E-2</v>
+        <v>9.2377139767164426E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.2930479430170438E-2</v>
+        <v>6.2926535403866571E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.2930479430170438E-2</v>
+        <v>6.2926535403866571E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11894,21 +11894,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>33.663107430114934</v>
+        <v>50.994969224059652</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>33.663107430114934</v>
+        <v>50.994969224059652</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11929,14 +11929,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.9090749599140917</v>
+        <v>6.6756559184268562</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.9090749599140917</v>
+        <v>6.6756559184268562</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11979,21 +11979,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>7888710.1971905464</v>
+        <v>9036150.4284110926</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>22.134039569402447</v>
+        <v>25.353512315454743</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>22.134039569402447</v>
+        <v>25.353512315454743</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>26.264239783407877</v>
+        <v>33.719287304051171</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12021,17 +12021,17 @@
       </c>
       <c r="C99" s="253">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>-34213513.049278468</v>
+        <v>-34211368.794274591</v>
       </c>
       <c r="D99" s="254"/>
       <c r="E99" s="255">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>-95.995826023713278</v>
+        <v>-95.98980970115656</v>
       </c>
       <c r="F99" s="254"/>
       <c r="H99" s="255">
         <f>I64</f>
-        <v>-95.995826023713278</v>
+        <v>-95.98980970115656</v>
       </c>
       <c r="I99" s="256"/>
       <c r="K99" s="75"/>
@@ -12098,23 +12098,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.3025157990807785</v>
+        <v>2.8211336931734459</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.8853127048009162</v>
+        <v>3.3189808154981715</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>3.8853127048009162</v>
+        <v>3.3189808154981715</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.8853127048009162</v>
+        <v>3.3189808154981715</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>4.610310024631767</v>
+        <v>4.4141287519440713</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12153,23 +12153,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>1.6512578995403893</v>
+        <v>1.4105668465867229</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>1.9426563524004581</v>
+        <v>1.6594904077490857</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>1.9426563524004581</v>
+        <v>1.6594904077490857</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>1.9426563524004581</v>
+        <v>1.6594904077490857</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>2.3051550123158835</v>
+        <v>2.2070643759720356</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/1398.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1398.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60139518-E810-4F13-AA0C-7EB4B12434F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B90C34A-DF77-4F8F-8FED-EA4825178151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2588,6 +2588,9 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2604,9 +2607,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2820,11 +2820,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FF2F75B5"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
   </colors>
@@ -3039,7 +3039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3064,6 +3064,7 @@
       <c r="C4" s="66" t="s">
         <v>279</v>
       </c>
+      <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="46" t="s">
@@ -4295,7 +4296,7 @@
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
       <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
@@ -4318,6 +4319,9 @@
     <dataValidation type="list" allowBlank="1" sqref="C22" xr:uid="{AC11383D-4B80-4250-901A-577B0CB0078C}">
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{EC47C593-A7DE-4ABB-B6D2-C8BF531E4639}">
+      <formula1>"HOLD"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
@@ -4336,8 +4340,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4373,18 +4377,21 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="311" t="str">
+        <f>IF(Inputs!D4="","",Inputs!D4)</f>
+        <v/>
+      </c>
+      <c r="H2" s="311"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="315" t="str">
+      <c r="C3" s="316" t="str">
         <f>Inputs!C4</f>
         <v>1398.HK</v>
       </c>
-      <c r="D3" s="316"/>
+      <c r="D3" s="317"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
@@ -4400,7 +4407,7 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="317" t="str">
+      <c r="C4" s="311" t="str">
         <f>Inputs!C5</f>
         <v>工商银行</v>
       </c>
@@ -4429,11 +4436,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="313">
+      <c r="G5" s="314">
         <f>G3*G4/1000000</f>
         <v>1846184.41172102</v>
       </c>
-      <c r="H5" s="313"/>
+      <c r="H5" s="314"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4456,11 +4463,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="314" t="str">
+      <c r="G6" s="315" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="314"/>
+      <c r="H6" s="315"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4528,10 +4535,10 @@
         <v>220</v>
       </c>
       <c r="C12" s="120">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="121">
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -4578,7 +4585,7 @@
         <v>221</v>
       </c>
       <c r="C17" s="119">
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="122"/>
     </row>
@@ -4719,10 +4726,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="311" t="s">
+      <c r="G28" s="312" t="s">
         <v>224</v>
       </c>
-      <c r="H28" s="311"/>
+      <c r="H28" s="312"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4730,22 +4737,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.8211336931734459</v>
+        <v>3.0892579697973677</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>5.0762480647356814</v>
+        <v>5.7081902060444838</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.3189808154981715</v>
-      </c>
-      <c r="G29" s="312">
+        <v>3.6344211409380796</v>
+      </c>
+      <c r="G29" s="313">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.4141287519440713</v>
-      </c>
-      <c r="H29" s="312"/>
+        <v>4.9636436574299863</v>
+      </c>
+      <c r="H29" s="313"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5727,15 +5734,16 @@
     <row r="922" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -5763,7 +5771,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -11890,7 +11898,7 @@
       </c>
       <c r="C93" s="242">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
@@ -11901,14 +11909,14 @@
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>50.994969224059652</v>
+        <v>55.841598530478535</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>50.994969224059652</v>
+        <v>55.841598530478535</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11929,14 +11937,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.6756559184268562</v>
+        <v>7.3101190842277548</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.6756559184268562</v>
+        <v>7.3101190842277548</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11979,21 +11987,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9036150.4284110926</v>
+        <v>9894958.1137559451</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>25.353512315454743</v>
+        <v>27.7631436512211</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>25.353512315454743</v>
+        <v>27.7631436512211</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>33.719287304051171</v>
+        <v>37.917001511589284</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12098,23 +12106,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.8211336931734459</v>
+        <v>3.0892579697973677</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.3189808154981715</v>
+        <v>3.6344211409380796</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>3.3189808154981715</v>
+        <v>3.6344211409380796</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.3189808154981715</v>
+        <v>3.6344211409380796</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>4.4141287519440713</v>
+        <v>4.9636436574299863</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12153,23 +12161,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>1.4105668465867229</v>
+        <v>1.5446289848986838</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>1.6594904077490857</v>
+        <v>1.8172105704690398</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>1.6594904077490857</v>
+        <v>1.8172105704690398</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>1.6594904077490857</v>
+        <v>1.8172105704690398</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>2.2070643759720356</v>
+        <v>2.4818218287149931</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/1398.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1398.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B90C34A-DF77-4F8F-8FED-EA4825178151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96105F2A-9B0C-4A18-9045-7EA3415AD03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2588,31 +2588,31 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3618,7 +3618,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.2377139767164426E-2</v>
+        <v>9.273519069649451E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4377,27 +4377,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="311" t="str">
+      <c r="G2" s="313" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="311"/>
+      <c r="H2" s="313"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="311" t="str">
         <f>Inputs!C4</f>
         <v>1398.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="312"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>5.18</v>
+        <v>5.16</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>258</v>
@@ -4407,40 +4407,40 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="311" t="str">
+      <c r="C4" s="313" t="str">
         <f>Inputs!C5</f>
         <v>工商银行</v>
       </c>
-      <c r="D4" s="318"/>
+      <c r="D4" s="314"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="321">
+      <c r="G4" s="317">
         <f>Inputs!C10</f>
         <v>356406257089</v>
       </c>
-      <c r="H4" s="321"/>
+      <c r="H4" s="317"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="319">
+      <c r="C5" s="315">
         <f>Inputs!C6</f>
         <v>45605</v>
       </c>
-      <c r="D5" s="320"/>
+      <c r="D5" s="316"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="320">
         <f>G3*G4/1000000</f>
-        <v>1846184.41172102</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>1839056.2865792399</v>
+      </c>
+      <c r="H5" s="320"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4463,11 +4463,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="321" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="321"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4618,7 +4618,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4675,7 +4675,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>4.3316734449780254</v>
+        <v>4.3149488370823574</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4707,7 +4707,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.2926535403866571E-2</v>
+        <v>6.3170436703881547E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4726,10 +4726,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="318" t="s">
         <v>224</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="318"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4737,22 +4737,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.0892579697973677</v>
+        <v>3.3453944930934734</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>5.7081902060444838</v>
+        <v>5.8078919592719167</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.6344211409380796</v>
-      </c>
-      <c r="G29" s="313">
+        <v>3.9357582271687925</v>
+      </c>
+      <c r="G29" s="319">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.9636436574299863</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>5.0503408341494929</v>
+      </c>
+      <c r="H29" s="319"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5735,15 +5735,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11116,7 +11116,7 @@
         <f>I15+I34</f>
         <v>42280604</v>
       </c>
-      <c r="E56" s="320"/>
+      <c r="E56" s="316"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="176"/>
@@ -11127,11 +11127,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="321">
+      <c r="D57" s="317">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="320"/>
+      <c r="E57" s="316"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="178" t="s">
@@ -11143,11 +11143,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="321">
+      <c r="D58" s="317">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="320"/>
+      <c r="E58" s="316"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11788,17 +11788,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.2308576610638462</v>
+        <v>0.23175245819975257</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.2308576610638462</v>
+        <v>0.23175245819975257</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.2308576610638462</v>
+        <v>0.23175245819975257</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11839,17 +11839,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.2377139767164426E-2</v>
+        <v>9.273519069649451E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.2926535403866571E-2</v>
+        <v>6.3170436703881547E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.2926535403866571E-2</v>
+        <v>6.3170436703881547E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11902,21 +11902,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>55.841598530478535</v>
+        <v>45.500107951418848</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>55.841598530478535</v>
+        <v>45.500107951418848</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11937,14 +11937,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>7.3101190842277548</v>
+        <v>6.883665737807136</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>7.3101190842277548</v>
+        <v>6.883665737807136</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11987,21 +11987,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9894958.1137559451</v>
+        <v>9271849.7558888905</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>27.7631436512211</v>
+        <v>26.014834396057111</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>27.7631436512211</v>
+        <v>26.014834396057111</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>37.917001511589284</v>
+        <v>33.382076047530887</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12106,23 +12106,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.0892579697973677</v>
+        <v>3.3453944930934734</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.6344211409380796</v>
+        <v>3.9357582271687925</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>3.6344211409380796</v>
+        <v>3.9357582271687925</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.6344211409380796</v>
+        <v>3.9357582271687925</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>4.9636436574299863</v>
+        <v>5.0503408341494929</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12161,23 +12161,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>1.5446289848986838</v>
+        <v>1.6726972465467367</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>1.8172105704690398</v>
+        <v>1.9678791135843963</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>1.8172105704690398</v>
+        <v>1.9678791135843963</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>1.8172105704690398</v>
+        <v>1.9678791135843963</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>2.4818218287149931</v>
+        <v>2.5251704170747464</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/1398.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1398.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{491636E4-ED7C-4CEA-AB3C-2497DABA61B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4742201-2FEA-4AB1-B207-5D38C6CB569D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2601,6 +2601,9 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2617,9 +2620,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.2732287993418747E-2</v>
+        <v>9.891953892615872E-2</v>
       </c>
       <c r="D45" s="82" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4405,27 +4405,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="318" t="str">
+      <c r="G2" s="312" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="318"/>
+      <c r="H2" s="312"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="317" t="str">
         <f>Inputs!C4</f>
         <v>1398.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="318"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>5.16</v>
+        <v>4.84</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>255</v>
@@ -4435,7 +4435,7 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="318" t="str">
+      <c r="C4" s="312" t="str">
         <f>Inputs!C5</f>
         <v>工商银行</v>
       </c>
@@ -4464,11 +4464,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="315">
         <f>G3*G4/1000000</f>
-        <v>1839056.2865792399</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>1725006.28431076</v>
+      </c>
+      <c r="H5" s="315"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4491,11 +4491,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="316" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="316"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4515,7 +4515,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0638030370076497</v>
+        <v>1.0644076665242512</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4703,7 +4703,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>4.3150839034711224</v>
+        <v>4.0451826564936901</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4735,7 +4735,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.3168459406810831E-2</v>
+        <v>6.7383163021287315E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4754,10 +4754,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="313" t="s">
         <v>222</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="313"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4765,22 +4765,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.3731421000091957</v>
+        <v>3.4288971651935558</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>5.8669162829018164</v>
+        <v>5.96389123684268</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.9684024705990537</v>
-      </c>
-      <c r="G29" s="313">
+        <v>4.0339966649335954</v>
+      </c>
+      <c r="G29" s="314">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.1016663329581018</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>5.1859923798632002</v>
+      </c>
+      <c r="H29" s="314"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5763,15 +5763,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -10140,7 +10140,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="171">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>84.511848590541632</v>
+        <v>84.559882255029123</v>
       </c>
       <c r="E7" s="167" t="str">
         <f>Dashboard!H3</f>
@@ -11332,7 +11332,7 @@
       </c>
       <c r="I61" s="203">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-95.986805125290928</v>
+        <v>-96.041360765352167</v>
       </c>
       <c r="K61" s="172"/>
     </row>
@@ -11386,7 +11386,7 @@
       </c>
       <c r="I63" s="207">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>-95.986805125290928</v>
+        <v>-96.041360765352167</v>
       </c>
       <c r="K63" s="172"/>
     </row>
@@ -11407,7 +11407,7 @@
       </c>
       <c r="I64" s="207">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>-95.986805125290928</v>
+        <v>-96.041360765352167</v>
       </c>
       <c r="K64" s="172"/>
     </row>
@@ -11918,17 +11918,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.231745204118878</v>
+        <v>0.24720762569144075</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.231745204118878</v>
+        <v>0.24720762569144075</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.231745204118878</v>
+        <v>0.24720762569144075</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -11969,17 +11969,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.2732287993418747E-2</v>
+        <v>9.891953892615872E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3168459406810831E-2</v>
+        <v>6.7383163021287315E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3168459406810831E-2</v>
+        <v>6.7383163021287315E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12039,14 +12039,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>45.876758718894905</v>
+        <v>48.251520673990974</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>45.876758718894905</v>
+        <v>48.251520673990974</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12067,14 +12067,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.9407607235931836</v>
+        <v>7.0554853794480117</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.9407607235931836</v>
+        <v>7.0554853794480117</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12117,21 +12117,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9348602.306239035</v>
+        <v>9832522.8296180367</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>26.230185694816655</v>
+        <v>27.587963550153688</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>26.230185694816655</v>
+        <v>27.587963550153688</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>33.720787207927728</v>
+        <v>35.466308138208603</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12159,17 +12159,17 @@
       </c>
       <c r="C99" s="247">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>-34210297.944636181</v>
+        <v>-34229741.916113503</v>
       </c>
       <c r="D99" s="248"/>
       <c r="E99" s="249">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>-95.986805125290928</v>
+        <v>-96.041360765352167</v>
       </c>
       <c r="F99" s="248"/>
       <c r="H99" s="249">
         <f>I64</f>
-        <v>-95.986805125290928</v>
+        <v>-96.041360765352167</v>
       </c>
       <c r="I99" s="250"/>
       <c r="K99" s="75"/>
@@ -12236,23 +12236,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.3731421000091957</v>
+        <v>3.4288971651935558</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.9684024705990537</v>
+        <v>4.0339966649335954</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>3.9684024705990537</v>
+        <v>4.0339966649335954</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.9684024705990537</v>
+        <v>4.0339966649335954</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>5.1016663329581018</v>
+        <v>5.1859923798632002</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12291,23 +12291,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>1.6865710500045978</v>
+        <v>1.7144485825967779</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>1.9842012352995269</v>
+        <v>2.0169983324667977</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>1.9842012352995269</v>
+        <v>2.0169983324667977</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>1.9842012352995269</v>
+        <v>2.0169983324667977</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>2.5508331664790509</v>
+        <v>2.5929961899316001</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/1398.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1398.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4742201-2FEA-4AB1-B207-5D38C6CB569D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0287E134-FB9D-4A0F-B0C8-78EFC7F70382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2601,31 +2601,31 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.891953892615872E-2</v>
+        <v>9.8848501833000188E-2</v>
       </c>
       <c r="D45" s="82" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4405,27 +4405,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="312" t="str">
+      <c r="G2" s="314" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="312"/>
+      <c r="H2" s="314"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="317" t="str">
+      <c r="C3" s="312" t="str">
         <f>Inputs!C4</f>
         <v>1398.HK</v>
       </c>
-      <c r="D3" s="318"/>
+      <c r="D3" s="313"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>4.84</v>
+        <v>4.83</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>255</v>
@@ -4435,40 +4435,40 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="312" t="str">
+      <c r="C4" s="314" t="str">
         <f>Inputs!C5</f>
         <v>工商银行</v>
       </c>
-      <c r="D4" s="319"/>
+      <c r="D4" s="315"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="322">
+      <c r="G4" s="318">
         <f>Inputs!C10</f>
         <v>356406257089</v>
       </c>
-      <c r="H4" s="322"/>
+      <c r="H4" s="318"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="320">
+      <c r="C5" s="316">
         <f>Inputs!C6</f>
         <v>45605</v>
       </c>
-      <c r="D5" s="321"/>
+      <c r="D5" s="317"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="315">
+      <c r="G5" s="321">
         <f>G3*G4/1000000</f>
-        <v>1725006.28431076</v>
-      </c>
-      <c r="H5" s="315"/>
+        <v>1721442.22173987</v>
+      </c>
+      <c r="H5" s="321"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4491,11 +4491,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="316" t="str">
+      <c r="G6" s="322" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="316"/>
+      <c r="H6" s="322"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4515,7 +4515,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0644076665242512</v>
+        <v>1.061445673306783</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4703,7 +4703,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>4.0451826564936901</v>
+        <v>4.0480897113491903</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4735,7 +4735,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.7383163021287315E-2</v>
+        <v>6.7334773147246021E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4754,10 +4754,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="313" t="s">
+      <c r="G28" s="319" t="s">
         <v>222</v>
       </c>
-      <c r="H28" s="313"/>
+      <c r="H28" s="319"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4765,22 +4765,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.4288971651935558</v>
+        <v>3.4187353359425008</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>5.96389123684268</v>
+        <v>5.9462167364126755</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.0339966649335954</v>
-      </c>
-      <c r="G29" s="314">
+        <v>4.0220415716970601</v>
+      </c>
+      <c r="G29" s="320">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.1859923798632002</v>
-      </c>
-      <c r="H29" s="314"/>
+        <v>5.1706232490545005</v>
+      </c>
+      <c r="H29" s="320"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5763,15 +5763,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -10140,7 +10140,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="171">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>84.559882255029123</v>
+        <v>84.324572227126765</v>
       </c>
       <c r="E7" s="167" t="str">
         <f>Dashboard!H3</f>
@@ -11246,7 +11246,7 @@
         <f>I15+I34</f>
         <v>42280604</v>
       </c>
-      <c r="E56" s="321"/>
+      <c r="E56" s="317"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="170"/>
@@ -11257,11 +11257,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="322">
+      <c r="D57" s="318">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="321"/>
+      <c r="E57" s="317"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="172" t="s">
@@ -11273,11 +11273,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="322">
+      <c r="D58" s="318">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="321"/>
+      <c r="E58" s="317"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11332,7 +11332,7 @@
       </c>
       <c r="I61" s="203">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-96.041360765352167</v>
+        <v>-95.774100515233584</v>
       </c>
       <c r="K61" s="172"/>
     </row>
@@ -11386,7 +11386,7 @@
       </c>
       <c r="I63" s="207">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>-96.041360765352167</v>
+        <v>-95.774100515233584</v>
       </c>
       <c r="K63" s="172"/>
     </row>
@@ -11407,7 +11407,7 @@
       </c>
       <c r="I64" s="207">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>-96.041360765352167</v>
+        <v>-95.774100515233584</v>
       </c>
       <c r="K64" s="172"/>
     </row>
@@ -11918,17 +11918,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.24720762569144075</v>
+        <v>0.24703009846753357</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.24720762569144075</v>
+        <v>0.24703009846753357</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.24720762569144075</v>
+        <v>0.24703009846753357</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -11969,17 +11969,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.891953892615872E-2</v>
+        <v>9.8848501833000188E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7383163021287315E-2</v>
+        <v>6.7334773147246021E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7383163021287315E-2</v>
+        <v>6.7334773147246021E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12039,14 +12039,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>48.251520673990974</v>
+        <v>48.089858035437061</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>48.251520673990974</v>
+        <v>48.089858035437061</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12067,14 +12067,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>7.0554853794480117</v>
+        <v>7.0345758466579795</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>7.0554853794480117</v>
+        <v>7.0345758466579795</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12117,21 +12117,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9832522.8296180367</v>
+        <v>9799579.7935836427</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>27.587963550153688</v>
+        <v>27.495532411869355</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>27.587963550153688</v>
+        <v>27.495532411869355</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>35.466308138208603</v>
+        <v>35.347481272789636</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12159,17 +12159,17 @@
       </c>
       <c r="C99" s="247">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>-34229741.916113503</v>
+        <v>-34134488.690700069</v>
       </c>
       <c r="D99" s="248"/>
       <c r="E99" s="249">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>-96.041360765352167</v>
+        <v>-95.774100515233584</v>
       </c>
       <c r="F99" s="248"/>
       <c r="H99" s="249">
         <f>I64</f>
-        <v>-96.041360765352167</v>
+        <v>-95.774100515233584</v>
       </c>
       <c r="I99" s="250"/>
       <c r="K99" s="75"/>
@@ -12236,23 +12236,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.4288971651935558</v>
+        <v>3.4187353359425008</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.0339966649335954</v>
+        <v>4.0220415716970601</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>4.0339966649335954</v>
+        <v>4.0220415716970601</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.0339966649335954</v>
+        <v>4.0220415716970601</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>5.1859923798632002</v>
+        <v>5.1706232490545005</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12291,23 +12291,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>1.7144485825967779</v>
+        <v>1.7093676679712504</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>2.0169983324667977</v>
+        <v>2.0110207858485301</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>2.0169983324667977</v>
+        <v>2.0110207858485301</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>2.0169983324667977</v>
+        <v>2.0110207858485301</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>2.5929961899316001</v>
+        <v>2.5853116245272503</v>
       </c>
       <c r="K106" s="75"/>
     </row>
